--- a/meetings_dumped/dombrovskis_cabinet.xlsx
+++ b/meetings_dumped/dombrovskis_cabinet.xlsx
@@ -10014,12 +10014,12 @@
       </c>
       <c r="D4" s="3141" t="inlineStr">
         <is>
-          <t>Suzano S.A.</t>
+          <t>UniCredit</t>
         </is>
       </c>
       <c r="E4" s="3141" t="inlineStr">
         <is>
-          <t xml:space="preserve"> State-of-play of the Mercosur agreement</t>
+          <t xml:space="preserve"> Current regulatory topics related to financial services</t>
         </is>
       </c>
     </row>
@@ -10041,12 +10041,12 @@
       </c>
       <c r="D5" s="3141" t="inlineStr">
         <is>
-          <t>UniCredit</t>
+          <t>Suzano S.A.</t>
         </is>
       </c>
       <c r="E5" s="3141" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Current regulatory topics related to financial services</t>
+          <t xml:space="preserve"> State-of-play of the Mercosur agreement</t>
         </is>
       </c>
     </row>
@@ -10215,7 +10215,7 @@
     <row r="12">
       <c r="A12" s="3141" t="inlineStr">
         <is>
-          <t>Cristina Rueda Catry</t>
+          <t>Andrea Beltramello</t>
         </is>
       </c>
       <c r="B12" s="3138" t="inlineStr">
@@ -10230,19 +10230,19 @@
       </c>
       <c r="D12" s="3141" t="inlineStr">
         <is>
-          <t>Ericsson</t>
+          <t>Vitesco Technologies Group AG</t>
         </is>
       </c>
       <c r="E12" s="3141" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Licensing of standard essential patents</t>
+          <t xml:space="preserve"> Sustainable finance</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="3141" t="inlineStr">
         <is>
-          <t>Andrea Beltramello</t>
+          <t>Cristina Rueda Catry</t>
         </is>
       </c>
       <c r="B13" s="3138" t="inlineStr">
@@ -10257,12 +10257,12 @@
       </c>
       <c r="D13" s="3141" t="inlineStr">
         <is>
-          <t>Vitesco Technologies Group AG</t>
+          <t>Ericsson</t>
         </is>
       </c>
       <c r="E13" s="3141" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Sustainable finance</t>
+          <t xml:space="preserve"> Licensing of standard essential patents</t>
         </is>
       </c>
     </row>
@@ -10446,7 +10446,7 @@
       </c>
       <c r="D20" s="3141" t="inlineStr">
         <is>
-          <t>Association Française de la Gestion financière</t>
+          <t>European Forum of Securities Associations</t>
         </is>
       </c>
       <c r="E20" s="3141" t="inlineStr">
@@ -10473,7 +10473,7 @@
       </c>
       <c r="D21" s="3141" t="inlineStr">
         <is>
-          <t>European Forum of Securities Associations</t>
+          <t>Association Française de la Gestion financière</t>
         </is>
       </c>
       <c r="E21" s="3141" t="inlineStr">
@@ -10647,7 +10647,7 @@
     <row r="28">
       <c r="A28" s="3141" t="inlineStr">
         <is>
-          <t>Andrea Beltramello</t>
+          <t>Pim Lescrauwaet, Mirzha De Manuel</t>
         </is>
       </c>
       <c r="B28" s="3138" t="inlineStr">
@@ -10657,17 +10657,17 @@
       </c>
       <c r="C28" s="3141" t="inlineStr">
         <is>
-          <t>video conference</t>
+          <t>Brussels</t>
         </is>
       </c>
       <c r="D28" s="3141" t="inlineStr">
         <is>
-          <t>EURALIA, Fédération nationale des syndicats d'agents généraux d'assurance</t>
+          <t>Banco Santander, S.A.</t>
         </is>
       </c>
       <c r="E28" s="3141" t="inlineStr">
         <is>
-          <t>retail investment strategy</t>
+          <t>Macroeconomic forecasts</t>
         </is>
       </c>
     </row>
@@ -10701,7 +10701,7 @@
     <row r="30">
       <c r="A30" s="3141" t="inlineStr">
         <is>
-          <t>Pim Lescrauwaet, Mirzha De Manuel</t>
+          <t>Andrea Beltramello</t>
         </is>
       </c>
       <c r="B30" s="3138" t="inlineStr">
@@ -10711,24 +10711,24 @@
       </c>
       <c r="C30" s="3141" t="inlineStr">
         <is>
-          <t>Brussels</t>
+          <t>video conference</t>
         </is>
       </c>
       <c r="D30" s="3141" t="inlineStr">
         <is>
-          <t>Banco Santander, S.A.</t>
+          <t>EURALIA, Fédération nationale des syndicats d'agents généraux d'assurance</t>
         </is>
       </c>
       <c r="E30" s="3141" t="inlineStr">
         <is>
-          <t>Macroeconomic forecasts</t>
+          <t>retail investment strategy</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="3141" t="inlineStr">
         <is>
-          <t>Pim Lescrauwaet, Gints Freimanis</t>
+          <t>Cristina Rueda Catry</t>
         </is>
       </c>
       <c r="B31" s="3138" t="inlineStr">
@@ -10738,24 +10738,24 @@
       </c>
       <c r="C31" s="3141" t="inlineStr">
         <is>
-          <t>Virtual</t>
+          <t>Brussels</t>
         </is>
       </c>
       <c r="D31" s="3141" t="inlineStr">
         <is>
-          <t>Conseil des Communes et Régions d'Europe</t>
+          <t>Associazione Industriali delle Carni e dei Salumi</t>
         </is>
       </c>
       <c r="E31" s="3141" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Economic Governance Review</t>
+          <t xml:space="preserve"> Trade agenda, market access for meat products, sustainability</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="3141" t="inlineStr">
         <is>
-          <t>Andrea Beltramello</t>
+          <t>Cristina Rueda Catry, Kevin Keary</t>
         </is>
       </c>
       <c r="B32" s="3138" t="inlineStr">
@@ -10770,19 +10770,19 @@
       </c>
       <c r="D32" s="3141" t="inlineStr">
         <is>
-          <t>Leonardo S.p.A.</t>
+          <t>EUROPEAN SERVICES FORUM</t>
         </is>
       </c>
       <c r="E32" s="3141" t="inlineStr">
         <is>
-          <t xml:space="preserve"> taxonomy of environmentally sustainable activities</t>
+          <t xml:space="preserve"> Bilateral trade agenda, WTO e-commerce </t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="3141" t="inlineStr">
         <is>
-          <t>Kevin Keary, Cristina Rueda Catry</t>
+          <t>Gints Freimanis, Pim Lescrauwaet</t>
         </is>
       </c>
       <c r="B33" s="3138" t="inlineStr">
@@ -10792,17 +10792,17 @@
       </c>
       <c r="C33" s="3141" t="inlineStr">
         <is>
-          <t>Brussels</t>
+          <t>Virtual</t>
         </is>
       </c>
       <c r="D33" s="3141" t="inlineStr">
         <is>
-          <t>EUROPEAN SERVICES FORUM</t>
+          <t>Conseil des Communes et Régions d'Europe</t>
         </is>
       </c>
       <c r="E33" s="3141" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Bilateral trade agenda, WTO e-commerce </t>
+          <t xml:space="preserve"> Economic Governance Review</t>
         </is>
       </c>
     </row>
@@ -10863,7 +10863,7 @@
     <row r="36">
       <c r="A36" s="3141" t="inlineStr">
         <is>
-          <t>Cristina Rueda Catry</t>
+          <t>Andrea Beltramello</t>
         </is>
       </c>
       <c r="B36" s="3138" t="inlineStr">
@@ -10878,12 +10878,12 @@
       </c>
       <c r="D36" s="3141" t="inlineStr">
         <is>
-          <t>Nokia</t>
+          <t>Leonardo S.p.A.</t>
         </is>
       </c>
       <c r="E36" s="3141" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Licensing of standard essential patents</t>
+          <t xml:space="preserve"> taxonomy of environmentally sustainable activities</t>
         </is>
       </c>
     </row>
@@ -10905,19 +10905,19 @@
       </c>
       <c r="D37" s="3141" t="inlineStr">
         <is>
-          <t>Associazione Industriali delle Carni e dei Salumi</t>
+          <t>Nokia</t>
         </is>
       </c>
       <c r="E37" s="3141" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Trade agenda, market access for meat products, sustainability</t>
+          <t xml:space="preserve"> Licensing of standard essential patents</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="3141" t="inlineStr">
         <is>
-          <t>Andrea Beltramello</t>
+          <t>Caroline Boeshertz</t>
         </is>
       </c>
       <c r="B38" s="3138" t="inlineStr">
@@ -10927,17 +10927,17 @@
       </c>
       <c r="C38" s="3141" t="inlineStr">
         <is>
-          <t xml:space="preserve">Brussels </t>
+          <t xml:space="preserve">video conference </t>
         </is>
       </c>
       <c r="D38" s="3141" t="inlineStr">
         <is>
-          <t>Sumitomo Mitsui Financial Group, Afore Consulting</t>
+          <t>Transport and Environment (European Federation for Transport and Environment), Cultural Survival</t>
         </is>
       </c>
       <c r="E38" s="3141" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Banking package</t>
+          <t xml:space="preserve"> Indigenous rights, critical raw materials </t>
         </is>
       </c>
     </row>
@@ -10959,19 +10959,19 @@
       </c>
       <c r="D39" s="3141" t="inlineStr">
         <is>
-          <t>Wirtschaftsvereinigung Stahl, thyssenkrupp Steel Europe AG</t>
+          <t>Deutsche Post DHL Group</t>
         </is>
       </c>
       <c r="E39" s="3141" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Current issues of the steel sector in Europe</t>
+          <t xml:space="preserve"> European competitiveness, taxonomy</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="3141" t="inlineStr">
         <is>
-          <t>Caroline Boeshertz</t>
+          <t>Michael Hager</t>
         </is>
       </c>
       <c r="B40" s="3138" t="inlineStr">
@@ -10981,24 +10981,24 @@
       </c>
       <c r="C40" s="3141" t="inlineStr">
         <is>
-          <t xml:space="preserve">video conference </t>
+          <t>Brussels</t>
         </is>
       </c>
       <c r="D40" s="3141" t="inlineStr">
         <is>
-          <t>Transport and Environment (European Federation for Transport and Environment), Cultural Survival</t>
+          <t>Wirtschaftsvereinigung Stahl, thyssenkrupp Steel Europe AG</t>
         </is>
       </c>
       <c r="E40" s="3141" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Indigenous rights, critical raw materials </t>
+          <t xml:space="preserve"> Current issues of the steel sector in Europe</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="3141" t="inlineStr">
         <is>
-          <t>Andrea Beltramello</t>
+          <t>Cristina Rueda Catry</t>
         </is>
       </c>
       <c r="B41" s="3138" t="inlineStr">
@@ -11013,19 +11013,19 @@
       </c>
       <c r="D41" s="3141" t="inlineStr">
         <is>
-          <t>JPMorgan Chase &amp; Co.</t>
+          <t>Maa- ja metsätaloustuottajain Keskusliitto – Central Union of Agricultural Producers and Forest Owners</t>
         </is>
       </c>
       <c r="E41" s="3141" t="inlineStr">
         <is>
-          <t>Retail investment strategy</t>
+          <t xml:space="preserve"> Trade agenda, WTO discussion, unilateral measures</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="3141" t="inlineStr">
         <is>
-          <t>Cristina Rueda Catry</t>
+          <t>Andrea Beltramello</t>
         </is>
       </c>
       <c r="B42" s="3138" t="inlineStr">
@@ -11035,24 +11035,24 @@
       </c>
       <c r="C42" s="3141" t="inlineStr">
         <is>
-          <t>Brussels</t>
+          <t xml:space="preserve">Brussels </t>
         </is>
       </c>
       <c r="D42" s="3141" t="inlineStr">
         <is>
-          <t>Maa- ja metsätaloustuottajain Keskusliitto – Central Union of Agricultural Producers and Forest Owners</t>
+          <t>Sumitomo Mitsui Financial Group, Afore Consulting</t>
         </is>
       </c>
       <c r="E42" s="3141" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Trade agenda, WTO discussion, unilateral measures</t>
+          <t xml:space="preserve"> Banking package</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="3141" t="inlineStr">
         <is>
-          <t>Michael Hager</t>
+          <t>Andrea Beltramello</t>
         </is>
       </c>
       <c r="B43" s="3138" t="inlineStr">
@@ -11067,12 +11067,12 @@
       </c>
       <c r="D43" s="3141" t="inlineStr">
         <is>
-          <t>Deutsche Post DHL Group</t>
+          <t>JPMorgan Chase &amp; Co.</t>
         </is>
       </c>
       <c r="E43" s="3141" t="inlineStr">
         <is>
-          <t xml:space="preserve"> European competitiveness, taxonomy</t>
+          <t>Retail investment strategy</t>
         </is>
       </c>
     </row>
@@ -11089,17 +11089,17 @@
       </c>
       <c r="C44" s="3141" t="inlineStr">
         <is>
-          <t>Brussels</t>
+          <t xml:space="preserve">video conference </t>
         </is>
       </c>
       <c r="D44" s="3141" t="inlineStr">
         <is>
-          <t>Assogestioni - Italian Investment Management Association</t>
+          <t>ASD-Eurospace</t>
         </is>
       </c>
       <c r="E44" s="3141" t="inlineStr">
         <is>
-          <t xml:space="preserve"> retail investment strategy</t>
+          <t xml:space="preserve">sustainable finance taxonomy </t>
         </is>
       </c>
     </row>
@@ -11116,17 +11116,17 @@
       </c>
       <c r="C45" s="3141" t="inlineStr">
         <is>
-          <t xml:space="preserve">video conference </t>
+          <t>Brussels</t>
         </is>
       </c>
       <c r="D45" s="3141" t="inlineStr">
         <is>
-          <t>ASD-Eurospace</t>
+          <t>Assogestioni - Italian Investment Management Association</t>
         </is>
       </c>
       <c r="E45" s="3141" t="inlineStr">
         <is>
-          <t xml:space="preserve">sustainable finance taxonomy </t>
+          <t xml:space="preserve"> retail investment strategy</t>
         </is>
       </c>
     </row>
@@ -11322,7 +11322,7 @@
     <row r="53">
       <c r="A53" s="3141" t="inlineStr">
         <is>
-          <t>Caroline Boeshertz, Cristina Rueda Catry</t>
+          <t>Cristina Rueda Catry, Caroline Boeshertz</t>
         </is>
       </c>
       <c r="B53" s="3138" t="inlineStr">
@@ -11403,7 +11403,7 @@
     <row r="56">
       <c r="A56" s="3141" t="inlineStr">
         <is>
-          <t>Kevin Keary, Caroline Boeshertz</t>
+          <t>Andrea Beltramello</t>
         </is>
       </c>
       <c r="B56" s="3138" t="inlineStr">
@@ -11413,24 +11413,24 @@
       </c>
       <c r="C56" s="3141" t="inlineStr">
         <is>
-          <t>Brussels</t>
+          <t xml:space="preserve">video conference </t>
         </is>
       </c>
       <c r="D56" s="3141" t="inlineStr">
         <is>
-          <t>European Federation of Pharmaceutical Industries and Associations</t>
+          <t>European Dredging Association</t>
         </is>
       </c>
       <c r="E56" s="3141" t="inlineStr">
         <is>
-          <t>Pharma package, competitiveness</t>
+          <t xml:space="preserve"> public procurement, foreign subsidies  </t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="3141" t="inlineStr">
         <is>
-          <t>Andrea Beltramello</t>
+          <t>Caroline Boeshertz, Kevin Keary</t>
         </is>
       </c>
       <c r="B57" s="3138" t="inlineStr">
@@ -11440,17 +11440,17 @@
       </c>
       <c r="C57" s="3141" t="inlineStr">
         <is>
-          <t xml:space="preserve">video conference </t>
+          <t>Brussels</t>
         </is>
       </c>
       <c r="D57" s="3141" t="inlineStr">
         <is>
-          <t>European Dredging Association</t>
+          <t>European Federation of Pharmaceutical Industries and Associations</t>
         </is>
       </c>
       <c r="E57" s="3141" t="inlineStr">
         <is>
-          <t xml:space="preserve"> public procurement, foreign subsidies  </t>
+          <t>Pharma package, competitiveness</t>
         </is>
       </c>
     </row>
@@ -11484,7 +11484,7 @@
     <row r="59">
       <c r="A59" s="3141" t="inlineStr">
         <is>
-          <t>Andrea Beltramello</t>
+          <t>Zaneta Vegnere, Kevin Keary</t>
         </is>
       </c>
       <c r="B59" s="3138" t="inlineStr">
@@ -11499,19 +11499,19 @@
       </c>
       <c r="D59" s="3141" t="inlineStr">
         <is>
-          <t>Österreichischer Sparkassenverband</t>
+          <t>Verband Deutscher Maschinen- und Anlagenbau e.V.</t>
         </is>
       </c>
       <c r="E59" s="3141" t="inlineStr">
         <is>
-          <t xml:space="preserve"> retail investment strategy</t>
+          <t xml:space="preserve">preferential trade agreements; transatlantic trade relations;	importance of conformity assessments for machinery sector </t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="3141" t="inlineStr">
         <is>
-          <t>Kevin Keary, Zaneta Vegnere</t>
+          <t>Andrea Beltramello</t>
         </is>
       </c>
       <c r="B60" s="3138" t="inlineStr">
@@ -11526,12 +11526,12 @@
       </c>
       <c r="D60" s="3141" t="inlineStr">
         <is>
-          <t>Verband Deutscher Maschinen- und Anlagenbau e.V.</t>
+          <t>Österreichischer Sparkassenverband</t>
         </is>
       </c>
       <c r="E60" s="3141" t="inlineStr">
         <is>
-          <t xml:space="preserve">preferential trade agreements; transatlantic trade relations;	importance of conformity assessments for machinery sector </t>
+          <t xml:space="preserve"> retail investment strategy</t>
         </is>
       </c>
     </row>
@@ -11548,17 +11548,17 @@
       </c>
       <c r="C61" s="3141" t="inlineStr">
         <is>
-          <t>Brussels</t>
+          <t>video conference</t>
         </is>
       </c>
       <c r="D61" s="3141" t="inlineStr">
         <is>
-          <t>Verband Deutscher Maschinen- und Anlagenbau e.V.</t>
+          <t>Cobalt Institute</t>
         </is>
       </c>
       <c r="E61" s="3141" t="inlineStr">
         <is>
-          <t xml:space="preserve"> GCC trade barriers for EU machine exports</t>
+          <t xml:space="preserve"> Critical Raw Materials Act</t>
         </is>
       </c>
     </row>
@@ -11575,24 +11575,24 @@
       </c>
       <c r="C62" s="3141" t="inlineStr">
         <is>
-          <t>video conference</t>
+          <t>Brussels</t>
         </is>
       </c>
       <c r="D62" s="3141" t="inlineStr">
         <is>
-          <t>Cobalt Institute</t>
+          <t>Verband Deutscher Maschinen- und Anlagenbau e.V.</t>
         </is>
       </c>
       <c r="E62" s="3141" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Critical Raw Materials Act</t>
+          <t xml:space="preserve"> GCC trade barriers for EU machine exports</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="3141" t="inlineStr">
         <is>
-          <t>Caroline Boeshertz</t>
+          <t>Michael Hager</t>
         </is>
       </c>
       <c r="B63" s="3138" t="inlineStr">
@@ -11602,17 +11602,17 @@
       </c>
       <c r="C63" s="3141" t="inlineStr">
         <is>
-          <t>video conference</t>
+          <t>Brussels</t>
         </is>
       </c>
       <c r="D63" s="3141" t="inlineStr">
         <is>
-          <t>Orano</t>
+          <t>Chamber of Commerce of the United States of America</t>
         </is>
       </c>
       <c r="E63" s="3141" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Critical Raw Materials</t>
+          <t xml:space="preserve"> EU-US relations, Inflation Reduction Act</t>
         </is>
       </c>
     </row>
@@ -11646,7 +11646,7 @@
     <row r="65">
       <c r="A65" s="3141" t="inlineStr">
         <is>
-          <t>Michael Hager</t>
+          <t>Caroline Boeshertz</t>
         </is>
       </c>
       <c r="B65" s="3138" t="inlineStr">
@@ -11656,17 +11656,17 @@
       </c>
       <c r="C65" s="3141" t="inlineStr">
         <is>
-          <t>Brussels</t>
+          <t>video conference</t>
         </is>
       </c>
       <c r="D65" s="3141" t="inlineStr">
         <is>
-          <t>Chamber of Commerce of the United States of America</t>
+          <t>Orano</t>
         </is>
       </c>
       <c r="E65" s="3141" t="inlineStr">
         <is>
-          <t xml:space="preserve"> EU-US relations, Inflation Reduction Act</t>
+          <t xml:space="preserve"> Critical Raw Materials</t>
         </is>
       </c>
     </row>
@@ -11683,24 +11683,24 @@
       </c>
       <c r="C66" s="3141" t="inlineStr">
         <is>
-          <t>Video conference</t>
+          <t>video conference</t>
         </is>
       </c>
       <c r="D66" s="3141" t="inlineStr">
         <is>
-          <t>European Banking Federation, Asociación Española de Banca, Febelfin, Commerzbank AG, Fédération bancaire française, Banco Santander, S.A., Associazione Bancaria Italiana, Bundesverband deutscher Banken e.V., Société Générale</t>
+          <t>Insurance Europe</t>
         </is>
       </c>
       <c r="E66" s="3141" t="inlineStr">
         <is>
-          <t xml:space="preserve"> retail investment strategy</t>
+          <t>Retail investment strategy</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="3141" t="inlineStr">
         <is>
-          <t>Caroline Boeshertz</t>
+          <t>Andrea Beltramello</t>
         </is>
       </c>
       <c r="B67" s="3138" t="inlineStr">
@@ -11710,24 +11710,24 @@
       </c>
       <c r="C67" s="3141" t="inlineStr">
         <is>
-          <t>Brussels</t>
+          <t>Video conference</t>
         </is>
       </c>
       <c r="D67" s="3141" t="inlineStr">
         <is>
-          <t>Association des Constructeurs Européens d'Automobiles</t>
+          <t>European Banking Federation, Asociación Española de Banca, Febelfin, Commerzbank AG, Fédération bancaire française, Banco Santander, S.A., Associazione Bancaria Italiana, Bundesverband deutscher Banken e.V., Société Générale</t>
         </is>
       </c>
       <c r="E67" s="3141" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Critical Raw Materials Act</t>
+          <t xml:space="preserve"> retail investment strategy</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="3141" t="inlineStr">
         <is>
-          <t>Andrea Beltramello</t>
+          <t>Caroline Boeshertz</t>
         </is>
       </c>
       <c r="B68" s="3138" t="inlineStr">
@@ -11737,17 +11737,17 @@
       </c>
       <c r="C68" s="3141" t="inlineStr">
         <is>
-          <t>video conference</t>
+          <t>Brussels</t>
         </is>
       </c>
       <c r="D68" s="3141" t="inlineStr">
         <is>
-          <t>Insurance Europe</t>
+          <t>Association des Constructeurs Européens d'Automobiles</t>
         </is>
       </c>
       <c r="E68" s="3141" t="inlineStr">
         <is>
-          <t>Retail investment strategy</t>
+          <t xml:space="preserve"> Critical Raw Materials Act</t>
         </is>
       </c>
     </row>
@@ -11862,7 +11862,7 @@
     <row r="73">
       <c r="A73" s="3141" t="inlineStr">
         <is>
-          <t>Kevin Keary</t>
+          <t>Michael Hager</t>
         </is>
       </c>
       <c r="B73" s="3138" t="inlineStr">
@@ -11877,19 +11877,19 @@
       </c>
       <c r="D73" s="3141" t="inlineStr">
         <is>
-          <t>Haleon</t>
+          <t>Marcegaglia Carbon Steel SPA</t>
         </is>
       </c>
       <c r="E73" s="3141" t="inlineStr">
         <is>
-          <t>pharma trade, supply chain resilience</t>
+          <t xml:space="preserve"> Trade and Steel issues</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="3141" t="inlineStr">
         <is>
-          <t>Michael Hager</t>
+          <t>Kevin Keary</t>
         </is>
       </c>
       <c r="B74" s="3138" t="inlineStr">
@@ -11904,12 +11904,12 @@
       </c>
       <c r="D74" s="3141" t="inlineStr">
         <is>
-          <t>Marcegaglia Carbon Steel SPA</t>
+          <t>Haleon</t>
         </is>
       </c>
       <c r="E74" s="3141" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Trade and Steel issues</t>
+          <t>pharma trade, supply chain resilience</t>
         </is>
       </c>
     </row>
@@ -11970,7 +11970,7 @@
     <row r="77">
       <c r="A77" s="3141" t="inlineStr">
         <is>
-          <t>Gints Freimanis</t>
+          <t>Andrea Beltramello</t>
         </is>
       </c>
       <c r="B77" s="3138" t="inlineStr">
@@ -11980,24 +11980,24 @@
       </c>
       <c r="C77" s="3141" t="inlineStr">
         <is>
-          <t>Virtual</t>
+          <t xml:space="preserve">video conference </t>
         </is>
       </c>
       <c r="D77" s="3141" t="inlineStr">
         <is>
-          <t>Daimler Truck AG</t>
+          <t>Deutsche Bank AG</t>
         </is>
       </c>
       <c r="E77" s="3141" t="inlineStr">
         <is>
-          <t>CO2 Standards for heavy-duty vehicles</t>
+          <t>Retail Investment Strategy</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="3141" t="inlineStr">
         <is>
-          <t>Andrea Beltramello</t>
+          <t>Gints Freimanis</t>
         </is>
       </c>
       <c r="B78" s="3138" t="inlineStr">
@@ -12007,17 +12007,17 @@
       </c>
       <c r="C78" s="3141" t="inlineStr">
         <is>
-          <t xml:space="preserve">video conference </t>
+          <t>Virtual</t>
         </is>
       </c>
       <c r="D78" s="3141" t="inlineStr">
         <is>
-          <t>Deutsche Bank AG</t>
+          <t>Daimler Truck AG</t>
         </is>
       </c>
       <c r="E78" s="3141" t="inlineStr">
         <is>
-          <t>Retail Investment Strategy</t>
+          <t>CO2 Standards for heavy-duty vehicles</t>
         </is>
       </c>
     </row>
@@ -12215,7 +12215,7 @@
     <row r="86">
       <c r="A86" s="3141" t="inlineStr">
         <is>
-          <t>Andrea Beltramello</t>
+          <t>Michael Hager</t>
         </is>
       </c>
       <c r="B86" s="3138" t="inlineStr">
@@ -12230,19 +12230,19 @@
       </c>
       <c r="D86" s="3141" t="inlineStr">
         <is>
-          <t>Tietmeyer, Wolgast &amp; Partner Berlin Politikberatung PartG, DBRS Ratings GmbH</t>
+          <t>Bundesverband deutscher Banken e.V.</t>
         </is>
       </c>
       <c r="E86" s="3141" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ESG Ratings</t>
+          <t xml:space="preserve"> Retail Investment legislative package</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="3141" t="inlineStr">
         <is>
-          <t>Michael Hager</t>
+          <t>Caroline Boeshertz</t>
         </is>
       </c>
       <c r="B87" s="3138" t="inlineStr">
@@ -12252,24 +12252,24 @@
       </c>
       <c r="C87" s="3141" t="inlineStr">
         <is>
-          <t>Brussels</t>
+          <t xml:space="preserve">video - conference </t>
         </is>
       </c>
       <c r="D87" s="3141" t="inlineStr">
         <is>
-          <t>Bundesverband deutscher Banken e.V.</t>
+          <t>Transport and Environment (European Federation for Transport and Environment)</t>
         </is>
       </c>
       <c r="E87" s="3141" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Retail Investment legislative package</t>
+          <t>EU battery production and electric vehicles, IRA, critical raw materials</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="3141" t="inlineStr">
         <is>
-          <t>Caroline Boeshertz</t>
+          <t>Andrea Beltramello</t>
         </is>
       </c>
       <c r="B88" s="3138" t="inlineStr">
@@ -12279,24 +12279,24 @@
       </c>
       <c r="C88" s="3141" t="inlineStr">
         <is>
-          <t xml:space="preserve">video - conference </t>
+          <t>Brussels</t>
         </is>
       </c>
       <c r="D88" s="3141" t="inlineStr">
         <is>
-          <t>Transport and Environment (European Federation for Transport and Environment)</t>
+          <t>Tietmeyer, Wolgast &amp; Partner Berlin Politikberatung PartG, DBRS Ratings GmbH</t>
         </is>
       </c>
       <c r="E88" s="3141" t="inlineStr">
         <is>
-          <t>EU battery production and electric vehicles, IRA, critical raw materials</t>
+          <t xml:space="preserve"> ESG Ratings</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="3141" t="inlineStr">
         <is>
-          <t>Mirzha De Manuel, Pim Lescrauwaet</t>
+          <t>Andrea Beltramello</t>
         </is>
       </c>
       <c r="B89" s="3138" t="inlineStr">
@@ -12306,24 +12306,24 @@
       </c>
       <c r="C89" s="3141" t="inlineStr">
         <is>
-          <t>Virtual</t>
+          <t xml:space="preserve">video conference </t>
         </is>
       </c>
       <c r="D89" s="3141" t="inlineStr">
         <is>
-          <t>Platform of European Social NGOs</t>
+          <t>Gesamtverband der Deutschen Versicherungswirtschaft e.V.</t>
         </is>
       </c>
       <c r="E89" s="3141" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Economic Governance Review</t>
+          <t xml:space="preserve"> Retail Investment Strategy </t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="3141" t="inlineStr">
         <is>
-          <t>Andrea Beltramello</t>
+          <t>Mirzha De Manuel, Pim Lescrauwaet</t>
         </is>
       </c>
       <c r="B90" s="3138" t="inlineStr">
@@ -12333,24 +12333,24 @@
       </c>
       <c r="C90" s="3141" t="inlineStr">
         <is>
-          <t xml:space="preserve">video conference </t>
+          <t>Virtual</t>
         </is>
       </c>
       <c r="D90" s="3141" t="inlineStr">
         <is>
-          <t>Gesamtverband der Deutschen Versicherungswirtschaft e.V.</t>
+          <t>Platform of European Social NGOs</t>
         </is>
       </c>
       <c r="E90" s="3141" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Retail Investment Strategy </t>
+          <t xml:space="preserve"> Economic Governance Review</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="3141" t="inlineStr">
         <is>
-          <t>Michael Hager, Cristina Rueda Catry</t>
+          <t>Cristina Rueda Catry, Michael Hager</t>
         </is>
       </c>
       <c r="B91" s="3138" t="inlineStr">
@@ -12435,7 +12435,7 @@
     <row r="94">
       <c r="A94" s="3141" t="inlineStr">
         <is>
-          <t>Andrea Beltramello, Caroline Boeshertz</t>
+          <t>Elina Melngaile</t>
         </is>
       </c>
       <c r="B94" s="3138" t="inlineStr">
@@ -12445,24 +12445,24 @@
       </c>
       <c r="C94" s="3141" t="inlineStr">
         <is>
-          <t xml:space="preserve">video call </t>
+          <t>Brussels</t>
         </is>
       </c>
       <c r="D94" s="3141" t="inlineStr">
         <is>
-          <t>Samsung Electronics Europe</t>
+          <t>American Chamber of Commerce to the European Union</t>
         </is>
       </c>
       <c r="E94" s="3141" t="inlineStr">
         <is>
-          <t>Critical Raw Materials Act, Forced Labour Product Prohibition Regulation, Directive on Corporate Sustainability Due Diligence</t>
+          <t>Exchange of views on EU-US trade relationship</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="3141" t="inlineStr">
         <is>
-          <t>Michael Hager</t>
+          <t>Andrea Beltramello</t>
         </is>
       </c>
       <c r="B95" s="3138" t="inlineStr">
@@ -12477,19 +12477,19 @@
       </c>
       <c r="D95" s="3141" t="inlineStr">
         <is>
-          <t>BUSINESSEUROPE</t>
+          <t>AXA</t>
         </is>
       </c>
       <c r="E95" s="3141" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Trade and competitiveness of European businesses</t>
+          <t>Sustainable finance</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="3141" t="inlineStr">
         <is>
-          <t>Andrea Beltramello</t>
+          <t>Caroline Boeshertz, Andrea Beltramello</t>
         </is>
       </c>
       <c r="B96" s="3138" t="inlineStr">
@@ -12499,24 +12499,24 @@
       </c>
       <c r="C96" s="3141" t="inlineStr">
         <is>
-          <t>Brussels</t>
+          <t xml:space="preserve">video call </t>
         </is>
       </c>
       <c r="D96" s="3141" t="inlineStr">
         <is>
-          <t>AXA</t>
+          <t>Samsung Electronics Europe</t>
         </is>
       </c>
       <c r="E96" s="3141" t="inlineStr">
         <is>
-          <t>Sustainable finance</t>
+          <t>Critical Raw Materials Act, Forced Labour Product Prohibition Regulation, Directive on Corporate Sustainability Due Diligence</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="3141" t="inlineStr">
         <is>
-          <t>Elina Melngaile</t>
+          <t>Michael Hager</t>
         </is>
       </c>
       <c r="B97" s="3138" t="inlineStr">
@@ -12531,19 +12531,19 @@
       </c>
       <c r="D97" s="3141" t="inlineStr">
         <is>
-          <t>American Chamber of Commerce to the European Union</t>
+          <t>BUSINESSEUROPE</t>
         </is>
       </c>
       <c r="E97" s="3141" t="inlineStr">
         <is>
-          <t>Exchange of views on EU-US trade relationship</t>
+          <t xml:space="preserve"> Trade and competitiveness of European businesses</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="3141" t="inlineStr">
         <is>
-          <t>Andrea Beltramello</t>
+          <t>Michael Hager</t>
         </is>
       </c>
       <c r="B98" s="3138" t="inlineStr">
@@ -12558,19 +12558,19 @@
       </c>
       <c r="D98" s="3141" t="inlineStr">
         <is>
-          <t>Third Generation Environmentalism Ltd</t>
+          <t>Heidelberg Materials (HeidelbergCement AG)</t>
         </is>
       </c>
       <c r="E98" s="3141" t="inlineStr">
         <is>
-          <t xml:space="preserve">Trade and climate </t>
+          <t xml:space="preserve"> Recovery and Resilience facility</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="3141" t="inlineStr">
         <is>
-          <t>Michael Hager</t>
+          <t>Andrea Beltramello</t>
         </is>
       </c>
       <c r="B99" s="3138" t="inlineStr">
@@ -12585,12 +12585,12 @@
       </c>
       <c r="D99" s="3141" t="inlineStr">
         <is>
-          <t>Heidelberg Materials (HeidelbergCement AG)</t>
+          <t>Third Generation Environmentalism Ltd</t>
         </is>
       </c>
       <c r="E99" s="3141" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Recovery and Resilience facility</t>
+          <t xml:space="preserve">Trade and climate </t>
         </is>
       </c>
     </row>
@@ -12624,7 +12624,7 @@
     <row r="101">
       <c r="A101" s="3141" t="inlineStr">
         <is>
-          <t>Andrea Beltramello</t>
+          <t>Pim Lescrauwaet, Mirzha De Manuel, Michael Hager</t>
         </is>
       </c>
       <c r="B101" s="3138" t="inlineStr">
@@ -12634,24 +12634,24 @@
       </c>
       <c r="C101" s="3141" t="inlineStr">
         <is>
-          <t xml:space="preserve">BERL </t>
+          <t>Brussels</t>
         </is>
       </c>
       <c r="D101" s="3141" t="inlineStr">
         <is>
-          <t>Environmental Justice Foundation</t>
+          <t>Bruegel</t>
         </is>
       </c>
       <c r="E101" s="3141" t="inlineStr">
         <is>
-          <t>Trade and sustainable development; deforestation</t>
+          <t xml:space="preserve"> Current fiscal policy in the EU</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="3141" t="inlineStr">
         <is>
-          <t>Michael Hager, Pim Lescrauwaet, Mirzha De Manuel</t>
+          <t>Andrea Beltramello</t>
         </is>
       </c>
       <c r="B102" s="3138" t="inlineStr">
@@ -12661,17 +12661,17 @@
       </c>
       <c r="C102" s="3141" t="inlineStr">
         <is>
-          <t>Brussels</t>
+          <t xml:space="preserve">BERL </t>
         </is>
       </c>
       <c r="D102" s="3141" t="inlineStr">
         <is>
-          <t>Bruegel</t>
+          <t>Environmental Justice Foundation</t>
         </is>
       </c>
       <c r="E102" s="3141" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Current fiscal policy in the EU</t>
+          <t>Trade and sustainable development; deforestation</t>
         </is>
       </c>
     </row>
@@ -12705,7 +12705,7 @@
     <row r="104">
       <c r="A104" s="3141" t="inlineStr">
         <is>
-          <t>Mirzha De Manuel</t>
+          <t>Sofja Ribkina, Gints Freimanis</t>
         </is>
       </c>
       <c r="B104" s="3138" t="inlineStr">
@@ -12715,24 +12715,24 @@
       </c>
       <c r="C104" s="3141" t="inlineStr">
         <is>
-          <t>Virtual</t>
+          <t>Brussels, Belgium</t>
         </is>
       </c>
       <c r="D104" s="3141" t="inlineStr">
         <is>
-          <t>BUSINESSEUROPE</t>
+          <t>CEMENT,GLASS, CERAMICS AND SOIL PRODUCTS EXPORTERS' ASSOCIATION, FIPRA International SRL</t>
         </is>
       </c>
       <c r="E104" s="3141" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Follow up call -  CEO Event of 10 November 2023. Discussed running of the event and improvement possibilities.</t>
+          <t>EU anti-dumping investigation against imports of ceramic tiles originating, inter alia, in Türkiye</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="3141" t="inlineStr">
         <is>
-          <t>Michael Hager</t>
+          <t>Mirzha De Manuel</t>
         </is>
       </c>
       <c r="B105" s="3138" t="inlineStr">
@@ -12742,17 +12742,17 @@
       </c>
       <c r="C105" s="3141" t="inlineStr">
         <is>
-          <t>Brussels</t>
+          <t>Virtual</t>
         </is>
       </c>
       <c r="D105" s="3141" t="inlineStr">
         <is>
-          <t>Deutsche Industrie- und Handelskammer</t>
+          <t>BUSINESSEUROPE</t>
         </is>
       </c>
       <c r="E105" s="3141" t="inlineStr">
         <is>
-          <t xml:space="preserve"> European Competitiveness</t>
+          <t xml:space="preserve"> Follow up call -  CEO Event of 10 November 2023. Discussed running of the event and improvement possibilities.</t>
         </is>
       </c>
     </row>
@@ -12774,19 +12774,19 @@
       </c>
       <c r="D106" s="3141" t="inlineStr">
         <is>
-          <t>Cisco Systems Inc.</t>
+          <t>Deutsche Industrie- und Handelskammer</t>
         </is>
       </c>
       <c r="E106" s="3141" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Digital Economy</t>
+          <t xml:space="preserve"> European Competitiveness</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="3141" t="inlineStr">
         <is>
-          <t>Gints Freimanis, Sofja Ribkina</t>
+          <t>Michael Hager</t>
         </is>
       </c>
       <c r="B107" s="3138" t="inlineStr">
@@ -12796,17 +12796,17 @@
       </c>
       <c r="C107" s="3141" t="inlineStr">
         <is>
-          <t>Brussels, Belgium</t>
+          <t>Brussels</t>
         </is>
       </c>
       <c r="D107" s="3141" t="inlineStr">
         <is>
-          <t>CEMENT,GLASS, CERAMICS AND SOIL PRODUCTS EXPORTERS' ASSOCIATION, FIPRA International SRL</t>
+          <t>Vodafone Belgium SA</t>
         </is>
       </c>
       <c r="E107" s="3141" t="inlineStr">
         <is>
-          <t>EU anti-dumping investigation against imports of ceramic tiles originating, inter alia, in Türkiye</t>
+          <t xml:space="preserve"> Digital Economy</t>
         </is>
       </c>
     </row>
@@ -12828,7 +12828,7 @@
       </c>
       <c r="D108" s="3141" t="inlineStr">
         <is>
-          <t>Vodafone Belgium SA</t>
+          <t>Cisco Systems Inc.</t>
         </is>
       </c>
       <c r="E108" s="3141" t="inlineStr">
@@ -12958,12 +12958,12 @@
       </c>
       <c r="C113" s="3141" t="inlineStr">
         <is>
-          <t xml:space="preserve">video call </t>
+          <t>Video-conference</t>
         </is>
       </c>
       <c r="D113" s="3141" t="inlineStr">
         <is>
-          <t>Huhtamäki Oyj</t>
+          <t>Confederation of European Paper Industries</t>
         </is>
       </c>
       <c r="E113" s="3141" t="inlineStr">
@@ -12985,24 +12985,24 @@
       </c>
       <c r="C114" s="3141" t="inlineStr">
         <is>
-          <t>Video-conference</t>
+          <t>video-call</t>
         </is>
       </c>
       <c r="D114" s="3141" t="inlineStr">
         <is>
-          <t>Confederation of European Paper Industries</t>
+          <t>Novelis Europe, PepsiCo, European Aluminium AISBL, ALPLA Werke Alwin Lehner GmbH &amp; Co KG, Ball Beverage Packaging Europe Limited, Union of European Beverages Association, The Coca-Cola Company, Metal Packaging Europe External Affairs ASBL</t>
         </is>
       </c>
       <c r="E114" s="3141" t="inlineStr">
         <is>
-          <t>Draft proposal of a Regulation on Packaging and Packaging Waste (PPWR)</t>
+          <t xml:space="preserve"> Draft proposal of a Regulation on Packaging and Packaging Waste (PPWR)</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="3141" t="inlineStr">
         <is>
-          <t>Andrea Beltramello</t>
+          <t>Caroline Boeshertz</t>
         </is>
       </c>
       <c r="B115" s="3138" t="inlineStr">
@@ -13012,24 +13012,24 @@
       </c>
       <c r="C115" s="3141" t="inlineStr">
         <is>
-          <t>Video call</t>
+          <t xml:space="preserve">video call </t>
         </is>
       </c>
       <c r="D115" s="3141" t="inlineStr">
         <is>
-          <t>Bureau Européen des Unions de Consommateurs</t>
+          <t>Huhtamäki Oyj</t>
         </is>
       </c>
       <c r="E115" s="3141" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Retail investment strategy and our both names</t>
+          <t>Draft proposal of a Regulation on Packaging and Packaging Waste (PPWR)</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="3141" t="inlineStr">
         <is>
-          <t>Caroline Boeshertz</t>
+          <t>Andrea Beltramello</t>
         </is>
       </c>
       <c r="B116" s="3138" t="inlineStr">
@@ -13039,17 +13039,17 @@
       </c>
       <c r="C116" s="3141" t="inlineStr">
         <is>
-          <t>video-call</t>
+          <t>Video call</t>
         </is>
       </c>
       <c r="D116" s="3141" t="inlineStr">
         <is>
-          <t>Novelis Europe, PepsiCo, European Aluminium AISBL, ALPLA Werke Alwin Lehner GmbH &amp; Co KG, Ball Beverage Packaging Europe Limited, Union of European Beverages Association, The Coca-Cola Company, Metal Packaging Europe External Affairs ASBL</t>
+          <t>Bureau Européen des Unions de Consommateurs</t>
         </is>
       </c>
       <c r="E116" s="3141" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Draft proposal of a Regulation on Packaging and Packaging Waste (PPWR)</t>
+          <t xml:space="preserve"> Retail investment strategy and our both names</t>
         </is>
       </c>
     </row>
@@ -13083,7 +13083,7 @@
     <row r="118">
       <c r="A118" s="3141" t="inlineStr">
         <is>
-          <t>Caroline Boeshertz</t>
+          <t>Andrea Beltramello</t>
         </is>
       </c>
       <c r="B118" s="3138" t="inlineStr">
@@ -13093,24 +13093,24 @@
       </c>
       <c r="C118" s="3141" t="inlineStr">
         <is>
-          <t>Brussels</t>
+          <t xml:space="preserve">video conference </t>
         </is>
       </c>
       <c r="D118" s="3141" t="inlineStr">
         <is>
-          <t>Natural Mineral Waters Europe aisbl, The Brewers of Europe</t>
+          <t>Clean Clothes Campaign / Stichting Schone Kleren Kampagne, International La Strada Association, Anti-Slavery International, World Uyghur Congress, Stichting Fair Trade Advocacy Office, Environmental Justice Foundation, European Center for Constitutional and Human Rights</t>
         </is>
       </c>
       <c r="E118" s="3141" t="inlineStr">
         <is>
-          <t xml:space="preserve">Draft proposal of a Regulation on Packaging and Packaging Waste (PPWR) </t>
+          <t xml:space="preserve"> forced labour </t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="3141" t="inlineStr">
         <is>
-          <t>Mirzha De Manuel</t>
+          <t>Andrea Beltramello</t>
         </is>
       </c>
       <c r="B119" s="3138" t="inlineStr">
@@ -13120,17 +13120,17 @@
       </c>
       <c r="C119" s="3141" t="inlineStr">
         <is>
-          <t>Brussels</t>
+          <t xml:space="preserve">BERL </t>
         </is>
       </c>
       <c r="D119" s="3141" t="inlineStr">
         <is>
-          <t>Banco Santander, S.A.</t>
+          <t>Insurance Europe</t>
         </is>
       </c>
       <c r="E119" s="3141" t="inlineStr">
         <is>
-          <t>Economic situation and outlook, economic and social policy priorities, recovery and resilience plans</t>
+          <t xml:space="preserve"> retail investment strategy; Solvency II            </t>
         </is>
       </c>
     </row>
@@ -13147,24 +13147,24 @@
       </c>
       <c r="C120" s="3141" t="inlineStr">
         <is>
-          <t xml:space="preserve">video conference </t>
+          <t xml:space="preserve">BERL </t>
         </is>
       </c>
       <c r="D120" s="3141" t="inlineStr">
         <is>
-          <t>Clean Clothes Campaign / Stichting Schone Kleren Kampagne, International La Strada Association, Anti-Slavery International, World Uyghur Congress, Stichting Fair Trade Advocacy Office, Environmental Justice Foundation, European Center for Constitutional and Human Rights</t>
+          <t>European Network of Credit Unions</t>
         </is>
       </c>
       <c r="E120" s="3141" t="inlineStr">
         <is>
-          <t xml:space="preserve"> forced labour </t>
+          <t xml:space="preserve"> Credit Unions, support to Ukraine, sustainability</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="3141" t="inlineStr">
         <is>
-          <t>Andrea Beltramello</t>
+          <t>Mirzha De Manuel</t>
         </is>
       </c>
       <c r="B121" s="3138" t="inlineStr">
@@ -13174,24 +13174,24 @@
       </c>
       <c r="C121" s="3141" t="inlineStr">
         <is>
-          <t xml:space="preserve">BERL </t>
+          <t>Brussels</t>
         </is>
       </c>
       <c r="D121" s="3141" t="inlineStr">
         <is>
-          <t>Insurance Europe</t>
+          <t>Banco Santander, S.A.</t>
         </is>
       </c>
       <c r="E121" s="3141" t="inlineStr">
         <is>
-          <t xml:space="preserve"> retail investment strategy; Solvency II            </t>
+          <t>Economic situation and outlook, economic and social policy priorities, recovery and resilience plans</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="3141" t="inlineStr">
         <is>
-          <t>Andrea Beltramello</t>
+          <t>Caroline Boeshertz</t>
         </is>
       </c>
       <c r="B122" s="3138" t="inlineStr">
@@ -13201,17 +13201,17 @@
       </c>
       <c r="C122" s="3141" t="inlineStr">
         <is>
-          <t xml:space="preserve">BERL </t>
+          <t>Brussels</t>
         </is>
       </c>
       <c r="D122" s="3141" t="inlineStr">
         <is>
-          <t>European Network of Credit Unions</t>
+          <t>Natural Mineral Waters Europe aisbl, The Brewers of Europe</t>
         </is>
       </c>
       <c r="E122" s="3141" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Credit Unions, support to Ukraine, sustainability</t>
+          <t xml:space="preserve">Draft proposal of a Regulation on Packaging and Packaging Waste (PPWR) </t>
         </is>
       </c>
     </row>
@@ -13314,19 +13314,19 @@
       </c>
       <c r="D126" s="3141" t="inlineStr">
         <is>
-          <t>Signum Global Advisors</t>
+          <t>Bundesverband deutscher Banken e.V.</t>
         </is>
       </c>
       <c r="E126" s="3141" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Economic Governance Review, Recovery and Resilience Facility, macroeconomic policy, energy policy </t>
+          <t xml:space="preserve">Economic Governance Review, Recovery and Resilience Facility, macroeconomic policy, energy policy </t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="3141" t="inlineStr">
         <is>
-          <t>Pim Lescrauwaet</t>
+          <t>Andrea Beltramello</t>
         </is>
       </c>
       <c r="B127" s="3138" t="inlineStr">
@@ -13336,24 +13336,24 @@
       </c>
       <c r="C127" s="3141" t="inlineStr">
         <is>
-          <t>Brussels</t>
+          <t xml:space="preserve">BERL </t>
         </is>
       </c>
       <c r="D127" s="3141" t="inlineStr">
         <is>
-          <t>Bundesverband deutscher Banken e.V.</t>
+          <t>K&amp;L Gates GP - Brussels, American Chamber of Commerce to the European Union</t>
         </is>
       </c>
       <c r="E127" s="3141" t="inlineStr">
         <is>
-          <t xml:space="preserve">Economic Governance Review, Recovery and Resilience Facility, macroeconomic policy, energy policy </t>
+          <t>Sustainable finance</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="3141" t="inlineStr">
         <is>
-          <t>Andrea Beltramello</t>
+          <t>Pim Lescrauwaet</t>
         </is>
       </c>
       <c r="B128" s="3138" t="inlineStr">
@@ -13363,24 +13363,24 @@
       </c>
       <c r="C128" s="3141" t="inlineStr">
         <is>
-          <t xml:space="preserve">BERL </t>
+          <t>Brussels</t>
         </is>
       </c>
       <c r="D128" s="3141" t="inlineStr">
         <is>
-          <t>K&amp;L Gates GP - Brussels, American Chamber of Commerce to the European Union</t>
+          <t>Signum Global Advisors</t>
         </is>
       </c>
       <c r="E128" s="3141" t="inlineStr">
         <is>
-          <t>Sustainable finance</t>
+          <t xml:space="preserve"> Economic Governance Review, Recovery and Resilience Facility, macroeconomic policy, energy policy </t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="3141" t="inlineStr">
         <is>
-          <t>Cristina Rueda Catry, Caroline Boeshertz, Mirzha De Manuel</t>
+          <t>Caroline Boeshertz</t>
         </is>
       </c>
       <c r="B129" s="3138" t="inlineStr">
@@ -13390,17 +13390,17 @@
       </c>
       <c r="C129" s="3141" t="inlineStr">
         <is>
-          <t>Brussels</t>
+          <t>video-call</t>
         </is>
       </c>
       <c r="D129" s="3141" t="inlineStr">
         <is>
-          <t>BUSINESSEUROPE</t>
+          <t>SEC NEWGATE EU, The Alliance for Beverage Cartons and the Environment</t>
         </is>
       </c>
       <c r="E129" s="3141" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Economic outlook, trade policy, economic crises response </t>
+          <t xml:space="preserve"> Draft proposal of a Regulation on Packaging and Packaging Waste (PPWR)</t>
         </is>
       </c>
     </row>
@@ -13434,7 +13434,7 @@
     <row r="131">
       <c r="A131" s="3141" t="inlineStr">
         <is>
-          <t>Caroline Boeshertz</t>
+          <t>Mirzha De Manuel, Caroline Boeshertz, Cristina Rueda Catry</t>
         </is>
       </c>
       <c r="B131" s="3138" t="inlineStr">
@@ -13444,17 +13444,17 @@
       </c>
       <c r="C131" s="3141" t="inlineStr">
         <is>
-          <t>video-call</t>
+          <t>Brussels</t>
         </is>
       </c>
       <c r="D131" s="3141" t="inlineStr">
         <is>
-          <t>SEC NEWGATE EU, The Alliance for Beverage Cartons and the Environment</t>
+          <t>BUSINESSEUROPE</t>
         </is>
       </c>
       <c r="E131" s="3141" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Draft proposal of a Regulation on Packaging and Packaging Waste (PPWR)</t>
+          <t xml:space="preserve"> Economic outlook, trade policy, economic crises response </t>
         </is>
       </c>
     </row>
@@ -13471,17 +13471,17 @@
       </c>
       <c r="C132" s="3141" t="inlineStr">
         <is>
-          <t>BERL</t>
+          <t xml:space="preserve">BERL </t>
         </is>
       </c>
       <c r="D132" s="3141" t="inlineStr">
         <is>
-          <t>London Stock Exchange Group</t>
+          <t>Bundesverband deutscher Banken e.V.</t>
         </is>
       </c>
       <c r="E132" s="3141" t="inlineStr">
         <is>
-          <t xml:space="preserve"> sustainable finance</t>
+          <t>Digital euro</t>
         </is>
       </c>
     </row>
@@ -13525,17 +13525,17 @@
       </c>
       <c r="C134" s="3141" t="inlineStr">
         <is>
-          <t xml:space="preserve">BERL </t>
+          <t>BERL</t>
         </is>
       </c>
       <c r="D134" s="3141" t="inlineStr">
         <is>
-          <t>Bundesverband deutscher Banken e.V.</t>
+          <t>London Stock Exchange Group</t>
         </is>
       </c>
       <c r="E134" s="3141" t="inlineStr">
         <is>
-          <t>Digital euro</t>
+          <t xml:space="preserve"> sustainable finance</t>
         </is>
       </c>
     </row>
@@ -13639,12 +13639,12 @@
       </c>
       <c r="D138" s="3141" t="inlineStr">
         <is>
-          <t>FTI Consulting Belgium, Satispay Europe SA</t>
+          <t>Fleishman-Hillard, Invesco Management SA, BlackRock, State Street Corporation, Schroders Investment Management (Europe) SA, Capital International Management Company</t>
         </is>
       </c>
       <c r="E138" s="3141" t="inlineStr">
         <is>
-          <t>payment services</t>
+          <t xml:space="preserve"> Retail Strategy &amp; Sustainable Investment</t>
         </is>
       </c>
     </row>
@@ -13693,12 +13693,12 @@
       </c>
       <c r="D140" s="3141" t="inlineStr">
         <is>
-          <t>Fleishman-Hillard, Invesco Management SA, BlackRock, State Street Corporation, Schroders Investment Management (Europe) SA, Capital International Management Company</t>
+          <t>FTI Consulting Belgium, Satispay Europe SA</t>
         </is>
       </c>
       <c r="E140" s="3141" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Retail Strategy &amp; Sustainable Investment</t>
+          <t>payment services</t>
         </is>
       </c>
     </row>
@@ -13715,17 +13715,17 @@
       </c>
       <c r="C141" s="3141" t="inlineStr">
         <is>
-          <t>BERL</t>
+          <t>Brussels</t>
         </is>
       </c>
       <c r="D141" s="3141" t="inlineStr">
         <is>
-          <t>Confédération Générale des Entreprises du Maroc, SEC NEWGATE EU</t>
+          <t>International Consolidated Airlines Group</t>
         </is>
       </c>
       <c r="E141" s="3141" t="inlineStr">
         <is>
-          <t xml:space="preserve"> modernisation of EU-Morocco trade and investment relations</t>
+          <t xml:space="preserve"> Airlines</t>
         </is>
       </c>
     </row>
@@ -13759,7 +13759,7 @@
     <row r="143">
       <c r="A143" s="3141" t="inlineStr">
         <is>
-          <t>Caroline Boeshertz</t>
+          <t>Michael Hager, Elina Melngaile</t>
         </is>
       </c>
       <c r="B143" s="3138" t="inlineStr">
@@ -13774,19 +13774,20 @@
       </c>
       <c r="D143" s="3141" t="inlineStr">
         <is>
-          <t>International Consolidated Airlines Group</t>
+          <t>The Chicago Council on Global Affairs</t>
         </is>
       </c>
       <c r="E143" s="3141" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Airlines</t>
+          <t xml:space="preserve">EU-US trade relations; Preparations for next Trade and Technology Council (TTC) meeting; Inflation Reduction Act (IRA) 
+</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="3141" t="inlineStr">
         <is>
-          <t>Michael Hager, Elina Melngaile</t>
+          <t>Caroline Boeshertz</t>
         </is>
       </c>
       <c r="B144" s="3138" t="inlineStr">
@@ -13796,18 +13797,17 @@
       </c>
       <c r="C144" s="3141" t="inlineStr">
         <is>
-          <t>Brussels</t>
+          <t>BERL</t>
         </is>
       </c>
       <c r="D144" s="3141" t="inlineStr">
         <is>
-          <t>The Chicago Council on Global Affairs</t>
+          <t>Confédération Générale des Entreprises du Maroc, SEC NEWGATE EU</t>
         </is>
       </c>
       <c r="E144" s="3141" t="inlineStr">
         <is>
-          <t xml:space="preserve">EU-US trade relations; Preparations for next Trade and Technology Council (TTC) meeting; Inflation Reduction Act (IRA) 
-</t>
+          <t xml:space="preserve"> modernisation of EU-Morocco trade and investment relations</t>
         </is>
       </c>
     </row>
@@ -13868,7 +13868,7 @@
     <row r="147">
       <c r="A147" s="3141" t="inlineStr">
         <is>
-          <t>Caroline Boeshertz, Michael Hager</t>
+          <t>Michael Hager, Caroline Boeshertz</t>
         </is>
       </c>
       <c r="B147" s="3138" t="inlineStr">
@@ -14057,7 +14057,7 @@
     <row r="154">
       <c r="A154" s="3141" t="inlineStr">
         <is>
-          <t>Michael Hager, Andrea Beltramello</t>
+          <t>Andrea Beltramello, Michael Hager</t>
         </is>
       </c>
       <c r="B154" s="3138" t="inlineStr">
@@ -14084,7 +14084,7 @@
     <row r="155">
       <c r="A155" s="3141" t="inlineStr">
         <is>
-          <t>Caroline Boeshertz, Gints Freimanis</t>
+          <t>Kevin Keary, Michael Hager</t>
         </is>
       </c>
       <c r="B155" s="3138" t="inlineStr">
@@ -14094,24 +14094,24 @@
       </c>
       <c r="C155" s="3141" t="inlineStr">
         <is>
-          <t xml:space="preserve">BERL </t>
+          <t xml:space="preserve">Brussels </t>
         </is>
       </c>
       <c r="D155" s="3141" t="inlineStr">
         <is>
-          <t>H2GS AB</t>
+          <t>European Chamber of Commerce in Korea</t>
         </is>
       </c>
       <c r="E155" s="3141" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Fit for 55; CBAM</t>
+          <t xml:space="preserve"> EU-Korea trade relations</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="3141" t="inlineStr">
         <is>
-          <t>Andrea Beltramello</t>
+          <t>Gints Freimanis, Caroline Boeshertz</t>
         </is>
       </c>
       <c r="B156" s="3138" t="inlineStr">
@@ -14126,19 +14126,19 @@
       </c>
       <c r="D156" s="3141" t="inlineStr">
         <is>
-          <t>Kreab, Mizuho Financial Group, Inc.</t>
+          <t>H2GS AB</t>
         </is>
       </c>
       <c r="E156" s="3141" t="inlineStr">
         <is>
-          <t xml:space="preserve"> banking package                             </t>
+          <t xml:space="preserve">  Fit for 55; CBAM</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="3141" t="inlineStr">
         <is>
-          <t>Kevin Keary, Michael Hager</t>
+          <t>Andrea Beltramello</t>
         </is>
       </c>
       <c r="B157" s="3138" t="inlineStr">
@@ -14148,17 +14148,17 @@
       </c>
       <c r="C157" s="3141" t="inlineStr">
         <is>
-          <t xml:space="preserve">Brussels </t>
+          <t xml:space="preserve">BERL </t>
         </is>
       </c>
       <c r="D157" s="3141" t="inlineStr">
         <is>
-          <t>European Chamber of Commerce in Korea</t>
+          <t>Kreab, Mizuho Financial Group, Inc.</t>
         </is>
       </c>
       <c r="E157" s="3141" t="inlineStr">
         <is>
-          <t xml:space="preserve"> EU-Korea trade relations</t>
+          <t xml:space="preserve"> banking package                             </t>
         </is>
       </c>
     </row>
@@ -14219,7 +14219,7 @@
     <row r="160">
       <c r="A160" s="3141" t="inlineStr">
         <is>
-          <t>Andrea Beltramello</t>
+          <t>Michael Hager</t>
         </is>
       </c>
       <c r="B160" s="3138" t="inlineStr">
@@ -14229,24 +14229,24 @@
       </c>
       <c r="C160" s="3141" t="inlineStr">
         <is>
-          <t xml:space="preserve">BERL </t>
+          <t>Brussels</t>
         </is>
       </c>
       <c r="D160" s="3141" t="inlineStr">
         <is>
-          <t>Asociación Española de Banca</t>
+          <t>Teknikföretagen</t>
         </is>
       </c>
       <c r="E160" s="3141" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Digital &amp; open finance</t>
+          <t xml:space="preserve"> EU affairs: trade policy and social dialogue </t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="3141" t="inlineStr">
         <is>
-          <t>Michael Hager</t>
+          <t>Andrea Beltramello</t>
         </is>
       </c>
       <c r="B161" s="3138" t="inlineStr">
@@ -14256,17 +14256,17 @@
       </c>
       <c r="C161" s="3141" t="inlineStr">
         <is>
-          <t>Brussels</t>
+          <t>BERL</t>
         </is>
       </c>
       <c r="D161" s="3141" t="inlineStr">
         <is>
-          <t>Teknikföretagen</t>
+          <t>Société Générale</t>
         </is>
       </c>
       <c r="E161" s="3141" t="inlineStr">
         <is>
-          <t xml:space="preserve"> EU affairs: trade policy and social dialogue </t>
+          <t xml:space="preserve"> Crisis management and deposit insurance; Basel III implementation</t>
         </is>
       </c>
     </row>
@@ -14283,24 +14283,24 @@
       </c>
       <c r="C162" s="3141" t="inlineStr">
         <is>
-          <t>BERL</t>
+          <t xml:space="preserve">BERL </t>
         </is>
       </c>
       <c r="D162" s="3141" t="inlineStr">
         <is>
-          <t>Société Générale</t>
+          <t>Asociación Española de Banca</t>
         </is>
       </c>
       <c r="E162" s="3141" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Crisis management and deposit insurance; Basel III implementation</t>
+          <t xml:space="preserve"> Digital &amp; open finance</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="3141" t="inlineStr">
         <is>
-          <t>Elina Melngaile</t>
+          <t>Mirzha De Manuel</t>
         </is>
       </c>
       <c r="B163" s="3138" t="inlineStr">
@@ -14315,19 +14315,19 @@
       </c>
       <c r="D163" s="3141" t="inlineStr">
         <is>
-          <t>Stryker</t>
+          <t>Banco Santander, S.A.</t>
         </is>
       </c>
       <c r="E163" s="3141" t="inlineStr">
         <is>
-          <t>EU-US relations and deliverables for Trade &amp; Technology Council</t>
+          <t>Introductory meeting, RRF implementation</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="3141" t="inlineStr">
         <is>
-          <t>Mirzha De Manuel</t>
+          <t>Elina Melngaile</t>
         </is>
       </c>
       <c r="B164" s="3138" t="inlineStr">
@@ -14342,19 +14342,19 @@
       </c>
       <c r="D164" s="3141" t="inlineStr">
         <is>
-          <t>Banco Santander, S.A.</t>
+          <t>Stryker</t>
         </is>
       </c>
       <c r="E164" s="3141" t="inlineStr">
         <is>
-          <t>Introductory meeting, RRF implementation</t>
+          <t>EU-US relations and deliverables for Trade &amp; Technology Council</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="3141" t="inlineStr">
         <is>
-          <t>Caroline Boeshertz</t>
+          <t>Andrea Beltramello</t>
         </is>
       </c>
       <c r="B165" s="3138" t="inlineStr">
@@ -14364,24 +14364,24 @@
       </c>
       <c r="C165" s="3141" t="inlineStr">
         <is>
-          <t>video call</t>
+          <t xml:space="preserve">BERL </t>
         </is>
       </c>
       <c r="D165" s="3141" t="inlineStr">
         <is>
-          <t>ERAMET, FIPRA International SRL</t>
+          <t>Manufacture Française des Pneumatiques Michelin</t>
         </is>
       </c>
       <c r="E165" s="3141" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Raw Materials initiative</t>
+          <t xml:space="preserve"> Sustainable Finance</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="3141" t="inlineStr">
         <is>
-          <t>Andrea Beltramello</t>
+          <t>Caroline Boeshertz</t>
         </is>
       </c>
       <c r="B166" s="3138" t="inlineStr">
@@ -14391,17 +14391,17 @@
       </c>
       <c r="C166" s="3141" t="inlineStr">
         <is>
-          <t xml:space="preserve">BERL </t>
+          <t>video call</t>
         </is>
       </c>
       <c r="D166" s="3141" t="inlineStr">
         <is>
-          <t>Manufacture Française des Pneumatiques Michelin</t>
+          <t>ERAMET, FIPRA International SRL</t>
         </is>
       </c>
       <c r="E166" s="3141" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Sustainable Finance</t>
+          <t xml:space="preserve"> Raw Materials initiative</t>
         </is>
       </c>
     </row>
@@ -14435,7 +14435,7 @@
     <row r="168">
       <c r="A168" s="3141" t="inlineStr">
         <is>
-          <t>Andrea Beltramello</t>
+          <t>Cristina Rueda Catry, Andrea Beltramello</t>
         </is>
       </c>
       <c r="B168" s="3138" t="inlineStr">
@@ -14450,19 +14450,19 @@
       </c>
       <c r="D168" s="3141" t="inlineStr">
         <is>
-          <t>Ernst &amp; Young Core Business Services BV</t>
+          <t>Maa- ja metsätaloustuottajain Keskusliitto – Central Union of Agricultural Producers and Forest Owners</t>
         </is>
       </c>
       <c r="E168" s="3141" t="inlineStr">
         <is>
-          <t xml:space="preserve"> sustainable finance</t>
+          <t>Forests; EU taxonomy of environmentally sustainable economic activities; carbon certification</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="3141" t="inlineStr">
         <is>
-          <t>Cristina Rueda Catry, Andrea Beltramello</t>
+          <t>Andrea Beltramello</t>
         </is>
       </c>
       <c r="B169" s="3138" t="inlineStr">
@@ -14477,12 +14477,12 @@
       </c>
       <c r="D169" s="3141" t="inlineStr">
         <is>
-          <t>Maa- ja metsätaloustuottajain Keskusliitto – Central Union of Agricultural Producers and Forest Owners</t>
+          <t>Ernst &amp; Young Core Business Services BV</t>
         </is>
       </c>
       <c r="E169" s="3141" t="inlineStr">
         <is>
-          <t>Forests; EU taxonomy of environmentally sustainable economic activities; carbon certification</t>
+          <t xml:space="preserve"> sustainable finance</t>
         </is>
       </c>
     </row>
@@ -14679,58 +14679,58 @@
     <row r="177">
       <c r="A177" s="3141" t="inlineStr">
         <is>
+          <t>Caroline Boeshertz</t>
+        </is>
+      </c>
+      <c r="B177" s="3138" t="inlineStr">
+        <is>
+          <t>13/09/2022</t>
+        </is>
+      </c>
+      <c r="C177" s="3141" t="inlineStr">
+        <is>
+          <t xml:space="preserve">video call </t>
+        </is>
+      </c>
+      <c r="D177" s="3141" t="inlineStr">
+        <is>
+          <t>Meyer Burger Technology AG</t>
+        </is>
+      </c>
+      <c r="E177" s="3141" t="inlineStr">
+        <is>
+          <t>Solar energy, trade defense</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="3141" t="inlineStr">
+        <is>
           <t>Cristina Rueda Catry</t>
         </is>
       </c>
-      <c r="B177" s="3138" t="inlineStr">
+      <c r="B178" s="3138" t="inlineStr">
         <is>
           <t>13/09/2022</t>
         </is>
       </c>
-      <c r="C177" s="3141" t="inlineStr">
+      <c r="C178" s="3141" t="inlineStr">
         <is>
           <t>European Commission</t>
         </is>
       </c>
-      <c r="D177" s="3141" t="inlineStr">
+      <c r="D178" s="3141" t="inlineStr">
         <is>
           <t>Human Rights Watch</t>
         </is>
       </c>
-      <c r="E177" s="3141" t="inlineStr">
+      <c r="E178" s="3141" t="inlineStr">
         <is>
           <t>The human rights situation in Sri 
 Lanka.</t>
         </is>
       </c>
     </row>
-    <row r="178">
-      <c r="A178" s="3141" t="inlineStr">
-        <is>
-          <t>Caroline Boeshertz</t>
-        </is>
-      </c>
-      <c r="B178" s="3138" t="inlineStr">
-        <is>
-          <t>13/09/2022</t>
-        </is>
-      </c>
-      <c r="C178" s="3141" t="inlineStr">
-        <is>
-          <t xml:space="preserve">video call </t>
-        </is>
-      </c>
-      <c r="D178" s="3141" t="inlineStr">
-        <is>
-          <t>Meyer Burger Technology AG</t>
-        </is>
-      </c>
-      <c r="E178" s="3141" t="inlineStr">
-        <is>
-          <t>Solar energy, trade defense</t>
-        </is>
-      </c>
-    </row>
     <row r="179">
       <c r="A179" s="3141" t="inlineStr">
         <is>
@@ -14788,7 +14788,7 @@
     <row r="181">
       <c r="A181" s="3141" t="inlineStr">
         <is>
-          <t>Zaneta Vegnere, Andrea Beltramello</t>
+          <t>Andrea Beltramello, Zaneta Vegnere</t>
         </is>
       </c>
       <c r="B181" s="3138" t="inlineStr">
@@ -14869,7 +14869,7 @@
     <row r="184">
       <c r="A184" s="3141" t="inlineStr">
         <is>
-          <t>Caroline Boeshertz</t>
+          <t>Andrea Beltramello</t>
         </is>
       </c>
       <c r="B184" s="3138" t="inlineStr">
@@ -14884,19 +14884,19 @@
       </c>
       <c r="D184" s="3141" t="inlineStr">
         <is>
-          <t>F. Hoffmann-La Roche Ltd</t>
+          <t>France Industrie</t>
         </is>
       </c>
       <c r="E184" s="3141" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Pharmaceutical directive</t>
+          <t xml:space="preserve"> Taxonomy</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="3141" t="inlineStr">
         <is>
-          <t>Cristina Rueda Catry</t>
+          <t>Caroline Boeshertz</t>
         </is>
       </c>
       <c r="B185" s="3138" t="inlineStr">
@@ -14906,17 +14906,17 @@
       </c>
       <c r="C185" s="3141" t="inlineStr">
         <is>
-          <t>Brussels</t>
+          <t>video-call</t>
         </is>
       </c>
       <c r="D185" s="3141" t="inlineStr">
         <is>
-          <t>Bunge Ltd</t>
+          <t>F. Hoffmann-La Roche Ltd</t>
         </is>
       </c>
       <c r="E185" s="3141" t="inlineStr">
         <is>
-          <t xml:space="preserve">Global food security, including current constraints due to the war of aggression against Ukraine and the recent Commission’s deforestation proposal.  </t>
+          <t xml:space="preserve"> Pharmaceutical directive</t>
         </is>
       </c>
     </row>
@@ -14950,7 +14950,7 @@
     <row r="187">
       <c r="A187" s="3141" t="inlineStr">
         <is>
-          <t>Andrea Beltramello</t>
+          <t>Cristina Rueda Catry</t>
         </is>
       </c>
       <c r="B187" s="3138" t="inlineStr">
@@ -14960,24 +14960,24 @@
       </c>
       <c r="C187" s="3141" t="inlineStr">
         <is>
-          <t>video-call</t>
+          <t>Brussels</t>
         </is>
       </c>
       <c r="D187" s="3141" t="inlineStr">
         <is>
-          <t>France Industrie</t>
+          <t>Bunge Ltd</t>
         </is>
       </c>
       <c r="E187" s="3141" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Taxonomy</t>
+          <t xml:space="preserve">Global food security, including current constraints due to the war of aggression against Ukraine and the recent Commission’s deforestation proposal.  </t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="3141" t="inlineStr">
         <is>
-          <t>Cristina Rueda Catry, Andrea Beltramello</t>
+          <t>Andrea Beltramello, Cristina Rueda Catry</t>
         </is>
       </c>
       <c r="B188" s="3138" t="inlineStr">
@@ -15058,7 +15058,7 @@
     <row r="191">
       <c r="A191" s="3141" t="inlineStr">
         <is>
-          <t>Cristina Rueda Catry</t>
+          <t>Andrea Beltramello, Michael Hager</t>
         </is>
       </c>
       <c r="B191" s="3138" t="inlineStr">
@@ -15068,24 +15068,24 @@
       </c>
       <c r="C191" s="3141" t="inlineStr">
         <is>
-          <t>Brussels Belgium</t>
+          <t>Brussels</t>
         </is>
       </c>
       <c r="D191" s="3141" t="inlineStr">
         <is>
-          <t>BUSINESSEUROPE</t>
+          <t>Société Générale</t>
         </is>
       </c>
       <c r="E191" s="3141" t="inlineStr">
         <is>
-          <t xml:space="preserve"> State of play of the trade and investment negotiations between the EU and India, Mercosur and Chile</t>
+          <t xml:space="preserve"> Financial services</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="3141" t="inlineStr">
         <is>
-          <t>Andrea Beltramello, Michael Hager</t>
+          <t>Zaneta Vegnere</t>
         </is>
       </c>
       <c r="B192" s="3138" t="inlineStr">
@@ -15095,24 +15095,24 @@
       </c>
       <c r="C192" s="3141" t="inlineStr">
         <is>
-          <t>Brussels</t>
+          <t>BXL, Berlaymont</t>
         </is>
       </c>
       <c r="D192" s="3141" t="inlineStr">
         <is>
-          <t>Société Générale</t>
+          <t>BUSINESSEUROPE</t>
         </is>
       </c>
       <c r="E192" s="3141" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Financial services</t>
+          <t xml:space="preserve"> EU's bilateral trade agenda, Trade and Technology Council, EU-US</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="3141" t="inlineStr">
         <is>
-          <t>Zaneta Vegnere</t>
+          <t>Cristina Rueda Catry</t>
         </is>
       </c>
       <c r="B193" s="3138" t="inlineStr">
@@ -15122,7 +15122,7 @@
       </c>
       <c r="C193" s="3141" t="inlineStr">
         <is>
-          <t>BXL, Berlaymont</t>
+          <t>Brussels Belgium</t>
         </is>
       </c>
       <c r="D193" s="3141" t="inlineStr">
@@ -15132,14 +15132,14 @@
       </c>
       <c r="E193" s="3141" t="inlineStr">
         <is>
-          <t xml:space="preserve"> EU's bilateral trade agenda, Trade and Technology Council, EU-US</t>
+          <t xml:space="preserve"> State of play of the trade and investment negotiations between the EU and India, Mercosur and Chile</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="3141" t="inlineStr">
         <is>
-          <t>Caroline Boeshertz</t>
+          <t>Andrea Beltramello</t>
         </is>
       </c>
       <c r="B194" s="3138" t="inlineStr">
@@ -15154,19 +15154,19 @@
       </c>
       <c r="D194" s="3141" t="inlineStr">
         <is>
-          <t>Climate Action Network Europe, ClientEarth AISBL</t>
+          <t>ICI Global</t>
         </is>
       </c>
       <c r="E194" s="3141" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Energy Charter Treaty (ECT)</t>
+          <t>Investment fund regulation</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="3141" t="inlineStr">
         <is>
-          <t>Andrea Beltramello</t>
+          <t>Caroline Boeshertz</t>
         </is>
       </c>
       <c r="B195" s="3138" t="inlineStr">
@@ -15181,12 +15181,12 @@
       </c>
       <c r="D195" s="3141" t="inlineStr">
         <is>
-          <t>ICI Global</t>
+          <t>Climate Action Network Europe, ClientEarth AISBL</t>
         </is>
       </c>
       <c r="E195" s="3141" t="inlineStr">
         <is>
-          <t>Investment fund regulation</t>
+          <t xml:space="preserve"> Energy Charter Treaty (ECT)</t>
         </is>
       </c>
     </row>
@@ -15419,17 +15419,17 @@
       </c>
       <c r="C204" s="3141" t="inlineStr">
         <is>
-          <t>video - call</t>
+          <t>video call</t>
         </is>
       </c>
       <c r="D204" s="3141" t="inlineStr">
         <is>
-          <t>HSBC Holdings PLC, Barclays PLC, Deutsche Bank AG, ING Group, Banco Santander, S.A., UniCredit, BANCO BILBAO VIZCAYA ARGENTARIA</t>
+          <t>Amazon Europe Core SARL</t>
         </is>
       </c>
       <c r="E204" s="3141" t="inlineStr">
         <is>
-          <t xml:space="preserve">Implementation of sanctions </t>
+          <t xml:space="preserve">Digital finance  </t>
         </is>
       </c>
     </row>
@@ -15446,17 +15446,17 @@
       </c>
       <c r="C205" s="3141" t="inlineStr">
         <is>
-          <t>video call</t>
+          <t>video - call</t>
         </is>
       </c>
       <c r="D205" s="3141" t="inlineStr">
         <is>
-          <t>Amazon Europe Core SARL</t>
+          <t>HSBC Holdings PLC, Barclays PLC, Deutsche Bank AG, ING Group, Banco Santander, S.A., UniCredit, BANCO BILBAO VIZCAYA ARGENTARIA</t>
         </is>
       </c>
       <c r="E205" s="3141" t="inlineStr">
         <is>
-          <t xml:space="preserve">Digital finance  </t>
+          <t xml:space="preserve">Implementation of sanctions </t>
         </is>
       </c>
     </row>
@@ -15554,17 +15554,17 @@
       </c>
       <c r="C209" s="3141" t="inlineStr">
         <is>
-          <t xml:space="preserve">Brussels </t>
+          <t>video call</t>
         </is>
       </c>
       <c r="D209" s="3141" t="inlineStr">
         <is>
-          <t>Orgalim – Europe's Technology Industries</t>
+          <t>Conféderation Européenne des Propriétaires Forestiers</t>
         </is>
       </c>
       <c r="E209" s="3141" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Taxonomy of environmentally sustainable economic activities </t>
+          <t>Taxonomy of environmentally sustainable economic activities</t>
         </is>
       </c>
     </row>
@@ -15581,17 +15581,17 @@
       </c>
       <c r="C210" s="3141" t="inlineStr">
         <is>
-          <t>video call</t>
+          <t xml:space="preserve">Brussels </t>
         </is>
       </c>
       <c r="D210" s="3141" t="inlineStr">
         <is>
-          <t>Conféderation Européenne des Propriétaires Forestiers</t>
+          <t>Orgalim – Europe's Technology Industries</t>
         </is>
       </c>
       <c r="E210" s="3141" t="inlineStr">
         <is>
-          <t>Taxonomy of environmentally sustainable economic activities</t>
+          <t xml:space="preserve"> Taxonomy of environmentally sustainable economic activities </t>
         </is>
       </c>
     </row>
@@ -15929,7 +15929,7 @@
     <row r="223">
       <c r="A223" s="3141" t="inlineStr">
         <is>
-          <t>Kevin Keary, Caroline Boeshertz</t>
+          <t>Caroline Boeshertz</t>
         </is>
       </c>
       <c r="B223" s="3138" t="inlineStr">
@@ -15949,14 +15949,14 @@
       </c>
       <c r="E223" s="3141" t="inlineStr">
         <is>
-          <t xml:space="preserve">  tbc</t>
+          <t>TRIPS</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="3141" t="inlineStr">
         <is>
-          <t>Caroline Boeshertz</t>
+          <t>Kevin Keary, Caroline Boeshertz</t>
         </is>
       </c>
       <c r="B224" s="3138" t="inlineStr">
@@ -15976,14 +15976,14 @@
       </c>
       <c r="E224" s="3141" t="inlineStr">
         <is>
-          <t>TRIPS</t>
+          <t xml:space="preserve">  tbc</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="3141" t="inlineStr">
         <is>
-          <t>Zaneta Vegnere</t>
+          <t>Mirzha De Manuel</t>
         </is>
       </c>
       <c r="B225" s="3138" t="inlineStr">
@@ -15993,24 +15993,24 @@
       </c>
       <c r="C225" s="3141" t="inlineStr">
         <is>
-          <t>video call</t>
+          <t>Video call</t>
         </is>
       </c>
       <c r="D225" s="3141" t="inlineStr">
         <is>
-          <t>BUSINESSEUROPE</t>
+          <t>Związek Stowarzyszeń Polska Zielona Sieć, Sieć Obywatelska Watchdog Polska/Citizens Network Watchdog Poland, CEE Bankwatch Network, Ogólnopolska Federacja Organizacji Pozarządowych, Fundacja WWF Polska, ClientEarth AISBL</t>
         </is>
       </c>
       <c r="E225" s="3141" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Single Market Emergency Instrument: call for evidence </t>
+          <t xml:space="preserve">Contribution and engagement from CSOs, local authorities and social partners on Polish RRP </t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="3141" t="inlineStr">
         <is>
-          <t>Mirzha De Manuel</t>
+          <t>Zaneta Vegnere</t>
         </is>
       </c>
       <c r="B226" s="3138" t="inlineStr">
@@ -16020,17 +16020,17 @@
       </c>
       <c r="C226" s="3141" t="inlineStr">
         <is>
-          <t>Video call</t>
+          <t>video call</t>
         </is>
       </c>
       <c r="D226" s="3141" t="inlineStr">
         <is>
-          <t>Związek Stowarzyszeń Polska Zielona Sieć, Sieć Obywatelska Watchdog Polska/Citizens Network Watchdog Poland, CEE Bankwatch Network, Ogólnopolska Federacja Organizacji Pozarządowych, Fundacja WWF Polska, ClientEarth AISBL</t>
+          <t>BUSINESSEUROPE</t>
         </is>
       </c>
       <c r="E226" s="3141" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contribution and engagement from CSOs, local authorities and social partners on Polish RRP </t>
+          <t xml:space="preserve"> Single Market Emergency Instrument: call for evidence </t>
         </is>
       </c>
     </row>
@@ -16118,7 +16118,7 @@
     <row r="230">
       <c r="A230" s="3141" t="inlineStr">
         <is>
-          <t>Andrea Beltramello</t>
+          <t>Sofja Ribkina, Zaneta Vegnere</t>
         </is>
       </c>
       <c r="B230" s="3138" t="inlineStr">
@@ -16128,24 +16128,24 @@
       </c>
       <c r="C230" s="3141" t="inlineStr">
         <is>
-          <t>video-conference</t>
+          <t>Webex</t>
         </is>
       </c>
       <c r="D230" s="3141" t="inlineStr">
         <is>
-          <t>European Branded Clothing Alliance</t>
+          <t>Association des Constructeurs Européens d'Automobiles</t>
         </is>
       </c>
       <c r="E230" s="3141" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Trade and sustainable development, due diligence, forced labour, Generalised Scheme of Preference</t>
+          <t xml:space="preserve"> Steel safeguard, impact of Russia's war of aggression against Ukraine on the EU's automotive industry, critical raw materials </t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="3141" t="inlineStr">
         <is>
-          <t>Andrea Beltramello</t>
+          <t>Kevin Keary</t>
         </is>
       </c>
       <c r="B231" s="3138" t="inlineStr">
@@ -16155,24 +16155,24 @@
       </c>
       <c r="C231" s="3141" t="inlineStr">
         <is>
-          <t>Brussels</t>
+          <t>Webex</t>
         </is>
       </c>
       <c r="D231" s="3141" t="inlineStr">
         <is>
-          <t>Asociación Española de Banca</t>
+          <t>Lighthouse Europe, ACT | The App Association</t>
         </is>
       </c>
       <c r="E231" s="3141" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Basel III implementation</t>
+          <t xml:space="preserve"> WTO Matters</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="3141" t="inlineStr">
         <is>
-          <t>Sofja Ribkina, Zaneta Vegnere</t>
+          <t>Zaneta Vegnere</t>
         </is>
       </c>
       <c r="B232" s="3138" t="inlineStr">
@@ -16182,17 +16182,18 @@
       </c>
       <c r="C232" s="3141" t="inlineStr">
         <is>
-          <t>Webex</t>
+          <t>video conference</t>
         </is>
       </c>
       <c r="D232" s="3141" t="inlineStr">
         <is>
-          <t>Association des Constructeurs Européens d'Automobiles</t>
+          <t>European Round Table for Industry</t>
         </is>
       </c>
       <c r="E232" s="3141" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Steel safeguard, impact of Russia's war of aggression against Ukraine on the EU's automotive industry, critical raw materials </t>
+          <t xml:space="preserve">- Single Market Emergency Instrument: call for evidence
+- Bringing down barriers in the single market </t>
         </is>
       </c>
     </row>
@@ -16228,7 +16229,7 @@
     <row r="234">
       <c r="A234" s="3141" t="inlineStr">
         <is>
-          <t>Kevin Keary</t>
+          <t>Andrea Beltramello</t>
         </is>
       </c>
       <c r="B234" s="3138" t="inlineStr">
@@ -16238,24 +16239,24 @@
       </c>
       <c r="C234" s="3141" t="inlineStr">
         <is>
-          <t>Webex</t>
+          <t>Brussels</t>
         </is>
       </c>
       <c r="D234" s="3141" t="inlineStr">
         <is>
-          <t>Lighthouse Europe, ACT | The App Association</t>
+          <t>Asociación Española de Banca</t>
         </is>
       </c>
       <c r="E234" s="3141" t="inlineStr">
         <is>
-          <t xml:space="preserve"> WTO Matters</t>
+          <t xml:space="preserve"> Basel III implementation</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="3141" t="inlineStr">
         <is>
-          <t>Zaneta Vegnere</t>
+          <t>Andrea Beltramello</t>
         </is>
       </c>
       <c r="B235" s="3138" t="inlineStr">
@@ -16265,18 +16266,17 @@
       </c>
       <c r="C235" s="3141" t="inlineStr">
         <is>
-          <t>video conference</t>
+          <t>video-conference</t>
         </is>
       </c>
       <c r="D235" s="3141" t="inlineStr">
         <is>
-          <t>European Round Table for Industry</t>
+          <t>European Branded Clothing Alliance</t>
         </is>
       </c>
       <c r="E235" s="3141" t="inlineStr">
         <is>
-          <t xml:space="preserve">- Single Market Emergency Instrument: call for evidence
-- Bringing down barriers in the single market </t>
+          <t xml:space="preserve"> Trade and sustainable development, due diligence, forced labour, Generalised Scheme of Preference</t>
         </is>
       </c>
     </row>
@@ -16311,7 +16311,7 @@
     <row r="237">
       <c r="A237" s="3141" t="inlineStr">
         <is>
-          <t>Caroline Boeshertz, Andrea Beltramello</t>
+          <t>Andrea Beltramello, Caroline Boeshertz</t>
         </is>
       </c>
       <c r="B237" s="3138" t="inlineStr">
@@ -16365,7 +16365,7 @@
     <row r="239">
       <c r="A239" s="3141" t="inlineStr">
         <is>
-          <t>Mirzha De Manuel</t>
+          <t>Michael Hager</t>
         </is>
       </c>
       <c r="B239" s="3138" t="inlineStr">
@@ -16375,24 +16375,24 @@
       </c>
       <c r="C239" s="3141" t="inlineStr">
         <is>
-          <t>Video Conference</t>
+          <t>Brussels</t>
         </is>
       </c>
       <c r="D239" s="3141" t="inlineStr">
         <is>
-          <t>BUSINESSEUROPE</t>
+          <t>Ukrainian Business and Trade Association</t>
         </is>
       </c>
       <c r="E239" s="3141" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ASG CEO Event organisation</t>
+          <t xml:space="preserve"> Current trade issues EU-Ukraine</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="3141" t="inlineStr">
         <is>
-          <t>Michael Hager</t>
+          <t>Zaneta Vegnere</t>
         </is>
       </c>
       <c r="B240" s="3138" t="inlineStr">
@@ -16402,24 +16402,24 @@
       </c>
       <c r="C240" s="3141" t="inlineStr">
         <is>
-          <t>Brussels</t>
+          <t xml:space="preserve">webex </t>
         </is>
       </c>
       <c r="D240" s="3141" t="inlineStr">
         <is>
-          <t>Ukrainian Business and Trade Association</t>
+          <t>European Union Chamber of Commerce in China</t>
         </is>
       </c>
       <c r="E240" s="3141" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Current trade issues EU-Ukraine</t>
+          <t xml:space="preserve">EU-China economic and trade relations </t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="3141" t="inlineStr">
         <is>
-          <t>Zaneta Vegnere</t>
+          <t>Mirzha De Manuel</t>
         </is>
       </c>
       <c r="B241" s="3138" t="inlineStr">
@@ -16429,17 +16429,17 @@
       </c>
       <c r="C241" s="3141" t="inlineStr">
         <is>
-          <t xml:space="preserve">webex </t>
+          <t>Video Conference</t>
         </is>
       </c>
       <c r="D241" s="3141" t="inlineStr">
         <is>
-          <t>European Union Chamber of Commerce in China</t>
+          <t>BUSINESSEUROPE</t>
         </is>
       </c>
       <c r="E241" s="3141" t="inlineStr">
         <is>
-          <t xml:space="preserve">EU-China economic and trade relations </t>
+          <t xml:space="preserve"> ASG CEO Event organisation</t>
         </is>
       </c>
     </row>
@@ -16854,7 +16854,7 @@
     <row r="257">
       <c r="A257" s="3141" t="inlineStr">
         <is>
-          <t>Sofja Ribkina, Cristina Rueda Catry</t>
+          <t>Cristina Rueda Catry, Sofja Ribkina</t>
         </is>
       </c>
       <c r="B257" s="3138" t="inlineStr">
@@ -17071,7 +17071,7 @@
     <row r="265">
       <c r="A265" s="3141" t="inlineStr">
         <is>
-          <t>Cristina Rueda Catry, Andrea Beltramello</t>
+          <t>Andrea Beltramello, Cristina Rueda Catry</t>
         </is>
       </c>
       <c r="B265" s="3138" t="inlineStr">
@@ -17108,17 +17108,17 @@
       </c>
       <c r="C266" s="3141" t="inlineStr">
         <is>
-          <t>video call</t>
+          <t>Video call</t>
         </is>
       </c>
       <c r="D266" s="3141" t="inlineStr">
         <is>
-          <t>Front Line Defenders, Business &amp; Human Rights Resource Centre</t>
+          <t>Banking &amp; Payments Federation Ireland, Futures Industry Association, Inc., Federation of European Securities Exchanges</t>
         </is>
       </c>
       <c r="E266" s="3141" t="inlineStr">
         <is>
-          <t>Mandatory human rights and environmental due diligence</t>
+          <t>Investment Firms prudential framework</t>
         </is>
       </c>
     </row>
@@ -17135,17 +17135,17 @@
       </c>
       <c r="C267" s="3141" t="inlineStr">
         <is>
-          <t>Video call</t>
+          <t>video call</t>
         </is>
       </c>
       <c r="D267" s="3141" t="inlineStr">
         <is>
-          <t>Banking &amp; Payments Federation Ireland, Futures Industry Association, Inc., Federation of European Securities Exchanges</t>
+          <t>Front Line Defenders, Business &amp; Human Rights Resource Centre</t>
         </is>
       </c>
       <c r="E267" s="3141" t="inlineStr">
         <is>
-          <t>Investment Firms prudential framework</t>
+          <t>Mandatory human rights and environmental due diligence</t>
         </is>
       </c>
     </row>
@@ -17206,7 +17206,7 @@
     <row r="270">
       <c r="A270" s="3141" t="inlineStr">
         <is>
-          <t>Elina Melngaile</t>
+          <t>Michael Hager</t>
         </is>
       </c>
       <c r="B270" s="3138" t="inlineStr">
@@ -17216,24 +17216,24 @@
       </c>
       <c r="C270" s="3141" t="inlineStr">
         <is>
-          <t>virtual</t>
+          <t>Brussels</t>
         </is>
       </c>
       <c r="D270" s="3141" t="inlineStr">
         <is>
-          <t>Breakthrough Energy Catalyst Foundation</t>
+          <t>Cercle des Réseaux européens</t>
         </is>
       </c>
       <c r="E270" s="3141" t="inlineStr">
         <is>
-          <t xml:space="preserve">Global Arrangement on Sustainable Steel and Aluminium </t>
+          <t xml:space="preserve"> Trade Policy and economic recovery</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="3141" t="inlineStr">
         <is>
-          <t>Michael Hager</t>
+          <t>Elina Melngaile</t>
         </is>
       </c>
       <c r="B271" s="3138" t="inlineStr">
@@ -17243,17 +17243,17 @@
       </c>
       <c r="C271" s="3141" t="inlineStr">
         <is>
-          <t>Brussels</t>
+          <t>virtual</t>
         </is>
       </c>
       <c r="D271" s="3141" t="inlineStr">
         <is>
-          <t>Cercle des Réseaux européens</t>
+          <t>The American Seed Trade Association, Euroseeds</t>
         </is>
       </c>
       <c r="E271" s="3141" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Trade Policy and economic recovery</t>
+          <t>Transatlantic seed trade in the context of the Trade &amp; Technology Council</t>
         </is>
       </c>
     </row>
@@ -17275,12 +17275,12 @@
       </c>
       <c r="D272" s="3141" t="inlineStr">
         <is>
-          <t>The American Seed Trade Association, Euroseeds</t>
+          <t>Breakthrough Energy Catalyst Foundation</t>
         </is>
       </c>
       <c r="E272" s="3141" t="inlineStr">
         <is>
-          <t>Transatlantic seed trade in the context of the Trade &amp; Technology Council</t>
+          <t xml:space="preserve">Global Arrangement on Sustainable Steel and Aluminium </t>
         </is>
       </c>
     </row>
@@ -17480,7 +17480,7 @@
     <row r="280">
       <c r="A280" s="3141" t="inlineStr">
         <is>
-          <t>Andrea Beltramello, Sofja Ribkina</t>
+          <t>Sofja Ribkina, Andrea Beltramello</t>
         </is>
       </c>
       <c r="B280" s="3138" t="inlineStr">
@@ -17615,7 +17615,7 @@
     <row r="285">
       <c r="A285" s="3141" t="inlineStr">
         <is>
-          <t>Michael Hager, Andrea Beltramello</t>
+          <t>Andrea Beltramello, Michael Hager</t>
         </is>
       </c>
       <c r="B285" s="3138" t="inlineStr">
@@ -17642,7 +17642,7 @@
     <row r="286">
       <c r="A286" s="3141" t="inlineStr">
         <is>
-          <t>Gints Freimanis</t>
+          <t>Caroline Boeshertz</t>
         </is>
       </c>
       <c r="B286" s="3138" t="inlineStr">
@@ -17652,24 +17652,24 @@
       </c>
       <c r="C286" s="3141" t="inlineStr">
         <is>
-          <t>virtual</t>
+          <t>video - conference</t>
         </is>
       </c>
       <c r="D286" s="3141" t="inlineStr">
         <is>
-          <t>City of London Corporation</t>
+          <t>UPM-Kymmene Oyj, Confederation of European Paper Industries, Metsäliitto Cooperative</t>
         </is>
       </c>
       <c r="E286" s="3141" t="inlineStr">
         <is>
-          <t xml:space="preserve">Carbon Border Adjustment Mechanism (CBAM) </t>
+          <t xml:space="preserve"> EU paper industry views on the Green Deal strategy and industry’s vision for 2030</t>
         </is>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="3141" t="inlineStr">
         <is>
-          <t>Caroline Boeshertz</t>
+          <t>Gints Freimanis</t>
         </is>
       </c>
       <c r="B287" s="3138" t="inlineStr">
@@ -17679,17 +17679,17 @@
       </c>
       <c r="C287" s="3141" t="inlineStr">
         <is>
-          <t>video - conference</t>
+          <t>virtual</t>
         </is>
       </c>
       <c r="D287" s="3141" t="inlineStr">
         <is>
-          <t>UPM-Kymmene Oyj, Confederation of European Paper Industries, Metsäliitto Cooperative</t>
+          <t>City of London Corporation</t>
         </is>
       </c>
       <c r="E287" s="3141" t="inlineStr">
         <is>
-          <t xml:space="preserve"> EU paper industry views on the Green Deal strategy and industry’s vision for 2030</t>
+          <t xml:space="preserve">Carbon Border Adjustment Mechanism (CBAM) </t>
         </is>
       </c>
     </row>
@@ -17750,7 +17750,7 @@
     <row r="290">
       <c r="A290" s="3141" t="inlineStr">
         <is>
-          <t>Caroline Boeshertz, Cristina Rueda Catry</t>
+          <t>Andrea Beltramello</t>
         </is>
       </c>
       <c r="B290" s="3138" t="inlineStr">
@@ -17760,24 +17760,24 @@
       </c>
       <c r="C290" s="3141" t="inlineStr">
         <is>
-          <t>vide conference</t>
+          <t xml:space="preserve">video-call </t>
         </is>
       </c>
       <c r="D290" s="3141" t="inlineStr">
         <is>
-          <t>Eurogroup for Animals</t>
+          <t>Federation of European Securities Exchanges</t>
         </is>
       </c>
       <c r="E290" s="3141" t="inlineStr">
         <is>
-          <t>Trade policy on animal welfare</t>
+          <t>Capital Markets Union; review of the Markets in Financial Instruments Regulation and Directive</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="A291" s="3141" t="inlineStr">
         <is>
-          <t>Gints Freimanis</t>
+          <t>Caroline Boeshertz, Cristina Rueda Catry</t>
         </is>
       </c>
       <c r="B291" s="3138" t="inlineStr">
@@ -17787,17 +17787,17 @@
       </c>
       <c r="C291" s="3141" t="inlineStr">
         <is>
-          <t>Brussels</t>
+          <t>vide conference</t>
         </is>
       </c>
       <c r="D291" s="3141" t="inlineStr">
         <is>
-          <t>Verein zur Förderung des Bergmannstages, der Rohstoffinitiative sowie der Aus- und Weiterbildung auf dem Gebiet der Rohstoffe, Boliden Group, Aurubis AG</t>
+          <t>Eurogroup for Animals</t>
         </is>
       </c>
       <c r="E291" s="3141" t="inlineStr">
         <is>
-          <t xml:space="preserve">Carbon Border Adjustment Mechanism  </t>
+          <t>Trade policy on animal welfare</t>
         </is>
       </c>
     </row>
@@ -17814,24 +17814,24 @@
       </c>
       <c r="C292" s="3141" t="inlineStr">
         <is>
-          <t xml:space="preserve">video-call </t>
+          <t>Brussels</t>
         </is>
       </c>
       <c r="D292" s="3141" t="inlineStr">
         <is>
-          <t>Federation of European Securities Exchanges</t>
+          <t>Finanssiala ry - Finance Finland</t>
         </is>
       </c>
       <c r="E292" s="3141" t="inlineStr">
         <is>
-          <t>Capital Markets Union; review of the Markets in Financial Instruments Regulation and Directive</t>
+          <t xml:space="preserve"> Basel III, Banking Union, Solvency II</t>
         </is>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="3141" t="inlineStr">
         <is>
-          <t>Andrea Beltramello</t>
+          <t>Gints Freimanis</t>
         </is>
       </c>
       <c r="B293" s="3138" t="inlineStr">
@@ -17846,19 +17846,19 @@
       </c>
       <c r="D293" s="3141" t="inlineStr">
         <is>
-          <t>Finanssiala ry - Finance Finland</t>
+          <t>Verein zur Förderung des Bergmannstages, der Rohstoffinitiative sowie der Aus- und Weiterbildung auf dem Gebiet der Rohstoffe, Boliden Group, Aurubis AG</t>
         </is>
       </c>
       <c r="E293" s="3141" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Basel III, Banking Union, Solvency II</t>
+          <t xml:space="preserve">Carbon Border Adjustment Mechanism  </t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="3141" t="inlineStr">
         <is>
-          <t>Caroline Boeshertz</t>
+          <t>Mirzha De Manuel</t>
         </is>
       </c>
       <c r="B294" s="3138" t="inlineStr">
@@ -17868,17 +17868,17 @@
       </c>
       <c r="C294" s="3141" t="inlineStr">
         <is>
-          <t>video - conference</t>
+          <t>Virtual</t>
         </is>
       </c>
       <c r="D294" s="3141" t="inlineStr">
         <is>
-          <t>FoodDrinkEurope, Comité Européen des Entreprises Vins, European Liaison Committee for Agriculture and agri-food trade, spiritsEUROPE</t>
+          <t>Move EU - The European Association of On-Demand Mobility</t>
         </is>
       </c>
       <c r="E294" s="3141" t="inlineStr">
         <is>
-          <t>Implementation of Decree 248 by the Chinese Customs Administration</t>
+          <t>Exchange of views on improving the conditions of platform workers. The associations presented their perspectives based on the second-stage consultation to social partners.  The EC explained the  objectives of the forthcoming legislative initiative.</t>
         </is>
       </c>
     </row>
@@ -17912,7 +17912,7 @@
     <row r="296">
       <c r="A296" s="3141" t="inlineStr">
         <is>
-          <t>Mirzha De Manuel</t>
+          <t>Caroline Boeshertz</t>
         </is>
       </c>
       <c r="B296" s="3138" t="inlineStr">
@@ -17922,17 +17922,17 @@
       </c>
       <c r="C296" s="3141" t="inlineStr">
         <is>
-          <t>Virtual</t>
+          <t>video - conference</t>
         </is>
       </c>
       <c r="D296" s="3141" t="inlineStr">
         <is>
-          <t>Move EU - The European Association of On-Demand Mobility</t>
+          <t>FoodDrinkEurope, Comité Européen des Entreprises Vins, European Liaison Committee for Agriculture and agri-food trade, spiritsEUROPE</t>
         </is>
       </c>
       <c r="E296" s="3141" t="inlineStr">
         <is>
-          <t>Exchange of views on improving the conditions of platform workers. The associations presented their perspectives based on the second-stage consultation to social partners.  The EC explained the  objectives of the forthcoming legislative initiative.</t>
+          <t>Implementation of Decree 248 by the Chinese Customs Administration</t>
         </is>
       </c>
     </row>
@@ -17976,17 +17976,17 @@
       </c>
       <c r="C298" s="3141" t="inlineStr">
         <is>
-          <t>video-conference</t>
+          <t xml:space="preserve">video conference </t>
         </is>
       </c>
       <c r="D298" s="3141" t="inlineStr">
         <is>
-          <t>NASDAQ</t>
+          <t>FTI Consulting Belgium, FIA European Principal Traders Association, part of FIA, Inc.</t>
         </is>
       </c>
       <c r="E298" s="3141" t="inlineStr">
         <is>
-          <t>Review of the Markets in Financial Instruments Regulation</t>
+          <t xml:space="preserve"> Investment Firms Directive and Regulation</t>
         </is>
       </c>
     </row>
@@ -18003,24 +18003,24 @@
       </c>
       <c r="C299" s="3141" t="inlineStr">
         <is>
-          <t xml:space="preserve">video conference </t>
+          <t>video-conference</t>
         </is>
       </c>
       <c r="D299" s="3141" t="inlineStr">
         <is>
-          <t>FTI Consulting Belgium, FIA European Principal Traders Association, part of FIA, Inc.</t>
+          <t>NASDAQ</t>
         </is>
       </c>
       <c r="E299" s="3141" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Investment Firms Directive and Regulation</t>
+          <t>Review of the Markets in Financial Instruments Regulation</t>
         </is>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="3141" t="inlineStr">
         <is>
-          <t>Mirzha De Manuel</t>
+          <t>Gints Freimanis, Michael Hager</t>
         </is>
       </c>
       <c r="B300" s="3138" t="inlineStr">
@@ -18030,24 +18030,24 @@
       </c>
       <c r="C300" s="3141" t="inlineStr">
         <is>
-          <t>Virtual</t>
+          <t>Brussels</t>
         </is>
       </c>
       <c r="D300" s="3141" t="inlineStr">
         <is>
-          <t>K-Monitor Közhasznú Egyesület</t>
+          <t>TUSIAD-Turkish Industry&amp;Business Association</t>
         </is>
       </c>
       <c r="E300" s="3141" t="inlineStr">
         <is>
-          <t xml:space="preserve">Anti-corruption related issues connected to the Hungarian RRP </t>
+          <t xml:space="preserve"> Trade relations EU-Turkey</t>
         </is>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="3141" t="inlineStr">
         <is>
-          <t>Gints Freimanis, Michael Hager</t>
+          <t>Mirzha De Manuel</t>
         </is>
       </c>
       <c r="B301" s="3138" t="inlineStr">
@@ -18057,17 +18057,17 @@
       </c>
       <c r="C301" s="3141" t="inlineStr">
         <is>
-          <t>Brussels</t>
+          <t>Virtual</t>
         </is>
       </c>
       <c r="D301" s="3141" t="inlineStr">
         <is>
-          <t>TUSIAD-Turkish Industry&amp;Business Association</t>
+          <t>K-Monitor Közhasznú Egyesület</t>
         </is>
       </c>
       <c r="E301" s="3141" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Trade relations EU-Turkey</t>
+          <t xml:space="preserve">Anti-corruption related issues connected to the Hungarian RRP </t>
         </is>
       </c>
     </row>
@@ -18128,7 +18128,7 @@
     <row r="304">
       <c r="A304" s="3141" t="inlineStr">
         <is>
-          <t>Caroline Boeshertz</t>
+          <t>Mirzha De Manuel</t>
         </is>
       </c>
       <c r="B304" s="3138" t="inlineStr">
@@ -18138,17 +18138,17 @@
       </c>
       <c r="C304" s="3141" t="inlineStr">
         <is>
-          <t>video conference</t>
+          <t>Brussels</t>
         </is>
       </c>
       <c r="D304" s="3141" t="inlineStr">
         <is>
-          <t>International Pharmaceutical Aerosol Consortium</t>
+          <t>BUSINESSEUROPE</t>
         </is>
       </c>
       <c r="E304" s="3141" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Fluorinated Gases regulation </t>
+          <t xml:space="preserve">EVP Dombrovskis  delivered an intervention on the interlink between the EU recovery and trade policies from a business perspective, and had the opportunity to answer questions raised by the participants on those topics. </t>
         </is>
       </c>
     </row>
@@ -18182,7 +18182,7 @@
     <row r="306">
       <c r="A306" s="3141" t="inlineStr">
         <is>
-          <t>Mirzha De Manuel</t>
+          <t>Caroline Boeshertz</t>
         </is>
       </c>
       <c r="B306" s="3138" t="inlineStr">
@@ -18192,17 +18192,17 @@
       </c>
       <c r="C306" s="3141" t="inlineStr">
         <is>
-          <t>Brussels</t>
+          <t>video conference</t>
         </is>
       </c>
       <c r="D306" s="3141" t="inlineStr">
         <is>
-          <t>BUSINESSEUROPE</t>
+          <t>International Pharmaceutical Aerosol Consortium</t>
         </is>
       </c>
       <c r="E306" s="3141" t="inlineStr">
         <is>
-          <t xml:space="preserve">EVP Dombrovskis  delivered an intervention on the interlink between the EU recovery and trade policies from a business perspective, and had the opportunity to answer questions raised by the participants on those topics. </t>
+          <t xml:space="preserve"> Fluorinated Gases regulation </t>
         </is>
       </c>
     </row>
@@ -18290,7 +18290,7 @@
     <row r="310">
       <c r="A310" s="3141" t="inlineStr">
         <is>
-          <t>Andrea Beltramello</t>
+          <t>Kevin Keary</t>
         </is>
       </c>
       <c r="B310" s="3138" t="inlineStr">
@@ -18300,24 +18300,24 @@
       </c>
       <c r="C310" s="3141" t="inlineStr">
         <is>
-          <t>video - conference</t>
+          <t>Brussels, Belgium</t>
         </is>
       </c>
       <c r="D310" s="3141" t="inlineStr">
         <is>
-          <t>Global Witness, WWF European Policy Programme, OXFAM INTERNATIONAL EU ADVOCACY OFFICE, Frank Bold Society</t>
+          <t>Irish Farmers' Association</t>
         </is>
       </c>
       <c r="E310" s="3141" t="inlineStr">
         <is>
-          <t>Sustainable corporate governance initiative</t>
+          <t xml:space="preserve"> Anti Dumping Duties on the import of Urea and ammonium nitrate</t>
         </is>
       </c>
     </row>
     <row r="311">
       <c r="A311" s="3141" t="inlineStr">
         <is>
-          <t>Kevin Keary</t>
+          <t>Andrea Beltramello</t>
         </is>
       </c>
       <c r="B311" s="3138" t="inlineStr">
@@ -18327,24 +18327,24 @@
       </c>
       <c r="C311" s="3141" t="inlineStr">
         <is>
-          <t>Brussels, Belgium</t>
+          <t>video - conference</t>
         </is>
       </c>
       <c r="D311" s="3141" t="inlineStr">
         <is>
-          <t>Irish Farmers' Association</t>
+          <t>Global Witness, WWF European Policy Programme, OXFAM INTERNATIONAL EU ADVOCACY OFFICE, Frank Bold Society</t>
         </is>
       </c>
       <c r="E311" s="3141" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Anti Dumping Duties on the import of Urea and ammonium nitrate</t>
+          <t>Sustainable corporate governance initiative</t>
         </is>
       </c>
     </row>
     <row r="312">
       <c r="A312" s="3141" t="inlineStr">
         <is>
-          <t>Gints Freimanis</t>
+          <t>Andrea Beltramello, Cristina Rueda Catry</t>
         </is>
       </c>
       <c r="B312" s="3138" t="inlineStr">
@@ -18354,24 +18354,24 @@
       </c>
       <c r="C312" s="3141" t="inlineStr">
         <is>
-          <t>virtual</t>
+          <t>BXL</t>
         </is>
       </c>
       <c r="D312" s="3141" t="inlineStr">
         <is>
-          <t>Anglo American, FTI Consulting Belgium</t>
+          <t>ASSOCIATION DES PRODUCTEURS AFRICAINS DE BANANES ET AUTRES FRUITS</t>
         </is>
       </c>
       <c r="E312" s="3141" t="inlineStr">
         <is>
-          <t xml:space="preserve"> deferred tax; carbon border adjustment mechanism </t>
+          <t xml:space="preserve"> ACP and EU banana markets</t>
         </is>
       </c>
     </row>
     <row r="313">
       <c r="A313" s="3141" t="inlineStr">
         <is>
-          <t>Cristina Rueda Catry, Andrea Beltramello</t>
+          <t>Kevin Keary, Caroline Boeshertz, Elina Melngaile</t>
         </is>
       </c>
       <c r="B313" s="3138" t="inlineStr">
@@ -18381,24 +18381,24 @@
       </c>
       <c r="C313" s="3141" t="inlineStr">
         <is>
-          <t>BXL</t>
+          <t>Brussels</t>
         </is>
       </c>
       <c r="D313" s="3141" t="inlineStr">
         <is>
-          <t>ASSOCIATION DES PRODUCTEURS AFRICAINS DE BANANES ET AUTRES FRUITS</t>
+          <t>European Federation of Pharmaceutical Industries and Associations, SANOFI, Merck, Pfizer Inc.</t>
         </is>
       </c>
       <c r="E313" s="3141" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ACP and EU banana markets</t>
+          <t>Pharmaceutical sector – trade related issues</t>
         </is>
       </c>
     </row>
     <row r="314">
       <c r="A314" s="3141" t="inlineStr">
         <is>
-          <t>Elina Melngaile, Kevin Keary, Caroline Boeshertz</t>
+          <t>Gints Freimanis</t>
         </is>
       </c>
       <c r="B314" s="3138" t="inlineStr">
@@ -18408,17 +18408,17 @@
       </c>
       <c r="C314" s="3141" t="inlineStr">
         <is>
-          <t>Brussels</t>
+          <t>virtual</t>
         </is>
       </c>
       <c r="D314" s="3141" t="inlineStr">
         <is>
-          <t>European Federation of Pharmaceutical Industries and Associations, SANOFI, Merck, Pfizer Inc.</t>
+          <t>Anglo American, FTI Consulting Belgium</t>
         </is>
       </c>
       <c r="E314" s="3141" t="inlineStr">
         <is>
-          <t>Pharmaceutical sector – trade related issues</t>
+          <t xml:space="preserve"> deferred tax; carbon border adjustment mechanism </t>
         </is>
       </c>
     </row>
@@ -18533,7 +18533,7 @@
     <row r="319">
       <c r="A319" s="3141" t="inlineStr">
         <is>
-          <t>Andrea Beltramello, Michael Hager</t>
+          <t>Michael Hager, Andrea Beltramello</t>
         </is>
       </c>
       <c r="B319" s="3138" t="inlineStr">
@@ -18587,7 +18587,7 @@
     <row r="321">
       <c r="A321" s="3141" t="inlineStr">
         <is>
-          <t>Cristina Rueda Catry, Andrea Beltramello</t>
+          <t>Andrea Beltramello, Cristina Rueda Catry</t>
         </is>
       </c>
       <c r="B321" s="3138" t="inlineStr">
@@ -18668,7 +18668,7 @@
     <row r="324">
       <c r="A324" s="3141" t="inlineStr">
         <is>
-          <t>Sofja Ribkina, Zaneta Vegnere</t>
+          <t>Andrea Beltramello</t>
         </is>
       </c>
       <c r="B324" s="3138" t="inlineStr">
@@ -18678,24 +18678,24 @@
       </c>
       <c r="C324" s="3141" t="inlineStr">
         <is>
-          <t>Video-conference</t>
+          <t>video call</t>
         </is>
       </c>
       <c r="D324" s="3141" t="inlineStr">
         <is>
-          <t>Biedrība Zemnieku saeima</t>
+          <t>Crédit Agricole S.A.</t>
         </is>
       </c>
       <c r="E324" s="3141" t="inlineStr">
         <is>
-          <t>Peat; taxonomy</t>
+          <t xml:space="preserve"> Basel III</t>
         </is>
       </c>
     </row>
     <row r="325">
       <c r="A325" s="3141" t="inlineStr">
         <is>
-          <t>Andrea Beltramello</t>
+          <t>Zaneta Vegnere, Sofja Ribkina</t>
         </is>
       </c>
       <c r="B325" s="3138" t="inlineStr">
@@ -18705,17 +18705,17 @@
       </c>
       <c r="C325" s="3141" t="inlineStr">
         <is>
-          <t>video call</t>
+          <t>Video-conference</t>
         </is>
       </c>
       <c r="D325" s="3141" t="inlineStr">
         <is>
-          <t>Crédit Agricole S.A.</t>
+          <t>Biedrība Zemnieku saeima</t>
         </is>
       </c>
       <c r="E325" s="3141" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Basel III</t>
+          <t>Peat; taxonomy</t>
         </is>
       </c>
     </row>
@@ -18749,7 +18749,7 @@
     <row r="327">
       <c r="A327" s="3141" t="inlineStr">
         <is>
-          <t>Andrea Beltramello</t>
+          <t>Caroline Boeshertz</t>
         </is>
       </c>
       <c r="B327" s="3138" t="inlineStr">
@@ -18759,24 +18759,24 @@
       </c>
       <c r="C327" s="3141" t="inlineStr">
         <is>
-          <t xml:space="preserve">video call </t>
+          <t>Brussels</t>
         </is>
       </c>
       <c r="D327" s="3141" t="inlineStr">
         <is>
-          <t>European Mortgage Federation - European Covered Bond Council</t>
+          <t>KIC InnoEnergy SE</t>
         </is>
       </c>
       <c r="E327" s="3141" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Basel III</t>
+          <t>European battery alliance</t>
         </is>
       </c>
     </row>
     <row r="328">
       <c r="A328" s="3141" t="inlineStr">
         <is>
-          <t>Caroline Boeshertz</t>
+          <t>Andrea Beltramello</t>
         </is>
       </c>
       <c r="B328" s="3138" t="inlineStr">
@@ -18786,24 +18786,24 @@
       </c>
       <c r="C328" s="3141" t="inlineStr">
         <is>
-          <t>Brussels</t>
+          <t xml:space="preserve">video call </t>
         </is>
       </c>
       <c r="D328" s="3141" t="inlineStr">
         <is>
-          <t>KIC InnoEnergy SE</t>
+          <t>European Mortgage Federation - European Covered Bond Council</t>
         </is>
       </c>
       <c r="E328" s="3141" t="inlineStr">
         <is>
-          <t>European battery alliance</t>
+          <t xml:space="preserve"> Basel III</t>
         </is>
       </c>
     </row>
     <row r="329">
       <c r="A329" s="3141" t="inlineStr">
         <is>
-          <t>Andrea Beltramello</t>
+          <t>Caroline Boeshertz</t>
         </is>
       </c>
       <c r="B329" s="3138" t="inlineStr">
@@ -18813,24 +18813,24 @@
       </c>
       <c r="C329" s="3141" t="inlineStr">
         <is>
-          <t xml:space="preserve">video-conference </t>
+          <t>video conference</t>
         </is>
       </c>
       <c r="D329" s="3141" t="inlineStr">
         <is>
-          <t>Verband Deutscher Maschinen- und Anlagenbau e.V.</t>
+          <t>Médecins Sans Frontières International, Stichting Health Action International, Human Rights Watch</t>
         </is>
       </c>
       <c r="E329" s="3141" t="inlineStr">
         <is>
-          <t xml:space="preserve">Due diligence </t>
+          <t xml:space="preserve"> COVID Vaccines</t>
         </is>
       </c>
     </row>
     <row r="330">
       <c r="A330" s="3141" t="inlineStr">
         <is>
-          <t>Caroline Boeshertz</t>
+          <t>Andrea Beltramello</t>
         </is>
       </c>
       <c r="B330" s="3138" t="inlineStr">
@@ -18840,17 +18840,17 @@
       </c>
       <c r="C330" s="3141" t="inlineStr">
         <is>
-          <t>video conference</t>
+          <t xml:space="preserve">video-conference </t>
         </is>
       </c>
       <c r="D330" s="3141" t="inlineStr">
         <is>
-          <t>Médecins Sans Frontières International, Stichting Health Action International, Human Rights Watch</t>
+          <t>Verband Deutscher Maschinen- und Anlagenbau e.V.</t>
         </is>
       </c>
       <c r="E330" s="3141" t="inlineStr">
         <is>
-          <t xml:space="preserve"> COVID Vaccines</t>
+          <t xml:space="preserve">Due diligence </t>
         </is>
       </c>
     </row>
@@ -18938,7 +18938,7 @@
     <row r="334">
       <c r="A334" s="3141" t="inlineStr">
         <is>
-          <t>Sofja Ribkina</t>
+          <t>Andrea Beltramello</t>
         </is>
       </c>
       <c r="B334" s="3138" t="inlineStr">
@@ -18948,24 +18948,24 @@
       </c>
       <c r="C334" s="3141" t="inlineStr">
         <is>
-          <t>Video-conference</t>
+          <t>video conference</t>
         </is>
       </c>
       <c r="D334" s="3141" t="inlineStr">
         <is>
-          <t>PET Europe - Producers' Association</t>
+          <t>Invest Europe</t>
         </is>
       </c>
       <c r="E334" s="3141" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the activities of the Committee and latest developments </t>
+          <t xml:space="preserve"> Solvency II, Basel implementation</t>
         </is>
       </c>
     </row>
     <row r="335">
       <c r="A335" s="3141" t="inlineStr">
         <is>
-          <t>Andrea Beltramello</t>
+          <t>Sofja Ribkina</t>
         </is>
       </c>
       <c r="B335" s="3138" t="inlineStr">
@@ -18975,24 +18975,24 @@
       </c>
       <c r="C335" s="3141" t="inlineStr">
         <is>
-          <t>video conference</t>
+          <t>Video-conference</t>
         </is>
       </c>
       <c r="D335" s="3141" t="inlineStr">
         <is>
-          <t>Invest Europe</t>
+          <t>PET Europe - Producers' Association</t>
         </is>
       </c>
       <c r="E335" s="3141" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Solvency II, Basel implementation</t>
+          <t xml:space="preserve">Introduction to the activities of the Committee and latest developments </t>
         </is>
       </c>
     </row>
     <row r="336">
       <c r="A336" s="3141" t="inlineStr">
         <is>
-          <t>Caroline Boeshertz, Cristina Rueda Catry, Zaneta Vegnere, Mirzha De Manuel</t>
+          <t>Zaneta Vegnere, Caroline Boeshertz, Mirzha De Manuel, Cristina Rueda Catry</t>
         </is>
       </c>
       <c r="B336" s="3138" t="inlineStr">
@@ -19100,7 +19100,7 @@
     <row r="340">
       <c r="A340" s="3141" t="inlineStr">
         <is>
-          <t>Sofja Ribkina, Cristina Rueda Catry, Caroline Boeshertz</t>
+          <t>Cristina Rueda Catry, Caroline Boeshertz, Sofja Ribkina</t>
         </is>
       </c>
       <c r="B340" s="3138" t="inlineStr">
@@ -19127,7 +19127,7 @@
     <row r="341">
       <c r="A341" s="3141" t="inlineStr">
         <is>
-          <t>Zaneta Vegnere, Elina Melngaile</t>
+          <t>Elina Melngaile, Zaneta Vegnere</t>
         </is>
       </c>
       <c r="B341" s="3138" t="inlineStr">
@@ -19154,7 +19154,7 @@
     <row r="342">
       <c r="A342" s="3141" t="inlineStr">
         <is>
-          <t>Andrea Beltramello, Cristina Rueda Catry</t>
+          <t>Cristina Rueda Catry, Andrea Beltramello</t>
         </is>
       </c>
       <c r="B342" s="3138" t="inlineStr">
@@ -19345,58 +19345,58 @@
     <row r="349">
       <c r="A349" s="3141" t="inlineStr">
         <is>
+          <t>Mirzha De Manuel</t>
+        </is>
+      </c>
+      <c r="B349" s="3138" t="inlineStr">
+        <is>
+          <t>02/09/2021</t>
+        </is>
+      </c>
+      <c r="C349" s="3141" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="D349" s="3141" t="inlineStr">
+        <is>
+          <t>Temasek International Pte Ltd</t>
+        </is>
+      </c>
+      <c r="E349" s="3141" t="inlineStr">
+        <is>
+          <t>NGEU, the RRF and the green and digital policy priorities and tools.</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" s="3141" t="inlineStr">
+        <is>
           <t>Zaneta Vegnere</t>
         </is>
       </c>
-      <c r="B349" s="3138" t="inlineStr">
+      <c r="B350" s="3138" t="inlineStr">
         <is>
           <t>02/09/2021</t>
         </is>
       </c>
-      <c r="C349" s="3141" t="inlineStr">
+      <c r="C350" s="3141" t="inlineStr">
         <is>
           <t>BXL</t>
         </is>
       </c>
-      <c r="D349" s="3141" t="inlineStr">
+      <c r="D350" s="3141" t="inlineStr">
         <is>
           <t>Deutsche Gesellschaft für Auswärtige Politik e.V.</t>
         </is>
       </c>
-      <c r="E349" s="3141" t="inlineStr">
+      <c r="E350" s="3141" t="inlineStr">
         <is>
           <t xml:space="preserve">- Trade and Technology Council
 - EU-US trade relationship </t>
         </is>
       </c>
     </row>
-    <row r="350">
-      <c r="A350" s="3141" t="inlineStr">
-        <is>
-          <t>Mirzha De Manuel</t>
-        </is>
-      </c>
-      <c r="B350" s="3138" t="inlineStr">
-        <is>
-          <t>02/09/2021</t>
-        </is>
-      </c>
-      <c r="C350" s="3141" t="inlineStr">
-        <is>
-          <t>Brussels</t>
-        </is>
-      </c>
-      <c r="D350" s="3141" t="inlineStr">
-        <is>
-          <t>Temasek International Pte Ltd</t>
-        </is>
-      </c>
-      <c r="E350" s="3141" t="inlineStr">
-        <is>
-          <t>NGEU, the RRF and the green and digital policy priorities and tools.</t>
-        </is>
-      </c>
-    </row>
     <row r="351">
       <c r="A351" s="3141" t="inlineStr">
         <is>
@@ -19713,7 +19713,7 @@
       </c>
       <c r="D362" s="3141" t="inlineStr">
         <is>
-          <t>European Telecommunications Network Operators' Association</t>
+          <t>Workday</t>
         </is>
       </c>
       <c r="E362" s="3141" t="inlineStr">
@@ -19740,7 +19740,7 @@
       </c>
       <c r="D363" s="3141" t="inlineStr">
         <is>
-          <t>Workday</t>
+          <t>European Telecommunications Network Operators' Association</t>
         </is>
       </c>
       <c r="E363" s="3141" t="inlineStr">
@@ -19779,7 +19779,7 @@
     <row r="365">
       <c r="A365" s="3141" t="inlineStr">
         <is>
-          <t>Andrea Beltramello, Gints Freimanis, Cristina Rueda Catry</t>
+          <t>Andrea Beltramello, Cristina Rueda Catry, Gints Freimanis</t>
         </is>
       </c>
       <c r="B365" s="3138" t="inlineStr">
@@ -19833,7 +19833,7 @@
     <row r="367">
       <c r="A367" s="3141" t="inlineStr">
         <is>
-          <t>Elina Melngaile, Michael Hager</t>
+          <t>Michael Hager, Gints Freimanis</t>
         </is>
       </c>
       <c r="B367" s="3138" t="inlineStr">
@@ -19848,48 +19848,48 @@
       </c>
       <c r="D367" s="3141" t="inlineStr">
         <is>
+          <t>TUSIAD-Turkish Industry&amp;Business Association</t>
+        </is>
+      </c>
+      <c r="E367" s="3141" t="inlineStr">
+        <is>
+          <t xml:space="preserve">EU-Turkey relations; Customs Union
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" s="3141" t="inlineStr">
+        <is>
+          <t>Michael Hager, Elina Melngaile</t>
+        </is>
+      </c>
+      <c r="B368" s="3138" t="inlineStr">
+        <is>
+          <t>23/06/2021</t>
+        </is>
+      </c>
+      <c r="C368" s="3141" t="inlineStr">
+        <is>
+          <t>virtual</t>
+        </is>
+      </c>
+      <c r="D368" s="3141" t="inlineStr">
+        <is>
           <t>FEDERATION DES EXPORTATEURS DE VINS ET SPIRITUEUX DE FRANCE, Moët Hennessy, Davide Campari-Milano N.V., Federazione italiana industriali produttori esportatori ed importatori di vini, acquaviti, liquori, sciroppi, aceti ed affini, Mast-Jägermeister SE, Brown-Forman Netherlands BV, Diageo, Beam Suntory SL, Bacardi-Martini BV, PERNOD RICARD, THOFFOOD SL, Ibec, spiritsEUROPE, Bureau National Interprofessionnel du Cognac</t>
         </is>
       </c>
-      <c r="E367" s="3141" t="inlineStr">
+      <c r="E368" s="3141" t="inlineStr">
         <is>
           <t>EU-US trade relations;
 Trade relations with other third countries</t>
         </is>
       </c>
     </row>
-    <row r="368">
-      <c r="A368" s="3141" t="inlineStr">
-        <is>
-          <t>Michael Hager, Gints Freimanis</t>
-        </is>
-      </c>
-      <c r="B368" s="3138" t="inlineStr">
-        <is>
-          <t>23/06/2021</t>
-        </is>
-      </c>
-      <c r="C368" s="3141" t="inlineStr">
-        <is>
-          <t>virtual</t>
-        </is>
-      </c>
-      <c r="D368" s="3141" t="inlineStr">
-        <is>
-          <t>TUSIAD-Turkish Industry&amp;Business Association</t>
-        </is>
-      </c>
-      <c r="E368" s="3141" t="inlineStr">
-        <is>
-          <t xml:space="preserve">EU-Turkey relations; Customs Union
-</t>
-        </is>
-      </c>
-    </row>
     <row r="369">
       <c r="A369" s="3141" t="inlineStr">
         <is>
-          <t>Michael Hager, Cristina Rueda Catry</t>
+          <t>Cristina Rueda Catry, Michael Hager</t>
         </is>
       </c>
       <c r="B369" s="3138" t="inlineStr">
@@ -20110,7 +20110,7 @@
     <row r="377">
       <c r="A377" s="3141" t="inlineStr">
         <is>
-          <t>Cristina Rueda Catry, Caroline Boeshertz</t>
+          <t>Caroline Boeshertz, Cristina Rueda Catry</t>
         </is>
       </c>
       <c r="B377" s="3138" t="inlineStr">
@@ -20245,7 +20245,7 @@
     <row r="382">
       <c r="A382" s="3141" t="inlineStr">
         <is>
-          <t>Andrea Beltramello</t>
+          <t>Andrea Beltramello, Caroline Boeshertz</t>
         </is>
       </c>
       <c r="B382" s="3138" t="inlineStr">
@@ -20255,24 +20255,24 @@
       </c>
       <c r="C382" s="3141" t="inlineStr">
         <is>
-          <t>video conference</t>
+          <t>video-conference</t>
         </is>
       </c>
       <c r="D382" s="3141" t="inlineStr">
         <is>
-          <t>European Banking Federation, Copenhagen Economics</t>
+          <t>Bundesarbeitgeberverband Chemie e.V., Bayer AG, Verband der Chemischen Industrie e.V.</t>
         </is>
       </c>
       <c r="E382" s="3141" t="inlineStr">
         <is>
-          <t>Basel III implementation</t>
+          <t>Sustainable corporate governance and due diligence</t>
         </is>
       </c>
     </row>
     <row r="383">
       <c r="A383" s="3141" t="inlineStr">
         <is>
-          <t>Andrea Beltramello, Caroline Boeshertz</t>
+          <t>Andrea Beltramello</t>
         </is>
       </c>
       <c r="B383" s="3138" t="inlineStr">
@@ -20282,24 +20282,24 @@
       </c>
       <c r="C383" s="3141" t="inlineStr">
         <is>
-          <t>video-conference</t>
+          <t>video conference</t>
         </is>
       </c>
       <c r="D383" s="3141" t="inlineStr">
         <is>
-          <t>Bundesarbeitgeberverband Chemie e.V., Bayer AG, Verband der Chemischen Industrie e.V.</t>
+          <t>European Banking Federation, Copenhagen Economics</t>
         </is>
       </c>
       <c r="E383" s="3141" t="inlineStr">
         <is>
-          <t>Sustainable corporate governance and due diligence</t>
+          <t>Basel III implementation</t>
         </is>
       </c>
     </row>
     <row r="384">
       <c r="A384" s="3141" t="inlineStr">
         <is>
-          <t>Caroline Boeshertz, Andrea Beltramello</t>
+          <t>Zaneta Vegnere</t>
         </is>
       </c>
       <c r="B384" s="3138" t="inlineStr">
@@ -20309,42 +20309,15 @@
       </c>
       <c r="C384" s="3141" t="inlineStr">
         <is>
-          <t>video-conference</t>
+          <t>virtual</t>
         </is>
       </c>
       <c r="D384" s="3141" t="inlineStr">
         <is>
-          <t>Clean Clothes Campaign / Stichting Schone Kleren Kampagne, Global Witness, International Federation for Human Rights, Anti-Slavery International, European Center for Constitutional and Human Rights, ClientEarth AISBL, European Coalition for Corporate Justice</t>
+          <t>European Branded Clothing Alliance</t>
         </is>
       </c>
       <c r="E384" s="3141" t="inlineStr">
-        <is>
-          <t>Due diligence</t>
-        </is>
-      </c>
-    </row>
-    <row r="385">
-      <c r="A385" s="3141" t="inlineStr">
-        <is>
-          <t>Zaneta Vegnere</t>
-        </is>
-      </c>
-      <c r="B385" s="3138" t="inlineStr">
-        <is>
-          <t>27/05/2021</t>
-        </is>
-      </c>
-      <c r="C385" s="3141" t="inlineStr">
-        <is>
-          <t>virtual</t>
-        </is>
-      </c>
-      <c r="D385" s="3141" t="inlineStr">
-        <is>
-          <t>European Branded Clothing Alliance</t>
-        </is>
-      </c>
-      <c r="E385" s="3141" t="inlineStr">
         <is>
           <t xml:space="preserve">- open strategic autonomy
 - textile industry and trade
@@ -20353,10 +20326,37 @@
         </is>
       </c>
     </row>
+    <row r="385">
+      <c r="A385" s="3141" t="inlineStr">
+        <is>
+          <t>Caroline Boeshertz, Andrea Beltramello</t>
+        </is>
+      </c>
+      <c r="B385" s="3138" t="inlineStr">
+        <is>
+          <t>27/05/2021</t>
+        </is>
+      </c>
+      <c r="C385" s="3141" t="inlineStr">
+        <is>
+          <t>video-conference</t>
+        </is>
+      </c>
+      <c r="D385" s="3141" t="inlineStr">
+        <is>
+          <t>Clean Clothes Campaign / Stichting Schone Kleren Kampagne, Global Witness, International Federation for Human Rights, Anti-Slavery International, European Center for Constitutional and Human Rights, ClientEarth AISBL, European Coalition for Corporate Justice</t>
+        </is>
+      </c>
+      <c r="E385" s="3141" t="inlineStr">
+        <is>
+          <t>Due diligence</t>
+        </is>
+      </c>
+    </row>
     <row r="386">
       <c r="A386" s="3141" t="inlineStr">
         <is>
-          <t>Michael Hager</t>
+          <t>Andrea Beltramello</t>
         </is>
       </c>
       <c r="B386" s="3138" t="inlineStr">
@@ -20366,24 +20366,24 @@
       </c>
       <c r="C386" s="3141" t="inlineStr">
         <is>
-          <t>Video conferencing</t>
+          <t>video-conference</t>
         </is>
       </c>
       <c r="D386" s="3141" t="inlineStr">
         <is>
-          <t>Commerzbank AG</t>
+          <t>Alipay (Europe) Limited S.A., Brunswick Group Advisory Limited</t>
         </is>
       </c>
       <c r="E386" s="3141" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sustainable corporate governance </t>
+          <t>Green financial products</t>
         </is>
       </c>
     </row>
     <row r="387">
       <c r="A387" s="3141" t="inlineStr">
         <is>
-          <t>Andrea Beltramello</t>
+          <t>Michael Hager</t>
         </is>
       </c>
       <c r="B387" s="3138" t="inlineStr">
@@ -20393,17 +20393,17 @@
       </c>
       <c r="C387" s="3141" t="inlineStr">
         <is>
-          <t>video-conference</t>
+          <t>Video conferencing</t>
         </is>
       </c>
       <c r="D387" s="3141" t="inlineStr">
         <is>
-          <t>Alipay (Europe) Limited S.A., Brunswick Group Advisory Limited</t>
+          <t>Commerzbank AG</t>
         </is>
       </c>
       <c r="E387" s="3141" t="inlineStr">
         <is>
-          <t>Green financial products</t>
+          <t xml:space="preserve">Sustainable corporate governance </t>
         </is>
       </c>
     </row>
@@ -20464,7 +20464,7 @@
     <row r="390">
       <c r="A390" s="3141" t="inlineStr">
         <is>
-          <t>Caroline Boeshertz, Michael Hager, Cristina Rueda Catry</t>
+          <t>Michael Hager, Caroline Boeshertz, Cristina Rueda Catry</t>
         </is>
       </c>
       <c r="B390" s="3138" t="inlineStr">
@@ -20491,7 +20491,7 @@
     <row r="391">
       <c r="A391" s="3141" t="inlineStr">
         <is>
-          <t>Andrea Beltramello</t>
+          <t>Caroline Boeshertz, Andrea Beltramello</t>
         </is>
       </c>
       <c r="B391" s="3138" t="inlineStr">
@@ -20501,24 +20501,24 @@
       </c>
       <c r="C391" s="3141" t="inlineStr">
         <is>
-          <t>video-conference</t>
+          <t>video-confernece</t>
         </is>
       </c>
       <c r="D391" s="3141" t="inlineStr">
         <is>
-          <t>FTI Consulting Belgium, Aon</t>
+          <t>Global Witness, WWF European Policy Programme, Conservation International Europe, Environmental Investigation Agency, WCS EU, ClientEarth AISBL, Fern, Green 10</t>
         </is>
       </c>
       <c r="E391" s="3141" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Covid-19 and insurance sector                      </t>
+          <t>Deforestation</t>
         </is>
       </c>
     </row>
     <row r="392">
       <c r="A392" s="3141" t="inlineStr">
         <is>
-          <t>Andrea Beltramello, Caroline Boeshertz</t>
+          <t>Andrea Beltramello</t>
         </is>
       </c>
       <c r="B392" s="3138" t="inlineStr">
@@ -20528,17 +20528,17 @@
       </c>
       <c r="C392" s="3141" t="inlineStr">
         <is>
-          <t>video-confernece</t>
+          <t>video-conference</t>
         </is>
       </c>
       <c r="D392" s="3141" t="inlineStr">
         <is>
-          <t>Global Witness, WWF European Policy Programme, Conservation International Europe, Environmental Investigation Agency, WCS EU, ClientEarth AISBL, Fern, Green 10</t>
+          <t>Association Française des Entreprises Privées / French Association of Large Companies, EuropeanIssuers, Deutsches Aktieninstitut, Associazione fra le società italiane per azioni</t>
         </is>
       </c>
       <c r="E392" s="3141" t="inlineStr">
         <is>
-          <t>Deforestation</t>
+          <t>Sustainable corporate governance</t>
         </is>
       </c>
     </row>
@@ -20560,12 +20560,12 @@
       </c>
       <c r="D393" s="3141" t="inlineStr">
         <is>
-          <t>Association Française des Entreprises Privées / French Association of Large Companies, EuropeanIssuers, Deutsches Aktieninstitut, Associazione fra le società italiane per azioni</t>
+          <t>FTI Consulting Belgium, Aon</t>
         </is>
       </c>
       <c r="E393" s="3141" t="inlineStr">
         <is>
-          <t>Sustainable corporate governance</t>
+          <t xml:space="preserve"> Covid-19 and insurance sector                      </t>
         </is>
       </c>
     </row>
@@ -20788,7 +20788,7 @@
     <row r="402">
       <c r="A402" s="3141" t="inlineStr">
         <is>
-          <t>Caroline Boeshertz, Andrea Beltramello</t>
+          <t>Andrea Beltramello</t>
         </is>
       </c>
       <c r="B402" s="3138" t="inlineStr">
@@ -20803,19 +20803,19 @@
       </c>
       <c r="D402" s="3141" t="inlineStr">
         <is>
-          <t>CMA CGM</t>
+          <t>BNP PARIBAS</t>
         </is>
       </c>
       <c r="E402" s="3141" t="inlineStr">
         <is>
-          <t>Shipping and trade</t>
+          <t>Basel implementation</t>
         </is>
       </c>
     </row>
     <row r="403">
       <c r="A403" s="3141" t="inlineStr">
         <is>
-          <t>Andrea Beltramello</t>
+          <t>Andrea Beltramello, Caroline Boeshertz</t>
         </is>
       </c>
       <c r="B403" s="3138" t="inlineStr">
@@ -20830,12 +20830,12 @@
       </c>
       <c r="D403" s="3141" t="inlineStr">
         <is>
-          <t>BNP PARIBAS</t>
+          <t>CMA CGM</t>
         </is>
       </c>
       <c r="E403" s="3141" t="inlineStr">
         <is>
-          <t>Basel implementation</t>
+          <t>Shipping and trade</t>
         </is>
       </c>
     </row>
@@ -20923,7 +20923,7 @@
     <row r="407">
       <c r="A407" s="3141" t="inlineStr">
         <is>
-          <t>Gints Freimanis, Michael Hager</t>
+          <t>Michael Hager, Gints Freimanis</t>
         </is>
       </c>
       <c r="B407" s="3138" t="inlineStr">
@@ -21007,7 +21007,7 @@
     <row r="410">
       <c r="A410" s="3141" t="inlineStr">
         <is>
-          <t>Sofja Ribkina, Caroline Boeshertz</t>
+          <t>Caroline Boeshertz, Sofja Ribkina</t>
         </is>
       </c>
       <c r="B410" s="3138" t="inlineStr">
@@ -21034,7 +21034,7 @@
     <row r="411">
       <c r="A411" s="3141" t="inlineStr">
         <is>
-          <t>Elina Melngaile</t>
+          <t>Michael Hager</t>
         </is>
       </c>
       <c r="B411" s="3138" t="inlineStr">
@@ -21044,17 +21044,17 @@
       </c>
       <c r="C411" s="3141" t="inlineStr">
         <is>
-          <t>Virtual</t>
+          <t>Video conferencing</t>
         </is>
       </c>
       <c r="D411" s="3141" t="inlineStr">
         <is>
-          <t>SUEZ Group</t>
+          <t>Infineon Technologies AG</t>
         </is>
       </c>
       <c r="E411" s="3141" t="inlineStr">
         <is>
-          <t>EU Taxonomy and its impact on energy sector</t>
+          <t xml:space="preserve"> Industrial and trade policy</t>
         </is>
       </c>
     </row>
@@ -21071,24 +21071,24 @@
       </c>
       <c r="C412" s="3141" t="inlineStr">
         <is>
-          <t>Video conferencing</t>
+          <t>video conferencing</t>
         </is>
       </c>
       <c r="D412" s="3141" t="inlineStr">
         <is>
-          <t>Infineon Technologies AG</t>
+          <t>Gesamtverband der Deutschen Versicherungswirtschaft e.V.</t>
         </is>
       </c>
       <c r="E412" s="3141" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Industrial and trade policy</t>
+          <t xml:space="preserve"> Solvency II</t>
         </is>
       </c>
     </row>
     <row r="413">
       <c r="A413" s="3141" t="inlineStr">
         <is>
-          <t>Michael Hager</t>
+          <t>Elina Melngaile</t>
         </is>
       </c>
       <c r="B413" s="3138" t="inlineStr">
@@ -21098,17 +21098,17 @@
       </c>
       <c r="C413" s="3141" t="inlineStr">
         <is>
-          <t>video conferencing</t>
+          <t>Virtual</t>
         </is>
       </c>
       <c r="D413" s="3141" t="inlineStr">
         <is>
-          <t>Gesamtverband der Deutschen Versicherungswirtschaft e.V.</t>
+          <t>SUEZ Group</t>
         </is>
       </c>
       <c r="E413" s="3141" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Solvency II</t>
+          <t>EU Taxonomy and its impact on energy sector</t>
         </is>
       </c>
     </row>
@@ -21223,25 +21223,52 @@
     <row r="418">
       <c r="A418" s="3141" t="inlineStr">
         <is>
+          <t>Andrea Beltramello</t>
+        </is>
+      </c>
+      <c r="B418" s="3138" t="inlineStr">
+        <is>
+          <t>31/03/2021</t>
+        </is>
+      </c>
+      <c r="C418" s="3141" t="inlineStr">
+        <is>
+          <t>video-conference</t>
+        </is>
+      </c>
+      <c r="D418" s="3141" t="inlineStr">
+        <is>
+          <t>Confederazione Generale dell'Industria Italiana</t>
+        </is>
+      </c>
+      <c r="E418" s="3141" t="inlineStr">
+        <is>
+          <t>Sustainable corporate governance and due diligence</t>
+        </is>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" s="3141" t="inlineStr">
+        <is>
           <t>Zaneta Vegnere</t>
         </is>
       </c>
-      <c r="B418" s="3138" t="inlineStr">
+      <c r="B419" s="3138" t="inlineStr">
         <is>
           <t>31/03/2021</t>
         </is>
       </c>
-      <c r="C418" s="3141" t="inlineStr">
+      <c r="C419" s="3141" t="inlineStr">
         <is>
           <t>virtual</t>
         </is>
       </c>
-      <c r="D418" s="3141" t="inlineStr">
+      <c r="D419" s="3141" t="inlineStr">
         <is>
           <t>Orgalim – Europe's Technology Industries</t>
         </is>
       </c>
-      <c r="E418" s="3141" t="inlineStr">
+      <c r="E419" s="3141" t="inlineStr">
         <is>
           <t xml:space="preserve">- review of industry strategy
 - European Green Deal
@@ -21249,37 +21276,10 @@
         </is>
       </c>
     </row>
-    <row r="419">
-      <c r="A419" s="3141" t="inlineStr">
-        <is>
-          <t>Michael Hager, Andrea Beltramello</t>
-        </is>
-      </c>
-      <c r="B419" s="3138" t="inlineStr">
-        <is>
-          <t>31/03/2021</t>
-        </is>
-      </c>
-      <c r="C419" s="3141" t="inlineStr">
-        <is>
-          <t>video conferencing</t>
-        </is>
-      </c>
-      <c r="D419" s="3141" t="inlineStr">
-        <is>
-          <t>Bundesverband deutscher Banken e.V.</t>
-        </is>
-      </c>
-      <c r="E419" s="3141" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Financial services policy</t>
-        </is>
-      </c>
-    </row>
     <row r="420">
       <c r="A420" s="3141" t="inlineStr">
         <is>
-          <t>Andrea Beltramello</t>
+          <t>Michael Hager, Andrea Beltramello</t>
         </is>
       </c>
       <c r="B420" s="3138" t="inlineStr">
@@ -21289,24 +21289,24 @@
       </c>
       <c r="C420" s="3141" t="inlineStr">
         <is>
-          <t>video-conference</t>
+          <t>video conferencing</t>
         </is>
       </c>
       <c r="D420" s="3141" t="inlineStr">
         <is>
-          <t>Confederazione Generale dell'Industria Italiana</t>
+          <t>Bundesverband deutscher Banken e.V.</t>
         </is>
       </c>
       <c r="E420" s="3141" t="inlineStr">
         <is>
-          <t>Sustainable corporate governance and due diligence</t>
+          <t xml:space="preserve"> Financial services policy</t>
         </is>
       </c>
     </row>
     <row r="421">
       <c r="A421" s="3141" t="inlineStr">
         <is>
-          <t>Andrea Beltramello, Michael Hager</t>
+          <t>Michael Hager, Andrea Beltramello</t>
         </is>
       </c>
       <c r="B421" s="3138" t="inlineStr">
@@ -21343,17 +21343,17 @@
       </c>
       <c r="C422" s="3141" t="inlineStr">
         <is>
-          <t>Video conferencing</t>
+          <t>video conferencing</t>
         </is>
       </c>
       <c r="D422" s="3141" t="inlineStr">
         <is>
-          <t>Microsoft Corporation</t>
+          <t>Fédération bancaire française</t>
         </is>
       </c>
       <c r="E422" s="3141" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Trade policy</t>
+          <t xml:space="preserve"> Financial services policy</t>
         </is>
       </c>
     </row>
@@ -21370,17 +21370,17 @@
       </c>
       <c r="C423" s="3141" t="inlineStr">
         <is>
-          <t>video conferencing</t>
+          <t>Video conferencing</t>
         </is>
       </c>
       <c r="D423" s="3141" t="inlineStr">
         <is>
-          <t>Fédération bancaire française</t>
+          <t>Microsoft Corporation</t>
         </is>
       </c>
       <c r="E423" s="3141" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Financial services policy</t>
+          <t xml:space="preserve"> Trade policy</t>
         </is>
       </c>
     </row>
@@ -21402,12 +21402,12 @@
       </c>
       <c r="D424" s="3141" t="inlineStr">
         <is>
-          <t>ArcelorMittal, The European Steel Association</t>
+          <t>World Wide Fund for Nature Belgium, Naturschutzbund Deutschland e.V., Climate Strategy, Stichting BirdLife Europe, Transport and Environment (European Federation for Transport and Environment)</t>
         </is>
       </c>
       <c r="E424" s="3141" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Taxonomy, draft Delegated Act</t>
+          <t xml:space="preserve"> Taxonomy</t>
         </is>
       </c>
     </row>
@@ -21429,12 +21429,12 @@
       </c>
       <c r="D425" s="3141" t="inlineStr">
         <is>
-          <t>World Wide Fund for Nature Belgium, Naturschutzbund Deutschland e.V., Climate Strategy, Stichting BirdLife Europe, Transport and Environment (European Federation for Transport and Environment)</t>
+          <t>ArcelorMittal, The European Steel Association</t>
         </is>
       </c>
       <c r="E425" s="3141" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Taxonomy</t>
+          <t xml:space="preserve"> Taxonomy, draft Delegated Act</t>
         </is>
       </c>
     </row>
@@ -21606,7 +21606,7 @@
     <row r="432">
       <c r="A432" s="3141" t="inlineStr">
         <is>
-          <t>Cristina Rueda Catry, Andrea Beltramello</t>
+          <t>Andrea Beltramello, Cristina Rueda Catry</t>
         </is>
       </c>
       <c r="B432" s="3138" t="inlineStr">
@@ -21827,7 +21827,7 @@
     <row r="440">
       <c r="A440" s="3141" t="inlineStr">
         <is>
-          <t>Elina Melngaile</t>
+          <t>Andrea Beltramello</t>
         </is>
       </c>
       <c r="B440" s="3138" t="inlineStr">
@@ -21837,24 +21837,24 @@
       </c>
       <c r="C440" s="3141" t="inlineStr">
         <is>
-          <t>Virtual</t>
+          <t>Video call</t>
         </is>
       </c>
       <c r="D440" s="3141" t="inlineStr">
         <is>
-          <t>GML Limited</t>
+          <t>Eurelectric aisbl</t>
         </is>
       </c>
       <c r="E440" s="3141" t="inlineStr">
         <is>
-          <t>GML arbitration proceedings against the Russian Federation in 2004 under the ECT</t>
+          <t xml:space="preserve"> Sustainable finance taxonomy</t>
         </is>
       </c>
     </row>
     <row r="441">
       <c r="A441" s="3141" t="inlineStr">
         <is>
-          <t>Andrea Beltramello</t>
+          <t>Elina Melngaile</t>
         </is>
       </c>
       <c r="B441" s="3138" t="inlineStr">
@@ -21864,17 +21864,17 @@
       </c>
       <c r="C441" s="3141" t="inlineStr">
         <is>
-          <t>Video call</t>
+          <t>Virtual</t>
         </is>
       </c>
       <c r="D441" s="3141" t="inlineStr">
         <is>
-          <t>Eurelectric aisbl</t>
+          <t>GML Limited</t>
         </is>
       </c>
       <c r="E441" s="3141" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Sustainable finance taxonomy</t>
+          <t>GML arbitration proceedings against the Russian Federation in 2004 under the ECT</t>
         </is>
       </c>
     </row>
@@ -21935,7 +21935,7 @@
     <row r="444">
       <c r="A444" s="3141" t="inlineStr">
         <is>
-          <t>Andrea Beltramello</t>
+          <t>Mirzha De Manuel</t>
         </is>
       </c>
       <c r="B444" s="3138" t="inlineStr">
@@ -21945,24 +21945,24 @@
       </c>
       <c r="C444" s="3141" t="inlineStr">
         <is>
-          <t>video conference</t>
+          <t>Brussels and virtual</t>
         </is>
       </c>
       <c r="D444" s="3141" t="inlineStr">
         <is>
-          <t>Stichting European Climate Foundation</t>
+          <t>Arbeitsgemeinschaft katholisch-sozialer Bildungswerke in der Bundesrepublik Deutschland e.V.</t>
         </is>
       </c>
       <c r="E444" s="3141" t="inlineStr">
         <is>
-          <t xml:space="preserve">trade and climate </t>
+          <t xml:space="preserve">Discussed the Recovery and Resilience Facility framework for climate change, digitalisation and education, including the EU reskill and upskill flagship.” </t>
         </is>
       </c>
     </row>
     <row r="445">
       <c r="A445" s="3141" t="inlineStr">
         <is>
-          <t>Mirzha De Manuel</t>
+          <t>Andrea Beltramello</t>
         </is>
       </c>
       <c r="B445" s="3138" t="inlineStr">
@@ -21972,17 +21972,17 @@
       </c>
       <c r="C445" s="3141" t="inlineStr">
         <is>
-          <t>Brussels and virtual</t>
+          <t>video conference</t>
         </is>
       </c>
       <c r="D445" s="3141" t="inlineStr">
         <is>
-          <t>Arbeitsgemeinschaft katholisch-sozialer Bildungswerke in der Bundesrepublik Deutschland e.V.</t>
+          <t>Stichting European Climate Foundation</t>
         </is>
       </c>
       <c r="E445" s="3141" t="inlineStr">
         <is>
-          <t xml:space="preserve">Discussed the Recovery and Resilience Facility framework for climate change, digitalisation and education, including the EU reskill and upskill flagship.” </t>
+          <t xml:space="preserve">trade and climate </t>
         </is>
       </c>
     </row>
@@ -22124,7 +22124,7 @@
     <row r="451">
       <c r="A451" s="3141" t="inlineStr">
         <is>
-          <t>Cristina Rueda Catry, Andrea Beltramello, Mirzha De Manuel</t>
+          <t>Cristina Rueda Catry, Mirzha De Manuel, Andrea Beltramello</t>
         </is>
       </c>
       <c r="B451" s="3138" t="inlineStr">
@@ -22205,7 +22205,7 @@
     <row r="454">
       <c r="A454" s="3141" t="inlineStr">
         <is>
-          <t>Mirzha De Manuel</t>
+          <t>Elina Melngaile</t>
         </is>
       </c>
       <c r="B454" s="3138" t="inlineStr">
@@ -22215,24 +22215,25 @@
       </c>
       <c r="C454" s="3141" t="inlineStr">
         <is>
-          <t>Brussles, online</t>
+          <t>Virtual</t>
         </is>
       </c>
       <c r="D454" s="3141" t="inlineStr">
         <is>
-          <t>BUSINESSEUROPE</t>
+          <t>Nokia</t>
         </is>
       </c>
       <c r="E454" s="3141" t="inlineStr">
         <is>
-          <t>BusinessEurope's ASG CEO event - informal call: to discuss BusinessEurope's ASG CEO forthcoming event and the new cabinet team and the recent and forthcoming actions on employment and social files, including social dialogue.</t>
+          <t xml:space="preserve">Trade policy in the digital sector
+ </t>
         </is>
       </c>
     </row>
     <row r="455">
       <c r="A455" s="3141" t="inlineStr">
         <is>
-          <t>Elina Melngaile</t>
+          <t>Mirzha De Manuel</t>
         </is>
       </c>
       <c r="B455" s="3138" t="inlineStr">
@@ -22242,25 +22243,24 @@
       </c>
       <c r="C455" s="3141" t="inlineStr">
         <is>
-          <t>Virtual</t>
+          <t>Brussles, online</t>
         </is>
       </c>
       <c r="D455" s="3141" t="inlineStr">
         <is>
-          <t>Nokia</t>
+          <t>BUSINESSEUROPE</t>
         </is>
       </c>
       <c r="E455" s="3141" t="inlineStr">
         <is>
-          <t xml:space="preserve">Trade policy in the digital sector
- </t>
+          <t>BusinessEurope's ASG CEO event - informal call: to discuss BusinessEurope's ASG CEO forthcoming event and the new cabinet team and the recent and forthcoming actions on employment and social files, including social dialogue.</t>
         </is>
       </c>
     </row>
     <row r="456">
       <c r="A456" s="3141" t="inlineStr">
         <is>
-          <t>Vanessa Mock, Andrea Beltramello</t>
+          <t>Andrea Beltramello, Vanessa Mock</t>
         </is>
       </c>
       <c r="B456" s="3138" t="inlineStr">
@@ -22449,7 +22449,7 @@
     <row r="463">
       <c r="A463" s="3141" t="inlineStr">
         <is>
-          <t>Michael Hager</t>
+          <t>Cristina Rueda Catry, Andrea Beltramello</t>
         </is>
       </c>
       <c r="B463" s="3138" t="inlineStr">
@@ -22459,24 +22459,24 @@
       </c>
       <c r="C463" s="3141" t="inlineStr">
         <is>
-          <t>Video conferencing</t>
+          <t xml:space="preserve">video conference </t>
         </is>
       </c>
       <c r="D463" s="3141" t="inlineStr">
         <is>
-          <t>Société Générale</t>
+          <t>Fern</t>
         </is>
       </c>
       <c r="E463" s="3141" t="inlineStr">
         <is>
-          <t>CMU, financial markets regulation</t>
+          <t>Sustainable cocoa initiative; deforestation and forest degradation</t>
         </is>
       </c>
     </row>
     <row r="464">
       <c r="A464" s="3141" t="inlineStr">
         <is>
-          <t>Cristina Rueda Catry, Andrea Beltramello</t>
+          <t>Michael Hager</t>
         </is>
       </c>
       <c r="B464" s="3138" t="inlineStr">
@@ -22486,17 +22486,17 @@
       </c>
       <c r="C464" s="3141" t="inlineStr">
         <is>
-          <t xml:space="preserve">video conference </t>
+          <t xml:space="preserve">Video conferencing </t>
         </is>
       </c>
       <c r="D464" s="3141" t="inlineStr">
         <is>
-          <t>Fern</t>
+          <t>Confederazione Generale dell'Industria Italiana</t>
         </is>
       </c>
       <c r="E464" s="3141" t="inlineStr">
         <is>
-          <t>Sustainable cocoa initiative; deforestation and forest degradation</t>
+          <t>RRF, Trade policy</t>
         </is>
       </c>
     </row>
@@ -22541,17 +22541,17 @@
       </c>
       <c r="C466" s="3141" t="inlineStr">
         <is>
-          <t xml:space="preserve">Video conferencing </t>
+          <t>Video conferencing</t>
         </is>
       </c>
       <c r="D466" s="3141" t="inlineStr">
         <is>
-          <t>Confederazione Generale dell'Industria Italiana</t>
+          <t>Société Générale</t>
         </is>
       </c>
       <c r="E466" s="3141" t="inlineStr">
         <is>
-          <t>RRF, Trade policy</t>
+          <t>CMU, financial markets regulation</t>
         </is>
       </c>
     </row>
@@ -22805,7 +22805,7 @@
     <row r="476">
       <c r="A476" s="3141" t="inlineStr">
         <is>
-          <t>Cristina Rueda Catry, Andrea Beltramello</t>
+          <t>Andrea Beltramello, Cristina Rueda Catry</t>
         </is>
       </c>
       <c r="B476" s="3138" t="inlineStr">
@@ -22869,17 +22869,17 @@
       </c>
       <c r="C478" s="3141" t="inlineStr">
         <is>
-          <t>video conference</t>
+          <t>video - conference</t>
         </is>
       </c>
       <c r="D478" s="3141" t="inlineStr">
         <is>
-          <t>United Company RUSAL, Federation of Aluminium Consumers in Europe</t>
+          <t>CMA CGM</t>
         </is>
       </c>
       <c r="E478" s="3141" t="inlineStr">
         <is>
-          <t>Trade and climate</t>
+          <t>Trade-related issues for maritime transport; Green Deal</t>
         </is>
       </c>
     </row>
@@ -22896,17 +22896,17 @@
       </c>
       <c r="C479" s="3141" t="inlineStr">
         <is>
-          <t>video - conference</t>
+          <t>video conference</t>
         </is>
       </c>
       <c r="D479" s="3141" t="inlineStr">
         <is>
-          <t>CMA CGM</t>
+          <t>United Company RUSAL, Federation of Aluminium Consumers in Europe</t>
         </is>
       </c>
       <c r="E479" s="3141" t="inlineStr">
         <is>
-          <t>Trade-related issues for maritime transport; Green Deal</t>
+          <t>Trade and climate</t>
         </is>
       </c>
     </row>
@@ -22998,7 +22998,7 @@
     <row r="483">
       <c r="A483" s="3141" t="inlineStr">
         <is>
-          <t>Michael Hager, Cristina Rueda Catry</t>
+          <t>Elina Melngaile</t>
         </is>
       </c>
       <c r="B483" s="3138" t="inlineStr">
@@ -23008,24 +23008,25 @@
       </c>
       <c r="C483" s="3141" t="inlineStr">
         <is>
-          <t>Video conference</t>
+          <t>Video-conference</t>
         </is>
       </c>
       <c r="D483" s="3141" t="inlineStr">
         <is>
-          <t>FoodDrinkEurope, European Liaison Committee for Agriculture and agri-food trade, European farmers, European agri-cooperatives</t>
+          <t>UPS Europe SRL/BV</t>
         </is>
       </c>
       <c r="E483" s="3141" t="inlineStr">
         <is>
-          <t xml:space="preserve"> EU-US trade relations</t>
+          <t xml:space="preserve">Trade Policy review; EU- US relations; EU-China relations 
+ </t>
         </is>
       </c>
     </row>
     <row r="484">
       <c r="A484" s="3141" t="inlineStr">
         <is>
-          <t>Elina Melngaile</t>
+          <t>Cristina Rueda Catry, Michael Hager</t>
         </is>
       </c>
       <c r="B484" s="3138" t="inlineStr">
@@ -23035,18 +23036,17 @@
       </c>
       <c r="C484" s="3141" t="inlineStr">
         <is>
-          <t>Video-conference</t>
+          <t>Video conference</t>
         </is>
       </c>
       <c r="D484" s="3141" t="inlineStr">
         <is>
-          <t>UPS Europe SRL/BV</t>
+          <t>FoodDrinkEurope, European Liaison Committee for Agriculture and agri-food trade, European farmers, European agri-cooperatives</t>
         </is>
       </c>
       <c r="E484" s="3141" t="inlineStr">
         <is>
-          <t xml:space="preserve">Trade Policy review; EU- US relations; EU-China relations 
- </t>
+          <t xml:space="preserve"> EU-US trade relations</t>
         </is>
       </c>
     </row>
@@ -23443,17 +23443,18 @@
       </c>
       <c r="C499" s="3141" t="inlineStr">
         <is>
-          <t>Video conferencing</t>
+          <t xml:space="preserve">Video conferencing </t>
         </is>
       </c>
       <c r="D499" s="3141" t="inlineStr">
         <is>
-          <t>Deutsche Post DHL Group</t>
+          <t>Schneider Electric</t>
         </is>
       </c>
       <c r="E499" s="3141" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Industrial policy</t>
+          <t xml:space="preserve">Recovery, Trade Policy
+</t>
         </is>
       </c>
     </row>
@@ -23470,18 +23471,17 @@
       </c>
       <c r="C500" s="3141" t="inlineStr">
         <is>
-          <t xml:space="preserve">Video conferencing </t>
+          <t>Video conferencing</t>
         </is>
       </c>
       <c r="D500" s="3141" t="inlineStr">
         <is>
-          <t>Schneider Electric</t>
+          <t>Deutsche Post DHL Group</t>
         </is>
       </c>
       <c r="E500" s="3141" t="inlineStr">
         <is>
-          <t xml:space="preserve">Recovery, Trade Policy
-</t>
+          <t xml:space="preserve"> Industrial policy</t>
         </is>
       </c>
     </row>
@@ -23534,12 +23534,12 @@
       </c>
       <c r="D502" s="3141" t="inlineStr">
         <is>
-          <t>Wärtsilä Corporation</t>
+          <t>European Aluminium AISBL</t>
         </is>
       </c>
       <c r="E502" s="3141" t="inlineStr">
         <is>
-          <t>Sustainable finance taxonomy</t>
+          <t xml:space="preserve"> Sustainable finance taxonomy</t>
         </is>
       </c>
     </row>
@@ -23561,12 +23561,12 @@
       </c>
       <c r="D503" s="3141" t="inlineStr">
         <is>
-          <t>European Aluminium AISBL</t>
+          <t>Wärtsilä Corporation</t>
         </is>
       </c>
       <c r="E503" s="3141" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Sustainable finance taxonomy</t>
+          <t>Sustainable finance taxonomy</t>
         </is>
       </c>
     </row>
@@ -23897,7 +23897,7 @@
     <row r="516">
       <c r="A516" s="3141" t="inlineStr">
         <is>
-          <t>Andrea Beltramello</t>
+          <t>Vanessa Mock, Andrea Beltramello</t>
         </is>
       </c>
       <c r="B516" s="3138" t="inlineStr">
@@ -23912,19 +23912,19 @@
       </c>
       <c r="D516" s="3141" t="inlineStr">
         <is>
-          <t>Euroheat and Power</t>
+          <t>Confederation of European Waste-to-Energy Plants</t>
         </is>
       </c>
       <c r="E516" s="3141" t="inlineStr">
         <is>
-          <t xml:space="preserve"> sustainable finance</t>
+          <t xml:space="preserve">sustainable finance </t>
         </is>
       </c>
     </row>
     <row r="517">
       <c r="A517" s="3141" t="inlineStr">
         <is>
-          <t>Andrea Beltramello, Vanessa Mock</t>
+          <t>Andrea Beltramello</t>
         </is>
       </c>
       <c r="B517" s="3138" t="inlineStr">
@@ -23939,12 +23939,12 @@
       </c>
       <c r="D517" s="3141" t="inlineStr">
         <is>
-          <t>Confederation of European Waste-to-Energy Plants</t>
+          <t>Euroheat and Power</t>
         </is>
       </c>
       <c r="E517" s="3141" t="inlineStr">
         <is>
-          <t xml:space="preserve">sustainable finance </t>
+          <t xml:space="preserve"> sustainable finance</t>
         </is>
       </c>
     </row>
@@ -23966,12 +23966,12 @@
       </c>
       <c r="D518" s="3141" t="inlineStr">
         <is>
-          <t>American Chamber of Commerce to the European Union</t>
+          <t>BVI Bundesverband Investment und Asset Management e.V.</t>
         </is>
       </c>
       <c r="E518" s="3141" t="inlineStr">
         <is>
-          <t xml:space="preserve"> sustainable finance </t>
+          <t>Sustainable finance, review of the Alternative Investment Fund Managers Directive, Regulation on Packaged Retail and Insurance-based investment products</t>
         </is>
       </c>
     </row>
@@ -23993,12 +23993,12 @@
       </c>
       <c r="D519" s="3141" t="inlineStr">
         <is>
-          <t>BVI Bundesverband Investment und Asset Management e.V.</t>
+          <t>American Chamber of Commerce to the European Union</t>
         </is>
       </c>
       <c r="E519" s="3141" t="inlineStr">
         <is>
-          <t>Sustainable finance, review of the Alternative Investment Fund Managers Directive, Regulation on Packaged Retail and Insurance-based investment products</t>
+          <t xml:space="preserve"> sustainable finance </t>
         </is>
       </c>
     </row>
@@ -24020,12 +24020,12 @@
       </c>
       <c r="D520" s="3141" t="inlineStr">
         <is>
-          <t>Insurance Europe</t>
+          <t>Alipay (Europe) Limited S.A.</t>
         </is>
       </c>
       <c r="E520" s="3141" t="inlineStr">
         <is>
-          <t>Packaged Retail and Insurance based investment products regulation</t>
+          <t xml:space="preserve"> EU retail payments strategy </t>
         </is>
       </c>
     </row>
@@ -24047,12 +24047,12 @@
       </c>
       <c r="D521" s="3141" t="inlineStr">
         <is>
-          <t>Alipay (Europe) Limited S.A.</t>
+          <t>Insurance Europe</t>
         </is>
       </c>
       <c r="E521" s="3141" t="inlineStr">
         <is>
-          <t xml:space="preserve"> EU retail payments strategy </t>
+          <t>Packaged Retail and Insurance based investment products regulation</t>
         </is>
       </c>
     </row>
@@ -24264,17 +24264,17 @@
       </c>
       <c r="C529" s="3141" t="inlineStr">
         <is>
-          <t xml:space="preserve">video-conferencing </t>
+          <t>video-conferencing</t>
         </is>
       </c>
       <c r="D529" s="3141" t="inlineStr">
         <is>
-          <t>Verband der Chemischen Industrie e.V.</t>
+          <t>EnBW Energie Baden-Württemberg AG</t>
         </is>
       </c>
       <c r="E529" s="3141" t="inlineStr">
         <is>
-          <t xml:space="preserve"> European Green Deal and the recovery</t>
+          <t xml:space="preserve"> Taxonomy</t>
         </is>
       </c>
     </row>
@@ -24291,17 +24291,17 @@
       </c>
       <c r="C530" s="3141" t="inlineStr">
         <is>
-          <t>video-conferencing</t>
+          <t xml:space="preserve">video-conferencing </t>
         </is>
       </c>
       <c r="D530" s="3141" t="inlineStr">
         <is>
-          <t>EnBW Energie Baden-Württemberg AG</t>
+          <t>Verband der Chemischen Industrie e.V.</t>
         </is>
       </c>
       <c r="E530" s="3141" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Taxonomy</t>
+          <t xml:space="preserve"> European Green Deal and the recovery</t>
         </is>
       </c>
     </row>
@@ -24350,12 +24350,12 @@
       </c>
       <c r="D532" s="3141" t="inlineStr">
         <is>
-          <t>Insurance Europe</t>
+          <t>European Federation of Building Societies, BUSINESSEUROPE, SMEunited aisbl, Finance Watch, EUROCHAMBRES – Association of European Chambers of Commerce and Industry, European Association of Public Banks and Funding agencies AISBL, European Retail Financial Forum</t>
         </is>
       </c>
       <c r="E532" s="3141" t="inlineStr">
         <is>
-          <t xml:space="preserve">Covid-19 economic response, Solvency II, sustainable finance </t>
+          <t xml:space="preserve">COVID-19 relief measures </t>
         </is>
       </c>
     </row>
@@ -24404,7 +24404,7 @@
       </c>
       <c r="D534" s="3141" t="inlineStr">
         <is>
-          <t>European Federation of Building Societies, BUSINESSEUROPE, SMEunited aisbl, Finance Watch, EUROCHAMBRES – Association of European Chambers of Commerce and Industry, European Association of Public Banks and Funding agencies AISBL, European Retail Financial Forum</t>
+          <t>Insurance Europe, AGE Platform Europe, European Mortgage Federation - European Covered Bond Council, Association européenne du cautionnement, ACCIS, Confederation of Family Organisations in the European Union, AMICE - Association of Mutual Insurers and Insurance Cooperatives in Europe, European Small Business Alliance</t>
         </is>
       </c>
       <c r="E534" s="3141" t="inlineStr">
@@ -24431,12 +24431,12 @@
       </c>
       <c r="D535" s="3141" t="inlineStr">
         <is>
-          <t>Insurance Europe, AGE Platform Europe, European Mortgage Federation - European Covered Bond Council, Association européenne du cautionnement, ACCIS, Confederation of Family Organisations in the European Union, AMICE - Association of Mutual Insurers and Insurance Cooperatives in Europe, European Small Business Alliance</t>
+          <t>Insurance Europe</t>
         </is>
       </c>
       <c r="E535" s="3141" t="inlineStr">
         <is>
-          <t xml:space="preserve">COVID-19 relief measures </t>
+          <t xml:space="preserve">Covid-19 economic response, Solvency II, sustainable finance </t>
         </is>
       </c>
     </row>
@@ -24686,7 +24686,7 @@
     <row r="545">
       <c r="A545" s="3141" t="inlineStr">
         <is>
-          <t>Andrea Beltramello, Jérôme Deslandes</t>
+          <t>Andrea Beltramello</t>
         </is>
       </c>
       <c r="B545" s="3138" t="inlineStr">
@@ -24701,19 +24701,19 @@
       </c>
       <c r="D545" s="3141" t="inlineStr">
         <is>
-          <t>Flint Europe</t>
+          <t>Wirtschaftsrat der CDU e.V.</t>
         </is>
       </c>
       <c r="E545" s="3141" t="inlineStr">
         <is>
-          <t>Capital Markets Union</t>
+          <t>Digital finance</t>
         </is>
       </c>
     </row>
     <row r="546">
       <c r="A546" s="3141" t="inlineStr">
         <is>
-          <t>Andrea Beltramello</t>
+          <t>Andrea Beltramello, Jérôme Deslandes</t>
         </is>
       </c>
       <c r="B546" s="3138" t="inlineStr">
@@ -24728,12 +24728,12 @@
       </c>
       <c r="D546" s="3141" t="inlineStr">
         <is>
-          <t>Verband Öffentlicher Versicherer</t>
+          <t>Flint Europe</t>
         </is>
       </c>
       <c r="E546" s="3141" t="inlineStr">
         <is>
-          <t>Solvency II, sustainable finance, Pan-European Personal Pension Product</t>
+          <t>Capital Markets Union</t>
         </is>
       </c>
     </row>
@@ -24782,19 +24782,19 @@
       </c>
       <c r="D548" s="3141" t="inlineStr">
         <is>
-          <t>Wirtschaftsrat der CDU e.V.</t>
+          <t>Verband Öffentlicher Versicherer</t>
         </is>
       </c>
       <c r="E548" s="3141" t="inlineStr">
         <is>
-          <t>Digital finance</t>
+          <t>Solvency II, sustainable finance, Pan-European Personal Pension Product</t>
         </is>
       </c>
     </row>
     <row r="549">
       <c r="A549" s="3141" t="inlineStr">
         <is>
-          <t>Jérôme Deslandes</t>
+          <t>Andrea Beltramello</t>
         </is>
       </c>
       <c r="B549" s="3138" t="inlineStr">
@@ -24809,19 +24809,19 @@
       </c>
       <c r="D549" s="3141" t="inlineStr">
         <is>
-          <t>Ernst &amp; Young Core Business Services BV</t>
+          <t>Euronext</t>
         </is>
       </c>
       <c r="E549" s="3141" t="inlineStr">
         <is>
-          <t xml:space="preserve">Anti money laundering framework in the EU; Role of auditors in terms of Anti money laundering </t>
+          <t>Capital Markets Union, Markets in Financial Instruments Directive (MiFID II)</t>
         </is>
       </c>
     </row>
     <row r="550">
       <c r="A550" s="3141" t="inlineStr">
         <is>
-          <t>Andrea Beltramello</t>
+          <t>Sofja Ribkina</t>
         </is>
       </c>
       <c r="B550" s="3138" t="inlineStr">
@@ -24836,19 +24836,19 @@
       </c>
       <c r="D550" s="3141" t="inlineStr">
         <is>
-          <t>Euronext</t>
+          <t>Bundesverband der Deutschen Industrie e.V.</t>
         </is>
       </c>
       <c r="E550" s="3141" t="inlineStr">
         <is>
-          <t>Capital Markets Union, Markets in Financial Instruments Directive (MiFID II)</t>
+          <t>Sustainable Europe Investment Plan; Taxonomy</t>
         </is>
       </c>
     </row>
     <row r="551">
       <c r="A551" s="3141" t="inlineStr">
         <is>
-          <t>Sofja Ribkina</t>
+          <t>Jérôme Deslandes</t>
         </is>
       </c>
       <c r="B551" s="3138" t="inlineStr">
@@ -24863,19 +24863,19 @@
       </c>
       <c r="D551" s="3141" t="inlineStr">
         <is>
-          <t>Bundesverband der Deutschen Industrie e.V.</t>
+          <t>Ernst &amp; Young Core Business Services BV</t>
         </is>
       </c>
       <c r="E551" s="3141" t="inlineStr">
         <is>
-          <t>Sustainable Europe Investment Plan; Taxonomy</t>
+          <t xml:space="preserve">Anti money laundering framework in the EU; Role of auditors in terms of Anti money laundering </t>
         </is>
       </c>
     </row>
     <row r="552">
       <c r="A552" s="3141" t="inlineStr">
         <is>
-          <t>Andrea Beltramello</t>
+          <t>Jérôme Deslandes</t>
         </is>
       </c>
       <c r="B552" s="3138" t="inlineStr">
@@ -24890,19 +24890,19 @@
       </c>
       <c r="D552" s="3141" t="inlineStr">
         <is>
-          <t>SMEunited aisbl</t>
+          <t>Banco Santander, S.A.</t>
         </is>
       </c>
       <c r="E552" s="3141" t="inlineStr">
         <is>
-          <t>SME Strategy, Capital Markets Union</t>
+          <t>Basel III implementation with particular focus on operational risk;	Resolution strategy for “multiple point of entry” model</t>
         </is>
       </c>
     </row>
     <row r="553">
       <c r="A553" s="3141" t="inlineStr">
         <is>
-          <t>Jérôme Deslandes</t>
+          <t>Andrea Beltramello</t>
         </is>
       </c>
       <c r="B553" s="3138" t="inlineStr">
@@ -24917,12 +24917,12 @@
       </c>
       <c r="D553" s="3141" t="inlineStr">
         <is>
-          <t>Banco Santander, S.A.</t>
+          <t>SMEunited aisbl</t>
         </is>
       </c>
       <c r="E553" s="3141" t="inlineStr">
         <is>
-          <t>Basel III implementation with particular focus on operational risk;	Resolution strategy for “multiple point of entry” model</t>
+          <t>SME Strategy, Capital Markets Union</t>
         </is>
       </c>
     </row>
@@ -24956,7 +24956,7 @@
     <row r="555">
       <c r="A555" s="3141" t="inlineStr">
         <is>
-          <t>Jérôme Deslandes, Mirzha De Manuel</t>
+          <t>Mirzha De Manuel, Jérôme Deslandes</t>
         </is>
       </c>
       <c r="B555" s="3138" t="inlineStr">
@@ -25092,7 +25092,7 @@
     <row r="560">
       <c r="A560" s="3141" t="inlineStr">
         <is>
-          <t>Zaneta Vegnere, Andrea Beltramello</t>
+          <t>Andrea Beltramello, Zaneta Vegnere</t>
         </is>
       </c>
       <c r="B560" s="3138" t="inlineStr">
@@ -25173,7 +25173,7 @@
     <row r="563">
       <c r="A563" s="3141" t="inlineStr">
         <is>
-          <t>Mirzha De Manuel</t>
+          <t>Andrea Beltramello</t>
         </is>
       </c>
       <c r="B563" s="3138" t="inlineStr">
@@ -25188,19 +25188,19 @@
       </c>
       <c r="D563" s="3141" t="inlineStr">
         <is>
-          <t>Institute of International Finance</t>
+          <t>European Banking Federation</t>
         </is>
       </c>
       <c r="E563" s="3141" t="inlineStr">
         <is>
-          <t xml:space="preserve">Meeting IIF Deputy Chief Economist on their research agenda and topics of common interest. </t>
+          <t>Basel III, Banking Union, Anti-money laundering, Payments</t>
         </is>
       </c>
     </row>
     <row r="564">
       <c r="A564" s="3141" t="inlineStr">
         <is>
-          <t>Michael Hager, Jérôme Deslandes</t>
+          <t>Andrea Beltramello</t>
         </is>
       </c>
       <c r="B564" s="3138" t="inlineStr">
@@ -25215,19 +25215,19 @@
       </c>
       <c r="D564" s="3141" t="inlineStr">
         <is>
-          <t>Svenska Handelsbanken AB</t>
+          <t>Intesa Sanpaolo</t>
         </is>
       </c>
       <c r="E564" s="3141" t="inlineStr">
         <is>
-          <t>Presentation of Handelsbanken's position on Basel III</t>
+          <t>Payments</t>
         </is>
       </c>
     </row>
     <row r="565">
       <c r="A565" s="3141" t="inlineStr">
         <is>
-          <t>Michael Hager, Jérôme Deslandes</t>
+          <t>Andrea Beltramello</t>
         </is>
       </c>
       <c r="B565" s="3138" t="inlineStr">
@@ -25242,19 +25242,19 @@
       </c>
       <c r="D565" s="3141" t="inlineStr">
         <is>
-          <t>Deutsche Bank AG</t>
+          <t>JPMorgan Chase &amp; Co.</t>
         </is>
       </c>
       <c r="E565" s="3141" t="inlineStr">
         <is>
-          <t>EU regulatory framework for banks; Basel III; Capital Markets Union</t>
+          <t>sustainable finance</t>
         </is>
       </c>
     </row>
     <row r="566">
       <c r="A566" s="3141" t="inlineStr">
         <is>
-          <t>Andrea Beltramello</t>
+          <t>Michael Hager, Jérôme Deslandes</t>
         </is>
       </c>
       <c r="B566" s="3138" t="inlineStr">
@@ -25269,19 +25269,19 @@
       </c>
       <c r="D566" s="3141" t="inlineStr">
         <is>
-          <t>Intesa Sanpaolo</t>
+          <t>Deutsche Bank AG</t>
         </is>
       </c>
       <c r="E566" s="3141" t="inlineStr">
         <is>
-          <t>Payments</t>
+          <t>EU regulatory framework for banks; Basel III; Capital Markets Union</t>
         </is>
       </c>
     </row>
     <row r="567">
       <c r="A567" s="3141" t="inlineStr">
         <is>
-          <t>Andrea Beltramello</t>
+          <t>Mirzha De Manuel</t>
         </is>
       </c>
       <c r="B567" s="3138" t="inlineStr">
@@ -25296,19 +25296,19 @@
       </c>
       <c r="D567" s="3141" t="inlineStr">
         <is>
-          <t>European Banking Federation</t>
+          <t>Institute of International Finance</t>
         </is>
       </c>
       <c r="E567" s="3141" t="inlineStr">
         <is>
-          <t>Basel III, Banking Union, Anti-money laundering, Payments</t>
+          <t xml:space="preserve">Meeting IIF Deputy Chief Economist on their research agenda and topics of common interest. </t>
         </is>
       </c>
     </row>
     <row r="568">
       <c r="A568" s="3141" t="inlineStr">
         <is>
-          <t>Andrea Beltramello</t>
+          <t>Jérôme Deslandes, Michael Hager</t>
         </is>
       </c>
       <c r="B568" s="3138" t="inlineStr">
@@ -25323,19 +25323,19 @@
       </c>
       <c r="D568" s="3141" t="inlineStr">
         <is>
-          <t>JPMorgan Chase &amp; Co.</t>
+          <t>Svenska Handelsbanken AB</t>
         </is>
       </c>
       <c r="E568" s="3141" t="inlineStr">
         <is>
-          <t>sustainable finance</t>
+          <t>Presentation of Handelsbanken's position on Basel III</t>
         </is>
       </c>
     </row>
     <row r="569">
       <c r="A569" s="3141" t="inlineStr">
         <is>
-          <t>Jérôme Deslandes</t>
+          <t>Elina Melngaile</t>
         </is>
       </c>
       <c r="B569" s="3138" t="inlineStr">
@@ -25350,12 +25350,12 @@
       </c>
       <c r="D569" s="3141" t="inlineStr">
         <is>
-          <t>Bundesverband deutscher Banken e.V.</t>
+          <t>European American Chamber of Commerce New York</t>
         </is>
       </c>
       <c r="E569" s="3141" t="inlineStr">
         <is>
-          <t xml:space="preserve">Presentation of German Banks’ position on Basel III </t>
+          <t xml:space="preserve">New Commissions political priorities, including the green deal, digitalisation and industrial strategy; EU – US trade negotiations; Impact of Brexit on economy </t>
         </is>
       </c>
     </row>
@@ -25377,19 +25377,19 @@
       </c>
       <c r="D570" s="3141" t="inlineStr">
         <is>
-          <t>BPCE</t>
+          <t>Bundesverband deutscher Banken e.V.</t>
         </is>
       </c>
       <c r="E570" s="3141" t="inlineStr">
         <is>
-          <t>Specificities of mutuals in banking regulation and Basel III</t>
+          <t xml:space="preserve">Presentation of German Banks’ position on Basel III </t>
         </is>
       </c>
     </row>
     <row r="571">
       <c r="A571" s="3141" t="inlineStr">
         <is>
-          <t>Elina Melngaile</t>
+          <t>Jérôme Deslandes</t>
         </is>
       </c>
       <c r="B571" s="3138" t="inlineStr">
@@ -25404,12 +25404,12 @@
       </c>
       <c r="D571" s="3141" t="inlineStr">
         <is>
-          <t>European American Chamber of Commerce New York</t>
+          <t>BPCE</t>
         </is>
       </c>
       <c r="E571" s="3141" t="inlineStr">
         <is>
-          <t xml:space="preserve">New Commissions political priorities, including the green deal, digitalisation and industrial strategy; EU – US trade negotiations; Impact of Brexit on economy </t>
+          <t>Specificities of mutuals in banking regulation and Basel III</t>
         </is>
       </c>
     </row>
@@ -25551,7 +25551,7 @@
     <row r="577">
       <c r="A577" s="3141" t="inlineStr">
         <is>
-          <t>Michael Hager</t>
+          <t>Andrea Beltramello</t>
         </is>
       </c>
       <c r="B577" s="3138" t="inlineStr">
@@ -25561,17 +25561,17 @@
       </c>
       <c r="C577" s="3141" t="inlineStr">
         <is>
-          <t>Brussels</t>
+          <t>Brussels, Belgium</t>
         </is>
       </c>
       <c r="D577" s="3141" t="inlineStr">
         <is>
-          <t>Bundesverband der Deutschen Tourismuswirtschaft e. V.</t>
+          <t>Italian Banking, Insurance and Finance Federation</t>
         </is>
       </c>
       <c r="E577" s="3141" t="inlineStr">
         <is>
-          <t>Priorities of the Commission related to tourism</t>
+          <t>SUSTAINABLE FINANCE, DIGITAL FINANCE, Capital markets union</t>
         </is>
       </c>
     </row>
@@ -25593,19 +25593,19 @@
       </c>
       <c r="D578" s="3141" t="inlineStr">
         <is>
-          <t>Italian Banking, Insurance and Finance Federation</t>
+          <t>FTI Consulting Belgium, Payments Europe</t>
         </is>
       </c>
       <c r="E578" s="3141" t="inlineStr">
         <is>
-          <t>SUSTAINABLE FINANCE, DIGITAL FINANCE, Capital markets union</t>
+          <t>PAYMENTS STRATEGY</t>
         </is>
       </c>
     </row>
     <row r="579">
       <c r="A579" s="3141" t="inlineStr">
         <is>
-          <t>Andrea Beltramello</t>
+          <t>Michael Hager</t>
         </is>
       </c>
       <c r="B579" s="3138" t="inlineStr">
@@ -25615,17 +25615,17 @@
       </c>
       <c r="C579" s="3141" t="inlineStr">
         <is>
-          <t>Brussels, Belgium</t>
+          <t>Brussels</t>
         </is>
       </c>
       <c r="D579" s="3141" t="inlineStr">
         <is>
-          <t>FTI Consulting Belgium, Payments Europe</t>
+          <t>Bundesverband der Deutschen Tourismuswirtschaft e. V.</t>
         </is>
       </c>
       <c r="E579" s="3141" t="inlineStr">
         <is>
-          <t>PAYMENTS STRATEGY</t>
+          <t>Priorities of the Commission related to tourism</t>
         </is>
       </c>
     </row>
@@ -25686,7 +25686,7 @@
     <row r="582">
       <c r="A582" s="3141" t="inlineStr">
         <is>
-          <t>Jérôme Deslandes, Vanessa Mock</t>
+          <t>Vanessa Mock, Jérôme Deslandes</t>
         </is>
       </c>
       <c r="B582" s="3138" t="inlineStr">
@@ -25713,7 +25713,7 @@
     <row r="583">
       <c r="A583" s="3141" t="inlineStr">
         <is>
-          <t>Zaneta Vegnere, Andrea Beltramello</t>
+          <t>Andrea Beltramello, Zaneta Vegnere</t>
         </is>
       </c>
       <c r="B583" s="3138" t="inlineStr">
@@ -25767,7 +25767,7 @@
     <row r="585">
       <c r="A585" s="3141" t="inlineStr">
         <is>
-          <t>Michael Hager</t>
+          <t>Jérôme Deslandes, Vanessa Mock</t>
         </is>
       </c>
       <c r="B585" s="3138" t="inlineStr">
@@ -25777,24 +25777,25 @@
       </c>
       <c r="C585" s="3141" t="inlineStr">
         <is>
-          <t>Brussels</t>
+          <t>Paris, France</t>
         </is>
       </c>
       <c r="D585" s="3141" t="inlineStr">
         <is>
-          <t>Bundesverband deutscher Banken e.V.</t>
+          <t>ALAN</t>
         </is>
       </c>
       <c r="E585" s="3141" t="inlineStr">
         <is>
-          <t>Banking Union, Capital Markets Union</t>
+          <t xml:space="preserve">FinTech action; The revised Payment Services Directive; Innovation/ digitalization; Insurance sector
+ </t>
         </is>
       </c>
     </row>
     <row r="586">
       <c r="A586" s="3141" t="inlineStr">
         <is>
-          <t>Vanessa Mock, Jérôme Deslandes</t>
+          <t>Gints Freimanis, Andrea Beltramello</t>
         </is>
       </c>
       <c r="B586" s="3138" t="inlineStr">
@@ -25804,25 +25805,24 @@
       </c>
       <c r="C586" s="3141" t="inlineStr">
         <is>
-          <t>Paris, France</t>
+          <t>Brussels, Belgium</t>
         </is>
       </c>
       <c r="D586" s="3141" t="inlineStr">
         <is>
-          <t>ALAN</t>
+          <t>Polenergia S.A.</t>
         </is>
       </c>
       <c r="E586" s="3141" t="inlineStr">
         <is>
-          <t xml:space="preserve">FinTech action; The revised Payment Services Directive; Innovation/ digitalization; Insurance sector
- </t>
+          <t>Energy Union</t>
         </is>
       </c>
     </row>
     <row r="587">
       <c r="A587" s="3141" t="inlineStr">
         <is>
-          <t>Andrea Beltramello</t>
+          <t>Zaneta Vegnere</t>
         </is>
       </c>
       <c r="B587" s="3138" t="inlineStr">
@@ -25832,24 +25832,24 @@
       </c>
       <c r="C587" s="3141" t="inlineStr">
         <is>
-          <t>Brussels, Belgium</t>
+          <t>Brussels</t>
         </is>
       </c>
       <c r="D587" s="3141" t="inlineStr">
         <is>
-          <t>Bundesverband deutscher Banken e.V.</t>
+          <t>UNIFE</t>
         </is>
       </c>
       <c r="E587" s="3141" t="inlineStr">
         <is>
-          <t>DIGITAL FINANCE</t>
+          <t xml:space="preserve">EU industry strategy and follow-up to the strategy / Indust / issues linked to the global competition </t>
         </is>
       </c>
     </row>
     <row r="588">
       <c r="A588" s="3141" t="inlineStr">
         <is>
-          <t>Andrea Beltramello, Gints Freimanis</t>
+          <t>Michael Hager</t>
         </is>
       </c>
       <c r="B588" s="3138" t="inlineStr">
@@ -25859,17 +25859,17 @@
       </c>
       <c r="C588" s="3141" t="inlineStr">
         <is>
-          <t>Brussels, Belgium</t>
+          <t>Brussels</t>
         </is>
       </c>
       <c r="D588" s="3141" t="inlineStr">
         <is>
-          <t>Polenergia S.A.</t>
+          <t>Bundesverband deutscher Banken e.V.</t>
         </is>
       </c>
       <c r="E588" s="3141" t="inlineStr">
         <is>
-          <t>Energy Union</t>
+          <t xml:space="preserve"> Capital requirements, FINTECH</t>
         </is>
       </c>
     </row>
@@ -25923,14 +25923,14 @@
       </c>
       <c r="E590" s="3141" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Capital requirements, FINTECH</t>
+          <t>Banking Union, Capital Markets Union</t>
         </is>
       </c>
     </row>
     <row r="591">
       <c r="A591" s="3141" t="inlineStr">
         <is>
-          <t>Zaneta Vegnere</t>
+          <t>Andrea Beltramello</t>
         </is>
       </c>
       <c r="B591" s="3138" t="inlineStr">
@@ -25940,24 +25940,24 @@
       </c>
       <c r="C591" s="3141" t="inlineStr">
         <is>
-          <t>Brussels</t>
+          <t>Brussels, Belgium</t>
         </is>
       </c>
       <c r="D591" s="3141" t="inlineStr">
         <is>
-          <t>UNIFE</t>
+          <t>Bundesverband deutscher Banken e.V.</t>
         </is>
       </c>
       <c r="E591" s="3141" t="inlineStr">
         <is>
-          <t xml:space="preserve">EU industry strategy and follow-up to the strategy / Indust / issues linked to the global competition </t>
+          <t>DIGITAL FINANCE</t>
         </is>
       </c>
     </row>
     <row r="592">
       <c r="A592" s="3141" t="inlineStr">
         <is>
-          <t>Sofja Ribkina</t>
+          <t>Vanessa Mock, Jérôme Deslandes</t>
         </is>
       </c>
       <c r="B592" s="3138" t="inlineStr">
@@ -25967,24 +25967,24 @@
       </c>
       <c r="C592" s="3141" t="inlineStr">
         <is>
-          <t>Brussels</t>
+          <t>Paris, France</t>
         </is>
       </c>
       <c r="D592" s="3141" t="inlineStr">
         <is>
-          <t>CEE Bankwatch Network</t>
+          <t>Association Française des Entreprises Privées / French Association of Large Companies</t>
         </is>
       </c>
       <c r="E592" s="3141" t="inlineStr">
         <is>
-          <t>Sustainable Europe Investment Plan and Just Transition Mechanism</t>
+          <t>Sustainable finance; Future of Capital Markets Union; Protection of intra-EU investments; Competitiveness of European businesses</t>
         </is>
       </c>
     </row>
     <row r="593">
       <c r="A593" s="3141" t="inlineStr">
         <is>
-          <t>Vanessa Mock, Jérôme Deslandes</t>
+          <t>Sofja Ribkina</t>
         </is>
       </c>
       <c r="B593" s="3138" t="inlineStr">
@@ -25994,17 +25994,17 @@
       </c>
       <c r="C593" s="3141" t="inlineStr">
         <is>
-          <t>Paris, France</t>
+          <t>Brussels</t>
         </is>
       </c>
       <c r="D593" s="3141" t="inlineStr">
         <is>
-          <t>Association Française des Entreprises Privées / French Association of Large Companies</t>
+          <t>CEE Bankwatch Network</t>
         </is>
       </c>
       <c r="E593" s="3141" t="inlineStr">
         <is>
-          <t>Sustainable finance; Future of Capital Markets Union; Protection of intra-EU investments; Competitiveness of European businesses</t>
+          <t>Sustainable Europe Investment Plan and Just Transition Mechanism</t>
         </is>
       </c>
     </row>
@@ -26146,7 +26146,7 @@
     <row r="599">
       <c r="A599" s="3141" t="inlineStr">
         <is>
-          <t>Andrea Beltramello</t>
+          <t>Jérôme Deslandes, Michael Hager</t>
         </is>
       </c>
       <c r="B599" s="3138" t="inlineStr">
@@ -26156,17 +26156,17 @@
       </c>
       <c r="C599" s="3141" t="inlineStr">
         <is>
-          <t>Rome</t>
+          <t>Brussels</t>
         </is>
       </c>
       <c r="D599" s="3141" t="inlineStr">
         <is>
-          <t>Unione Italiana del Lavoro, Confederazione Generale Italiana del Lavoro</t>
+          <t>Banco Santander, S.A.</t>
         </is>
       </c>
       <c r="E599" s="3141" t="inlineStr">
         <is>
-          <t>Social Europe, consultation on fair minimum wage, European semester</t>
+          <t>-Discussion of Multiple Point of Entry Resolution strategy; Basel III’s approach to operational risk</t>
         </is>
       </c>
     </row>
@@ -26188,19 +26188,19 @@
       </c>
       <c r="D600" s="3141" t="inlineStr">
         <is>
-          <t>Confederazione Generale dell'Industria Italiana</t>
+          <t>Unione Italiana del Lavoro, Confederazione Generale Italiana del Lavoro</t>
         </is>
       </c>
       <c r="E600" s="3141" t="inlineStr">
         <is>
-          <t>Industry strategy, SME strategy, European Green Deal Investment Plan</t>
+          <t>Social Europe, consultation on fair minimum wage, European semester</t>
         </is>
       </c>
     </row>
     <row r="601">
       <c r="A601" s="3141" t="inlineStr">
         <is>
-          <t>Jérôme Deslandes, Michael Hager</t>
+          <t>Andrea Beltramello</t>
         </is>
       </c>
       <c r="B601" s="3138" t="inlineStr">
@@ -26210,17 +26210,17 @@
       </c>
       <c r="C601" s="3141" t="inlineStr">
         <is>
-          <t>Brussels</t>
+          <t>Rome</t>
         </is>
       </c>
       <c r="D601" s="3141" t="inlineStr">
         <is>
-          <t>Banco Santander, S.A.</t>
+          <t>Confederazione Generale dell'Industria Italiana</t>
         </is>
       </c>
       <c r="E601" s="3141" t="inlineStr">
         <is>
-          <t>-Discussion of Multiple Point of Entry Resolution strategy; Basel III’s approach to operational risk</t>
+          <t>Industry strategy, SME strategy, European Green Deal Investment Plan</t>
         </is>
       </c>
     </row>
@@ -26281,7 +26281,7 @@
     <row r="604">
       <c r="A604" s="3141" t="inlineStr">
         <is>
-          <t>Andrea Beltramello, Vanessa Mock</t>
+          <t>Jérôme Deslandes</t>
         </is>
       </c>
       <c r="B604" s="3138" t="inlineStr">
@@ -26296,19 +26296,19 @@
       </c>
       <c r="D604" s="3141" t="inlineStr">
         <is>
-          <t>Institut der Wirtschaftsprüfer in Deutschland e.V.</t>
+          <t>Associazione Bancaria Italiana</t>
         </is>
       </c>
       <c r="E604" s="3141" t="inlineStr">
         <is>
-          <t>Audit</t>
+          <t xml:space="preserve">Economic situation in Italy; Discussion on Basel III with a particular focus on SMEs and green investment </t>
         </is>
       </c>
     </row>
     <row r="605">
       <c r="A605" s="3141" t="inlineStr">
         <is>
-          <t>Jérôme Deslandes</t>
+          <t>Vanessa Mock, Andrea Beltramello</t>
         </is>
       </c>
       <c r="B605" s="3138" t="inlineStr">
@@ -26323,19 +26323,19 @@
       </c>
       <c r="D605" s="3141" t="inlineStr">
         <is>
-          <t>The Alternative Investment Management Association Limited</t>
+          <t>Institut der Wirtschaftsprüfer in Deutschland e.V.</t>
         </is>
       </c>
       <c r="E605" s="3141" t="inlineStr">
         <is>
-          <t>-	Presentation of the Alternative credit council report and discussion about the existing regulatory framework in the EU (national regimes and ELTIF); -	Discussion about economic situation, leveraged loans and macro-prudential policy</t>
+          <t>Audit</t>
         </is>
       </c>
     </row>
     <row r="606">
       <c r="A606" s="3141" t="inlineStr">
         <is>
-          <t>Vanessa Mock</t>
+          <t>Jérôme Deslandes</t>
         </is>
       </c>
       <c r="B606" s="3138" t="inlineStr">
@@ -26345,17 +26345,17 @@
       </c>
       <c r="C606" s="3141" t="inlineStr">
         <is>
-          <t>Brussels</t>
+          <t>Brussels, Belgium</t>
         </is>
       </c>
       <c r="D606" s="3141" t="inlineStr">
         <is>
-          <t>Stichting European Climate Foundation</t>
+          <t>JPMorgan Chase &amp; Co.</t>
         </is>
       </c>
       <c r="E606" s="3141" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Green Deal</t>
+          <t>Key priorities of JP Morgan with respect to a possible new EU AML supervisory architecture (directly applicable rules, single rule book and guidance, supervisory methodology and risk assessment); Discussion on public private partnership in the field of AML</t>
         </is>
       </c>
     </row>
@@ -26377,19 +26377,19 @@
       </c>
       <c r="D607" s="3141" t="inlineStr">
         <is>
-          <t>Associazione Bancaria Italiana</t>
+          <t>The Alternative Investment Management Association Limited</t>
         </is>
       </c>
       <c r="E607" s="3141" t="inlineStr">
         <is>
-          <t xml:space="preserve">Economic situation in Italy; Discussion on Basel III with a particular focus on SMEs and green investment </t>
+          <t>-	Presentation of the Alternative credit council report and discussion about the existing regulatory framework in the EU (national regimes and ELTIF); -	Discussion about economic situation, leveraged loans and macro-prudential policy</t>
         </is>
       </c>
     </row>
     <row r="608">
       <c r="A608" s="3141" t="inlineStr">
         <is>
-          <t>Jérôme Deslandes</t>
+          <t>Vanessa Mock</t>
         </is>
       </c>
       <c r="B608" s="3138" t="inlineStr">
@@ -26399,17 +26399,17 @@
       </c>
       <c r="C608" s="3141" t="inlineStr">
         <is>
-          <t>Brussels, Belgium</t>
+          <t>Brussels</t>
         </is>
       </c>
       <c r="D608" s="3141" t="inlineStr">
         <is>
-          <t>JPMorgan Chase &amp; Co.</t>
+          <t>Stichting European Climate Foundation</t>
         </is>
       </c>
       <c r="E608" s="3141" t="inlineStr">
         <is>
-          <t>Key priorities of JP Morgan with respect to a possible new EU AML supervisory architecture (directly applicable rules, single rule book and guidance, supervisory methodology and risk assessment); Discussion on public private partnership in the field of AML</t>
+          <t xml:space="preserve"> Green Deal</t>
         </is>
       </c>
     </row>
@@ -26443,7 +26443,7 @@
     <row r="610">
       <c r="A610" s="3141" t="inlineStr">
         <is>
-          <t>Elina Melngaile, Ruth Paserman</t>
+          <t>Andrea Beltramello</t>
         </is>
       </c>
       <c r="B610" s="3138" t="inlineStr">
@@ -26453,24 +26453,24 @@
       </c>
       <c r="C610" s="3141" t="inlineStr">
         <is>
-          <t>Brussels</t>
+          <t>Brussels, Belgium</t>
         </is>
       </c>
       <c r="D610" s="3141" t="inlineStr">
         <is>
-          <t>BUSINESSEUROPE</t>
+          <t>abrdn plc</t>
         </is>
       </c>
       <c r="E610" s="3141" t="inlineStr">
         <is>
-          <t>EU - China Strategy, Development Cooperation</t>
+          <t>Brexit</t>
         </is>
       </c>
     </row>
     <row r="611">
       <c r="A611" s="3141" t="inlineStr">
         <is>
-          <t>Ruth Paserman</t>
+          <t>Elina Melngaile, Ruth Paserman</t>
         </is>
       </c>
       <c r="B611" s="3138" t="inlineStr">
@@ -26485,12 +26485,12 @@
       </c>
       <c r="D611" s="3141" t="inlineStr">
         <is>
-          <t>European Federation of National Organisations working with the Homeless</t>
+          <t>BUSINESSEUROPE</t>
         </is>
       </c>
       <c r="E611" s="3141" t="inlineStr">
         <is>
-          <t>Homelessness</t>
+          <t>EU - China Strategy, Development Cooperation</t>
         </is>
       </c>
     </row>
@@ -26512,19 +26512,19 @@
       </c>
       <c r="D612" s="3141" t="inlineStr">
         <is>
-          <t>abrdn plc</t>
+          <t>Industrie- und Handelskammer für München und Oberbayern</t>
         </is>
       </c>
       <c r="E612" s="3141" t="inlineStr">
         <is>
-          <t>Brexit</t>
+          <t>Sustainable finance</t>
         </is>
       </c>
     </row>
     <row r="613">
       <c r="A613" s="3141" t="inlineStr">
         <is>
-          <t>Andrea Beltramello</t>
+          <t>Jérôme Deslandes, Michael Hager</t>
         </is>
       </c>
       <c r="B613" s="3138" t="inlineStr">
@@ -26539,19 +26539,19 @@
       </c>
       <c r="D613" s="3141" t="inlineStr">
         <is>
-          <t>Industrie- und Handelskammer für München und Oberbayern</t>
+          <t>Crédit Agricole S.A., BNP PARIBAS, LA POSTE, Fédération bancaire française, BPCE, Société Générale</t>
         </is>
       </c>
       <c r="E613" s="3141" t="inlineStr">
         <is>
-          <t>Sustainable finance</t>
+          <t>Implementation of Basel III; Banking Union; Deposit Guarantee Scheme</t>
         </is>
       </c>
     </row>
     <row r="614">
       <c r="A614" s="3141" t="inlineStr">
         <is>
-          <t>Michael Hager, Jérôme Deslandes</t>
+          <t>Ruth Paserman</t>
         </is>
       </c>
       <c r="B614" s="3138" t="inlineStr">
@@ -26561,17 +26561,17 @@
       </c>
       <c r="C614" s="3141" t="inlineStr">
         <is>
-          <t>Brussels, Belgium</t>
+          <t>Brussels</t>
         </is>
       </c>
       <c r="D614" s="3141" t="inlineStr">
         <is>
-          <t>Crédit Agricole S.A., BNP PARIBAS, LA POSTE, Fédération bancaire française, BPCE, Société Générale</t>
+          <t>European Federation of National Organisations working with the Homeless</t>
         </is>
       </c>
       <c r="E614" s="3141" t="inlineStr">
         <is>
-          <t>Implementation of Basel III; Banking Union; Deposit Guarantee Scheme</t>
+          <t>Homelessness</t>
         </is>
       </c>
     </row>

--- a/meetings_dumped/dombrovskis_cabinet.xlsx
+++ b/meetings_dumped/dombrovskis_cabinet.xlsx
@@ -10014,12 +10014,12 @@
       </c>
       <c r="D4" s="3141" t="inlineStr">
         <is>
-          <t>UniCredit</t>
+          <t>Suzano S.A.</t>
         </is>
       </c>
       <c r="E4" s="3141" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Current regulatory topics related to financial services</t>
+          <t xml:space="preserve"> State-of-play of the Mercosur agreement</t>
         </is>
       </c>
     </row>
@@ -10041,12 +10041,12 @@
       </c>
       <c r="D5" s="3141" t="inlineStr">
         <is>
-          <t>Suzano S.A.</t>
+          <t>UniCredit</t>
         </is>
       </c>
       <c r="E5" s="3141" t="inlineStr">
         <is>
-          <t xml:space="preserve"> State-of-play of the Mercosur agreement</t>
+          <t xml:space="preserve"> Current regulatory topics related to financial services</t>
         </is>
       </c>
     </row>
@@ -10215,7 +10215,7 @@
     <row r="12">
       <c r="A12" s="3141" t="inlineStr">
         <is>
-          <t>Andrea Beltramello</t>
+          <t>Cristina Rueda Catry</t>
         </is>
       </c>
       <c r="B12" s="3138" t="inlineStr">
@@ -10230,19 +10230,19 @@
       </c>
       <c r="D12" s="3141" t="inlineStr">
         <is>
-          <t>Vitesco Technologies Group AG</t>
+          <t>Ericsson</t>
         </is>
       </c>
       <c r="E12" s="3141" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Sustainable finance</t>
+          <t xml:space="preserve"> Licensing of standard essential patents</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="3141" t="inlineStr">
         <is>
-          <t>Cristina Rueda Catry</t>
+          <t>Andrea Beltramello</t>
         </is>
       </c>
       <c r="B13" s="3138" t="inlineStr">
@@ -10257,12 +10257,12 @@
       </c>
       <c r="D13" s="3141" t="inlineStr">
         <is>
-          <t>Ericsson</t>
+          <t>Vitesco Technologies Group AG</t>
         </is>
       </c>
       <c r="E13" s="3141" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Licensing of standard essential patents</t>
+          <t xml:space="preserve"> Sustainable finance</t>
         </is>
       </c>
     </row>
@@ -10446,7 +10446,7 @@
       </c>
       <c r="D20" s="3141" t="inlineStr">
         <is>
-          <t>European Forum of Securities Associations</t>
+          <t>Association Française de la Gestion financière</t>
         </is>
       </c>
       <c r="E20" s="3141" t="inlineStr">
@@ -10473,7 +10473,7 @@
       </c>
       <c r="D21" s="3141" t="inlineStr">
         <is>
-          <t>Association Française de la Gestion financière</t>
+          <t>European Forum of Securities Associations</t>
         </is>
       </c>
       <c r="E21" s="3141" t="inlineStr">
@@ -10647,7 +10647,7 @@
     <row r="28">
       <c r="A28" s="3141" t="inlineStr">
         <is>
-          <t>Pim Lescrauwaet, Mirzha De Manuel</t>
+          <t>Andrea Beltramello</t>
         </is>
       </c>
       <c r="B28" s="3138" t="inlineStr">
@@ -10657,17 +10657,17 @@
       </c>
       <c r="C28" s="3141" t="inlineStr">
         <is>
-          <t>Brussels</t>
+          <t>video conference</t>
         </is>
       </c>
       <c r="D28" s="3141" t="inlineStr">
         <is>
-          <t>Banco Santander, S.A.</t>
+          <t>EURALIA, Fédération nationale des syndicats d'agents généraux d'assurance</t>
         </is>
       </c>
       <c r="E28" s="3141" t="inlineStr">
         <is>
-          <t>Macroeconomic forecasts</t>
+          <t>retail investment strategy</t>
         </is>
       </c>
     </row>
@@ -10701,7 +10701,7 @@
     <row r="30">
       <c r="A30" s="3141" t="inlineStr">
         <is>
-          <t>Andrea Beltramello</t>
+          <t>Pim Lescrauwaet, Mirzha De Manuel</t>
         </is>
       </c>
       <c r="B30" s="3138" t="inlineStr">
@@ -10711,24 +10711,24 @@
       </c>
       <c r="C30" s="3141" t="inlineStr">
         <is>
-          <t>video conference</t>
+          <t>Brussels</t>
         </is>
       </c>
       <c r="D30" s="3141" t="inlineStr">
         <is>
-          <t>EURALIA, Fédération nationale des syndicats d'agents généraux d'assurance</t>
+          <t>Banco Santander, S.A.</t>
         </is>
       </c>
       <c r="E30" s="3141" t="inlineStr">
         <is>
-          <t>retail investment strategy</t>
+          <t>Macroeconomic forecasts</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="3141" t="inlineStr">
         <is>
-          <t>Cristina Rueda Catry</t>
+          <t>Pim Lescrauwaet, Gints Freimanis</t>
         </is>
       </c>
       <c r="B31" s="3138" t="inlineStr">
@@ -10738,24 +10738,24 @@
       </c>
       <c r="C31" s="3141" t="inlineStr">
         <is>
-          <t>Brussels</t>
+          <t>Virtual</t>
         </is>
       </c>
       <c r="D31" s="3141" t="inlineStr">
         <is>
-          <t>Associazione Industriali delle Carni e dei Salumi</t>
+          <t>Conseil des Communes et Régions d'Europe</t>
         </is>
       </c>
       <c r="E31" s="3141" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Trade agenda, market access for meat products, sustainability</t>
+          <t xml:space="preserve"> Economic Governance Review</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="3141" t="inlineStr">
         <is>
-          <t>Cristina Rueda Catry, Kevin Keary</t>
+          <t>Andrea Beltramello</t>
         </is>
       </c>
       <c r="B32" s="3138" t="inlineStr">
@@ -10770,19 +10770,19 @@
       </c>
       <c r="D32" s="3141" t="inlineStr">
         <is>
-          <t>EUROPEAN SERVICES FORUM</t>
+          <t>Leonardo S.p.A.</t>
         </is>
       </c>
       <c r="E32" s="3141" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Bilateral trade agenda, WTO e-commerce </t>
+          <t xml:space="preserve"> taxonomy of environmentally sustainable activities</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="3141" t="inlineStr">
         <is>
-          <t>Gints Freimanis, Pim Lescrauwaet</t>
+          <t>Kevin Keary, Cristina Rueda Catry</t>
         </is>
       </c>
       <c r="B33" s="3138" t="inlineStr">
@@ -10792,17 +10792,17 @@
       </c>
       <c r="C33" s="3141" t="inlineStr">
         <is>
-          <t>Virtual</t>
+          <t>Brussels</t>
         </is>
       </c>
       <c r="D33" s="3141" t="inlineStr">
         <is>
-          <t>Conseil des Communes et Régions d'Europe</t>
+          <t>EUROPEAN SERVICES FORUM</t>
         </is>
       </c>
       <c r="E33" s="3141" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Economic Governance Review</t>
+          <t xml:space="preserve"> Bilateral trade agenda, WTO e-commerce </t>
         </is>
       </c>
     </row>
@@ -10863,7 +10863,7 @@
     <row r="36">
       <c r="A36" s="3141" t="inlineStr">
         <is>
-          <t>Andrea Beltramello</t>
+          <t>Cristina Rueda Catry</t>
         </is>
       </c>
       <c r="B36" s="3138" t="inlineStr">
@@ -10878,12 +10878,12 @@
       </c>
       <c r="D36" s="3141" t="inlineStr">
         <is>
-          <t>Leonardo S.p.A.</t>
+          <t>Nokia</t>
         </is>
       </c>
       <c r="E36" s="3141" t="inlineStr">
         <is>
-          <t xml:space="preserve"> taxonomy of environmentally sustainable activities</t>
+          <t xml:space="preserve"> Licensing of standard essential patents</t>
         </is>
       </c>
     </row>
@@ -10905,19 +10905,19 @@
       </c>
       <c r="D37" s="3141" t="inlineStr">
         <is>
-          <t>Nokia</t>
+          <t>Associazione Industriali delle Carni e dei Salumi</t>
         </is>
       </c>
       <c r="E37" s="3141" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Licensing of standard essential patents</t>
+          <t xml:space="preserve"> Trade agenda, market access for meat products, sustainability</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="3141" t="inlineStr">
         <is>
-          <t>Caroline Boeshertz</t>
+          <t>Andrea Beltramello</t>
         </is>
       </c>
       <c r="B38" s="3138" t="inlineStr">
@@ -10927,17 +10927,17 @@
       </c>
       <c r="C38" s="3141" t="inlineStr">
         <is>
-          <t xml:space="preserve">video conference </t>
+          <t xml:space="preserve">Brussels </t>
         </is>
       </c>
       <c r="D38" s="3141" t="inlineStr">
         <is>
-          <t>Transport and Environment (European Federation for Transport and Environment), Cultural Survival</t>
+          <t>Sumitomo Mitsui Financial Group, Afore Consulting</t>
         </is>
       </c>
       <c r="E38" s="3141" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Indigenous rights, critical raw materials </t>
+          <t xml:space="preserve"> Banking package</t>
         </is>
       </c>
     </row>
@@ -10959,19 +10959,19 @@
       </c>
       <c r="D39" s="3141" t="inlineStr">
         <is>
-          <t>Deutsche Post DHL Group</t>
+          <t>Wirtschaftsvereinigung Stahl, thyssenkrupp Steel Europe AG</t>
         </is>
       </c>
       <c r="E39" s="3141" t="inlineStr">
         <is>
-          <t xml:space="preserve"> European competitiveness, taxonomy</t>
+          <t xml:space="preserve"> Current issues of the steel sector in Europe</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="3141" t="inlineStr">
         <is>
-          <t>Michael Hager</t>
+          <t>Caroline Boeshertz</t>
         </is>
       </c>
       <c r="B40" s="3138" t="inlineStr">
@@ -10981,24 +10981,24 @@
       </c>
       <c r="C40" s="3141" t="inlineStr">
         <is>
-          <t>Brussels</t>
+          <t xml:space="preserve">video conference </t>
         </is>
       </c>
       <c r="D40" s="3141" t="inlineStr">
         <is>
-          <t>Wirtschaftsvereinigung Stahl, thyssenkrupp Steel Europe AG</t>
+          <t>Transport and Environment (European Federation for Transport and Environment), Cultural Survival</t>
         </is>
       </c>
       <c r="E40" s="3141" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Current issues of the steel sector in Europe</t>
+          <t xml:space="preserve"> Indigenous rights, critical raw materials </t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="3141" t="inlineStr">
         <is>
-          <t>Cristina Rueda Catry</t>
+          <t>Andrea Beltramello</t>
         </is>
       </c>
       <c r="B41" s="3138" t="inlineStr">
@@ -11013,19 +11013,19 @@
       </c>
       <c r="D41" s="3141" t="inlineStr">
         <is>
-          <t>Maa- ja metsätaloustuottajain Keskusliitto – Central Union of Agricultural Producers and Forest Owners</t>
+          <t>JPMorgan Chase &amp; Co.</t>
         </is>
       </c>
       <c r="E41" s="3141" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Trade agenda, WTO discussion, unilateral measures</t>
+          <t>Retail investment strategy</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="3141" t="inlineStr">
         <is>
-          <t>Andrea Beltramello</t>
+          <t>Cristina Rueda Catry</t>
         </is>
       </c>
       <c r="B42" s="3138" t="inlineStr">
@@ -11035,24 +11035,24 @@
       </c>
       <c r="C42" s="3141" t="inlineStr">
         <is>
-          <t xml:space="preserve">Brussels </t>
+          <t>Brussels</t>
         </is>
       </c>
       <c r="D42" s="3141" t="inlineStr">
         <is>
-          <t>Sumitomo Mitsui Financial Group, Afore Consulting</t>
+          <t>Maa- ja metsätaloustuottajain Keskusliitto – Central Union of Agricultural Producers and Forest Owners</t>
         </is>
       </c>
       <c r="E42" s="3141" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Banking package</t>
+          <t xml:space="preserve"> Trade agenda, WTO discussion, unilateral measures</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="3141" t="inlineStr">
         <is>
-          <t>Andrea Beltramello</t>
+          <t>Michael Hager</t>
         </is>
       </c>
       <c r="B43" s="3138" t="inlineStr">
@@ -11067,12 +11067,12 @@
       </c>
       <c r="D43" s="3141" t="inlineStr">
         <is>
-          <t>JPMorgan Chase &amp; Co.</t>
+          <t>Deutsche Post DHL Group</t>
         </is>
       </c>
       <c r="E43" s="3141" t="inlineStr">
         <is>
-          <t>Retail investment strategy</t>
+          <t xml:space="preserve"> European competitiveness, taxonomy</t>
         </is>
       </c>
     </row>
@@ -11089,17 +11089,17 @@
       </c>
       <c r="C44" s="3141" t="inlineStr">
         <is>
-          <t xml:space="preserve">video conference </t>
+          <t>Brussels</t>
         </is>
       </c>
       <c r="D44" s="3141" t="inlineStr">
         <is>
-          <t>ASD-Eurospace</t>
+          <t>Assogestioni - Italian Investment Management Association</t>
         </is>
       </c>
       <c r="E44" s="3141" t="inlineStr">
         <is>
-          <t xml:space="preserve">sustainable finance taxonomy </t>
+          <t xml:space="preserve"> retail investment strategy</t>
         </is>
       </c>
     </row>
@@ -11116,17 +11116,17 @@
       </c>
       <c r="C45" s="3141" t="inlineStr">
         <is>
-          <t>Brussels</t>
+          <t xml:space="preserve">video conference </t>
         </is>
       </c>
       <c r="D45" s="3141" t="inlineStr">
         <is>
-          <t>Assogestioni - Italian Investment Management Association</t>
+          <t>ASD-Eurospace</t>
         </is>
       </c>
       <c r="E45" s="3141" t="inlineStr">
         <is>
-          <t xml:space="preserve"> retail investment strategy</t>
+          <t xml:space="preserve">sustainable finance taxonomy </t>
         </is>
       </c>
     </row>
@@ -11322,7 +11322,7 @@
     <row r="53">
       <c r="A53" s="3141" t="inlineStr">
         <is>
-          <t>Cristina Rueda Catry, Caroline Boeshertz</t>
+          <t>Caroline Boeshertz, Cristina Rueda Catry</t>
         </is>
       </c>
       <c r="B53" s="3138" t="inlineStr">
@@ -11403,7 +11403,7 @@
     <row r="56">
       <c r="A56" s="3141" t="inlineStr">
         <is>
-          <t>Andrea Beltramello</t>
+          <t>Kevin Keary, Caroline Boeshertz</t>
         </is>
       </c>
       <c r="B56" s="3138" t="inlineStr">
@@ -11413,24 +11413,24 @@
       </c>
       <c r="C56" s="3141" t="inlineStr">
         <is>
-          <t xml:space="preserve">video conference </t>
+          <t>Brussels</t>
         </is>
       </c>
       <c r="D56" s="3141" t="inlineStr">
         <is>
-          <t>European Dredging Association</t>
+          <t>European Federation of Pharmaceutical Industries and Associations</t>
         </is>
       </c>
       <c r="E56" s="3141" t="inlineStr">
         <is>
-          <t xml:space="preserve"> public procurement, foreign subsidies  </t>
+          <t>Pharma package, competitiveness</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="3141" t="inlineStr">
         <is>
-          <t>Caroline Boeshertz, Kevin Keary</t>
+          <t>Andrea Beltramello</t>
         </is>
       </c>
       <c r="B57" s="3138" t="inlineStr">
@@ -11440,17 +11440,17 @@
       </c>
       <c r="C57" s="3141" t="inlineStr">
         <is>
-          <t>Brussels</t>
+          <t xml:space="preserve">video conference </t>
         </is>
       </c>
       <c r="D57" s="3141" t="inlineStr">
         <is>
-          <t>European Federation of Pharmaceutical Industries and Associations</t>
+          <t>European Dredging Association</t>
         </is>
       </c>
       <c r="E57" s="3141" t="inlineStr">
         <is>
-          <t>Pharma package, competitiveness</t>
+          <t xml:space="preserve"> public procurement, foreign subsidies  </t>
         </is>
       </c>
     </row>
@@ -11484,7 +11484,7 @@
     <row r="59">
       <c r="A59" s="3141" t="inlineStr">
         <is>
-          <t>Zaneta Vegnere, Kevin Keary</t>
+          <t>Andrea Beltramello</t>
         </is>
       </c>
       <c r="B59" s="3138" t="inlineStr">
@@ -11499,19 +11499,19 @@
       </c>
       <c r="D59" s="3141" t="inlineStr">
         <is>
-          <t>Verband Deutscher Maschinen- und Anlagenbau e.V.</t>
+          <t>Österreichischer Sparkassenverband</t>
         </is>
       </c>
       <c r="E59" s="3141" t="inlineStr">
         <is>
-          <t xml:space="preserve">preferential trade agreements; transatlantic trade relations;	importance of conformity assessments for machinery sector </t>
+          <t xml:space="preserve"> retail investment strategy</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="3141" t="inlineStr">
         <is>
-          <t>Andrea Beltramello</t>
+          <t>Kevin Keary, Zaneta Vegnere</t>
         </is>
       </c>
       <c r="B60" s="3138" t="inlineStr">
@@ -11526,12 +11526,12 @@
       </c>
       <c r="D60" s="3141" t="inlineStr">
         <is>
-          <t>Österreichischer Sparkassenverband</t>
+          <t>Verband Deutscher Maschinen- und Anlagenbau e.V.</t>
         </is>
       </c>
       <c r="E60" s="3141" t="inlineStr">
         <is>
-          <t xml:space="preserve"> retail investment strategy</t>
+          <t xml:space="preserve">preferential trade agreements; transatlantic trade relations;	importance of conformity assessments for machinery sector </t>
         </is>
       </c>
     </row>
@@ -11548,17 +11548,17 @@
       </c>
       <c r="C61" s="3141" t="inlineStr">
         <is>
-          <t>video conference</t>
+          <t>Brussels</t>
         </is>
       </c>
       <c r="D61" s="3141" t="inlineStr">
         <is>
-          <t>Cobalt Institute</t>
+          <t>Verband Deutscher Maschinen- und Anlagenbau e.V.</t>
         </is>
       </c>
       <c r="E61" s="3141" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Critical Raw Materials Act</t>
+          <t xml:space="preserve"> GCC trade barriers for EU machine exports</t>
         </is>
       </c>
     </row>
@@ -11575,24 +11575,24 @@
       </c>
       <c r="C62" s="3141" t="inlineStr">
         <is>
-          <t>Brussels</t>
+          <t>video conference</t>
         </is>
       </c>
       <c r="D62" s="3141" t="inlineStr">
         <is>
-          <t>Verband Deutscher Maschinen- und Anlagenbau e.V.</t>
+          <t>Cobalt Institute</t>
         </is>
       </c>
       <c r="E62" s="3141" t="inlineStr">
         <is>
-          <t xml:space="preserve"> GCC trade barriers for EU machine exports</t>
+          <t xml:space="preserve"> Critical Raw Materials Act</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="3141" t="inlineStr">
         <is>
-          <t>Michael Hager</t>
+          <t>Caroline Boeshertz</t>
         </is>
       </c>
       <c r="B63" s="3138" t="inlineStr">
@@ -11602,17 +11602,17 @@
       </c>
       <c r="C63" s="3141" t="inlineStr">
         <is>
-          <t>Brussels</t>
+          <t>video conference</t>
         </is>
       </c>
       <c r="D63" s="3141" t="inlineStr">
         <is>
-          <t>Chamber of Commerce of the United States of America</t>
+          <t>Orano</t>
         </is>
       </c>
       <c r="E63" s="3141" t="inlineStr">
         <is>
-          <t xml:space="preserve"> EU-US relations, Inflation Reduction Act</t>
+          <t xml:space="preserve"> Critical Raw Materials</t>
         </is>
       </c>
     </row>
@@ -11646,7 +11646,7 @@
     <row r="65">
       <c r="A65" s="3141" t="inlineStr">
         <is>
-          <t>Caroline Boeshertz</t>
+          <t>Michael Hager</t>
         </is>
       </c>
       <c r="B65" s="3138" t="inlineStr">
@@ -11656,17 +11656,17 @@
       </c>
       <c r="C65" s="3141" t="inlineStr">
         <is>
-          <t>video conference</t>
+          <t>Brussels</t>
         </is>
       </c>
       <c r="D65" s="3141" t="inlineStr">
         <is>
-          <t>Orano</t>
+          <t>Chamber of Commerce of the United States of America</t>
         </is>
       </c>
       <c r="E65" s="3141" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Critical Raw Materials</t>
+          <t xml:space="preserve"> EU-US relations, Inflation Reduction Act</t>
         </is>
       </c>
     </row>
@@ -11683,24 +11683,24 @@
       </c>
       <c r="C66" s="3141" t="inlineStr">
         <is>
-          <t>video conference</t>
+          <t>Video conference</t>
         </is>
       </c>
       <c r="D66" s="3141" t="inlineStr">
         <is>
-          <t>Insurance Europe</t>
+          <t>European Banking Federation, Asociación Española de Banca, Febelfin, Commerzbank AG, Fédération bancaire française, Banco Santander, S.A., Associazione Bancaria Italiana, Bundesverband deutscher Banken e.V., Société Générale</t>
         </is>
       </c>
       <c r="E66" s="3141" t="inlineStr">
         <is>
-          <t>Retail investment strategy</t>
+          <t xml:space="preserve"> retail investment strategy</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="3141" t="inlineStr">
         <is>
-          <t>Andrea Beltramello</t>
+          <t>Caroline Boeshertz</t>
         </is>
       </c>
       <c r="B67" s="3138" t="inlineStr">
@@ -11710,24 +11710,24 @@
       </c>
       <c r="C67" s="3141" t="inlineStr">
         <is>
-          <t>Video conference</t>
+          <t>Brussels</t>
         </is>
       </c>
       <c r="D67" s="3141" t="inlineStr">
         <is>
-          <t>European Banking Federation, Asociación Española de Banca, Febelfin, Commerzbank AG, Fédération bancaire française, Banco Santander, S.A., Associazione Bancaria Italiana, Bundesverband deutscher Banken e.V., Société Générale</t>
+          <t>Association des Constructeurs Européens d'Automobiles</t>
         </is>
       </c>
       <c r="E67" s="3141" t="inlineStr">
         <is>
-          <t xml:space="preserve"> retail investment strategy</t>
+          <t xml:space="preserve"> Critical Raw Materials Act</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="3141" t="inlineStr">
         <is>
-          <t>Caroline Boeshertz</t>
+          <t>Andrea Beltramello</t>
         </is>
       </c>
       <c r="B68" s="3138" t="inlineStr">
@@ -11737,17 +11737,17 @@
       </c>
       <c r="C68" s="3141" t="inlineStr">
         <is>
-          <t>Brussels</t>
+          <t>video conference</t>
         </is>
       </c>
       <c r="D68" s="3141" t="inlineStr">
         <is>
-          <t>Association des Constructeurs Européens d'Automobiles</t>
+          <t>Insurance Europe</t>
         </is>
       </c>
       <c r="E68" s="3141" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Critical Raw Materials Act</t>
+          <t>Retail investment strategy</t>
         </is>
       </c>
     </row>
@@ -11862,7 +11862,7 @@
     <row r="73">
       <c r="A73" s="3141" t="inlineStr">
         <is>
-          <t>Michael Hager</t>
+          <t>Kevin Keary</t>
         </is>
       </c>
       <c r="B73" s="3138" t="inlineStr">
@@ -11877,19 +11877,19 @@
       </c>
       <c r="D73" s="3141" t="inlineStr">
         <is>
-          <t>Marcegaglia Carbon Steel SPA</t>
+          <t>Haleon</t>
         </is>
       </c>
       <c r="E73" s="3141" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Trade and Steel issues</t>
+          <t>pharma trade, supply chain resilience</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="3141" t="inlineStr">
         <is>
-          <t>Kevin Keary</t>
+          <t>Michael Hager</t>
         </is>
       </c>
       <c r="B74" s="3138" t="inlineStr">
@@ -11904,12 +11904,12 @@
       </c>
       <c r="D74" s="3141" t="inlineStr">
         <is>
-          <t>Haleon</t>
+          <t>Marcegaglia Carbon Steel SPA</t>
         </is>
       </c>
       <c r="E74" s="3141" t="inlineStr">
         <is>
-          <t>pharma trade, supply chain resilience</t>
+          <t xml:space="preserve"> Trade and Steel issues</t>
         </is>
       </c>
     </row>
@@ -11970,7 +11970,7 @@
     <row r="77">
       <c r="A77" s="3141" t="inlineStr">
         <is>
-          <t>Andrea Beltramello</t>
+          <t>Gints Freimanis</t>
         </is>
       </c>
       <c r="B77" s="3138" t="inlineStr">
@@ -11980,24 +11980,24 @@
       </c>
       <c r="C77" s="3141" t="inlineStr">
         <is>
-          <t xml:space="preserve">video conference </t>
+          <t>Virtual</t>
         </is>
       </c>
       <c r="D77" s="3141" t="inlineStr">
         <is>
-          <t>Deutsche Bank AG</t>
+          <t>Daimler Truck AG</t>
         </is>
       </c>
       <c r="E77" s="3141" t="inlineStr">
         <is>
-          <t>Retail Investment Strategy</t>
+          <t>CO2 Standards for heavy-duty vehicles</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="3141" t="inlineStr">
         <is>
-          <t>Gints Freimanis</t>
+          <t>Andrea Beltramello</t>
         </is>
       </c>
       <c r="B78" s="3138" t="inlineStr">
@@ -12007,17 +12007,17 @@
       </c>
       <c r="C78" s="3141" t="inlineStr">
         <is>
-          <t>Virtual</t>
+          <t xml:space="preserve">video conference </t>
         </is>
       </c>
       <c r="D78" s="3141" t="inlineStr">
         <is>
-          <t>Daimler Truck AG</t>
+          <t>Deutsche Bank AG</t>
         </is>
       </c>
       <c r="E78" s="3141" t="inlineStr">
         <is>
-          <t>CO2 Standards for heavy-duty vehicles</t>
+          <t>Retail Investment Strategy</t>
         </is>
       </c>
     </row>
@@ -12215,7 +12215,7 @@
     <row r="86">
       <c r="A86" s="3141" t="inlineStr">
         <is>
-          <t>Michael Hager</t>
+          <t>Andrea Beltramello</t>
         </is>
       </c>
       <c r="B86" s="3138" t="inlineStr">
@@ -12230,19 +12230,19 @@
       </c>
       <c r="D86" s="3141" t="inlineStr">
         <is>
-          <t>Bundesverband deutscher Banken e.V.</t>
+          <t>Tietmeyer, Wolgast &amp; Partner Berlin Politikberatung PartG, DBRS Ratings GmbH</t>
         </is>
       </c>
       <c r="E86" s="3141" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Retail Investment legislative package</t>
+          <t xml:space="preserve"> ESG Ratings</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="3141" t="inlineStr">
         <is>
-          <t>Caroline Boeshertz</t>
+          <t>Michael Hager</t>
         </is>
       </c>
       <c r="B87" s="3138" t="inlineStr">
@@ -12252,24 +12252,24 @@
       </c>
       <c r="C87" s="3141" t="inlineStr">
         <is>
-          <t xml:space="preserve">video - conference </t>
+          <t>Brussels</t>
         </is>
       </c>
       <c r="D87" s="3141" t="inlineStr">
         <is>
-          <t>Transport and Environment (European Federation for Transport and Environment)</t>
+          <t>Bundesverband deutscher Banken e.V.</t>
         </is>
       </c>
       <c r="E87" s="3141" t="inlineStr">
         <is>
-          <t>EU battery production and electric vehicles, IRA, critical raw materials</t>
+          <t xml:space="preserve"> Retail Investment legislative package</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="3141" t="inlineStr">
         <is>
-          <t>Andrea Beltramello</t>
+          <t>Caroline Boeshertz</t>
         </is>
       </c>
       <c r="B88" s="3138" t="inlineStr">
@@ -12279,24 +12279,24 @@
       </c>
       <c r="C88" s="3141" t="inlineStr">
         <is>
-          <t>Brussels</t>
+          <t xml:space="preserve">video - conference </t>
         </is>
       </c>
       <c r="D88" s="3141" t="inlineStr">
         <is>
-          <t>Tietmeyer, Wolgast &amp; Partner Berlin Politikberatung PartG, DBRS Ratings GmbH</t>
+          <t>Transport and Environment (European Federation for Transport and Environment)</t>
         </is>
       </c>
       <c r="E88" s="3141" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ESG Ratings</t>
+          <t>EU battery production and electric vehicles, IRA, critical raw materials</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="3141" t="inlineStr">
         <is>
-          <t>Andrea Beltramello</t>
+          <t>Mirzha De Manuel, Pim Lescrauwaet</t>
         </is>
       </c>
       <c r="B89" s="3138" t="inlineStr">
@@ -12306,24 +12306,24 @@
       </c>
       <c r="C89" s="3141" t="inlineStr">
         <is>
-          <t xml:space="preserve">video conference </t>
+          <t>Virtual</t>
         </is>
       </c>
       <c r="D89" s="3141" t="inlineStr">
         <is>
-          <t>Gesamtverband der Deutschen Versicherungswirtschaft e.V.</t>
+          <t>Platform of European Social NGOs</t>
         </is>
       </c>
       <c r="E89" s="3141" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Retail Investment Strategy </t>
+          <t xml:space="preserve"> Economic Governance Review</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="3141" t="inlineStr">
         <is>
-          <t>Mirzha De Manuel, Pim Lescrauwaet</t>
+          <t>Andrea Beltramello</t>
         </is>
       </c>
       <c r="B90" s="3138" t="inlineStr">
@@ -12333,24 +12333,24 @@
       </c>
       <c r="C90" s="3141" t="inlineStr">
         <is>
-          <t>Virtual</t>
+          <t xml:space="preserve">video conference </t>
         </is>
       </c>
       <c r="D90" s="3141" t="inlineStr">
         <is>
-          <t>Platform of European Social NGOs</t>
+          <t>Gesamtverband der Deutschen Versicherungswirtschaft e.V.</t>
         </is>
       </c>
       <c r="E90" s="3141" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Economic Governance Review</t>
+          <t xml:space="preserve"> Retail Investment Strategy </t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="3141" t="inlineStr">
         <is>
-          <t>Cristina Rueda Catry, Michael Hager</t>
+          <t>Michael Hager, Cristina Rueda Catry</t>
         </is>
       </c>
       <c r="B91" s="3138" t="inlineStr">
@@ -12435,7 +12435,7 @@
     <row r="94">
       <c r="A94" s="3141" t="inlineStr">
         <is>
-          <t>Elina Melngaile</t>
+          <t>Andrea Beltramello, Caroline Boeshertz</t>
         </is>
       </c>
       <c r="B94" s="3138" t="inlineStr">
@@ -12445,24 +12445,24 @@
       </c>
       <c r="C94" s="3141" t="inlineStr">
         <is>
-          <t>Brussels</t>
+          <t xml:space="preserve">video call </t>
         </is>
       </c>
       <c r="D94" s="3141" t="inlineStr">
         <is>
-          <t>American Chamber of Commerce to the European Union</t>
+          <t>Samsung Electronics Europe</t>
         </is>
       </c>
       <c r="E94" s="3141" t="inlineStr">
         <is>
-          <t>Exchange of views on EU-US trade relationship</t>
+          <t>Critical Raw Materials Act, Forced Labour Product Prohibition Regulation, Directive on Corporate Sustainability Due Diligence</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="3141" t="inlineStr">
         <is>
-          <t>Andrea Beltramello</t>
+          <t>Michael Hager</t>
         </is>
       </c>
       <c r="B95" s="3138" t="inlineStr">
@@ -12477,19 +12477,19 @@
       </c>
       <c r="D95" s="3141" t="inlineStr">
         <is>
-          <t>AXA</t>
+          <t>BUSINESSEUROPE</t>
         </is>
       </c>
       <c r="E95" s="3141" t="inlineStr">
         <is>
-          <t>Sustainable finance</t>
+          <t xml:space="preserve"> Trade and competitiveness of European businesses</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="3141" t="inlineStr">
         <is>
-          <t>Caroline Boeshertz, Andrea Beltramello</t>
+          <t>Andrea Beltramello</t>
         </is>
       </c>
       <c r="B96" s="3138" t="inlineStr">
@@ -12499,24 +12499,24 @@
       </c>
       <c r="C96" s="3141" t="inlineStr">
         <is>
-          <t xml:space="preserve">video call </t>
+          <t>Brussels</t>
         </is>
       </c>
       <c r="D96" s="3141" t="inlineStr">
         <is>
-          <t>Samsung Electronics Europe</t>
+          <t>AXA</t>
         </is>
       </c>
       <c r="E96" s="3141" t="inlineStr">
         <is>
-          <t>Critical Raw Materials Act, Forced Labour Product Prohibition Regulation, Directive on Corporate Sustainability Due Diligence</t>
+          <t>Sustainable finance</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="3141" t="inlineStr">
         <is>
-          <t>Michael Hager</t>
+          <t>Elina Melngaile</t>
         </is>
       </c>
       <c r="B97" s="3138" t="inlineStr">
@@ -12531,19 +12531,19 @@
       </c>
       <c r="D97" s="3141" t="inlineStr">
         <is>
-          <t>BUSINESSEUROPE</t>
+          <t>American Chamber of Commerce to the European Union</t>
         </is>
       </c>
       <c r="E97" s="3141" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Trade and competitiveness of European businesses</t>
+          <t>Exchange of views on EU-US trade relationship</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="3141" t="inlineStr">
         <is>
-          <t>Michael Hager</t>
+          <t>Andrea Beltramello</t>
         </is>
       </c>
       <c r="B98" s="3138" t="inlineStr">
@@ -12558,19 +12558,19 @@
       </c>
       <c r="D98" s="3141" t="inlineStr">
         <is>
-          <t>Heidelberg Materials (HeidelbergCement AG)</t>
+          <t>Third Generation Environmentalism Ltd</t>
         </is>
       </c>
       <c r="E98" s="3141" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Recovery and Resilience facility</t>
+          <t xml:space="preserve">Trade and climate </t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="3141" t="inlineStr">
         <is>
-          <t>Andrea Beltramello</t>
+          <t>Michael Hager</t>
         </is>
       </c>
       <c r="B99" s="3138" t="inlineStr">
@@ -12585,12 +12585,12 @@
       </c>
       <c r="D99" s="3141" t="inlineStr">
         <is>
-          <t>Third Generation Environmentalism Ltd</t>
+          <t>Heidelberg Materials (HeidelbergCement AG)</t>
         </is>
       </c>
       <c r="E99" s="3141" t="inlineStr">
         <is>
-          <t xml:space="preserve">Trade and climate </t>
+          <t xml:space="preserve"> Recovery and Resilience facility</t>
         </is>
       </c>
     </row>
@@ -12624,7 +12624,7 @@
     <row r="101">
       <c r="A101" s="3141" t="inlineStr">
         <is>
-          <t>Pim Lescrauwaet, Mirzha De Manuel, Michael Hager</t>
+          <t>Andrea Beltramello</t>
         </is>
       </c>
       <c r="B101" s="3138" t="inlineStr">
@@ -12634,24 +12634,24 @@
       </c>
       <c r="C101" s="3141" t="inlineStr">
         <is>
-          <t>Brussels</t>
+          <t xml:space="preserve">BERL </t>
         </is>
       </c>
       <c r="D101" s="3141" t="inlineStr">
         <is>
-          <t>Bruegel</t>
+          <t>Environmental Justice Foundation</t>
         </is>
       </c>
       <c r="E101" s="3141" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Current fiscal policy in the EU</t>
+          <t>Trade and sustainable development; deforestation</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="3141" t="inlineStr">
         <is>
-          <t>Andrea Beltramello</t>
+          <t>Michael Hager, Pim Lescrauwaet, Mirzha De Manuel</t>
         </is>
       </c>
       <c r="B102" s="3138" t="inlineStr">
@@ -12661,17 +12661,17 @@
       </c>
       <c r="C102" s="3141" t="inlineStr">
         <is>
-          <t xml:space="preserve">BERL </t>
+          <t>Brussels</t>
         </is>
       </c>
       <c r="D102" s="3141" t="inlineStr">
         <is>
-          <t>Environmental Justice Foundation</t>
+          <t>Bruegel</t>
         </is>
       </c>
       <c r="E102" s="3141" t="inlineStr">
         <is>
-          <t>Trade and sustainable development; deforestation</t>
+          <t xml:space="preserve"> Current fiscal policy in the EU</t>
         </is>
       </c>
     </row>
@@ -12705,7 +12705,7 @@
     <row r="104">
       <c r="A104" s="3141" t="inlineStr">
         <is>
-          <t>Sofja Ribkina, Gints Freimanis</t>
+          <t>Mirzha De Manuel</t>
         </is>
       </c>
       <c r="B104" s="3138" t="inlineStr">
@@ -12715,24 +12715,24 @@
       </c>
       <c r="C104" s="3141" t="inlineStr">
         <is>
-          <t>Brussels, Belgium</t>
+          <t>Virtual</t>
         </is>
       </c>
       <c r="D104" s="3141" t="inlineStr">
         <is>
-          <t>CEMENT,GLASS, CERAMICS AND SOIL PRODUCTS EXPORTERS' ASSOCIATION, FIPRA International SRL</t>
+          <t>BUSINESSEUROPE</t>
         </is>
       </c>
       <c r="E104" s="3141" t="inlineStr">
         <is>
-          <t>EU anti-dumping investigation against imports of ceramic tiles originating, inter alia, in Türkiye</t>
+          <t xml:space="preserve"> Follow up call -  CEO Event of 10 November 2023. Discussed running of the event and improvement possibilities.</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="3141" t="inlineStr">
         <is>
-          <t>Mirzha De Manuel</t>
+          <t>Michael Hager</t>
         </is>
       </c>
       <c r="B105" s="3138" t="inlineStr">
@@ -12742,17 +12742,17 @@
       </c>
       <c r="C105" s="3141" t="inlineStr">
         <is>
-          <t>Virtual</t>
+          <t>Brussels</t>
         </is>
       </c>
       <c r="D105" s="3141" t="inlineStr">
         <is>
-          <t>BUSINESSEUROPE</t>
+          <t>Deutsche Industrie- und Handelskammer</t>
         </is>
       </c>
       <c r="E105" s="3141" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Follow up call -  CEO Event of 10 November 2023. Discussed running of the event and improvement possibilities.</t>
+          <t xml:space="preserve"> European Competitiveness</t>
         </is>
       </c>
     </row>
@@ -12774,19 +12774,19 @@
       </c>
       <c r="D106" s="3141" t="inlineStr">
         <is>
-          <t>Deutsche Industrie- und Handelskammer</t>
+          <t>Cisco Systems Inc.</t>
         </is>
       </c>
       <c r="E106" s="3141" t="inlineStr">
         <is>
-          <t xml:space="preserve"> European Competitiveness</t>
+          <t xml:space="preserve"> Digital Economy</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="3141" t="inlineStr">
         <is>
-          <t>Michael Hager</t>
+          <t>Gints Freimanis, Sofja Ribkina</t>
         </is>
       </c>
       <c r="B107" s="3138" t="inlineStr">
@@ -12796,17 +12796,17 @@
       </c>
       <c r="C107" s="3141" t="inlineStr">
         <is>
-          <t>Brussels</t>
+          <t>Brussels, Belgium</t>
         </is>
       </c>
       <c r="D107" s="3141" t="inlineStr">
         <is>
-          <t>Vodafone Belgium SA</t>
+          <t>CEMENT,GLASS, CERAMICS AND SOIL PRODUCTS EXPORTERS' ASSOCIATION, FIPRA International SRL</t>
         </is>
       </c>
       <c r="E107" s="3141" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Digital Economy</t>
+          <t>EU anti-dumping investigation against imports of ceramic tiles originating, inter alia, in Türkiye</t>
         </is>
       </c>
     </row>
@@ -12828,7 +12828,7 @@
       </c>
       <c r="D108" s="3141" t="inlineStr">
         <is>
-          <t>Cisco Systems Inc.</t>
+          <t>Vodafone Belgium SA</t>
         </is>
       </c>
       <c r="E108" s="3141" t="inlineStr">
@@ -12958,12 +12958,12 @@
       </c>
       <c r="C113" s="3141" t="inlineStr">
         <is>
-          <t>Video-conference</t>
+          <t xml:space="preserve">video call </t>
         </is>
       </c>
       <c r="D113" s="3141" t="inlineStr">
         <is>
-          <t>Confederation of European Paper Industries</t>
+          <t>Huhtamäki Oyj</t>
         </is>
       </c>
       <c r="E113" s="3141" t="inlineStr">
@@ -12985,24 +12985,24 @@
       </c>
       <c r="C114" s="3141" t="inlineStr">
         <is>
-          <t>video-call</t>
+          <t>Video-conference</t>
         </is>
       </c>
       <c r="D114" s="3141" t="inlineStr">
         <is>
-          <t>Novelis Europe, PepsiCo, European Aluminium AISBL, ALPLA Werke Alwin Lehner GmbH &amp; Co KG, Ball Beverage Packaging Europe Limited, Union of European Beverages Association, The Coca-Cola Company, Metal Packaging Europe External Affairs ASBL</t>
+          <t>Confederation of European Paper Industries</t>
         </is>
       </c>
       <c r="E114" s="3141" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Draft proposal of a Regulation on Packaging and Packaging Waste (PPWR)</t>
+          <t>Draft proposal of a Regulation on Packaging and Packaging Waste (PPWR)</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="3141" t="inlineStr">
         <is>
-          <t>Caroline Boeshertz</t>
+          <t>Andrea Beltramello</t>
         </is>
       </c>
       <c r="B115" s="3138" t="inlineStr">
@@ -13012,24 +13012,24 @@
       </c>
       <c r="C115" s="3141" t="inlineStr">
         <is>
-          <t xml:space="preserve">video call </t>
+          <t>Video call</t>
         </is>
       </c>
       <c r="D115" s="3141" t="inlineStr">
         <is>
-          <t>Huhtamäki Oyj</t>
+          <t>Bureau Européen des Unions de Consommateurs</t>
         </is>
       </c>
       <c r="E115" s="3141" t="inlineStr">
         <is>
-          <t>Draft proposal of a Regulation on Packaging and Packaging Waste (PPWR)</t>
+          <t xml:space="preserve"> Retail investment strategy and our both names</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="3141" t="inlineStr">
         <is>
-          <t>Andrea Beltramello</t>
+          <t>Caroline Boeshertz</t>
         </is>
       </c>
       <c r="B116" s="3138" t="inlineStr">
@@ -13039,17 +13039,17 @@
       </c>
       <c r="C116" s="3141" t="inlineStr">
         <is>
-          <t>Video call</t>
+          <t>video-call</t>
         </is>
       </c>
       <c r="D116" s="3141" t="inlineStr">
         <is>
-          <t>Bureau Européen des Unions de Consommateurs</t>
+          <t>Novelis Europe, PepsiCo, European Aluminium AISBL, ALPLA Werke Alwin Lehner GmbH &amp; Co KG, Ball Beverage Packaging Europe Limited, Union of European Beverages Association, The Coca-Cola Company, Metal Packaging Europe External Affairs ASBL</t>
         </is>
       </c>
       <c r="E116" s="3141" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Retail investment strategy and our both names</t>
+          <t xml:space="preserve"> Draft proposal of a Regulation on Packaging and Packaging Waste (PPWR)</t>
         </is>
       </c>
     </row>
@@ -13083,7 +13083,7 @@
     <row r="118">
       <c r="A118" s="3141" t="inlineStr">
         <is>
-          <t>Andrea Beltramello</t>
+          <t>Caroline Boeshertz</t>
         </is>
       </c>
       <c r="B118" s="3138" t="inlineStr">
@@ -13093,24 +13093,24 @@
       </c>
       <c r="C118" s="3141" t="inlineStr">
         <is>
-          <t xml:space="preserve">video conference </t>
+          <t>Brussels</t>
         </is>
       </c>
       <c r="D118" s="3141" t="inlineStr">
         <is>
-          <t>Clean Clothes Campaign / Stichting Schone Kleren Kampagne, International La Strada Association, Anti-Slavery International, World Uyghur Congress, Stichting Fair Trade Advocacy Office, Environmental Justice Foundation, European Center for Constitutional and Human Rights</t>
+          <t>Natural Mineral Waters Europe aisbl, The Brewers of Europe</t>
         </is>
       </c>
       <c r="E118" s="3141" t="inlineStr">
         <is>
-          <t xml:space="preserve"> forced labour </t>
+          <t xml:space="preserve">Draft proposal of a Regulation on Packaging and Packaging Waste (PPWR) </t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="3141" t="inlineStr">
         <is>
-          <t>Andrea Beltramello</t>
+          <t>Mirzha De Manuel</t>
         </is>
       </c>
       <c r="B119" s="3138" t="inlineStr">
@@ -13120,17 +13120,17 @@
       </c>
       <c r="C119" s="3141" t="inlineStr">
         <is>
-          <t xml:space="preserve">BERL </t>
+          <t>Brussels</t>
         </is>
       </c>
       <c r="D119" s="3141" t="inlineStr">
         <is>
-          <t>Insurance Europe</t>
+          <t>Banco Santander, S.A.</t>
         </is>
       </c>
       <c r="E119" s="3141" t="inlineStr">
         <is>
-          <t xml:space="preserve"> retail investment strategy; Solvency II            </t>
+          <t>Economic situation and outlook, economic and social policy priorities, recovery and resilience plans</t>
         </is>
       </c>
     </row>
@@ -13147,24 +13147,24 @@
       </c>
       <c r="C120" s="3141" t="inlineStr">
         <is>
-          <t xml:space="preserve">BERL </t>
+          <t xml:space="preserve">video conference </t>
         </is>
       </c>
       <c r="D120" s="3141" t="inlineStr">
         <is>
-          <t>European Network of Credit Unions</t>
+          <t>Clean Clothes Campaign / Stichting Schone Kleren Kampagne, International La Strada Association, Anti-Slavery International, World Uyghur Congress, Stichting Fair Trade Advocacy Office, Environmental Justice Foundation, European Center for Constitutional and Human Rights</t>
         </is>
       </c>
       <c r="E120" s="3141" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Credit Unions, support to Ukraine, sustainability</t>
+          <t xml:space="preserve"> forced labour </t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="3141" t="inlineStr">
         <is>
-          <t>Mirzha De Manuel</t>
+          <t>Andrea Beltramello</t>
         </is>
       </c>
       <c r="B121" s="3138" t="inlineStr">
@@ -13174,24 +13174,24 @@
       </c>
       <c r="C121" s="3141" t="inlineStr">
         <is>
-          <t>Brussels</t>
+          <t xml:space="preserve">BERL </t>
         </is>
       </c>
       <c r="D121" s="3141" t="inlineStr">
         <is>
-          <t>Banco Santander, S.A.</t>
+          <t>Insurance Europe</t>
         </is>
       </c>
       <c r="E121" s="3141" t="inlineStr">
         <is>
-          <t>Economic situation and outlook, economic and social policy priorities, recovery and resilience plans</t>
+          <t xml:space="preserve"> retail investment strategy; Solvency II            </t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="3141" t="inlineStr">
         <is>
-          <t>Caroline Boeshertz</t>
+          <t>Andrea Beltramello</t>
         </is>
       </c>
       <c r="B122" s="3138" t="inlineStr">
@@ -13201,17 +13201,17 @@
       </c>
       <c r="C122" s="3141" t="inlineStr">
         <is>
-          <t>Brussels</t>
+          <t xml:space="preserve">BERL </t>
         </is>
       </c>
       <c r="D122" s="3141" t="inlineStr">
         <is>
-          <t>Natural Mineral Waters Europe aisbl, The Brewers of Europe</t>
+          <t>European Network of Credit Unions</t>
         </is>
       </c>
       <c r="E122" s="3141" t="inlineStr">
         <is>
-          <t xml:space="preserve">Draft proposal of a Regulation on Packaging and Packaging Waste (PPWR) </t>
+          <t xml:space="preserve"> Credit Unions, support to Ukraine, sustainability</t>
         </is>
       </c>
     </row>
@@ -13314,19 +13314,19 @@
       </c>
       <c r="D126" s="3141" t="inlineStr">
         <is>
-          <t>Bundesverband deutscher Banken e.V.</t>
+          <t>Signum Global Advisors</t>
         </is>
       </c>
       <c r="E126" s="3141" t="inlineStr">
         <is>
-          <t xml:space="preserve">Economic Governance Review, Recovery and Resilience Facility, macroeconomic policy, energy policy </t>
+          <t xml:space="preserve"> Economic Governance Review, Recovery and Resilience Facility, macroeconomic policy, energy policy </t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="3141" t="inlineStr">
         <is>
-          <t>Andrea Beltramello</t>
+          <t>Pim Lescrauwaet</t>
         </is>
       </c>
       <c r="B127" s="3138" t="inlineStr">
@@ -13336,24 +13336,24 @@
       </c>
       <c r="C127" s="3141" t="inlineStr">
         <is>
-          <t xml:space="preserve">BERL </t>
+          <t>Brussels</t>
         </is>
       </c>
       <c r="D127" s="3141" t="inlineStr">
         <is>
-          <t>K&amp;L Gates GP - Brussels, American Chamber of Commerce to the European Union</t>
+          <t>Bundesverband deutscher Banken e.V.</t>
         </is>
       </c>
       <c r="E127" s="3141" t="inlineStr">
         <is>
-          <t>Sustainable finance</t>
+          <t xml:space="preserve">Economic Governance Review, Recovery and Resilience Facility, macroeconomic policy, energy policy </t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="3141" t="inlineStr">
         <is>
-          <t>Pim Lescrauwaet</t>
+          <t>Andrea Beltramello</t>
         </is>
       </c>
       <c r="B128" s="3138" t="inlineStr">
@@ -13363,24 +13363,24 @@
       </c>
       <c r="C128" s="3141" t="inlineStr">
         <is>
-          <t>Brussels</t>
+          <t xml:space="preserve">BERL </t>
         </is>
       </c>
       <c r="D128" s="3141" t="inlineStr">
         <is>
-          <t>Signum Global Advisors</t>
+          <t>K&amp;L Gates GP - Brussels, American Chamber of Commerce to the European Union</t>
         </is>
       </c>
       <c r="E128" s="3141" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Economic Governance Review, Recovery and Resilience Facility, macroeconomic policy, energy policy </t>
+          <t>Sustainable finance</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="3141" t="inlineStr">
         <is>
-          <t>Caroline Boeshertz</t>
+          <t>Cristina Rueda Catry, Caroline Boeshertz, Mirzha De Manuel</t>
         </is>
       </c>
       <c r="B129" s="3138" t="inlineStr">
@@ -13390,17 +13390,17 @@
       </c>
       <c r="C129" s="3141" t="inlineStr">
         <is>
-          <t>video-call</t>
+          <t>Brussels</t>
         </is>
       </c>
       <c r="D129" s="3141" t="inlineStr">
         <is>
-          <t>SEC NEWGATE EU, The Alliance for Beverage Cartons and the Environment</t>
+          <t>BUSINESSEUROPE</t>
         </is>
       </c>
       <c r="E129" s="3141" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Draft proposal of a Regulation on Packaging and Packaging Waste (PPWR)</t>
+          <t xml:space="preserve"> Economic outlook, trade policy, economic crises response </t>
         </is>
       </c>
     </row>
@@ -13434,7 +13434,7 @@
     <row r="131">
       <c r="A131" s="3141" t="inlineStr">
         <is>
-          <t>Mirzha De Manuel, Caroline Boeshertz, Cristina Rueda Catry</t>
+          <t>Caroline Boeshertz</t>
         </is>
       </c>
       <c r="B131" s="3138" t="inlineStr">
@@ -13444,17 +13444,17 @@
       </c>
       <c r="C131" s="3141" t="inlineStr">
         <is>
-          <t>Brussels</t>
+          <t>video-call</t>
         </is>
       </c>
       <c r="D131" s="3141" t="inlineStr">
         <is>
-          <t>BUSINESSEUROPE</t>
+          <t>SEC NEWGATE EU, The Alliance for Beverage Cartons and the Environment</t>
         </is>
       </c>
       <c r="E131" s="3141" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Economic outlook, trade policy, economic crises response </t>
+          <t xml:space="preserve"> Draft proposal of a Regulation on Packaging and Packaging Waste (PPWR)</t>
         </is>
       </c>
     </row>
@@ -13471,17 +13471,17 @@
       </c>
       <c r="C132" s="3141" t="inlineStr">
         <is>
-          <t xml:space="preserve">BERL </t>
+          <t>BERL</t>
         </is>
       </c>
       <c r="D132" s="3141" t="inlineStr">
         <is>
-          <t>Bundesverband deutscher Banken e.V.</t>
+          <t>London Stock Exchange Group</t>
         </is>
       </c>
       <c r="E132" s="3141" t="inlineStr">
         <is>
-          <t>Digital euro</t>
+          <t xml:space="preserve"> sustainable finance</t>
         </is>
       </c>
     </row>
@@ -13525,17 +13525,17 @@
       </c>
       <c r="C134" s="3141" t="inlineStr">
         <is>
-          <t>BERL</t>
+          <t xml:space="preserve">BERL </t>
         </is>
       </c>
       <c r="D134" s="3141" t="inlineStr">
         <is>
-          <t>London Stock Exchange Group</t>
+          <t>Bundesverband deutscher Banken e.V.</t>
         </is>
       </c>
       <c r="E134" s="3141" t="inlineStr">
         <is>
-          <t xml:space="preserve"> sustainable finance</t>
+          <t>Digital euro</t>
         </is>
       </c>
     </row>
@@ -13639,12 +13639,12 @@
       </c>
       <c r="D138" s="3141" t="inlineStr">
         <is>
-          <t>Fleishman-Hillard, Invesco Management SA, BlackRock, State Street Corporation, Schroders Investment Management (Europe) SA, Capital International Management Company</t>
+          <t>FTI Consulting Belgium, Satispay Europe SA</t>
         </is>
       </c>
       <c r="E138" s="3141" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Retail Strategy &amp; Sustainable Investment</t>
+          <t>payment services</t>
         </is>
       </c>
     </row>
@@ -13693,12 +13693,12 @@
       </c>
       <c r="D140" s="3141" t="inlineStr">
         <is>
-          <t>FTI Consulting Belgium, Satispay Europe SA</t>
+          <t>Fleishman-Hillard, Invesco Management SA, BlackRock, State Street Corporation, Schroders Investment Management (Europe) SA, Capital International Management Company</t>
         </is>
       </c>
       <c r="E140" s="3141" t="inlineStr">
         <is>
-          <t>payment services</t>
+          <t xml:space="preserve"> Retail Strategy &amp; Sustainable Investment</t>
         </is>
       </c>
     </row>
@@ -13715,17 +13715,17 @@
       </c>
       <c r="C141" s="3141" t="inlineStr">
         <is>
-          <t>Brussels</t>
+          <t>BERL</t>
         </is>
       </c>
       <c r="D141" s="3141" t="inlineStr">
         <is>
-          <t>International Consolidated Airlines Group</t>
+          <t>Confédération Générale des Entreprises du Maroc, SEC NEWGATE EU</t>
         </is>
       </c>
       <c r="E141" s="3141" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Airlines</t>
+          <t xml:space="preserve"> modernisation of EU-Morocco trade and investment relations</t>
         </is>
       </c>
     </row>
@@ -13759,58 +13759,58 @@
     <row r="143">
       <c r="A143" s="3141" t="inlineStr">
         <is>
+          <t>Caroline Boeshertz</t>
+        </is>
+      </c>
+      <c r="B143" s="3138" t="inlineStr">
+        <is>
+          <t>25/10/2022</t>
+        </is>
+      </c>
+      <c r="C143" s="3141" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="D143" s="3141" t="inlineStr">
+        <is>
+          <t>International Consolidated Airlines Group</t>
+        </is>
+      </c>
+      <c r="E143" s="3141" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Airlines</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="3141" t="inlineStr">
+        <is>
           <t>Michael Hager, Elina Melngaile</t>
         </is>
       </c>
-      <c r="B143" s="3138" t="inlineStr">
+      <c r="B144" s="3138" t="inlineStr">
         <is>
           <t>25/10/2022</t>
         </is>
       </c>
-      <c r="C143" s="3141" t="inlineStr">
+      <c r="C144" s="3141" t="inlineStr">
         <is>
           <t>Brussels</t>
         </is>
       </c>
-      <c r="D143" s="3141" t="inlineStr">
+      <c r="D144" s="3141" t="inlineStr">
         <is>
           <t>The Chicago Council on Global Affairs</t>
         </is>
       </c>
-      <c r="E143" s="3141" t="inlineStr">
+      <c r="E144" s="3141" t="inlineStr">
         <is>
           <t xml:space="preserve">EU-US trade relations; Preparations for next Trade and Technology Council (TTC) meeting; Inflation Reduction Act (IRA) 
 </t>
         </is>
       </c>
     </row>
-    <row r="144">
-      <c r="A144" s="3141" t="inlineStr">
-        <is>
-          <t>Caroline Boeshertz</t>
-        </is>
-      </c>
-      <c r="B144" s="3138" t="inlineStr">
-        <is>
-          <t>25/10/2022</t>
-        </is>
-      </c>
-      <c r="C144" s="3141" t="inlineStr">
-        <is>
-          <t>BERL</t>
-        </is>
-      </c>
-      <c r="D144" s="3141" t="inlineStr">
-        <is>
-          <t>Confédération Générale des Entreprises du Maroc, SEC NEWGATE EU</t>
-        </is>
-      </c>
-      <c r="E144" s="3141" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> modernisation of EU-Morocco trade and investment relations</t>
-        </is>
-      </c>
-    </row>
     <row r="145">
       <c r="A145" s="3141" t="inlineStr">
         <is>
@@ -13868,7 +13868,7 @@
     <row r="147">
       <c r="A147" s="3141" t="inlineStr">
         <is>
-          <t>Michael Hager, Caroline Boeshertz</t>
+          <t>Caroline Boeshertz, Michael Hager</t>
         </is>
       </c>
       <c r="B147" s="3138" t="inlineStr">
@@ -14057,7 +14057,7 @@
     <row r="154">
       <c r="A154" s="3141" t="inlineStr">
         <is>
-          <t>Andrea Beltramello, Michael Hager</t>
+          <t>Michael Hager, Andrea Beltramello</t>
         </is>
       </c>
       <c r="B154" s="3138" t="inlineStr">
@@ -14084,7 +14084,7 @@
     <row r="155">
       <c r="A155" s="3141" t="inlineStr">
         <is>
-          <t>Kevin Keary, Michael Hager</t>
+          <t>Caroline Boeshertz, Gints Freimanis</t>
         </is>
       </c>
       <c r="B155" s="3138" t="inlineStr">
@@ -14094,24 +14094,24 @@
       </c>
       <c r="C155" s="3141" t="inlineStr">
         <is>
-          <t xml:space="preserve">Brussels </t>
+          <t xml:space="preserve">BERL </t>
         </is>
       </c>
       <c r="D155" s="3141" t="inlineStr">
         <is>
-          <t>European Chamber of Commerce in Korea</t>
+          <t>H2GS AB</t>
         </is>
       </c>
       <c r="E155" s="3141" t="inlineStr">
         <is>
-          <t xml:space="preserve"> EU-Korea trade relations</t>
+          <t xml:space="preserve">  Fit for 55; CBAM</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="3141" t="inlineStr">
         <is>
-          <t>Gints Freimanis, Caroline Boeshertz</t>
+          <t>Andrea Beltramello</t>
         </is>
       </c>
       <c r="B156" s="3138" t="inlineStr">
@@ -14126,19 +14126,19 @@
       </c>
       <c r="D156" s="3141" t="inlineStr">
         <is>
-          <t>H2GS AB</t>
+          <t>Kreab, Mizuho Financial Group, Inc.</t>
         </is>
       </c>
       <c r="E156" s="3141" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Fit for 55; CBAM</t>
+          <t xml:space="preserve"> banking package                             </t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="3141" t="inlineStr">
         <is>
-          <t>Andrea Beltramello</t>
+          <t>Kevin Keary, Michael Hager</t>
         </is>
       </c>
       <c r="B157" s="3138" t="inlineStr">
@@ -14148,17 +14148,17 @@
       </c>
       <c r="C157" s="3141" t="inlineStr">
         <is>
-          <t xml:space="preserve">BERL </t>
+          <t xml:space="preserve">Brussels </t>
         </is>
       </c>
       <c r="D157" s="3141" t="inlineStr">
         <is>
-          <t>Kreab, Mizuho Financial Group, Inc.</t>
+          <t>European Chamber of Commerce in Korea</t>
         </is>
       </c>
       <c r="E157" s="3141" t="inlineStr">
         <is>
-          <t xml:space="preserve"> banking package                             </t>
+          <t xml:space="preserve"> EU-Korea trade relations</t>
         </is>
       </c>
     </row>
@@ -14219,7 +14219,7 @@
     <row r="160">
       <c r="A160" s="3141" t="inlineStr">
         <is>
-          <t>Michael Hager</t>
+          <t>Andrea Beltramello</t>
         </is>
       </c>
       <c r="B160" s="3138" t="inlineStr">
@@ -14229,24 +14229,24 @@
       </c>
       <c r="C160" s="3141" t="inlineStr">
         <is>
-          <t>Brussels</t>
+          <t xml:space="preserve">BERL </t>
         </is>
       </c>
       <c r="D160" s="3141" t="inlineStr">
         <is>
-          <t>Teknikföretagen</t>
+          <t>Asociación Española de Banca</t>
         </is>
       </c>
       <c r="E160" s="3141" t="inlineStr">
         <is>
-          <t xml:space="preserve"> EU affairs: trade policy and social dialogue </t>
+          <t xml:space="preserve"> Digital &amp; open finance</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="3141" t="inlineStr">
         <is>
-          <t>Andrea Beltramello</t>
+          <t>Michael Hager</t>
         </is>
       </c>
       <c r="B161" s="3138" t="inlineStr">
@@ -14256,17 +14256,17 @@
       </c>
       <c r="C161" s="3141" t="inlineStr">
         <is>
-          <t>BERL</t>
+          <t>Brussels</t>
         </is>
       </c>
       <c r="D161" s="3141" t="inlineStr">
         <is>
-          <t>Société Générale</t>
+          <t>Teknikföretagen</t>
         </is>
       </c>
       <c r="E161" s="3141" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Crisis management and deposit insurance; Basel III implementation</t>
+          <t xml:space="preserve"> EU affairs: trade policy and social dialogue </t>
         </is>
       </c>
     </row>
@@ -14283,24 +14283,24 @@
       </c>
       <c r="C162" s="3141" t="inlineStr">
         <is>
-          <t xml:space="preserve">BERL </t>
+          <t>BERL</t>
         </is>
       </c>
       <c r="D162" s="3141" t="inlineStr">
         <is>
-          <t>Asociación Española de Banca</t>
+          <t>Société Générale</t>
         </is>
       </c>
       <c r="E162" s="3141" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Digital &amp; open finance</t>
+          <t xml:space="preserve"> Crisis management and deposit insurance; Basel III implementation</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="3141" t="inlineStr">
         <is>
-          <t>Mirzha De Manuel</t>
+          <t>Elina Melngaile</t>
         </is>
       </c>
       <c r="B163" s="3138" t="inlineStr">
@@ -14315,19 +14315,19 @@
       </c>
       <c r="D163" s="3141" t="inlineStr">
         <is>
-          <t>Banco Santander, S.A.</t>
+          <t>Stryker</t>
         </is>
       </c>
       <c r="E163" s="3141" t="inlineStr">
         <is>
-          <t>Introductory meeting, RRF implementation</t>
+          <t>EU-US relations and deliverables for Trade &amp; Technology Council</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="3141" t="inlineStr">
         <is>
-          <t>Elina Melngaile</t>
+          <t>Mirzha De Manuel</t>
         </is>
       </c>
       <c r="B164" s="3138" t="inlineStr">
@@ -14342,19 +14342,19 @@
       </c>
       <c r="D164" s="3141" t="inlineStr">
         <is>
-          <t>Stryker</t>
+          <t>Banco Santander, S.A.</t>
         </is>
       </c>
       <c r="E164" s="3141" t="inlineStr">
         <is>
-          <t>EU-US relations and deliverables for Trade &amp; Technology Council</t>
+          <t>Introductory meeting, RRF implementation</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="3141" t="inlineStr">
         <is>
-          <t>Andrea Beltramello</t>
+          <t>Caroline Boeshertz</t>
         </is>
       </c>
       <c r="B165" s="3138" t="inlineStr">
@@ -14364,24 +14364,24 @@
       </c>
       <c r="C165" s="3141" t="inlineStr">
         <is>
-          <t xml:space="preserve">BERL </t>
+          <t>video call</t>
         </is>
       </c>
       <c r="D165" s="3141" t="inlineStr">
         <is>
-          <t>Manufacture Française des Pneumatiques Michelin</t>
+          <t>ERAMET, FIPRA International SRL</t>
         </is>
       </c>
       <c r="E165" s="3141" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Sustainable Finance</t>
+          <t xml:space="preserve"> Raw Materials initiative</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="3141" t="inlineStr">
         <is>
-          <t>Caroline Boeshertz</t>
+          <t>Andrea Beltramello</t>
         </is>
       </c>
       <c r="B166" s="3138" t="inlineStr">
@@ -14391,17 +14391,17 @@
       </c>
       <c r="C166" s="3141" t="inlineStr">
         <is>
-          <t>video call</t>
+          <t xml:space="preserve">BERL </t>
         </is>
       </c>
       <c r="D166" s="3141" t="inlineStr">
         <is>
-          <t>ERAMET, FIPRA International SRL</t>
+          <t>Manufacture Française des Pneumatiques Michelin</t>
         </is>
       </c>
       <c r="E166" s="3141" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Raw Materials initiative</t>
+          <t xml:space="preserve"> Sustainable Finance</t>
         </is>
       </c>
     </row>
@@ -14435,7 +14435,7 @@
     <row r="168">
       <c r="A168" s="3141" t="inlineStr">
         <is>
-          <t>Cristina Rueda Catry, Andrea Beltramello</t>
+          <t>Andrea Beltramello</t>
         </is>
       </c>
       <c r="B168" s="3138" t="inlineStr">
@@ -14450,19 +14450,19 @@
       </c>
       <c r="D168" s="3141" t="inlineStr">
         <is>
-          <t>Maa- ja metsätaloustuottajain Keskusliitto – Central Union of Agricultural Producers and Forest Owners</t>
+          <t>Ernst &amp; Young Core Business Services BV</t>
         </is>
       </c>
       <c r="E168" s="3141" t="inlineStr">
         <is>
-          <t>Forests; EU taxonomy of environmentally sustainable economic activities; carbon certification</t>
+          <t xml:space="preserve"> sustainable finance</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="3141" t="inlineStr">
         <is>
-          <t>Andrea Beltramello</t>
+          <t>Cristina Rueda Catry, Andrea Beltramello</t>
         </is>
       </c>
       <c r="B169" s="3138" t="inlineStr">
@@ -14477,12 +14477,12 @@
       </c>
       <c r="D169" s="3141" t="inlineStr">
         <is>
-          <t>Ernst &amp; Young Core Business Services BV</t>
+          <t>Maa- ja metsätaloustuottajain Keskusliitto – Central Union of Agricultural Producers and Forest Owners</t>
         </is>
       </c>
       <c r="E169" s="3141" t="inlineStr">
         <is>
-          <t xml:space="preserve"> sustainable finance</t>
+          <t>Forests; EU taxonomy of environmentally sustainable economic activities; carbon certification</t>
         </is>
       </c>
     </row>
@@ -14679,7 +14679,7 @@
     <row r="177">
       <c r="A177" s="3141" t="inlineStr">
         <is>
-          <t>Caroline Boeshertz</t>
+          <t>Cristina Rueda Catry</t>
         </is>
       </c>
       <c r="B177" s="3138" t="inlineStr">
@@ -14689,24 +14689,25 @@
       </c>
       <c r="C177" s="3141" t="inlineStr">
         <is>
-          <t xml:space="preserve">video call </t>
+          <t>European Commission</t>
         </is>
       </c>
       <c r="D177" s="3141" t="inlineStr">
         <is>
-          <t>Meyer Burger Technology AG</t>
+          <t>Human Rights Watch</t>
         </is>
       </c>
       <c r="E177" s="3141" t="inlineStr">
         <is>
-          <t>Solar energy, trade defense</t>
+          <t>The human rights situation in Sri 
+Lanka.</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="3141" t="inlineStr">
         <is>
-          <t>Cristina Rueda Catry</t>
+          <t>Caroline Boeshertz</t>
         </is>
       </c>
       <c r="B178" s="3138" t="inlineStr">
@@ -14716,18 +14717,17 @@
       </c>
       <c r="C178" s="3141" t="inlineStr">
         <is>
-          <t>European Commission</t>
+          <t xml:space="preserve">video call </t>
         </is>
       </c>
       <c r="D178" s="3141" t="inlineStr">
         <is>
-          <t>Human Rights Watch</t>
+          <t>Meyer Burger Technology AG</t>
         </is>
       </c>
       <c r="E178" s="3141" t="inlineStr">
         <is>
-          <t>The human rights situation in Sri 
-Lanka.</t>
+          <t>Solar energy, trade defense</t>
         </is>
       </c>
     </row>
@@ -14788,7 +14788,7 @@
     <row r="181">
       <c r="A181" s="3141" t="inlineStr">
         <is>
-          <t>Andrea Beltramello, Zaneta Vegnere</t>
+          <t>Zaneta Vegnere, Andrea Beltramello</t>
         </is>
       </c>
       <c r="B181" s="3138" t="inlineStr">
@@ -14869,7 +14869,7 @@
     <row r="184">
       <c r="A184" s="3141" t="inlineStr">
         <is>
-          <t>Andrea Beltramello</t>
+          <t>Caroline Boeshertz</t>
         </is>
       </c>
       <c r="B184" s="3138" t="inlineStr">
@@ -14884,19 +14884,19 @@
       </c>
       <c r="D184" s="3141" t="inlineStr">
         <is>
-          <t>France Industrie</t>
+          <t>F. Hoffmann-La Roche Ltd</t>
         </is>
       </c>
       <c r="E184" s="3141" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Taxonomy</t>
+          <t xml:space="preserve"> Pharmaceutical directive</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="3141" t="inlineStr">
         <is>
-          <t>Caroline Boeshertz</t>
+          <t>Cristina Rueda Catry</t>
         </is>
       </c>
       <c r="B185" s="3138" t="inlineStr">
@@ -14906,17 +14906,17 @@
       </c>
       <c r="C185" s="3141" t="inlineStr">
         <is>
-          <t>video-call</t>
+          <t>Brussels</t>
         </is>
       </c>
       <c r="D185" s="3141" t="inlineStr">
         <is>
-          <t>F. Hoffmann-La Roche Ltd</t>
+          <t>Bunge Ltd</t>
         </is>
       </c>
       <c r="E185" s="3141" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Pharmaceutical directive</t>
+          <t xml:space="preserve">Global food security, including current constraints due to the war of aggression against Ukraine and the recent Commission’s deforestation proposal.  </t>
         </is>
       </c>
     </row>
@@ -14950,7 +14950,7 @@
     <row r="187">
       <c r="A187" s="3141" t="inlineStr">
         <is>
-          <t>Cristina Rueda Catry</t>
+          <t>Andrea Beltramello</t>
         </is>
       </c>
       <c r="B187" s="3138" t="inlineStr">
@@ -14960,24 +14960,24 @@
       </c>
       <c r="C187" s="3141" t="inlineStr">
         <is>
-          <t>Brussels</t>
+          <t>video-call</t>
         </is>
       </c>
       <c r="D187" s="3141" t="inlineStr">
         <is>
-          <t>Bunge Ltd</t>
+          <t>France Industrie</t>
         </is>
       </c>
       <c r="E187" s="3141" t="inlineStr">
         <is>
-          <t xml:space="preserve">Global food security, including current constraints due to the war of aggression against Ukraine and the recent Commission’s deforestation proposal.  </t>
+          <t xml:space="preserve"> Taxonomy</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="3141" t="inlineStr">
         <is>
-          <t>Andrea Beltramello, Cristina Rueda Catry</t>
+          <t>Cristina Rueda Catry, Andrea Beltramello</t>
         </is>
       </c>
       <c r="B188" s="3138" t="inlineStr">
@@ -15058,7 +15058,7 @@
     <row r="191">
       <c r="A191" s="3141" t="inlineStr">
         <is>
-          <t>Andrea Beltramello, Michael Hager</t>
+          <t>Cristina Rueda Catry</t>
         </is>
       </c>
       <c r="B191" s="3138" t="inlineStr">
@@ -15068,24 +15068,24 @@
       </c>
       <c r="C191" s="3141" t="inlineStr">
         <is>
-          <t>Brussels</t>
+          <t>Brussels Belgium</t>
         </is>
       </c>
       <c r="D191" s="3141" t="inlineStr">
         <is>
-          <t>Société Générale</t>
+          <t>BUSINESSEUROPE</t>
         </is>
       </c>
       <c r="E191" s="3141" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Financial services</t>
+          <t xml:space="preserve"> State of play of the trade and investment negotiations between the EU and India, Mercosur and Chile</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="3141" t="inlineStr">
         <is>
-          <t>Zaneta Vegnere</t>
+          <t>Andrea Beltramello, Michael Hager</t>
         </is>
       </c>
       <c r="B192" s="3138" t="inlineStr">
@@ -15095,24 +15095,24 @@
       </c>
       <c r="C192" s="3141" t="inlineStr">
         <is>
-          <t>BXL, Berlaymont</t>
+          <t>Brussels</t>
         </is>
       </c>
       <c r="D192" s="3141" t="inlineStr">
         <is>
-          <t>BUSINESSEUROPE</t>
+          <t>Société Générale</t>
         </is>
       </c>
       <c r="E192" s="3141" t="inlineStr">
         <is>
-          <t xml:space="preserve"> EU's bilateral trade agenda, Trade and Technology Council, EU-US</t>
+          <t xml:space="preserve"> Financial services</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="3141" t="inlineStr">
         <is>
-          <t>Cristina Rueda Catry</t>
+          <t>Zaneta Vegnere</t>
         </is>
       </c>
       <c r="B193" s="3138" t="inlineStr">
@@ -15122,7 +15122,7 @@
       </c>
       <c r="C193" s="3141" t="inlineStr">
         <is>
-          <t>Brussels Belgium</t>
+          <t>BXL, Berlaymont</t>
         </is>
       </c>
       <c r="D193" s="3141" t="inlineStr">
@@ -15132,14 +15132,14 @@
       </c>
       <c r="E193" s="3141" t="inlineStr">
         <is>
-          <t xml:space="preserve"> State of play of the trade and investment negotiations between the EU and India, Mercosur and Chile</t>
+          <t xml:space="preserve"> EU's bilateral trade agenda, Trade and Technology Council, EU-US</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="3141" t="inlineStr">
         <is>
-          <t>Andrea Beltramello</t>
+          <t>Caroline Boeshertz</t>
         </is>
       </c>
       <c r="B194" s="3138" t="inlineStr">
@@ -15154,19 +15154,19 @@
       </c>
       <c r="D194" s="3141" t="inlineStr">
         <is>
-          <t>ICI Global</t>
+          <t>Climate Action Network Europe, ClientEarth AISBL</t>
         </is>
       </c>
       <c r="E194" s="3141" t="inlineStr">
         <is>
-          <t>Investment fund regulation</t>
+          <t xml:space="preserve"> Energy Charter Treaty (ECT)</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="3141" t="inlineStr">
         <is>
-          <t>Caroline Boeshertz</t>
+          <t>Andrea Beltramello</t>
         </is>
       </c>
       <c r="B195" s="3138" t="inlineStr">
@@ -15181,12 +15181,12 @@
       </c>
       <c r="D195" s="3141" t="inlineStr">
         <is>
-          <t>Climate Action Network Europe, ClientEarth AISBL</t>
+          <t>ICI Global</t>
         </is>
       </c>
       <c r="E195" s="3141" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Energy Charter Treaty (ECT)</t>
+          <t>Investment fund regulation</t>
         </is>
       </c>
     </row>
@@ -15419,17 +15419,17 @@
       </c>
       <c r="C204" s="3141" t="inlineStr">
         <is>
-          <t>video call</t>
+          <t>video - call</t>
         </is>
       </c>
       <c r="D204" s="3141" t="inlineStr">
         <is>
-          <t>Amazon Europe Core SARL</t>
+          <t>HSBC Holdings PLC, Barclays PLC, Deutsche Bank AG, ING Group, Banco Santander, S.A., UniCredit, BANCO BILBAO VIZCAYA ARGENTARIA</t>
         </is>
       </c>
       <c r="E204" s="3141" t="inlineStr">
         <is>
-          <t xml:space="preserve">Digital finance  </t>
+          <t xml:space="preserve">Implementation of sanctions </t>
         </is>
       </c>
     </row>
@@ -15446,17 +15446,17 @@
       </c>
       <c r="C205" s="3141" t="inlineStr">
         <is>
-          <t>video - call</t>
+          <t>video call</t>
         </is>
       </c>
       <c r="D205" s="3141" t="inlineStr">
         <is>
-          <t>HSBC Holdings PLC, Barclays PLC, Deutsche Bank AG, ING Group, Banco Santander, S.A., UniCredit, BANCO BILBAO VIZCAYA ARGENTARIA</t>
+          <t>Amazon Europe Core SARL</t>
         </is>
       </c>
       <c r="E205" s="3141" t="inlineStr">
         <is>
-          <t xml:space="preserve">Implementation of sanctions </t>
+          <t xml:space="preserve">Digital finance  </t>
         </is>
       </c>
     </row>
@@ -15554,17 +15554,17 @@
       </c>
       <c r="C209" s="3141" t="inlineStr">
         <is>
-          <t>video call</t>
+          <t xml:space="preserve">Brussels </t>
         </is>
       </c>
       <c r="D209" s="3141" t="inlineStr">
         <is>
-          <t>Conféderation Européenne des Propriétaires Forestiers</t>
+          <t>Orgalim – Europe's Technology Industries</t>
         </is>
       </c>
       <c r="E209" s="3141" t="inlineStr">
         <is>
-          <t>Taxonomy of environmentally sustainable economic activities</t>
+          <t xml:space="preserve"> Taxonomy of environmentally sustainable economic activities </t>
         </is>
       </c>
     </row>
@@ -15581,17 +15581,17 @@
       </c>
       <c r="C210" s="3141" t="inlineStr">
         <is>
-          <t xml:space="preserve">Brussels </t>
+          <t>video call</t>
         </is>
       </c>
       <c r="D210" s="3141" t="inlineStr">
         <is>
-          <t>Orgalim – Europe's Technology Industries</t>
+          <t>Conféderation Européenne des Propriétaires Forestiers</t>
         </is>
       </c>
       <c r="E210" s="3141" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Taxonomy of environmentally sustainable economic activities </t>
+          <t>Taxonomy of environmentally sustainable economic activities</t>
         </is>
       </c>
     </row>
@@ -15929,7 +15929,7 @@
     <row r="223">
       <c r="A223" s="3141" t="inlineStr">
         <is>
-          <t>Caroline Boeshertz</t>
+          <t>Kevin Keary, Caroline Boeshertz</t>
         </is>
       </c>
       <c r="B223" s="3138" t="inlineStr">
@@ -15949,14 +15949,14 @@
       </c>
       <c r="E223" s="3141" t="inlineStr">
         <is>
-          <t>TRIPS</t>
+          <t xml:space="preserve">  tbc</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="3141" t="inlineStr">
         <is>
-          <t>Kevin Keary, Caroline Boeshertz</t>
+          <t>Caroline Boeshertz</t>
         </is>
       </c>
       <c r="B224" s="3138" t="inlineStr">
@@ -15976,14 +15976,14 @@
       </c>
       <c r="E224" s="3141" t="inlineStr">
         <is>
-          <t xml:space="preserve">  tbc</t>
+          <t>TRIPS</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="3141" t="inlineStr">
         <is>
-          <t>Mirzha De Manuel</t>
+          <t>Zaneta Vegnere</t>
         </is>
       </c>
       <c r="B225" s="3138" t="inlineStr">
@@ -15993,24 +15993,24 @@
       </c>
       <c r="C225" s="3141" t="inlineStr">
         <is>
-          <t>Video call</t>
+          <t>video call</t>
         </is>
       </c>
       <c r="D225" s="3141" t="inlineStr">
         <is>
-          <t>Związek Stowarzyszeń Polska Zielona Sieć, Sieć Obywatelska Watchdog Polska/Citizens Network Watchdog Poland, CEE Bankwatch Network, Ogólnopolska Federacja Organizacji Pozarządowych, Fundacja WWF Polska, ClientEarth AISBL</t>
+          <t>BUSINESSEUROPE</t>
         </is>
       </c>
       <c r="E225" s="3141" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contribution and engagement from CSOs, local authorities and social partners on Polish RRP </t>
+          <t xml:space="preserve"> Single Market Emergency Instrument: call for evidence </t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="3141" t="inlineStr">
         <is>
-          <t>Zaneta Vegnere</t>
+          <t>Mirzha De Manuel</t>
         </is>
       </c>
       <c r="B226" s="3138" t="inlineStr">
@@ -16020,17 +16020,17 @@
       </c>
       <c r="C226" s="3141" t="inlineStr">
         <is>
-          <t>video call</t>
+          <t>Video call</t>
         </is>
       </c>
       <c r="D226" s="3141" t="inlineStr">
         <is>
-          <t>BUSINESSEUROPE</t>
+          <t>Związek Stowarzyszeń Polska Zielona Sieć, Sieć Obywatelska Watchdog Polska/Citizens Network Watchdog Poland, CEE Bankwatch Network, Ogólnopolska Federacja Organizacji Pozarządowych, Fundacja WWF Polska, ClientEarth AISBL</t>
         </is>
       </c>
       <c r="E226" s="3141" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Single Market Emergency Instrument: call for evidence </t>
+          <t xml:space="preserve">Contribution and engagement from CSOs, local authorities and social partners on Polish RRP </t>
         </is>
       </c>
     </row>
@@ -16118,7 +16118,7 @@
     <row r="230">
       <c r="A230" s="3141" t="inlineStr">
         <is>
-          <t>Sofja Ribkina, Zaneta Vegnere</t>
+          <t>Andrea Beltramello</t>
         </is>
       </c>
       <c r="B230" s="3138" t="inlineStr">
@@ -16128,24 +16128,24 @@
       </c>
       <c r="C230" s="3141" t="inlineStr">
         <is>
-          <t>Webex</t>
+          <t>video-conference</t>
         </is>
       </c>
       <c r="D230" s="3141" t="inlineStr">
         <is>
-          <t>Association des Constructeurs Européens d'Automobiles</t>
+          <t>European Branded Clothing Alliance</t>
         </is>
       </c>
       <c r="E230" s="3141" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Steel safeguard, impact of Russia's war of aggression against Ukraine on the EU's automotive industry, critical raw materials </t>
+          <t xml:space="preserve"> Trade and sustainable development, due diligence, forced labour, Generalised Scheme of Preference</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="3141" t="inlineStr">
         <is>
-          <t>Kevin Keary</t>
+          <t>Andrea Beltramello</t>
         </is>
       </c>
       <c r="B231" s="3138" t="inlineStr">
@@ -16155,24 +16155,24 @@
       </c>
       <c r="C231" s="3141" t="inlineStr">
         <is>
-          <t>Webex</t>
+          <t>Brussels</t>
         </is>
       </c>
       <c r="D231" s="3141" t="inlineStr">
         <is>
-          <t>Lighthouse Europe, ACT | The App Association</t>
+          <t>Asociación Española de Banca</t>
         </is>
       </c>
       <c r="E231" s="3141" t="inlineStr">
         <is>
-          <t xml:space="preserve"> WTO Matters</t>
+          <t xml:space="preserve"> Basel III implementation</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="3141" t="inlineStr">
         <is>
-          <t>Zaneta Vegnere</t>
+          <t>Sofja Ribkina, Zaneta Vegnere</t>
         </is>
       </c>
       <c r="B232" s="3138" t="inlineStr">
@@ -16182,18 +16182,17 @@
       </c>
       <c r="C232" s="3141" t="inlineStr">
         <is>
-          <t>video conference</t>
+          <t>Webex</t>
         </is>
       </c>
       <c r="D232" s="3141" t="inlineStr">
         <is>
-          <t>European Round Table for Industry</t>
+          <t>Association des Constructeurs Européens d'Automobiles</t>
         </is>
       </c>
       <c r="E232" s="3141" t="inlineStr">
         <is>
-          <t xml:space="preserve">- Single Market Emergency Instrument: call for evidence
-- Bringing down barriers in the single market </t>
+          <t xml:space="preserve"> Steel safeguard, impact of Russia's war of aggression against Ukraine on the EU's automotive industry, critical raw materials </t>
         </is>
       </c>
     </row>
@@ -16229,7 +16228,7 @@
     <row r="234">
       <c r="A234" s="3141" t="inlineStr">
         <is>
-          <t>Andrea Beltramello</t>
+          <t>Kevin Keary</t>
         </is>
       </c>
       <c r="B234" s="3138" t="inlineStr">
@@ -16239,24 +16238,24 @@
       </c>
       <c r="C234" s="3141" t="inlineStr">
         <is>
-          <t>Brussels</t>
+          <t>Webex</t>
         </is>
       </c>
       <c r="D234" s="3141" t="inlineStr">
         <is>
-          <t>Asociación Española de Banca</t>
+          <t>Lighthouse Europe, ACT | The App Association</t>
         </is>
       </c>
       <c r="E234" s="3141" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Basel III implementation</t>
+          <t xml:space="preserve"> WTO Matters</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="3141" t="inlineStr">
         <is>
-          <t>Andrea Beltramello</t>
+          <t>Zaneta Vegnere</t>
         </is>
       </c>
       <c r="B235" s="3138" t="inlineStr">
@@ -16266,17 +16265,18 @@
       </c>
       <c r="C235" s="3141" t="inlineStr">
         <is>
-          <t>video-conference</t>
+          <t>video conference</t>
         </is>
       </c>
       <c r="D235" s="3141" t="inlineStr">
         <is>
-          <t>European Branded Clothing Alliance</t>
+          <t>European Round Table for Industry</t>
         </is>
       </c>
       <c r="E235" s="3141" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Trade and sustainable development, due diligence, forced labour, Generalised Scheme of Preference</t>
+          <t xml:space="preserve">- Single Market Emergency Instrument: call for evidence
+- Bringing down barriers in the single market </t>
         </is>
       </c>
     </row>
@@ -16311,7 +16311,7 @@
     <row r="237">
       <c r="A237" s="3141" t="inlineStr">
         <is>
-          <t>Andrea Beltramello, Caroline Boeshertz</t>
+          <t>Caroline Boeshertz, Andrea Beltramello</t>
         </is>
       </c>
       <c r="B237" s="3138" t="inlineStr">
@@ -16365,7 +16365,7 @@
     <row r="239">
       <c r="A239" s="3141" t="inlineStr">
         <is>
-          <t>Michael Hager</t>
+          <t>Mirzha De Manuel</t>
         </is>
       </c>
       <c r="B239" s="3138" t="inlineStr">
@@ -16375,24 +16375,24 @@
       </c>
       <c r="C239" s="3141" t="inlineStr">
         <is>
-          <t>Brussels</t>
+          <t>Video Conference</t>
         </is>
       </c>
       <c r="D239" s="3141" t="inlineStr">
         <is>
-          <t>Ukrainian Business and Trade Association</t>
+          <t>BUSINESSEUROPE</t>
         </is>
       </c>
       <c r="E239" s="3141" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Current trade issues EU-Ukraine</t>
+          <t xml:space="preserve"> ASG CEO Event organisation</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="3141" t="inlineStr">
         <is>
-          <t>Zaneta Vegnere</t>
+          <t>Michael Hager</t>
         </is>
       </c>
       <c r="B240" s="3138" t="inlineStr">
@@ -16402,24 +16402,24 @@
       </c>
       <c r="C240" s="3141" t="inlineStr">
         <is>
-          <t xml:space="preserve">webex </t>
+          <t>Brussels</t>
         </is>
       </c>
       <c r="D240" s="3141" t="inlineStr">
         <is>
-          <t>European Union Chamber of Commerce in China</t>
+          <t>Ukrainian Business and Trade Association</t>
         </is>
       </c>
       <c r="E240" s="3141" t="inlineStr">
         <is>
-          <t xml:space="preserve">EU-China economic and trade relations </t>
+          <t xml:space="preserve"> Current trade issues EU-Ukraine</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="3141" t="inlineStr">
         <is>
-          <t>Mirzha De Manuel</t>
+          <t>Zaneta Vegnere</t>
         </is>
       </c>
       <c r="B241" s="3138" t="inlineStr">
@@ -16429,17 +16429,17 @@
       </c>
       <c r="C241" s="3141" t="inlineStr">
         <is>
-          <t>Video Conference</t>
+          <t xml:space="preserve">webex </t>
         </is>
       </c>
       <c r="D241" s="3141" t="inlineStr">
         <is>
-          <t>BUSINESSEUROPE</t>
+          <t>European Union Chamber of Commerce in China</t>
         </is>
       </c>
       <c r="E241" s="3141" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ASG CEO Event organisation</t>
+          <t xml:space="preserve">EU-China economic and trade relations </t>
         </is>
       </c>
     </row>
@@ -16854,7 +16854,7 @@
     <row r="257">
       <c r="A257" s="3141" t="inlineStr">
         <is>
-          <t>Cristina Rueda Catry, Sofja Ribkina</t>
+          <t>Sofja Ribkina, Cristina Rueda Catry</t>
         </is>
       </c>
       <c r="B257" s="3138" t="inlineStr">
@@ -17071,7 +17071,7 @@
     <row r="265">
       <c r="A265" s="3141" t="inlineStr">
         <is>
-          <t>Andrea Beltramello, Cristina Rueda Catry</t>
+          <t>Cristina Rueda Catry, Andrea Beltramello</t>
         </is>
       </c>
       <c r="B265" s="3138" t="inlineStr">
@@ -17108,17 +17108,17 @@
       </c>
       <c r="C266" s="3141" t="inlineStr">
         <is>
-          <t>Video call</t>
+          <t>video call</t>
         </is>
       </c>
       <c r="D266" s="3141" t="inlineStr">
         <is>
-          <t>Banking &amp; Payments Federation Ireland, Futures Industry Association, Inc., Federation of European Securities Exchanges</t>
+          <t>Front Line Defenders, Business &amp; Human Rights Resource Centre</t>
         </is>
       </c>
       <c r="E266" s="3141" t="inlineStr">
         <is>
-          <t>Investment Firms prudential framework</t>
+          <t>Mandatory human rights and environmental due diligence</t>
         </is>
       </c>
     </row>
@@ -17135,17 +17135,17 @@
       </c>
       <c r="C267" s="3141" t="inlineStr">
         <is>
-          <t>video call</t>
+          <t>Video call</t>
         </is>
       </c>
       <c r="D267" s="3141" t="inlineStr">
         <is>
-          <t>Front Line Defenders, Business &amp; Human Rights Resource Centre</t>
+          <t>Banking &amp; Payments Federation Ireland, Futures Industry Association, Inc., Federation of European Securities Exchanges</t>
         </is>
       </c>
       <c r="E267" s="3141" t="inlineStr">
         <is>
-          <t>Mandatory human rights and environmental due diligence</t>
+          <t>Investment Firms prudential framework</t>
         </is>
       </c>
     </row>
@@ -17206,7 +17206,7 @@
     <row r="270">
       <c r="A270" s="3141" t="inlineStr">
         <is>
-          <t>Michael Hager</t>
+          <t>Elina Melngaile</t>
         </is>
       </c>
       <c r="B270" s="3138" t="inlineStr">
@@ -17216,24 +17216,24 @@
       </c>
       <c r="C270" s="3141" t="inlineStr">
         <is>
-          <t>Brussels</t>
+          <t>virtual</t>
         </is>
       </c>
       <c r="D270" s="3141" t="inlineStr">
         <is>
-          <t>Cercle des Réseaux européens</t>
+          <t>Breakthrough Energy Catalyst Foundation</t>
         </is>
       </c>
       <c r="E270" s="3141" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Trade Policy and economic recovery</t>
+          <t xml:space="preserve">Global Arrangement on Sustainable Steel and Aluminium </t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="3141" t="inlineStr">
         <is>
-          <t>Elina Melngaile</t>
+          <t>Michael Hager</t>
         </is>
       </c>
       <c r="B271" s="3138" t="inlineStr">
@@ -17243,17 +17243,17 @@
       </c>
       <c r="C271" s="3141" t="inlineStr">
         <is>
-          <t>virtual</t>
+          <t>Brussels</t>
         </is>
       </c>
       <c r="D271" s="3141" t="inlineStr">
         <is>
-          <t>The American Seed Trade Association, Euroseeds</t>
+          <t>Cercle des Réseaux européens</t>
         </is>
       </c>
       <c r="E271" s="3141" t="inlineStr">
         <is>
-          <t>Transatlantic seed trade in the context of the Trade &amp; Technology Council</t>
+          <t xml:space="preserve"> Trade Policy and economic recovery</t>
         </is>
       </c>
     </row>
@@ -17275,12 +17275,12 @@
       </c>
       <c r="D272" s="3141" t="inlineStr">
         <is>
-          <t>Breakthrough Energy Catalyst Foundation</t>
+          <t>The American Seed Trade Association, Euroseeds</t>
         </is>
       </c>
       <c r="E272" s="3141" t="inlineStr">
         <is>
-          <t xml:space="preserve">Global Arrangement on Sustainable Steel and Aluminium </t>
+          <t>Transatlantic seed trade in the context of the Trade &amp; Technology Council</t>
         </is>
       </c>
     </row>
@@ -17480,7 +17480,7 @@
     <row r="280">
       <c r="A280" s="3141" t="inlineStr">
         <is>
-          <t>Sofja Ribkina, Andrea Beltramello</t>
+          <t>Andrea Beltramello, Sofja Ribkina</t>
         </is>
       </c>
       <c r="B280" s="3138" t="inlineStr">
@@ -17615,7 +17615,7 @@
     <row r="285">
       <c r="A285" s="3141" t="inlineStr">
         <is>
-          <t>Andrea Beltramello, Michael Hager</t>
+          <t>Michael Hager, Andrea Beltramello</t>
         </is>
       </c>
       <c r="B285" s="3138" t="inlineStr">
@@ -17642,7 +17642,7 @@
     <row r="286">
       <c r="A286" s="3141" t="inlineStr">
         <is>
-          <t>Caroline Boeshertz</t>
+          <t>Gints Freimanis</t>
         </is>
       </c>
       <c r="B286" s="3138" t="inlineStr">
@@ -17652,24 +17652,24 @@
       </c>
       <c r="C286" s="3141" t="inlineStr">
         <is>
-          <t>video - conference</t>
+          <t>virtual</t>
         </is>
       </c>
       <c r="D286" s="3141" t="inlineStr">
         <is>
-          <t>UPM-Kymmene Oyj, Confederation of European Paper Industries, Metsäliitto Cooperative</t>
+          <t>City of London Corporation</t>
         </is>
       </c>
       <c r="E286" s="3141" t="inlineStr">
         <is>
-          <t xml:space="preserve"> EU paper industry views on the Green Deal strategy and industry’s vision for 2030</t>
+          <t xml:space="preserve">Carbon Border Adjustment Mechanism (CBAM) </t>
         </is>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="3141" t="inlineStr">
         <is>
-          <t>Gints Freimanis</t>
+          <t>Caroline Boeshertz</t>
         </is>
       </c>
       <c r="B287" s="3138" t="inlineStr">
@@ -17679,17 +17679,17 @@
       </c>
       <c r="C287" s="3141" t="inlineStr">
         <is>
-          <t>virtual</t>
+          <t>video - conference</t>
         </is>
       </c>
       <c r="D287" s="3141" t="inlineStr">
         <is>
-          <t>City of London Corporation</t>
+          <t>UPM-Kymmene Oyj, Confederation of European Paper Industries, Metsäliitto Cooperative</t>
         </is>
       </c>
       <c r="E287" s="3141" t="inlineStr">
         <is>
-          <t xml:space="preserve">Carbon Border Adjustment Mechanism (CBAM) </t>
+          <t xml:space="preserve"> EU paper industry views on the Green Deal strategy and industry’s vision for 2030</t>
         </is>
       </c>
     </row>
@@ -17750,7 +17750,7 @@
     <row r="290">
       <c r="A290" s="3141" t="inlineStr">
         <is>
-          <t>Andrea Beltramello</t>
+          <t>Caroline Boeshertz, Cristina Rueda Catry</t>
         </is>
       </c>
       <c r="B290" s="3138" t="inlineStr">
@@ -17760,24 +17760,24 @@
       </c>
       <c r="C290" s="3141" t="inlineStr">
         <is>
-          <t xml:space="preserve">video-call </t>
+          <t>vide conference</t>
         </is>
       </c>
       <c r="D290" s="3141" t="inlineStr">
         <is>
-          <t>Federation of European Securities Exchanges</t>
+          <t>Eurogroup for Animals</t>
         </is>
       </c>
       <c r="E290" s="3141" t="inlineStr">
         <is>
-          <t>Capital Markets Union; review of the Markets in Financial Instruments Regulation and Directive</t>
+          <t>Trade policy on animal welfare</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="A291" s="3141" t="inlineStr">
         <is>
-          <t>Caroline Boeshertz, Cristina Rueda Catry</t>
+          <t>Gints Freimanis</t>
         </is>
       </c>
       <c r="B291" s="3138" t="inlineStr">
@@ -17787,17 +17787,17 @@
       </c>
       <c r="C291" s="3141" t="inlineStr">
         <is>
-          <t>vide conference</t>
+          <t>Brussels</t>
         </is>
       </c>
       <c r="D291" s="3141" t="inlineStr">
         <is>
-          <t>Eurogroup for Animals</t>
+          <t>Verein zur Förderung des Bergmannstages, der Rohstoffinitiative sowie der Aus- und Weiterbildung auf dem Gebiet der Rohstoffe, Boliden Group, Aurubis AG</t>
         </is>
       </c>
       <c r="E291" s="3141" t="inlineStr">
         <is>
-          <t>Trade policy on animal welfare</t>
+          <t xml:space="preserve">Carbon Border Adjustment Mechanism  </t>
         </is>
       </c>
     </row>
@@ -17814,24 +17814,24 @@
       </c>
       <c r="C292" s="3141" t="inlineStr">
         <is>
-          <t>Brussels</t>
+          <t xml:space="preserve">video-call </t>
         </is>
       </c>
       <c r="D292" s="3141" t="inlineStr">
         <is>
-          <t>Finanssiala ry - Finance Finland</t>
+          <t>Federation of European Securities Exchanges</t>
         </is>
       </c>
       <c r="E292" s="3141" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Basel III, Banking Union, Solvency II</t>
+          <t>Capital Markets Union; review of the Markets in Financial Instruments Regulation and Directive</t>
         </is>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="3141" t="inlineStr">
         <is>
-          <t>Gints Freimanis</t>
+          <t>Andrea Beltramello</t>
         </is>
       </c>
       <c r="B293" s="3138" t="inlineStr">
@@ -17846,19 +17846,19 @@
       </c>
       <c r="D293" s="3141" t="inlineStr">
         <is>
-          <t>Verein zur Förderung des Bergmannstages, der Rohstoffinitiative sowie der Aus- und Weiterbildung auf dem Gebiet der Rohstoffe, Boliden Group, Aurubis AG</t>
+          <t>Finanssiala ry - Finance Finland</t>
         </is>
       </c>
       <c r="E293" s="3141" t="inlineStr">
         <is>
-          <t xml:space="preserve">Carbon Border Adjustment Mechanism  </t>
+          <t xml:space="preserve"> Basel III, Banking Union, Solvency II</t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="3141" t="inlineStr">
         <is>
-          <t>Mirzha De Manuel</t>
+          <t>Caroline Boeshertz</t>
         </is>
       </c>
       <c r="B294" s="3138" t="inlineStr">
@@ -17868,17 +17868,17 @@
       </c>
       <c r="C294" s="3141" t="inlineStr">
         <is>
-          <t>Virtual</t>
+          <t>video - conference</t>
         </is>
       </c>
       <c r="D294" s="3141" t="inlineStr">
         <is>
-          <t>Move EU - The European Association of On-Demand Mobility</t>
+          <t>FoodDrinkEurope, Comité Européen des Entreprises Vins, European Liaison Committee for Agriculture and agri-food trade, spiritsEUROPE</t>
         </is>
       </c>
       <c r="E294" s="3141" t="inlineStr">
         <is>
-          <t>Exchange of views on improving the conditions of platform workers. The associations presented their perspectives based on the second-stage consultation to social partners.  The EC explained the  objectives of the forthcoming legislative initiative.</t>
+          <t>Implementation of Decree 248 by the Chinese Customs Administration</t>
         </is>
       </c>
     </row>
@@ -17912,7 +17912,7 @@
     <row r="296">
       <c r="A296" s="3141" t="inlineStr">
         <is>
-          <t>Caroline Boeshertz</t>
+          <t>Mirzha De Manuel</t>
         </is>
       </c>
       <c r="B296" s="3138" t="inlineStr">
@@ -17922,17 +17922,17 @@
       </c>
       <c r="C296" s="3141" t="inlineStr">
         <is>
-          <t>video - conference</t>
+          <t>Virtual</t>
         </is>
       </c>
       <c r="D296" s="3141" t="inlineStr">
         <is>
-          <t>FoodDrinkEurope, Comité Européen des Entreprises Vins, European Liaison Committee for Agriculture and agri-food trade, spiritsEUROPE</t>
+          <t>Move EU - The European Association of On-Demand Mobility</t>
         </is>
       </c>
       <c r="E296" s="3141" t="inlineStr">
         <is>
-          <t>Implementation of Decree 248 by the Chinese Customs Administration</t>
+          <t>Exchange of views on improving the conditions of platform workers. The associations presented their perspectives based on the second-stage consultation to social partners.  The EC explained the  objectives of the forthcoming legislative initiative.</t>
         </is>
       </c>
     </row>
@@ -17976,17 +17976,17 @@
       </c>
       <c r="C298" s="3141" t="inlineStr">
         <is>
-          <t xml:space="preserve">video conference </t>
+          <t>video-conference</t>
         </is>
       </c>
       <c r="D298" s="3141" t="inlineStr">
         <is>
-          <t>FTI Consulting Belgium, FIA European Principal Traders Association, part of FIA, Inc.</t>
+          <t>NASDAQ</t>
         </is>
       </c>
       <c r="E298" s="3141" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Investment Firms Directive and Regulation</t>
+          <t>Review of the Markets in Financial Instruments Regulation</t>
         </is>
       </c>
     </row>
@@ -18003,24 +18003,24 @@
       </c>
       <c r="C299" s="3141" t="inlineStr">
         <is>
-          <t>video-conference</t>
+          <t xml:space="preserve">video conference </t>
         </is>
       </c>
       <c r="D299" s="3141" t="inlineStr">
         <is>
-          <t>NASDAQ</t>
+          <t>FTI Consulting Belgium, FIA European Principal Traders Association, part of FIA, Inc.</t>
         </is>
       </c>
       <c r="E299" s="3141" t="inlineStr">
         <is>
-          <t>Review of the Markets in Financial Instruments Regulation</t>
+          <t xml:space="preserve"> Investment Firms Directive and Regulation</t>
         </is>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="3141" t="inlineStr">
         <is>
-          <t>Gints Freimanis, Michael Hager</t>
+          <t>Mirzha De Manuel</t>
         </is>
       </c>
       <c r="B300" s="3138" t="inlineStr">
@@ -18030,24 +18030,24 @@
       </c>
       <c r="C300" s="3141" t="inlineStr">
         <is>
-          <t>Brussels</t>
+          <t>Virtual</t>
         </is>
       </c>
       <c r="D300" s="3141" t="inlineStr">
         <is>
-          <t>TUSIAD-Turkish Industry&amp;Business Association</t>
+          <t>K-Monitor Közhasznú Egyesület</t>
         </is>
       </c>
       <c r="E300" s="3141" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Trade relations EU-Turkey</t>
+          <t xml:space="preserve">Anti-corruption related issues connected to the Hungarian RRP </t>
         </is>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="3141" t="inlineStr">
         <is>
-          <t>Mirzha De Manuel</t>
+          <t>Gints Freimanis, Michael Hager</t>
         </is>
       </c>
       <c r="B301" s="3138" t="inlineStr">
@@ -18057,17 +18057,17 @@
       </c>
       <c r="C301" s="3141" t="inlineStr">
         <is>
-          <t>Virtual</t>
+          <t>Brussels</t>
         </is>
       </c>
       <c r="D301" s="3141" t="inlineStr">
         <is>
-          <t>K-Monitor Közhasznú Egyesület</t>
+          <t>TUSIAD-Turkish Industry&amp;Business Association</t>
         </is>
       </c>
       <c r="E301" s="3141" t="inlineStr">
         <is>
-          <t xml:space="preserve">Anti-corruption related issues connected to the Hungarian RRP </t>
+          <t xml:space="preserve"> Trade relations EU-Turkey</t>
         </is>
       </c>
     </row>
@@ -18128,7 +18128,7 @@
     <row r="304">
       <c r="A304" s="3141" t="inlineStr">
         <is>
-          <t>Mirzha De Manuel</t>
+          <t>Caroline Boeshertz</t>
         </is>
       </c>
       <c r="B304" s="3138" t="inlineStr">
@@ -18138,17 +18138,17 @@
       </c>
       <c r="C304" s="3141" t="inlineStr">
         <is>
-          <t>Brussels</t>
+          <t>video conference</t>
         </is>
       </c>
       <c r="D304" s="3141" t="inlineStr">
         <is>
-          <t>BUSINESSEUROPE</t>
+          <t>International Pharmaceutical Aerosol Consortium</t>
         </is>
       </c>
       <c r="E304" s="3141" t="inlineStr">
         <is>
-          <t xml:space="preserve">EVP Dombrovskis  delivered an intervention on the interlink between the EU recovery and trade policies from a business perspective, and had the opportunity to answer questions raised by the participants on those topics. </t>
+          <t xml:space="preserve"> Fluorinated Gases regulation </t>
         </is>
       </c>
     </row>
@@ -18182,7 +18182,7 @@
     <row r="306">
       <c r="A306" s="3141" t="inlineStr">
         <is>
-          <t>Caroline Boeshertz</t>
+          <t>Mirzha De Manuel</t>
         </is>
       </c>
       <c r="B306" s="3138" t="inlineStr">
@@ -18192,17 +18192,17 @@
       </c>
       <c r="C306" s="3141" t="inlineStr">
         <is>
-          <t>video conference</t>
+          <t>Brussels</t>
         </is>
       </c>
       <c r="D306" s="3141" t="inlineStr">
         <is>
-          <t>International Pharmaceutical Aerosol Consortium</t>
+          <t>BUSINESSEUROPE</t>
         </is>
       </c>
       <c r="E306" s="3141" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Fluorinated Gases regulation </t>
+          <t xml:space="preserve">EVP Dombrovskis  delivered an intervention on the interlink between the EU recovery and trade policies from a business perspective, and had the opportunity to answer questions raised by the participants on those topics. </t>
         </is>
       </c>
     </row>
@@ -18290,7 +18290,7 @@
     <row r="310">
       <c r="A310" s="3141" t="inlineStr">
         <is>
-          <t>Kevin Keary</t>
+          <t>Andrea Beltramello</t>
         </is>
       </c>
       <c r="B310" s="3138" t="inlineStr">
@@ -18300,24 +18300,24 @@
       </c>
       <c r="C310" s="3141" t="inlineStr">
         <is>
-          <t>Brussels, Belgium</t>
+          <t>video - conference</t>
         </is>
       </c>
       <c r="D310" s="3141" t="inlineStr">
         <is>
-          <t>Irish Farmers' Association</t>
+          <t>Global Witness, WWF European Policy Programme, OXFAM INTERNATIONAL EU ADVOCACY OFFICE, Frank Bold Society</t>
         </is>
       </c>
       <c r="E310" s="3141" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Anti Dumping Duties on the import of Urea and ammonium nitrate</t>
+          <t>Sustainable corporate governance initiative</t>
         </is>
       </c>
     </row>
     <row r="311">
       <c r="A311" s="3141" t="inlineStr">
         <is>
-          <t>Andrea Beltramello</t>
+          <t>Kevin Keary</t>
         </is>
       </c>
       <c r="B311" s="3138" t="inlineStr">
@@ -18327,24 +18327,24 @@
       </c>
       <c r="C311" s="3141" t="inlineStr">
         <is>
-          <t>video - conference</t>
+          <t>Brussels, Belgium</t>
         </is>
       </c>
       <c r="D311" s="3141" t="inlineStr">
         <is>
-          <t>Global Witness, WWF European Policy Programme, OXFAM INTERNATIONAL EU ADVOCACY OFFICE, Frank Bold Society</t>
+          <t>Irish Farmers' Association</t>
         </is>
       </c>
       <c r="E311" s="3141" t="inlineStr">
         <is>
-          <t>Sustainable corporate governance initiative</t>
+          <t xml:space="preserve"> Anti Dumping Duties on the import of Urea and ammonium nitrate</t>
         </is>
       </c>
     </row>
     <row r="312">
       <c r="A312" s="3141" t="inlineStr">
         <is>
-          <t>Andrea Beltramello, Cristina Rueda Catry</t>
+          <t>Gints Freimanis</t>
         </is>
       </c>
       <c r="B312" s="3138" t="inlineStr">
@@ -18354,24 +18354,24 @@
       </c>
       <c r="C312" s="3141" t="inlineStr">
         <is>
-          <t>BXL</t>
+          <t>virtual</t>
         </is>
       </c>
       <c r="D312" s="3141" t="inlineStr">
         <is>
-          <t>ASSOCIATION DES PRODUCTEURS AFRICAINS DE BANANES ET AUTRES FRUITS</t>
+          <t>Anglo American, FTI Consulting Belgium</t>
         </is>
       </c>
       <c r="E312" s="3141" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ACP and EU banana markets</t>
+          <t xml:space="preserve"> deferred tax; carbon border adjustment mechanism </t>
         </is>
       </c>
     </row>
     <row r="313">
       <c r="A313" s="3141" t="inlineStr">
         <is>
-          <t>Kevin Keary, Caroline Boeshertz, Elina Melngaile</t>
+          <t>Cristina Rueda Catry, Andrea Beltramello</t>
         </is>
       </c>
       <c r="B313" s="3138" t="inlineStr">
@@ -18381,24 +18381,24 @@
       </c>
       <c r="C313" s="3141" t="inlineStr">
         <is>
-          <t>Brussels</t>
+          <t>BXL</t>
         </is>
       </c>
       <c r="D313" s="3141" t="inlineStr">
         <is>
-          <t>European Federation of Pharmaceutical Industries and Associations, SANOFI, Merck, Pfizer Inc.</t>
+          <t>ASSOCIATION DES PRODUCTEURS AFRICAINS DE BANANES ET AUTRES FRUITS</t>
         </is>
       </c>
       <c r="E313" s="3141" t="inlineStr">
         <is>
-          <t>Pharmaceutical sector – trade related issues</t>
+          <t xml:space="preserve"> ACP and EU banana markets</t>
         </is>
       </c>
     </row>
     <row r="314">
       <c r="A314" s="3141" t="inlineStr">
         <is>
-          <t>Gints Freimanis</t>
+          <t>Elina Melngaile, Kevin Keary, Caroline Boeshertz</t>
         </is>
       </c>
       <c r="B314" s="3138" t="inlineStr">
@@ -18408,17 +18408,17 @@
       </c>
       <c r="C314" s="3141" t="inlineStr">
         <is>
-          <t>virtual</t>
+          <t>Brussels</t>
         </is>
       </c>
       <c r="D314" s="3141" t="inlineStr">
         <is>
-          <t>Anglo American, FTI Consulting Belgium</t>
+          <t>European Federation of Pharmaceutical Industries and Associations, SANOFI, Merck, Pfizer Inc.</t>
         </is>
       </c>
       <c r="E314" s="3141" t="inlineStr">
         <is>
-          <t xml:space="preserve"> deferred tax; carbon border adjustment mechanism </t>
+          <t>Pharmaceutical sector – trade related issues</t>
         </is>
       </c>
     </row>
@@ -18533,7 +18533,7 @@
     <row r="319">
       <c r="A319" s="3141" t="inlineStr">
         <is>
-          <t>Michael Hager, Andrea Beltramello</t>
+          <t>Andrea Beltramello, Michael Hager</t>
         </is>
       </c>
       <c r="B319" s="3138" t="inlineStr">
@@ -18587,7 +18587,7 @@
     <row r="321">
       <c r="A321" s="3141" t="inlineStr">
         <is>
-          <t>Andrea Beltramello, Cristina Rueda Catry</t>
+          <t>Cristina Rueda Catry, Andrea Beltramello</t>
         </is>
       </c>
       <c r="B321" s="3138" t="inlineStr">
@@ -18668,7 +18668,7 @@
     <row r="324">
       <c r="A324" s="3141" t="inlineStr">
         <is>
-          <t>Andrea Beltramello</t>
+          <t>Sofja Ribkina, Zaneta Vegnere</t>
         </is>
       </c>
       <c r="B324" s="3138" t="inlineStr">
@@ -18678,24 +18678,24 @@
       </c>
       <c r="C324" s="3141" t="inlineStr">
         <is>
-          <t>video call</t>
+          <t>Video-conference</t>
         </is>
       </c>
       <c r="D324" s="3141" t="inlineStr">
         <is>
-          <t>Crédit Agricole S.A.</t>
+          <t>Biedrība Zemnieku saeima</t>
         </is>
       </c>
       <c r="E324" s="3141" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Basel III</t>
+          <t>Peat; taxonomy</t>
         </is>
       </c>
     </row>
     <row r="325">
       <c r="A325" s="3141" t="inlineStr">
         <is>
-          <t>Zaneta Vegnere, Sofja Ribkina</t>
+          <t>Andrea Beltramello</t>
         </is>
       </c>
       <c r="B325" s="3138" t="inlineStr">
@@ -18705,17 +18705,17 @@
       </c>
       <c r="C325" s="3141" t="inlineStr">
         <is>
-          <t>Video-conference</t>
+          <t>video call</t>
         </is>
       </c>
       <c r="D325" s="3141" t="inlineStr">
         <is>
-          <t>Biedrība Zemnieku saeima</t>
+          <t>Crédit Agricole S.A.</t>
         </is>
       </c>
       <c r="E325" s="3141" t="inlineStr">
         <is>
-          <t>Peat; taxonomy</t>
+          <t xml:space="preserve"> Basel III</t>
         </is>
       </c>
     </row>
@@ -18749,7 +18749,7 @@
     <row r="327">
       <c r="A327" s="3141" t="inlineStr">
         <is>
-          <t>Caroline Boeshertz</t>
+          <t>Andrea Beltramello</t>
         </is>
       </c>
       <c r="B327" s="3138" t="inlineStr">
@@ -18759,24 +18759,24 @@
       </c>
       <c r="C327" s="3141" t="inlineStr">
         <is>
-          <t>Brussels</t>
+          <t xml:space="preserve">video call </t>
         </is>
       </c>
       <c r="D327" s="3141" t="inlineStr">
         <is>
-          <t>KIC InnoEnergy SE</t>
+          <t>European Mortgage Federation - European Covered Bond Council</t>
         </is>
       </c>
       <c r="E327" s="3141" t="inlineStr">
         <is>
-          <t>European battery alliance</t>
+          <t xml:space="preserve"> Basel III</t>
         </is>
       </c>
     </row>
     <row r="328">
       <c r="A328" s="3141" t="inlineStr">
         <is>
-          <t>Andrea Beltramello</t>
+          <t>Caroline Boeshertz</t>
         </is>
       </c>
       <c r="B328" s="3138" t="inlineStr">
@@ -18786,24 +18786,24 @@
       </c>
       <c r="C328" s="3141" t="inlineStr">
         <is>
-          <t xml:space="preserve">video call </t>
+          <t>Brussels</t>
         </is>
       </c>
       <c r="D328" s="3141" t="inlineStr">
         <is>
-          <t>European Mortgage Federation - European Covered Bond Council</t>
+          <t>KIC InnoEnergy SE</t>
         </is>
       </c>
       <c r="E328" s="3141" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Basel III</t>
+          <t>European battery alliance</t>
         </is>
       </c>
     </row>
     <row r="329">
       <c r="A329" s="3141" t="inlineStr">
         <is>
-          <t>Caroline Boeshertz</t>
+          <t>Andrea Beltramello</t>
         </is>
       </c>
       <c r="B329" s="3138" t="inlineStr">
@@ -18813,24 +18813,24 @@
       </c>
       <c r="C329" s="3141" t="inlineStr">
         <is>
-          <t>video conference</t>
+          <t xml:space="preserve">video-conference </t>
         </is>
       </c>
       <c r="D329" s="3141" t="inlineStr">
         <is>
-          <t>Médecins Sans Frontières International, Stichting Health Action International, Human Rights Watch</t>
+          <t>Verband Deutscher Maschinen- und Anlagenbau e.V.</t>
         </is>
       </c>
       <c r="E329" s="3141" t="inlineStr">
         <is>
-          <t xml:space="preserve"> COVID Vaccines</t>
+          <t xml:space="preserve">Due diligence </t>
         </is>
       </c>
     </row>
     <row r="330">
       <c r="A330" s="3141" t="inlineStr">
         <is>
-          <t>Andrea Beltramello</t>
+          <t>Caroline Boeshertz</t>
         </is>
       </c>
       <c r="B330" s="3138" t="inlineStr">
@@ -18840,17 +18840,17 @@
       </c>
       <c r="C330" s="3141" t="inlineStr">
         <is>
-          <t xml:space="preserve">video-conference </t>
+          <t>video conference</t>
         </is>
       </c>
       <c r="D330" s="3141" t="inlineStr">
         <is>
-          <t>Verband Deutscher Maschinen- und Anlagenbau e.V.</t>
+          <t>Médecins Sans Frontières International, Stichting Health Action International, Human Rights Watch</t>
         </is>
       </c>
       <c r="E330" s="3141" t="inlineStr">
         <is>
-          <t xml:space="preserve">Due diligence </t>
+          <t xml:space="preserve"> COVID Vaccines</t>
         </is>
       </c>
     </row>
@@ -18938,7 +18938,7 @@
     <row r="334">
       <c r="A334" s="3141" t="inlineStr">
         <is>
-          <t>Andrea Beltramello</t>
+          <t>Sofja Ribkina</t>
         </is>
       </c>
       <c r="B334" s="3138" t="inlineStr">
@@ -18948,24 +18948,24 @@
       </c>
       <c r="C334" s="3141" t="inlineStr">
         <is>
-          <t>video conference</t>
+          <t>Video-conference</t>
         </is>
       </c>
       <c r="D334" s="3141" t="inlineStr">
         <is>
-          <t>Invest Europe</t>
+          <t>PET Europe - Producers' Association</t>
         </is>
       </c>
       <c r="E334" s="3141" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Solvency II, Basel implementation</t>
+          <t xml:space="preserve">Introduction to the activities of the Committee and latest developments </t>
         </is>
       </c>
     </row>
     <row r="335">
       <c r="A335" s="3141" t="inlineStr">
         <is>
-          <t>Sofja Ribkina</t>
+          <t>Andrea Beltramello</t>
         </is>
       </c>
       <c r="B335" s="3138" t="inlineStr">
@@ -18975,24 +18975,24 @@
       </c>
       <c r="C335" s="3141" t="inlineStr">
         <is>
-          <t>Video-conference</t>
+          <t>video conference</t>
         </is>
       </c>
       <c r="D335" s="3141" t="inlineStr">
         <is>
-          <t>PET Europe - Producers' Association</t>
+          <t>Invest Europe</t>
         </is>
       </c>
       <c r="E335" s="3141" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the activities of the Committee and latest developments </t>
+          <t xml:space="preserve"> Solvency II, Basel implementation</t>
         </is>
       </c>
     </row>
     <row r="336">
       <c r="A336" s="3141" t="inlineStr">
         <is>
-          <t>Zaneta Vegnere, Caroline Boeshertz, Mirzha De Manuel, Cristina Rueda Catry</t>
+          <t>Caroline Boeshertz, Cristina Rueda Catry, Zaneta Vegnere, Mirzha De Manuel</t>
         </is>
       </c>
       <c r="B336" s="3138" t="inlineStr">
@@ -19100,7 +19100,7 @@
     <row r="340">
       <c r="A340" s="3141" t="inlineStr">
         <is>
-          <t>Cristina Rueda Catry, Caroline Boeshertz, Sofja Ribkina</t>
+          <t>Sofja Ribkina, Cristina Rueda Catry, Caroline Boeshertz</t>
         </is>
       </c>
       <c r="B340" s="3138" t="inlineStr">
@@ -19127,7 +19127,7 @@
     <row r="341">
       <c r="A341" s="3141" t="inlineStr">
         <is>
-          <t>Elina Melngaile, Zaneta Vegnere</t>
+          <t>Zaneta Vegnere, Elina Melngaile</t>
         </is>
       </c>
       <c r="B341" s="3138" t="inlineStr">
@@ -19154,7 +19154,7 @@
     <row r="342">
       <c r="A342" s="3141" t="inlineStr">
         <is>
-          <t>Cristina Rueda Catry, Andrea Beltramello</t>
+          <t>Andrea Beltramello, Cristina Rueda Catry</t>
         </is>
       </c>
       <c r="B342" s="3138" t="inlineStr">
@@ -19345,7 +19345,7 @@
     <row r="349">
       <c r="A349" s="3141" t="inlineStr">
         <is>
-          <t>Mirzha De Manuel</t>
+          <t>Zaneta Vegnere</t>
         </is>
       </c>
       <c r="B349" s="3138" t="inlineStr">
@@ -19355,24 +19355,25 @@
       </c>
       <c r="C349" s="3141" t="inlineStr">
         <is>
-          <t>Brussels</t>
+          <t>BXL</t>
         </is>
       </c>
       <c r="D349" s="3141" t="inlineStr">
         <is>
-          <t>Temasek International Pte Ltd</t>
+          <t>Deutsche Gesellschaft für Auswärtige Politik e.V.</t>
         </is>
       </c>
       <c r="E349" s="3141" t="inlineStr">
         <is>
-          <t>NGEU, the RRF and the green and digital policy priorities and tools.</t>
+          <t xml:space="preserve">- Trade and Technology Council
+- EU-US trade relationship </t>
         </is>
       </c>
     </row>
     <row r="350">
       <c r="A350" s="3141" t="inlineStr">
         <is>
-          <t>Zaneta Vegnere</t>
+          <t>Mirzha De Manuel</t>
         </is>
       </c>
       <c r="B350" s="3138" t="inlineStr">
@@ -19382,18 +19383,17 @@
       </c>
       <c r="C350" s="3141" t="inlineStr">
         <is>
-          <t>BXL</t>
+          <t>Brussels</t>
         </is>
       </c>
       <c r="D350" s="3141" t="inlineStr">
         <is>
-          <t>Deutsche Gesellschaft für Auswärtige Politik e.V.</t>
+          <t>Temasek International Pte Ltd</t>
         </is>
       </c>
       <c r="E350" s="3141" t="inlineStr">
         <is>
-          <t xml:space="preserve">- Trade and Technology Council
-- EU-US trade relationship </t>
+          <t>NGEU, the RRF and the green and digital policy priorities and tools.</t>
         </is>
       </c>
     </row>
@@ -19713,7 +19713,7 @@
       </c>
       <c r="D362" s="3141" t="inlineStr">
         <is>
-          <t>Workday</t>
+          <t>European Telecommunications Network Operators' Association</t>
         </is>
       </c>
       <c r="E362" s="3141" t="inlineStr">
@@ -19740,7 +19740,7 @@
       </c>
       <c r="D363" s="3141" t="inlineStr">
         <is>
-          <t>European Telecommunications Network Operators' Association</t>
+          <t>Workday</t>
         </is>
       </c>
       <c r="E363" s="3141" t="inlineStr">
@@ -19779,7 +19779,7 @@
     <row r="365">
       <c r="A365" s="3141" t="inlineStr">
         <is>
-          <t>Andrea Beltramello, Cristina Rueda Catry, Gints Freimanis</t>
+          <t>Andrea Beltramello, Gints Freimanis, Cristina Rueda Catry</t>
         </is>
       </c>
       <c r="B365" s="3138" t="inlineStr">
@@ -19833,63 +19833,63 @@
     <row r="367">
       <c r="A367" s="3141" t="inlineStr">
         <is>
+          <t>Elina Melngaile, Michael Hager</t>
+        </is>
+      </c>
+      <c r="B367" s="3138" t="inlineStr">
+        <is>
+          <t>23/06/2021</t>
+        </is>
+      </c>
+      <c r="C367" s="3141" t="inlineStr">
+        <is>
+          <t>virtual</t>
+        </is>
+      </c>
+      <c r="D367" s="3141" t="inlineStr">
+        <is>
+          <t>FEDERATION DES EXPORTATEURS DE VINS ET SPIRITUEUX DE FRANCE, Moët Hennessy, Davide Campari-Milano N.V., Federazione italiana industriali produttori esportatori ed importatori di vini, acquaviti, liquori, sciroppi, aceti ed affini, Mast-Jägermeister SE, Brown-Forman Netherlands BV, Diageo, Beam Suntory SL, Bacardi-Martini BV, PERNOD RICARD, THOFFOOD SL, Ibec, spiritsEUROPE, Bureau National Interprofessionnel du Cognac</t>
+        </is>
+      </c>
+      <c r="E367" s="3141" t="inlineStr">
+        <is>
+          <t>EU-US trade relations;
+Trade relations with other third countries</t>
+        </is>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" s="3141" t="inlineStr">
+        <is>
           <t>Michael Hager, Gints Freimanis</t>
         </is>
       </c>
-      <c r="B367" s="3138" t="inlineStr">
+      <c r="B368" s="3138" t="inlineStr">
         <is>
           <t>23/06/2021</t>
         </is>
       </c>
-      <c r="C367" s="3141" t="inlineStr">
+      <c r="C368" s="3141" t="inlineStr">
         <is>
           <t>virtual</t>
         </is>
       </c>
-      <c r="D367" s="3141" t="inlineStr">
+      <c r="D368" s="3141" t="inlineStr">
         <is>
           <t>TUSIAD-Turkish Industry&amp;Business Association</t>
         </is>
       </c>
-      <c r="E367" s="3141" t="inlineStr">
+      <c r="E368" s="3141" t="inlineStr">
         <is>
           <t xml:space="preserve">EU-Turkey relations; Customs Union
 </t>
         </is>
       </c>
     </row>
-    <row r="368">
-      <c r="A368" s="3141" t="inlineStr">
-        <is>
-          <t>Michael Hager, Elina Melngaile</t>
-        </is>
-      </c>
-      <c r="B368" s="3138" t="inlineStr">
-        <is>
-          <t>23/06/2021</t>
-        </is>
-      </c>
-      <c r="C368" s="3141" t="inlineStr">
-        <is>
-          <t>virtual</t>
-        </is>
-      </c>
-      <c r="D368" s="3141" t="inlineStr">
-        <is>
-          <t>FEDERATION DES EXPORTATEURS DE VINS ET SPIRITUEUX DE FRANCE, Moët Hennessy, Davide Campari-Milano N.V., Federazione italiana industriali produttori esportatori ed importatori di vini, acquaviti, liquori, sciroppi, aceti ed affini, Mast-Jägermeister SE, Brown-Forman Netherlands BV, Diageo, Beam Suntory SL, Bacardi-Martini BV, PERNOD RICARD, THOFFOOD SL, Ibec, spiritsEUROPE, Bureau National Interprofessionnel du Cognac</t>
-        </is>
-      </c>
-      <c r="E368" s="3141" t="inlineStr">
-        <is>
-          <t>EU-US trade relations;
-Trade relations with other third countries</t>
-        </is>
-      </c>
-    </row>
     <row r="369">
       <c r="A369" s="3141" t="inlineStr">
         <is>
-          <t>Cristina Rueda Catry, Michael Hager</t>
+          <t>Michael Hager, Cristina Rueda Catry</t>
         </is>
       </c>
       <c r="B369" s="3138" t="inlineStr">
@@ -20110,7 +20110,7 @@
     <row r="377">
       <c r="A377" s="3141" t="inlineStr">
         <is>
-          <t>Caroline Boeshertz, Cristina Rueda Catry</t>
+          <t>Cristina Rueda Catry, Caroline Boeshertz</t>
         </is>
       </c>
       <c r="B377" s="3138" t="inlineStr">
@@ -20245,7 +20245,7 @@
     <row r="382">
       <c r="A382" s="3141" t="inlineStr">
         <is>
-          <t>Andrea Beltramello, Caroline Boeshertz</t>
+          <t>Andrea Beltramello</t>
         </is>
       </c>
       <c r="B382" s="3138" t="inlineStr">
@@ -20255,24 +20255,24 @@
       </c>
       <c r="C382" s="3141" t="inlineStr">
         <is>
-          <t>video-conference</t>
+          <t>video conference</t>
         </is>
       </c>
       <c r="D382" s="3141" t="inlineStr">
         <is>
-          <t>Bundesarbeitgeberverband Chemie e.V., Bayer AG, Verband der Chemischen Industrie e.V.</t>
+          <t>European Banking Federation, Copenhagen Economics</t>
         </is>
       </c>
       <c r="E382" s="3141" t="inlineStr">
         <is>
-          <t>Sustainable corporate governance and due diligence</t>
+          <t>Basel III implementation</t>
         </is>
       </c>
     </row>
     <row r="383">
       <c r="A383" s="3141" t="inlineStr">
         <is>
-          <t>Andrea Beltramello</t>
+          <t>Andrea Beltramello, Caroline Boeshertz</t>
         </is>
       </c>
       <c r="B383" s="3138" t="inlineStr">
@@ -20282,42 +20282,69 @@
       </c>
       <c r="C383" s="3141" t="inlineStr">
         <is>
-          <t>video conference</t>
+          <t>video-conference</t>
         </is>
       </c>
       <c r="D383" s="3141" t="inlineStr">
         <is>
-          <t>European Banking Federation, Copenhagen Economics</t>
+          <t>Bundesarbeitgeberverband Chemie e.V., Bayer AG, Verband der Chemischen Industrie e.V.</t>
         </is>
       </c>
       <c r="E383" s="3141" t="inlineStr">
         <is>
-          <t>Basel III implementation</t>
+          <t>Sustainable corporate governance and due diligence</t>
         </is>
       </c>
     </row>
     <row r="384">
       <c r="A384" s="3141" t="inlineStr">
         <is>
+          <t>Caroline Boeshertz, Andrea Beltramello</t>
+        </is>
+      </c>
+      <c r="B384" s="3138" t="inlineStr">
+        <is>
+          <t>27/05/2021</t>
+        </is>
+      </c>
+      <c r="C384" s="3141" t="inlineStr">
+        <is>
+          <t>video-conference</t>
+        </is>
+      </c>
+      <c r="D384" s="3141" t="inlineStr">
+        <is>
+          <t>Clean Clothes Campaign / Stichting Schone Kleren Kampagne, Global Witness, International Federation for Human Rights, Anti-Slavery International, European Center for Constitutional and Human Rights, ClientEarth AISBL, European Coalition for Corporate Justice</t>
+        </is>
+      </c>
+      <c r="E384" s="3141" t="inlineStr">
+        <is>
+          <t>Due diligence</t>
+        </is>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" s="3141" t="inlineStr">
+        <is>
           <t>Zaneta Vegnere</t>
         </is>
       </c>
-      <c r="B384" s="3138" t="inlineStr">
+      <c r="B385" s="3138" t="inlineStr">
         <is>
           <t>27/05/2021</t>
         </is>
       </c>
-      <c r="C384" s="3141" t="inlineStr">
+      <c r="C385" s="3141" t="inlineStr">
         <is>
           <t>virtual</t>
         </is>
       </c>
-      <c r="D384" s="3141" t="inlineStr">
+      <c r="D385" s="3141" t="inlineStr">
         <is>
           <t>European Branded Clothing Alliance</t>
         </is>
       </c>
-      <c r="E384" s="3141" t="inlineStr">
+      <c r="E385" s="3141" t="inlineStr">
         <is>
           <t xml:space="preserve">- open strategic autonomy
 - textile industry and trade
@@ -20326,37 +20353,10 @@
         </is>
       </c>
     </row>
-    <row r="385">
-      <c r="A385" s="3141" t="inlineStr">
-        <is>
-          <t>Caroline Boeshertz, Andrea Beltramello</t>
-        </is>
-      </c>
-      <c r="B385" s="3138" t="inlineStr">
-        <is>
-          <t>27/05/2021</t>
-        </is>
-      </c>
-      <c r="C385" s="3141" t="inlineStr">
-        <is>
-          <t>video-conference</t>
-        </is>
-      </c>
-      <c r="D385" s="3141" t="inlineStr">
-        <is>
-          <t>Clean Clothes Campaign / Stichting Schone Kleren Kampagne, Global Witness, International Federation for Human Rights, Anti-Slavery International, European Center for Constitutional and Human Rights, ClientEarth AISBL, European Coalition for Corporate Justice</t>
-        </is>
-      </c>
-      <c r="E385" s="3141" t="inlineStr">
-        <is>
-          <t>Due diligence</t>
-        </is>
-      </c>
-    </row>
     <row r="386">
       <c r="A386" s="3141" t="inlineStr">
         <is>
-          <t>Andrea Beltramello</t>
+          <t>Michael Hager</t>
         </is>
       </c>
       <c r="B386" s="3138" t="inlineStr">
@@ -20366,24 +20366,24 @@
       </c>
       <c r="C386" s="3141" t="inlineStr">
         <is>
-          <t>video-conference</t>
+          <t>Video conferencing</t>
         </is>
       </c>
       <c r="D386" s="3141" t="inlineStr">
         <is>
-          <t>Alipay (Europe) Limited S.A., Brunswick Group Advisory Limited</t>
+          <t>Commerzbank AG</t>
         </is>
       </c>
       <c r="E386" s="3141" t="inlineStr">
         <is>
-          <t>Green financial products</t>
+          <t xml:space="preserve">Sustainable corporate governance </t>
         </is>
       </c>
     </row>
     <row r="387">
       <c r="A387" s="3141" t="inlineStr">
         <is>
-          <t>Michael Hager</t>
+          <t>Andrea Beltramello</t>
         </is>
       </c>
       <c r="B387" s="3138" t="inlineStr">
@@ -20393,17 +20393,17 @@
       </c>
       <c r="C387" s="3141" t="inlineStr">
         <is>
-          <t>Video conferencing</t>
+          <t>video-conference</t>
         </is>
       </c>
       <c r="D387" s="3141" t="inlineStr">
         <is>
-          <t>Commerzbank AG</t>
+          <t>Alipay (Europe) Limited S.A., Brunswick Group Advisory Limited</t>
         </is>
       </c>
       <c r="E387" s="3141" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sustainable corporate governance </t>
+          <t>Green financial products</t>
         </is>
       </c>
     </row>
@@ -20464,7 +20464,7 @@
     <row r="390">
       <c r="A390" s="3141" t="inlineStr">
         <is>
-          <t>Michael Hager, Caroline Boeshertz, Cristina Rueda Catry</t>
+          <t>Caroline Boeshertz, Michael Hager, Cristina Rueda Catry</t>
         </is>
       </c>
       <c r="B390" s="3138" t="inlineStr">
@@ -20491,7 +20491,7 @@
     <row r="391">
       <c r="A391" s="3141" t="inlineStr">
         <is>
-          <t>Caroline Boeshertz, Andrea Beltramello</t>
+          <t>Andrea Beltramello</t>
         </is>
       </c>
       <c r="B391" s="3138" t="inlineStr">
@@ -20501,24 +20501,24 @@
       </c>
       <c r="C391" s="3141" t="inlineStr">
         <is>
-          <t>video-confernece</t>
+          <t>video-conference</t>
         </is>
       </c>
       <c r="D391" s="3141" t="inlineStr">
         <is>
-          <t>Global Witness, WWF European Policy Programme, Conservation International Europe, Environmental Investigation Agency, WCS EU, ClientEarth AISBL, Fern, Green 10</t>
+          <t>FTI Consulting Belgium, Aon</t>
         </is>
       </c>
       <c r="E391" s="3141" t="inlineStr">
         <is>
-          <t>Deforestation</t>
+          <t xml:space="preserve"> Covid-19 and insurance sector                      </t>
         </is>
       </c>
     </row>
     <row r="392">
       <c r="A392" s="3141" t="inlineStr">
         <is>
-          <t>Andrea Beltramello</t>
+          <t>Andrea Beltramello, Caroline Boeshertz</t>
         </is>
       </c>
       <c r="B392" s="3138" t="inlineStr">
@@ -20528,17 +20528,17 @@
       </c>
       <c r="C392" s="3141" t="inlineStr">
         <is>
-          <t>video-conference</t>
+          <t>video-confernece</t>
         </is>
       </c>
       <c r="D392" s="3141" t="inlineStr">
         <is>
-          <t>Association Française des Entreprises Privées / French Association of Large Companies, EuropeanIssuers, Deutsches Aktieninstitut, Associazione fra le società italiane per azioni</t>
+          <t>Global Witness, WWF European Policy Programme, Conservation International Europe, Environmental Investigation Agency, WCS EU, ClientEarth AISBL, Fern, Green 10</t>
         </is>
       </c>
       <c r="E392" s="3141" t="inlineStr">
         <is>
-          <t>Sustainable corporate governance</t>
+          <t>Deforestation</t>
         </is>
       </c>
     </row>
@@ -20560,12 +20560,12 @@
       </c>
       <c r="D393" s="3141" t="inlineStr">
         <is>
-          <t>FTI Consulting Belgium, Aon</t>
+          <t>Association Française des Entreprises Privées / French Association of Large Companies, EuropeanIssuers, Deutsches Aktieninstitut, Associazione fra le società italiane per azioni</t>
         </is>
       </c>
       <c r="E393" s="3141" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Covid-19 and insurance sector                      </t>
+          <t>Sustainable corporate governance</t>
         </is>
       </c>
     </row>
@@ -20788,7 +20788,7 @@
     <row r="402">
       <c r="A402" s="3141" t="inlineStr">
         <is>
-          <t>Andrea Beltramello</t>
+          <t>Caroline Boeshertz, Andrea Beltramello</t>
         </is>
       </c>
       <c r="B402" s="3138" t="inlineStr">
@@ -20803,19 +20803,19 @@
       </c>
       <c r="D402" s="3141" t="inlineStr">
         <is>
-          <t>BNP PARIBAS</t>
+          <t>CMA CGM</t>
         </is>
       </c>
       <c r="E402" s="3141" t="inlineStr">
         <is>
-          <t>Basel implementation</t>
+          <t>Shipping and trade</t>
         </is>
       </c>
     </row>
     <row r="403">
       <c r="A403" s="3141" t="inlineStr">
         <is>
-          <t>Andrea Beltramello, Caroline Boeshertz</t>
+          <t>Andrea Beltramello</t>
         </is>
       </c>
       <c r="B403" s="3138" t="inlineStr">
@@ -20830,12 +20830,12 @@
       </c>
       <c r="D403" s="3141" t="inlineStr">
         <is>
-          <t>CMA CGM</t>
+          <t>BNP PARIBAS</t>
         </is>
       </c>
       <c r="E403" s="3141" t="inlineStr">
         <is>
-          <t>Shipping and trade</t>
+          <t>Basel implementation</t>
         </is>
       </c>
     </row>
@@ -20923,7 +20923,7 @@
     <row r="407">
       <c r="A407" s="3141" t="inlineStr">
         <is>
-          <t>Michael Hager, Gints Freimanis</t>
+          <t>Gints Freimanis, Michael Hager</t>
         </is>
       </c>
       <c r="B407" s="3138" t="inlineStr">
@@ -21007,7 +21007,7 @@
     <row r="410">
       <c r="A410" s="3141" t="inlineStr">
         <is>
-          <t>Caroline Boeshertz, Sofja Ribkina</t>
+          <t>Sofja Ribkina, Caroline Boeshertz</t>
         </is>
       </c>
       <c r="B410" s="3138" t="inlineStr">
@@ -21034,7 +21034,7 @@
     <row r="411">
       <c r="A411" s="3141" t="inlineStr">
         <is>
-          <t>Michael Hager</t>
+          <t>Elina Melngaile</t>
         </is>
       </c>
       <c r="B411" s="3138" t="inlineStr">
@@ -21044,17 +21044,17 @@
       </c>
       <c r="C411" s="3141" t="inlineStr">
         <is>
-          <t>Video conferencing</t>
+          <t>Virtual</t>
         </is>
       </c>
       <c r="D411" s="3141" t="inlineStr">
         <is>
-          <t>Infineon Technologies AG</t>
+          <t>SUEZ Group</t>
         </is>
       </c>
       <c r="E411" s="3141" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Industrial and trade policy</t>
+          <t>EU Taxonomy and its impact on energy sector</t>
         </is>
       </c>
     </row>
@@ -21071,24 +21071,24 @@
       </c>
       <c r="C412" s="3141" t="inlineStr">
         <is>
-          <t>video conferencing</t>
+          <t>Video conferencing</t>
         </is>
       </c>
       <c r="D412" s="3141" t="inlineStr">
         <is>
-          <t>Gesamtverband der Deutschen Versicherungswirtschaft e.V.</t>
+          <t>Infineon Technologies AG</t>
         </is>
       </c>
       <c r="E412" s="3141" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Solvency II</t>
+          <t xml:space="preserve"> Industrial and trade policy</t>
         </is>
       </c>
     </row>
     <row r="413">
       <c r="A413" s="3141" t="inlineStr">
         <is>
-          <t>Elina Melngaile</t>
+          <t>Michael Hager</t>
         </is>
       </c>
       <c r="B413" s="3138" t="inlineStr">
@@ -21098,17 +21098,17 @@
       </c>
       <c r="C413" s="3141" t="inlineStr">
         <is>
-          <t>Virtual</t>
+          <t>video conferencing</t>
         </is>
       </c>
       <c r="D413" s="3141" t="inlineStr">
         <is>
-          <t>SUEZ Group</t>
+          <t>Gesamtverband der Deutschen Versicherungswirtschaft e.V.</t>
         </is>
       </c>
       <c r="E413" s="3141" t="inlineStr">
         <is>
-          <t>EU Taxonomy and its impact on energy sector</t>
+          <t xml:space="preserve"> Solvency II</t>
         </is>
       </c>
     </row>
@@ -21223,7 +21223,7 @@
     <row r="418">
       <c r="A418" s="3141" t="inlineStr">
         <is>
-          <t>Andrea Beltramello</t>
+          <t>Zaneta Vegnere</t>
         </is>
       </c>
       <c r="B418" s="3138" t="inlineStr">
@@ -21233,42 +21233,15 @@
       </c>
       <c r="C418" s="3141" t="inlineStr">
         <is>
-          <t>video-conference</t>
+          <t>virtual</t>
         </is>
       </c>
       <c r="D418" s="3141" t="inlineStr">
         <is>
-          <t>Confederazione Generale dell'Industria Italiana</t>
+          <t>Orgalim – Europe's Technology Industries</t>
         </is>
       </c>
       <c r="E418" s="3141" t="inlineStr">
-        <is>
-          <t>Sustainable corporate governance and due diligence</t>
-        </is>
-      </c>
-    </row>
-    <row r="419">
-      <c r="A419" s="3141" t="inlineStr">
-        <is>
-          <t>Zaneta Vegnere</t>
-        </is>
-      </c>
-      <c r="B419" s="3138" t="inlineStr">
-        <is>
-          <t>31/03/2021</t>
-        </is>
-      </c>
-      <c r="C419" s="3141" t="inlineStr">
-        <is>
-          <t>virtual</t>
-        </is>
-      </c>
-      <c r="D419" s="3141" t="inlineStr">
-        <is>
-          <t>Orgalim – Europe's Technology Industries</t>
-        </is>
-      </c>
-      <c r="E419" s="3141" t="inlineStr">
         <is>
           <t xml:space="preserve">- review of industry strategy
 - European Green Deal
@@ -21276,10 +21249,37 @@
         </is>
       </c>
     </row>
+    <row r="419">
+      <c r="A419" s="3141" t="inlineStr">
+        <is>
+          <t>Michael Hager, Andrea Beltramello</t>
+        </is>
+      </c>
+      <c r="B419" s="3138" t="inlineStr">
+        <is>
+          <t>31/03/2021</t>
+        </is>
+      </c>
+      <c r="C419" s="3141" t="inlineStr">
+        <is>
+          <t>video conferencing</t>
+        </is>
+      </c>
+      <c r="D419" s="3141" t="inlineStr">
+        <is>
+          <t>Bundesverband deutscher Banken e.V.</t>
+        </is>
+      </c>
+      <c r="E419" s="3141" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Financial services policy</t>
+        </is>
+      </c>
+    </row>
     <row r="420">
       <c r="A420" s="3141" t="inlineStr">
         <is>
-          <t>Michael Hager, Andrea Beltramello</t>
+          <t>Andrea Beltramello</t>
         </is>
       </c>
       <c r="B420" s="3138" t="inlineStr">
@@ -21289,24 +21289,24 @@
       </c>
       <c r="C420" s="3141" t="inlineStr">
         <is>
-          <t>video conferencing</t>
+          <t>video-conference</t>
         </is>
       </c>
       <c r="D420" s="3141" t="inlineStr">
         <is>
-          <t>Bundesverband deutscher Banken e.V.</t>
+          <t>Confederazione Generale dell'Industria Italiana</t>
         </is>
       </c>
       <c r="E420" s="3141" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Financial services policy</t>
+          <t>Sustainable corporate governance and due diligence</t>
         </is>
       </c>
     </row>
     <row r="421">
       <c r="A421" s="3141" t="inlineStr">
         <is>
-          <t>Michael Hager, Andrea Beltramello</t>
+          <t>Andrea Beltramello, Michael Hager</t>
         </is>
       </c>
       <c r="B421" s="3138" t="inlineStr">
@@ -21343,17 +21343,17 @@
       </c>
       <c r="C422" s="3141" t="inlineStr">
         <is>
-          <t>video conferencing</t>
+          <t>Video conferencing</t>
         </is>
       </c>
       <c r="D422" s="3141" t="inlineStr">
         <is>
-          <t>Fédération bancaire française</t>
+          <t>Microsoft Corporation</t>
         </is>
       </c>
       <c r="E422" s="3141" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Financial services policy</t>
+          <t xml:space="preserve"> Trade policy</t>
         </is>
       </c>
     </row>
@@ -21370,17 +21370,17 @@
       </c>
       <c r="C423" s="3141" t="inlineStr">
         <is>
-          <t>Video conferencing</t>
+          <t>video conferencing</t>
         </is>
       </c>
       <c r="D423" s="3141" t="inlineStr">
         <is>
-          <t>Microsoft Corporation</t>
+          <t>Fédération bancaire française</t>
         </is>
       </c>
       <c r="E423" s="3141" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Trade policy</t>
+          <t xml:space="preserve"> Financial services policy</t>
         </is>
       </c>
     </row>
@@ -21402,12 +21402,12 @@
       </c>
       <c r="D424" s="3141" t="inlineStr">
         <is>
-          <t>World Wide Fund for Nature Belgium, Naturschutzbund Deutschland e.V., Climate Strategy, Stichting BirdLife Europe, Transport and Environment (European Federation for Transport and Environment)</t>
+          <t>ArcelorMittal, The European Steel Association</t>
         </is>
       </c>
       <c r="E424" s="3141" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Taxonomy</t>
+          <t xml:space="preserve"> Taxonomy, draft Delegated Act</t>
         </is>
       </c>
     </row>
@@ -21429,12 +21429,12 @@
       </c>
       <c r="D425" s="3141" t="inlineStr">
         <is>
-          <t>ArcelorMittal, The European Steel Association</t>
+          <t>World Wide Fund for Nature Belgium, Naturschutzbund Deutschland e.V., Climate Strategy, Stichting BirdLife Europe, Transport and Environment (European Federation for Transport and Environment)</t>
         </is>
       </c>
       <c r="E425" s="3141" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Taxonomy, draft Delegated Act</t>
+          <t xml:space="preserve"> Taxonomy</t>
         </is>
       </c>
     </row>
@@ -21606,7 +21606,7 @@
     <row r="432">
       <c r="A432" s="3141" t="inlineStr">
         <is>
-          <t>Andrea Beltramello, Cristina Rueda Catry</t>
+          <t>Cristina Rueda Catry, Andrea Beltramello</t>
         </is>
       </c>
       <c r="B432" s="3138" t="inlineStr">
@@ -21827,7 +21827,7 @@
     <row r="440">
       <c r="A440" s="3141" t="inlineStr">
         <is>
-          <t>Andrea Beltramello</t>
+          <t>Elina Melngaile</t>
         </is>
       </c>
       <c r="B440" s="3138" t="inlineStr">
@@ -21837,24 +21837,24 @@
       </c>
       <c r="C440" s="3141" t="inlineStr">
         <is>
-          <t>Video call</t>
+          <t>Virtual</t>
         </is>
       </c>
       <c r="D440" s="3141" t="inlineStr">
         <is>
-          <t>Eurelectric aisbl</t>
+          <t>GML Limited</t>
         </is>
       </c>
       <c r="E440" s="3141" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Sustainable finance taxonomy</t>
+          <t>GML arbitration proceedings against the Russian Federation in 2004 under the ECT</t>
         </is>
       </c>
     </row>
     <row r="441">
       <c r="A441" s="3141" t="inlineStr">
         <is>
-          <t>Elina Melngaile</t>
+          <t>Andrea Beltramello</t>
         </is>
       </c>
       <c r="B441" s="3138" t="inlineStr">
@@ -21864,17 +21864,17 @@
       </c>
       <c r="C441" s="3141" t="inlineStr">
         <is>
-          <t>Virtual</t>
+          <t>Video call</t>
         </is>
       </c>
       <c r="D441" s="3141" t="inlineStr">
         <is>
-          <t>GML Limited</t>
+          <t>Eurelectric aisbl</t>
         </is>
       </c>
       <c r="E441" s="3141" t="inlineStr">
         <is>
-          <t>GML arbitration proceedings against the Russian Federation in 2004 under the ECT</t>
+          <t xml:space="preserve"> Sustainable finance taxonomy</t>
         </is>
       </c>
     </row>
@@ -21935,7 +21935,7 @@
     <row r="444">
       <c r="A444" s="3141" t="inlineStr">
         <is>
-          <t>Mirzha De Manuel</t>
+          <t>Andrea Beltramello</t>
         </is>
       </c>
       <c r="B444" s="3138" t="inlineStr">
@@ -21945,24 +21945,24 @@
       </c>
       <c r="C444" s="3141" t="inlineStr">
         <is>
-          <t>Brussels and virtual</t>
+          <t>video conference</t>
         </is>
       </c>
       <c r="D444" s="3141" t="inlineStr">
         <is>
-          <t>Arbeitsgemeinschaft katholisch-sozialer Bildungswerke in der Bundesrepublik Deutschland e.V.</t>
+          <t>Stichting European Climate Foundation</t>
         </is>
       </c>
       <c r="E444" s="3141" t="inlineStr">
         <is>
-          <t xml:space="preserve">Discussed the Recovery and Resilience Facility framework for climate change, digitalisation and education, including the EU reskill and upskill flagship.” </t>
+          <t xml:space="preserve">trade and climate </t>
         </is>
       </c>
     </row>
     <row r="445">
       <c r="A445" s="3141" t="inlineStr">
         <is>
-          <t>Andrea Beltramello</t>
+          <t>Mirzha De Manuel</t>
         </is>
       </c>
       <c r="B445" s="3138" t="inlineStr">
@@ -21972,17 +21972,17 @@
       </c>
       <c r="C445" s="3141" t="inlineStr">
         <is>
-          <t>video conference</t>
+          <t>Brussels and virtual</t>
         </is>
       </c>
       <c r="D445" s="3141" t="inlineStr">
         <is>
-          <t>Stichting European Climate Foundation</t>
+          <t>Arbeitsgemeinschaft katholisch-sozialer Bildungswerke in der Bundesrepublik Deutschland e.V.</t>
         </is>
       </c>
       <c r="E445" s="3141" t="inlineStr">
         <is>
-          <t xml:space="preserve">trade and climate </t>
+          <t xml:space="preserve">Discussed the Recovery and Resilience Facility framework for climate change, digitalisation and education, including the EU reskill and upskill flagship.” </t>
         </is>
       </c>
     </row>
@@ -22124,7 +22124,7 @@
     <row r="451">
       <c r="A451" s="3141" t="inlineStr">
         <is>
-          <t>Cristina Rueda Catry, Mirzha De Manuel, Andrea Beltramello</t>
+          <t>Cristina Rueda Catry, Andrea Beltramello, Mirzha De Manuel</t>
         </is>
       </c>
       <c r="B451" s="3138" t="inlineStr">
@@ -22205,62 +22205,62 @@
     <row r="454">
       <c r="A454" s="3141" t="inlineStr">
         <is>
+          <t>Mirzha De Manuel</t>
+        </is>
+      </c>
+      <c r="B454" s="3138" t="inlineStr">
+        <is>
+          <t>03/02/2021</t>
+        </is>
+      </c>
+      <c r="C454" s="3141" t="inlineStr">
+        <is>
+          <t>Brussles, online</t>
+        </is>
+      </c>
+      <c r="D454" s="3141" t="inlineStr">
+        <is>
+          <t>BUSINESSEUROPE</t>
+        </is>
+      </c>
+      <c r="E454" s="3141" t="inlineStr">
+        <is>
+          <t>BusinessEurope's ASG CEO event - informal call: to discuss BusinessEurope's ASG CEO forthcoming event and the new cabinet team and the recent and forthcoming actions on employment and social files, including social dialogue.</t>
+        </is>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" s="3141" t="inlineStr">
+        <is>
           <t>Elina Melngaile</t>
         </is>
       </c>
-      <c r="B454" s="3138" t="inlineStr">
+      <c r="B455" s="3138" t="inlineStr">
         <is>
           <t>03/02/2021</t>
         </is>
       </c>
-      <c r="C454" s="3141" t="inlineStr">
+      <c r="C455" s="3141" t="inlineStr">
         <is>
           <t>Virtual</t>
         </is>
       </c>
-      <c r="D454" s="3141" t="inlineStr">
+      <c r="D455" s="3141" t="inlineStr">
         <is>
           <t>Nokia</t>
         </is>
       </c>
-      <c r="E454" s="3141" t="inlineStr">
+      <c r="E455" s="3141" t="inlineStr">
         <is>
           <t xml:space="preserve">Trade policy in the digital sector
  </t>
         </is>
       </c>
     </row>
-    <row r="455">
-      <c r="A455" s="3141" t="inlineStr">
-        <is>
-          <t>Mirzha De Manuel</t>
-        </is>
-      </c>
-      <c r="B455" s="3138" t="inlineStr">
-        <is>
-          <t>03/02/2021</t>
-        </is>
-      </c>
-      <c r="C455" s="3141" t="inlineStr">
-        <is>
-          <t>Brussles, online</t>
-        </is>
-      </c>
-      <c r="D455" s="3141" t="inlineStr">
-        <is>
-          <t>BUSINESSEUROPE</t>
-        </is>
-      </c>
-      <c r="E455" s="3141" t="inlineStr">
-        <is>
-          <t>BusinessEurope's ASG CEO event - informal call: to discuss BusinessEurope's ASG CEO forthcoming event and the new cabinet team and the recent and forthcoming actions on employment and social files, including social dialogue.</t>
-        </is>
-      </c>
-    </row>
     <row r="456">
       <c r="A456" s="3141" t="inlineStr">
         <is>
-          <t>Andrea Beltramello, Vanessa Mock</t>
+          <t>Vanessa Mock, Andrea Beltramello</t>
         </is>
       </c>
       <c r="B456" s="3138" t="inlineStr">
@@ -22449,7 +22449,7 @@
     <row r="463">
       <c r="A463" s="3141" t="inlineStr">
         <is>
-          <t>Cristina Rueda Catry, Andrea Beltramello</t>
+          <t>Michael Hager</t>
         </is>
       </c>
       <c r="B463" s="3138" t="inlineStr">
@@ -22459,24 +22459,24 @@
       </c>
       <c r="C463" s="3141" t="inlineStr">
         <is>
-          <t xml:space="preserve">video conference </t>
+          <t>Video conferencing</t>
         </is>
       </c>
       <c r="D463" s="3141" t="inlineStr">
         <is>
-          <t>Fern</t>
+          <t>Société Générale</t>
         </is>
       </c>
       <c r="E463" s="3141" t="inlineStr">
         <is>
-          <t>Sustainable cocoa initiative; deforestation and forest degradation</t>
+          <t>CMU, financial markets regulation</t>
         </is>
       </c>
     </row>
     <row r="464">
       <c r="A464" s="3141" t="inlineStr">
         <is>
-          <t>Michael Hager</t>
+          <t>Cristina Rueda Catry, Andrea Beltramello</t>
         </is>
       </c>
       <c r="B464" s="3138" t="inlineStr">
@@ -22486,17 +22486,17 @@
       </c>
       <c r="C464" s="3141" t="inlineStr">
         <is>
-          <t xml:space="preserve">Video conferencing </t>
+          <t xml:space="preserve">video conference </t>
         </is>
       </c>
       <c r="D464" s="3141" t="inlineStr">
         <is>
-          <t>Confederazione Generale dell'Industria Italiana</t>
+          <t>Fern</t>
         </is>
       </c>
       <c r="E464" s="3141" t="inlineStr">
         <is>
-          <t>RRF, Trade policy</t>
+          <t>Sustainable cocoa initiative; deforestation and forest degradation</t>
         </is>
       </c>
     </row>
@@ -22541,17 +22541,17 @@
       </c>
       <c r="C466" s="3141" t="inlineStr">
         <is>
-          <t>Video conferencing</t>
+          <t xml:space="preserve">Video conferencing </t>
         </is>
       </c>
       <c r="D466" s="3141" t="inlineStr">
         <is>
-          <t>Société Générale</t>
+          <t>Confederazione Generale dell'Industria Italiana</t>
         </is>
       </c>
       <c r="E466" s="3141" t="inlineStr">
         <is>
-          <t>CMU, financial markets regulation</t>
+          <t>RRF, Trade policy</t>
         </is>
       </c>
     </row>
@@ -22805,7 +22805,7 @@
     <row r="476">
       <c r="A476" s="3141" t="inlineStr">
         <is>
-          <t>Andrea Beltramello, Cristina Rueda Catry</t>
+          <t>Cristina Rueda Catry, Andrea Beltramello</t>
         </is>
       </c>
       <c r="B476" s="3138" t="inlineStr">
@@ -22869,17 +22869,17 @@
       </c>
       <c r="C478" s="3141" t="inlineStr">
         <is>
-          <t>video - conference</t>
+          <t>video conference</t>
         </is>
       </c>
       <c r="D478" s="3141" t="inlineStr">
         <is>
-          <t>CMA CGM</t>
+          <t>United Company RUSAL, Federation of Aluminium Consumers in Europe</t>
         </is>
       </c>
       <c r="E478" s="3141" t="inlineStr">
         <is>
-          <t>Trade-related issues for maritime transport; Green Deal</t>
+          <t>Trade and climate</t>
         </is>
       </c>
     </row>
@@ -22896,17 +22896,17 @@
       </c>
       <c r="C479" s="3141" t="inlineStr">
         <is>
-          <t>video conference</t>
+          <t>video - conference</t>
         </is>
       </c>
       <c r="D479" s="3141" t="inlineStr">
         <is>
-          <t>United Company RUSAL, Federation of Aluminium Consumers in Europe</t>
+          <t>CMA CGM</t>
         </is>
       </c>
       <c r="E479" s="3141" t="inlineStr">
         <is>
-          <t>Trade and climate</t>
+          <t>Trade-related issues for maritime transport; Green Deal</t>
         </is>
       </c>
     </row>
@@ -22998,58 +22998,58 @@
     <row r="483">
       <c r="A483" s="3141" t="inlineStr">
         <is>
+          <t>Michael Hager, Cristina Rueda Catry</t>
+        </is>
+      </c>
+      <c r="B483" s="3138" t="inlineStr">
+        <is>
+          <t>25/11/2020</t>
+        </is>
+      </c>
+      <c r="C483" s="3141" t="inlineStr">
+        <is>
+          <t>Video conference</t>
+        </is>
+      </c>
+      <c r="D483" s="3141" t="inlineStr">
+        <is>
+          <t>FoodDrinkEurope, European Liaison Committee for Agriculture and agri-food trade, European farmers, European agri-cooperatives</t>
+        </is>
+      </c>
+      <c r="E483" s="3141" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> EU-US trade relations</t>
+        </is>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" s="3141" t="inlineStr">
+        <is>
           <t>Elina Melngaile</t>
         </is>
       </c>
-      <c r="B483" s="3138" t="inlineStr">
+      <c r="B484" s="3138" t="inlineStr">
         <is>
           <t>25/11/2020</t>
         </is>
       </c>
-      <c r="C483" s="3141" t="inlineStr">
+      <c r="C484" s="3141" t="inlineStr">
         <is>
           <t>Video-conference</t>
         </is>
       </c>
-      <c r="D483" s="3141" t="inlineStr">
+      <c r="D484" s="3141" t="inlineStr">
         <is>
           <t>UPS Europe SRL/BV</t>
         </is>
       </c>
-      <c r="E483" s="3141" t="inlineStr">
+      <c r="E484" s="3141" t="inlineStr">
         <is>
           <t xml:space="preserve">Trade Policy review; EU- US relations; EU-China relations 
  </t>
         </is>
       </c>
     </row>
-    <row r="484">
-      <c r="A484" s="3141" t="inlineStr">
-        <is>
-          <t>Cristina Rueda Catry, Michael Hager</t>
-        </is>
-      </c>
-      <c r="B484" s="3138" t="inlineStr">
-        <is>
-          <t>25/11/2020</t>
-        </is>
-      </c>
-      <c r="C484" s="3141" t="inlineStr">
-        <is>
-          <t>Video conference</t>
-        </is>
-      </c>
-      <c r="D484" s="3141" t="inlineStr">
-        <is>
-          <t>FoodDrinkEurope, European Liaison Committee for Agriculture and agri-food trade, European farmers, European agri-cooperatives</t>
-        </is>
-      </c>
-      <c r="E484" s="3141" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> EU-US trade relations</t>
-        </is>
-      </c>
-    </row>
     <row r="485">
       <c r="A485" s="3141" t="inlineStr">
         <is>
@@ -23443,45 +23443,45 @@
       </c>
       <c r="C499" s="3141" t="inlineStr">
         <is>
+          <t>Video conferencing</t>
+        </is>
+      </c>
+      <c r="D499" s="3141" t="inlineStr">
+        <is>
+          <t>Deutsche Post DHL Group</t>
+        </is>
+      </c>
+      <c r="E499" s="3141" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Industrial policy</t>
+        </is>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" s="3141" t="inlineStr">
+        <is>
+          <t>Michael Hager</t>
+        </is>
+      </c>
+      <c r="B500" s="3138" t="inlineStr">
+        <is>
+          <t>07/10/2020</t>
+        </is>
+      </c>
+      <c r="C500" s="3141" t="inlineStr">
+        <is>
           <t xml:space="preserve">Video conferencing </t>
         </is>
       </c>
-      <c r="D499" s="3141" t="inlineStr">
+      <c r="D500" s="3141" t="inlineStr">
         <is>
           <t>Schneider Electric</t>
         </is>
       </c>
-      <c r="E499" s="3141" t="inlineStr">
+      <c r="E500" s="3141" t="inlineStr">
         <is>
           <t xml:space="preserve">Recovery, Trade Policy
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="500">
-      <c r="A500" s="3141" t="inlineStr">
-        <is>
-          <t>Michael Hager</t>
-        </is>
-      </c>
-      <c r="B500" s="3138" t="inlineStr">
-        <is>
-          <t>07/10/2020</t>
-        </is>
-      </c>
-      <c r="C500" s="3141" t="inlineStr">
-        <is>
-          <t>Video conferencing</t>
-        </is>
-      </c>
-      <c r="D500" s="3141" t="inlineStr">
-        <is>
-          <t>Deutsche Post DHL Group</t>
-        </is>
-      </c>
-      <c r="E500" s="3141" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Industrial policy</t>
         </is>
       </c>
     </row>
@@ -23534,12 +23534,12 @@
       </c>
       <c r="D502" s="3141" t="inlineStr">
         <is>
-          <t>European Aluminium AISBL</t>
+          <t>Wärtsilä Corporation</t>
         </is>
       </c>
       <c r="E502" s="3141" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Sustainable finance taxonomy</t>
+          <t>Sustainable finance taxonomy</t>
         </is>
       </c>
     </row>
@@ -23561,12 +23561,12 @@
       </c>
       <c r="D503" s="3141" t="inlineStr">
         <is>
-          <t>Wärtsilä Corporation</t>
+          <t>European Aluminium AISBL</t>
         </is>
       </c>
       <c r="E503" s="3141" t="inlineStr">
         <is>
-          <t>Sustainable finance taxonomy</t>
+          <t xml:space="preserve"> Sustainable finance taxonomy</t>
         </is>
       </c>
     </row>
@@ -23897,7 +23897,7 @@
     <row r="516">
       <c r="A516" s="3141" t="inlineStr">
         <is>
-          <t>Vanessa Mock, Andrea Beltramello</t>
+          <t>Andrea Beltramello</t>
         </is>
       </c>
       <c r="B516" s="3138" t="inlineStr">
@@ -23912,19 +23912,19 @@
       </c>
       <c r="D516" s="3141" t="inlineStr">
         <is>
-          <t>Confederation of European Waste-to-Energy Plants</t>
+          <t>Euroheat and Power</t>
         </is>
       </c>
       <c r="E516" s="3141" t="inlineStr">
         <is>
-          <t xml:space="preserve">sustainable finance </t>
+          <t xml:space="preserve"> sustainable finance</t>
         </is>
       </c>
     </row>
     <row r="517">
       <c r="A517" s="3141" t="inlineStr">
         <is>
-          <t>Andrea Beltramello</t>
+          <t>Andrea Beltramello, Vanessa Mock</t>
         </is>
       </c>
       <c r="B517" s="3138" t="inlineStr">
@@ -23939,12 +23939,12 @@
       </c>
       <c r="D517" s="3141" t="inlineStr">
         <is>
-          <t>Euroheat and Power</t>
+          <t>Confederation of European Waste-to-Energy Plants</t>
         </is>
       </c>
       <c r="E517" s="3141" t="inlineStr">
         <is>
-          <t xml:space="preserve"> sustainable finance</t>
+          <t xml:space="preserve">sustainable finance </t>
         </is>
       </c>
     </row>
@@ -23966,12 +23966,12 @@
       </c>
       <c r="D518" s="3141" t="inlineStr">
         <is>
-          <t>BVI Bundesverband Investment und Asset Management e.V.</t>
+          <t>American Chamber of Commerce to the European Union</t>
         </is>
       </c>
       <c r="E518" s="3141" t="inlineStr">
         <is>
-          <t>Sustainable finance, review of the Alternative Investment Fund Managers Directive, Regulation on Packaged Retail and Insurance-based investment products</t>
+          <t xml:space="preserve"> sustainable finance </t>
         </is>
       </c>
     </row>
@@ -23993,12 +23993,12 @@
       </c>
       <c r="D519" s="3141" t="inlineStr">
         <is>
-          <t>American Chamber of Commerce to the European Union</t>
+          <t>BVI Bundesverband Investment und Asset Management e.V.</t>
         </is>
       </c>
       <c r="E519" s="3141" t="inlineStr">
         <is>
-          <t xml:space="preserve"> sustainable finance </t>
+          <t>Sustainable finance, review of the Alternative Investment Fund Managers Directive, Regulation on Packaged Retail and Insurance-based investment products</t>
         </is>
       </c>
     </row>
@@ -24020,12 +24020,12 @@
       </c>
       <c r="D520" s="3141" t="inlineStr">
         <is>
-          <t>Alipay (Europe) Limited S.A.</t>
+          <t>Insurance Europe</t>
         </is>
       </c>
       <c r="E520" s="3141" t="inlineStr">
         <is>
-          <t xml:space="preserve"> EU retail payments strategy </t>
+          <t>Packaged Retail and Insurance based investment products regulation</t>
         </is>
       </c>
     </row>
@@ -24047,12 +24047,12 @@
       </c>
       <c r="D521" s="3141" t="inlineStr">
         <is>
-          <t>Insurance Europe</t>
+          <t>Alipay (Europe) Limited S.A.</t>
         </is>
       </c>
       <c r="E521" s="3141" t="inlineStr">
         <is>
-          <t>Packaged Retail and Insurance based investment products regulation</t>
+          <t xml:space="preserve"> EU retail payments strategy </t>
         </is>
       </c>
     </row>
@@ -24264,17 +24264,17 @@
       </c>
       <c r="C529" s="3141" t="inlineStr">
         <is>
-          <t>video-conferencing</t>
+          <t xml:space="preserve">video-conferencing </t>
         </is>
       </c>
       <c r="D529" s="3141" t="inlineStr">
         <is>
-          <t>EnBW Energie Baden-Württemberg AG</t>
+          <t>Verband der Chemischen Industrie e.V.</t>
         </is>
       </c>
       <c r="E529" s="3141" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Taxonomy</t>
+          <t xml:space="preserve"> European Green Deal and the recovery</t>
         </is>
       </c>
     </row>
@@ -24291,17 +24291,17 @@
       </c>
       <c r="C530" s="3141" t="inlineStr">
         <is>
-          <t xml:space="preserve">video-conferencing </t>
+          <t>video-conferencing</t>
         </is>
       </c>
       <c r="D530" s="3141" t="inlineStr">
         <is>
-          <t>Verband der Chemischen Industrie e.V.</t>
+          <t>EnBW Energie Baden-Württemberg AG</t>
         </is>
       </c>
       <c r="E530" s="3141" t="inlineStr">
         <is>
-          <t xml:space="preserve"> European Green Deal and the recovery</t>
+          <t xml:space="preserve"> Taxonomy</t>
         </is>
       </c>
     </row>
@@ -24350,12 +24350,12 @@
       </c>
       <c r="D532" s="3141" t="inlineStr">
         <is>
-          <t>European Federation of Building Societies, BUSINESSEUROPE, SMEunited aisbl, Finance Watch, EUROCHAMBRES – Association of European Chambers of Commerce and Industry, European Association of Public Banks and Funding agencies AISBL, European Retail Financial Forum</t>
+          <t>Insurance Europe</t>
         </is>
       </c>
       <c r="E532" s="3141" t="inlineStr">
         <is>
-          <t xml:space="preserve">COVID-19 relief measures </t>
+          <t xml:space="preserve">Covid-19 economic response, Solvency II, sustainable finance </t>
         </is>
       </c>
     </row>
@@ -24404,7 +24404,7 @@
       </c>
       <c r="D534" s="3141" t="inlineStr">
         <is>
-          <t>Insurance Europe, AGE Platform Europe, European Mortgage Federation - European Covered Bond Council, Association européenne du cautionnement, ACCIS, Confederation of Family Organisations in the European Union, AMICE - Association of Mutual Insurers and Insurance Cooperatives in Europe, European Small Business Alliance</t>
+          <t>European Federation of Building Societies, BUSINESSEUROPE, SMEunited aisbl, Finance Watch, EUROCHAMBRES – Association of European Chambers of Commerce and Industry, European Association of Public Banks and Funding agencies AISBL, European Retail Financial Forum</t>
         </is>
       </c>
       <c r="E534" s="3141" t="inlineStr">
@@ -24431,12 +24431,12 @@
       </c>
       <c r="D535" s="3141" t="inlineStr">
         <is>
-          <t>Insurance Europe</t>
+          <t>Insurance Europe, AGE Platform Europe, European Mortgage Federation - European Covered Bond Council, Association européenne du cautionnement, ACCIS, Confederation of Family Organisations in the European Union, AMICE - Association of Mutual Insurers and Insurance Cooperatives in Europe, European Small Business Alliance</t>
         </is>
       </c>
       <c r="E535" s="3141" t="inlineStr">
         <is>
-          <t xml:space="preserve">Covid-19 economic response, Solvency II, sustainable finance </t>
+          <t xml:space="preserve">COVID-19 relief measures </t>
         </is>
       </c>
     </row>
@@ -24686,7 +24686,7 @@
     <row r="545">
       <c r="A545" s="3141" t="inlineStr">
         <is>
-          <t>Andrea Beltramello</t>
+          <t>Andrea Beltramello, Jérôme Deslandes</t>
         </is>
       </c>
       <c r="B545" s="3138" t="inlineStr">
@@ -24701,19 +24701,19 @@
       </c>
       <c r="D545" s="3141" t="inlineStr">
         <is>
-          <t>Wirtschaftsrat der CDU e.V.</t>
+          <t>Flint Europe</t>
         </is>
       </c>
       <c r="E545" s="3141" t="inlineStr">
         <is>
-          <t>Digital finance</t>
+          <t>Capital Markets Union</t>
         </is>
       </c>
     </row>
     <row r="546">
       <c r="A546" s="3141" t="inlineStr">
         <is>
-          <t>Andrea Beltramello, Jérôme Deslandes</t>
+          <t>Andrea Beltramello</t>
         </is>
       </c>
       <c r="B546" s="3138" t="inlineStr">
@@ -24728,12 +24728,12 @@
       </c>
       <c r="D546" s="3141" t="inlineStr">
         <is>
-          <t>Flint Europe</t>
+          <t>Verband Öffentlicher Versicherer</t>
         </is>
       </c>
       <c r="E546" s="3141" t="inlineStr">
         <is>
-          <t>Capital Markets Union</t>
+          <t>Solvency II, sustainable finance, Pan-European Personal Pension Product</t>
         </is>
       </c>
     </row>
@@ -24782,19 +24782,19 @@
       </c>
       <c r="D548" s="3141" t="inlineStr">
         <is>
-          <t>Verband Öffentlicher Versicherer</t>
+          <t>Wirtschaftsrat der CDU e.V.</t>
         </is>
       </c>
       <c r="E548" s="3141" t="inlineStr">
         <is>
-          <t>Solvency II, sustainable finance, Pan-European Personal Pension Product</t>
+          <t>Digital finance</t>
         </is>
       </c>
     </row>
     <row r="549">
       <c r="A549" s="3141" t="inlineStr">
         <is>
-          <t>Andrea Beltramello</t>
+          <t>Jérôme Deslandes</t>
         </is>
       </c>
       <c r="B549" s="3138" t="inlineStr">
@@ -24809,19 +24809,19 @@
       </c>
       <c r="D549" s="3141" t="inlineStr">
         <is>
-          <t>Euronext</t>
+          <t>Ernst &amp; Young Core Business Services BV</t>
         </is>
       </c>
       <c r="E549" s="3141" t="inlineStr">
         <is>
-          <t>Capital Markets Union, Markets in Financial Instruments Directive (MiFID II)</t>
+          <t xml:space="preserve">Anti money laundering framework in the EU; Role of auditors in terms of Anti money laundering </t>
         </is>
       </c>
     </row>
     <row r="550">
       <c r="A550" s="3141" t="inlineStr">
         <is>
-          <t>Sofja Ribkina</t>
+          <t>Andrea Beltramello</t>
         </is>
       </c>
       <c r="B550" s="3138" t="inlineStr">
@@ -24836,19 +24836,19 @@
       </c>
       <c r="D550" s="3141" t="inlineStr">
         <is>
-          <t>Bundesverband der Deutschen Industrie e.V.</t>
+          <t>Euronext</t>
         </is>
       </c>
       <c r="E550" s="3141" t="inlineStr">
         <is>
-          <t>Sustainable Europe Investment Plan; Taxonomy</t>
+          <t>Capital Markets Union, Markets in Financial Instruments Directive (MiFID II)</t>
         </is>
       </c>
     </row>
     <row r="551">
       <c r="A551" s="3141" t="inlineStr">
         <is>
-          <t>Jérôme Deslandes</t>
+          <t>Sofja Ribkina</t>
         </is>
       </c>
       <c r="B551" s="3138" t="inlineStr">
@@ -24863,19 +24863,19 @@
       </c>
       <c r="D551" s="3141" t="inlineStr">
         <is>
-          <t>Ernst &amp; Young Core Business Services BV</t>
+          <t>Bundesverband der Deutschen Industrie e.V.</t>
         </is>
       </c>
       <c r="E551" s="3141" t="inlineStr">
         <is>
-          <t xml:space="preserve">Anti money laundering framework in the EU; Role of auditors in terms of Anti money laundering </t>
+          <t>Sustainable Europe Investment Plan; Taxonomy</t>
         </is>
       </c>
     </row>
     <row r="552">
       <c r="A552" s="3141" t="inlineStr">
         <is>
-          <t>Jérôme Deslandes</t>
+          <t>Andrea Beltramello</t>
         </is>
       </c>
       <c r="B552" s="3138" t="inlineStr">
@@ -24890,19 +24890,19 @@
       </c>
       <c r="D552" s="3141" t="inlineStr">
         <is>
-          <t>Banco Santander, S.A.</t>
+          <t>SMEunited aisbl</t>
         </is>
       </c>
       <c r="E552" s="3141" t="inlineStr">
         <is>
-          <t>Basel III implementation with particular focus on operational risk;	Resolution strategy for “multiple point of entry” model</t>
+          <t>SME Strategy, Capital Markets Union</t>
         </is>
       </c>
     </row>
     <row r="553">
       <c r="A553" s="3141" t="inlineStr">
         <is>
-          <t>Andrea Beltramello</t>
+          <t>Jérôme Deslandes</t>
         </is>
       </c>
       <c r="B553" s="3138" t="inlineStr">
@@ -24917,12 +24917,12 @@
       </c>
       <c r="D553" s="3141" t="inlineStr">
         <is>
-          <t>SMEunited aisbl</t>
+          <t>Banco Santander, S.A.</t>
         </is>
       </c>
       <c r="E553" s="3141" t="inlineStr">
         <is>
-          <t>SME Strategy, Capital Markets Union</t>
+          <t>Basel III implementation with particular focus on operational risk;	Resolution strategy for “multiple point of entry” model</t>
         </is>
       </c>
     </row>
@@ -24956,7 +24956,7 @@
     <row r="555">
       <c r="A555" s="3141" t="inlineStr">
         <is>
-          <t>Mirzha De Manuel, Jérôme Deslandes</t>
+          <t>Jérôme Deslandes, Mirzha De Manuel</t>
         </is>
       </c>
       <c r="B555" s="3138" t="inlineStr">
@@ -25092,7 +25092,7 @@
     <row r="560">
       <c r="A560" s="3141" t="inlineStr">
         <is>
-          <t>Andrea Beltramello, Zaneta Vegnere</t>
+          <t>Zaneta Vegnere, Andrea Beltramello</t>
         </is>
       </c>
       <c r="B560" s="3138" t="inlineStr">
@@ -25173,7 +25173,7 @@
     <row r="563">
       <c r="A563" s="3141" t="inlineStr">
         <is>
-          <t>Andrea Beltramello</t>
+          <t>Mirzha De Manuel</t>
         </is>
       </c>
       <c r="B563" s="3138" t="inlineStr">
@@ -25188,19 +25188,19 @@
       </c>
       <c r="D563" s="3141" t="inlineStr">
         <is>
-          <t>European Banking Federation</t>
+          <t>Institute of International Finance</t>
         </is>
       </c>
       <c r="E563" s="3141" t="inlineStr">
         <is>
-          <t>Basel III, Banking Union, Anti-money laundering, Payments</t>
+          <t xml:space="preserve">Meeting IIF Deputy Chief Economist on their research agenda and topics of common interest. </t>
         </is>
       </c>
     </row>
     <row r="564">
       <c r="A564" s="3141" t="inlineStr">
         <is>
-          <t>Andrea Beltramello</t>
+          <t>Michael Hager, Jérôme Deslandes</t>
         </is>
       </c>
       <c r="B564" s="3138" t="inlineStr">
@@ -25215,19 +25215,19 @@
       </c>
       <c r="D564" s="3141" t="inlineStr">
         <is>
-          <t>Intesa Sanpaolo</t>
+          <t>Svenska Handelsbanken AB</t>
         </is>
       </c>
       <c r="E564" s="3141" t="inlineStr">
         <is>
-          <t>Payments</t>
+          <t>Presentation of Handelsbanken's position on Basel III</t>
         </is>
       </c>
     </row>
     <row r="565">
       <c r="A565" s="3141" t="inlineStr">
         <is>
-          <t>Andrea Beltramello</t>
+          <t>Michael Hager, Jérôme Deslandes</t>
         </is>
       </c>
       <c r="B565" s="3138" t="inlineStr">
@@ -25242,19 +25242,19 @@
       </c>
       <c r="D565" s="3141" t="inlineStr">
         <is>
-          <t>JPMorgan Chase &amp; Co.</t>
+          <t>Deutsche Bank AG</t>
         </is>
       </c>
       <c r="E565" s="3141" t="inlineStr">
         <is>
-          <t>sustainable finance</t>
+          <t>EU regulatory framework for banks; Basel III; Capital Markets Union</t>
         </is>
       </c>
     </row>
     <row r="566">
       <c r="A566" s="3141" t="inlineStr">
         <is>
-          <t>Michael Hager, Jérôme Deslandes</t>
+          <t>Andrea Beltramello</t>
         </is>
       </c>
       <c r="B566" s="3138" t="inlineStr">
@@ -25269,19 +25269,19 @@
       </c>
       <c r="D566" s="3141" t="inlineStr">
         <is>
-          <t>Deutsche Bank AG</t>
+          <t>Intesa Sanpaolo</t>
         </is>
       </c>
       <c r="E566" s="3141" t="inlineStr">
         <is>
-          <t>EU regulatory framework for banks; Basel III; Capital Markets Union</t>
+          <t>Payments</t>
         </is>
       </c>
     </row>
     <row r="567">
       <c r="A567" s="3141" t="inlineStr">
         <is>
-          <t>Mirzha De Manuel</t>
+          <t>Andrea Beltramello</t>
         </is>
       </c>
       <c r="B567" s="3138" t="inlineStr">
@@ -25296,19 +25296,19 @@
       </c>
       <c r="D567" s="3141" t="inlineStr">
         <is>
-          <t>Institute of International Finance</t>
+          <t>European Banking Federation</t>
         </is>
       </c>
       <c r="E567" s="3141" t="inlineStr">
         <is>
-          <t xml:space="preserve">Meeting IIF Deputy Chief Economist on their research agenda and topics of common interest. </t>
+          <t>Basel III, Banking Union, Anti-money laundering, Payments</t>
         </is>
       </c>
     </row>
     <row r="568">
       <c r="A568" s="3141" t="inlineStr">
         <is>
-          <t>Jérôme Deslandes, Michael Hager</t>
+          <t>Andrea Beltramello</t>
         </is>
       </c>
       <c r="B568" s="3138" t="inlineStr">
@@ -25323,19 +25323,19 @@
       </c>
       <c r="D568" s="3141" t="inlineStr">
         <is>
-          <t>Svenska Handelsbanken AB</t>
+          <t>JPMorgan Chase &amp; Co.</t>
         </is>
       </c>
       <c r="E568" s="3141" t="inlineStr">
         <is>
-          <t>Presentation of Handelsbanken's position on Basel III</t>
+          <t>sustainable finance</t>
         </is>
       </c>
     </row>
     <row r="569">
       <c r="A569" s="3141" t="inlineStr">
         <is>
-          <t>Elina Melngaile</t>
+          <t>Jérôme Deslandes</t>
         </is>
       </c>
       <c r="B569" s="3138" t="inlineStr">
@@ -25350,12 +25350,12 @@
       </c>
       <c r="D569" s="3141" t="inlineStr">
         <is>
-          <t>European American Chamber of Commerce New York</t>
+          <t>Bundesverband deutscher Banken e.V.</t>
         </is>
       </c>
       <c r="E569" s="3141" t="inlineStr">
         <is>
-          <t xml:space="preserve">New Commissions political priorities, including the green deal, digitalisation and industrial strategy; EU – US trade negotiations; Impact of Brexit on economy </t>
+          <t xml:space="preserve">Presentation of German Banks’ position on Basel III </t>
         </is>
       </c>
     </row>
@@ -25377,19 +25377,19 @@
       </c>
       <c r="D570" s="3141" t="inlineStr">
         <is>
-          <t>Bundesverband deutscher Banken e.V.</t>
+          <t>BPCE</t>
         </is>
       </c>
       <c r="E570" s="3141" t="inlineStr">
         <is>
-          <t xml:space="preserve">Presentation of German Banks’ position on Basel III </t>
+          <t>Specificities of mutuals in banking regulation and Basel III</t>
         </is>
       </c>
     </row>
     <row r="571">
       <c r="A571" s="3141" t="inlineStr">
         <is>
-          <t>Jérôme Deslandes</t>
+          <t>Elina Melngaile</t>
         </is>
       </c>
       <c r="B571" s="3138" t="inlineStr">
@@ -25404,12 +25404,12 @@
       </c>
       <c r="D571" s="3141" t="inlineStr">
         <is>
-          <t>BPCE</t>
+          <t>European American Chamber of Commerce New York</t>
         </is>
       </c>
       <c r="E571" s="3141" t="inlineStr">
         <is>
-          <t>Specificities of mutuals in banking regulation and Basel III</t>
+          <t xml:space="preserve">New Commissions political priorities, including the green deal, digitalisation and industrial strategy; EU – US trade negotiations; Impact of Brexit on economy </t>
         </is>
       </c>
     </row>
@@ -25551,7 +25551,7 @@
     <row r="577">
       <c r="A577" s="3141" t="inlineStr">
         <is>
-          <t>Andrea Beltramello</t>
+          <t>Michael Hager</t>
         </is>
       </c>
       <c r="B577" s="3138" t="inlineStr">
@@ -25561,17 +25561,17 @@
       </c>
       <c r="C577" s="3141" t="inlineStr">
         <is>
-          <t>Brussels, Belgium</t>
+          <t>Brussels</t>
         </is>
       </c>
       <c r="D577" s="3141" t="inlineStr">
         <is>
-          <t>Italian Banking, Insurance and Finance Federation</t>
+          <t>Bundesverband der Deutschen Tourismuswirtschaft e. V.</t>
         </is>
       </c>
       <c r="E577" s="3141" t="inlineStr">
         <is>
-          <t>SUSTAINABLE FINANCE, DIGITAL FINANCE, Capital markets union</t>
+          <t>Priorities of the Commission related to tourism</t>
         </is>
       </c>
     </row>
@@ -25593,19 +25593,19 @@
       </c>
       <c r="D578" s="3141" t="inlineStr">
         <is>
-          <t>FTI Consulting Belgium, Payments Europe</t>
+          <t>Italian Banking, Insurance and Finance Federation</t>
         </is>
       </c>
       <c r="E578" s="3141" t="inlineStr">
         <is>
-          <t>PAYMENTS STRATEGY</t>
+          <t>SUSTAINABLE FINANCE, DIGITAL FINANCE, Capital markets union</t>
         </is>
       </c>
     </row>
     <row r="579">
       <c r="A579" s="3141" t="inlineStr">
         <is>
-          <t>Michael Hager</t>
+          <t>Andrea Beltramello</t>
         </is>
       </c>
       <c r="B579" s="3138" t="inlineStr">
@@ -25615,17 +25615,17 @@
       </c>
       <c r="C579" s="3141" t="inlineStr">
         <is>
-          <t>Brussels</t>
+          <t>Brussels, Belgium</t>
         </is>
       </c>
       <c r="D579" s="3141" t="inlineStr">
         <is>
-          <t>Bundesverband der Deutschen Tourismuswirtschaft e. V.</t>
+          <t>FTI Consulting Belgium, Payments Europe</t>
         </is>
       </c>
       <c r="E579" s="3141" t="inlineStr">
         <is>
-          <t>Priorities of the Commission related to tourism</t>
+          <t>PAYMENTS STRATEGY</t>
         </is>
       </c>
     </row>
@@ -25686,7 +25686,7 @@
     <row r="582">
       <c r="A582" s="3141" t="inlineStr">
         <is>
-          <t>Vanessa Mock, Jérôme Deslandes</t>
+          <t>Jérôme Deslandes, Vanessa Mock</t>
         </is>
       </c>
       <c r="B582" s="3138" t="inlineStr">
@@ -25713,7 +25713,7 @@
     <row r="583">
       <c r="A583" s="3141" t="inlineStr">
         <is>
-          <t>Andrea Beltramello, Zaneta Vegnere</t>
+          <t>Zaneta Vegnere, Andrea Beltramello</t>
         </is>
       </c>
       <c r="B583" s="3138" t="inlineStr">
@@ -25767,7 +25767,7 @@
     <row r="585">
       <c r="A585" s="3141" t="inlineStr">
         <is>
-          <t>Jérôme Deslandes, Vanessa Mock</t>
+          <t>Michael Hager</t>
         </is>
       </c>
       <c r="B585" s="3138" t="inlineStr">
@@ -25777,52 +25777,52 @@
       </c>
       <c r="C585" s="3141" t="inlineStr">
         <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="D585" s="3141" t="inlineStr">
+        <is>
+          <t>Bundesverband deutscher Banken e.V.</t>
+        </is>
+      </c>
+      <c r="E585" s="3141" t="inlineStr">
+        <is>
+          <t>Banking Union, Capital Markets Union</t>
+        </is>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" s="3141" t="inlineStr">
+        <is>
+          <t>Vanessa Mock, Jérôme Deslandes</t>
+        </is>
+      </c>
+      <c r="B586" s="3138" t="inlineStr">
+        <is>
+          <t>06/02/2020</t>
+        </is>
+      </c>
+      <c r="C586" s="3141" t="inlineStr">
+        <is>
           <t>Paris, France</t>
         </is>
       </c>
-      <c r="D585" s="3141" t="inlineStr">
+      <c r="D586" s="3141" t="inlineStr">
         <is>
           <t>ALAN</t>
         </is>
       </c>
-      <c r="E585" s="3141" t="inlineStr">
+      <c r="E586" s="3141" t="inlineStr">
         <is>
           <t xml:space="preserve">FinTech action; The revised Payment Services Directive; Innovation/ digitalization; Insurance sector
  </t>
         </is>
       </c>
     </row>
-    <row r="586">
-      <c r="A586" s="3141" t="inlineStr">
-        <is>
-          <t>Gints Freimanis, Andrea Beltramello</t>
-        </is>
-      </c>
-      <c r="B586" s="3138" t="inlineStr">
-        <is>
-          <t>06/02/2020</t>
-        </is>
-      </c>
-      <c r="C586" s="3141" t="inlineStr">
-        <is>
-          <t>Brussels, Belgium</t>
-        </is>
-      </c>
-      <c r="D586" s="3141" t="inlineStr">
-        <is>
-          <t>Polenergia S.A.</t>
-        </is>
-      </c>
-      <c r="E586" s="3141" t="inlineStr">
-        <is>
-          <t>Energy Union</t>
-        </is>
-      </c>
-    </row>
     <row r="587">
       <c r="A587" s="3141" t="inlineStr">
         <is>
-          <t>Zaneta Vegnere</t>
+          <t>Andrea Beltramello</t>
         </is>
       </c>
       <c r="B587" s="3138" t="inlineStr">
@@ -25832,24 +25832,24 @@
       </c>
       <c r="C587" s="3141" t="inlineStr">
         <is>
-          <t>Brussels</t>
+          <t>Brussels, Belgium</t>
         </is>
       </c>
       <c r="D587" s="3141" t="inlineStr">
         <is>
-          <t>UNIFE</t>
+          <t>Bundesverband deutscher Banken e.V.</t>
         </is>
       </c>
       <c r="E587" s="3141" t="inlineStr">
         <is>
-          <t xml:space="preserve">EU industry strategy and follow-up to the strategy / Indust / issues linked to the global competition </t>
+          <t>DIGITAL FINANCE</t>
         </is>
       </c>
     </row>
     <row r="588">
       <c r="A588" s="3141" t="inlineStr">
         <is>
-          <t>Michael Hager</t>
+          <t>Andrea Beltramello, Gints Freimanis</t>
         </is>
       </c>
       <c r="B588" s="3138" t="inlineStr">
@@ -25859,17 +25859,17 @@
       </c>
       <c r="C588" s="3141" t="inlineStr">
         <is>
-          <t>Brussels</t>
+          <t>Brussels, Belgium</t>
         </is>
       </c>
       <c r="D588" s="3141" t="inlineStr">
         <is>
-          <t>Bundesverband deutscher Banken e.V.</t>
+          <t>Polenergia S.A.</t>
         </is>
       </c>
       <c r="E588" s="3141" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Capital requirements, FINTECH</t>
+          <t>Energy Union</t>
         </is>
       </c>
     </row>
@@ -25923,14 +25923,14 @@
       </c>
       <c r="E590" s="3141" t="inlineStr">
         <is>
-          <t>Banking Union, Capital Markets Union</t>
+          <t xml:space="preserve"> Capital requirements, FINTECH</t>
         </is>
       </c>
     </row>
     <row r="591">
       <c r="A591" s="3141" t="inlineStr">
         <is>
-          <t>Andrea Beltramello</t>
+          <t>Zaneta Vegnere</t>
         </is>
       </c>
       <c r="B591" s="3138" t="inlineStr">
@@ -25940,24 +25940,24 @@
       </c>
       <c r="C591" s="3141" t="inlineStr">
         <is>
-          <t>Brussels, Belgium</t>
+          <t>Brussels</t>
         </is>
       </c>
       <c r="D591" s="3141" t="inlineStr">
         <is>
-          <t>Bundesverband deutscher Banken e.V.</t>
+          <t>UNIFE</t>
         </is>
       </c>
       <c r="E591" s="3141" t="inlineStr">
         <is>
-          <t>DIGITAL FINANCE</t>
+          <t xml:space="preserve">EU industry strategy and follow-up to the strategy / Indust / issues linked to the global competition </t>
         </is>
       </c>
     </row>
     <row r="592">
       <c r="A592" s="3141" t="inlineStr">
         <is>
-          <t>Vanessa Mock, Jérôme Deslandes</t>
+          <t>Sofja Ribkina</t>
         </is>
       </c>
       <c r="B592" s="3138" t="inlineStr">
@@ -25967,24 +25967,24 @@
       </c>
       <c r="C592" s="3141" t="inlineStr">
         <is>
-          <t>Paris, France</t>
+          <t>Brussels</t>
         </is>
       </c>
       <c r="D592" s="3141" t="inlineStr">
         <is>
-          <t>Association Française des Entreprises Privées / French Association of Large Companies</t>
+          <t>CEE Bankwatch Network</t>
         </is>
       </c>
       <c r="E592" s="3141" t="inlineStr">
         <is>
-          <t>Sustainable finance; Future of Capital Markets Union; Protection of intra-EU investments; Competitiveness of European businesses</t>
+          <t>Sustainable Europe Investment Plan and Just Transition Mechanism</t>
         </is>
       </c>
     </row>
     <row r="593">
       <c r="A593" s="3141" t="inlineStr">
         <is>
-          <t>Sofja Ribkina</t>
+          <t>Vanessa Mock, Jérôme Deslandes</t>
         </is>
       </c>
       <c r="B593" s="3138" t="inlineStr">
@@ -25994,17 +25994,17 @@
       </c>
       <c r="C593" s="3141" t="inlineStr">
         <is>
-          <t>Brussels</t>
+          <t>Paris, France</t>
         </is>
       </c>
       <c r="D593" s="3141" t="inlineStr">
         <is>
-          <t>CEE Bankwatch Network</t>
+          <t>Association Française des Entreprises Privées / French Association of Large Companies</t>
         </is>
       </c>
       <c r="E593" s="3141" t="inlineStr">
         <is>
-          <t>Sustainable Europe Investment Plan and Just Transition Mechanism</t>
+          <t>Sustainable finance; Future of Capital Markets Union; Protection of intra-EU investments; Competitiveness of European businesses</t>
         </is>
       </c>
     </row>
@@ -26146,7 +26146,7 @@
     <row r="599">
       <c r="A599" s="3141" t="inlineStr">
         <is>
-          <t>Jérôme Deslandes, Michael Hager</t>
+          <t>Andrea Beltramello</t>
         </is>
       </c>
       <c r="B599" s="3138" t="inlineStr">
@@ -26156,17 +26156,17 @@
       </c>
       <c r="C599" s="3141" t="inlineStr">
         <is>
-          <t>Brussels</t>
+          <t>Rome</t>
         </is>
       </c>
       <c r="D599" s="3141" t="inlineStr">
         <is>
-          <t>Banco Santander, S.A.</t>
+          <t>Unione Italiana del Lavoro, Confederazione Generale Italiana del Lavoro</t>
         </is>
       </c>
       <c r="E599" s="3141" t="inlineStr">
         <is>
-          <t>-Discussion of Multiple Point of Entry Resolution strategy; Basel III’s approach to operational risk</t>
+          <t>Social Europe, consultation on fair minimum wage, European semester</t>
         </is>
       </c>
     </row>
@@ -26188,19 +26188,19 @@
       </c>
       <c r="D600" s="3141" t="inlineStr">
         <is>
-          <t>Unione Italiana del Lavoro, Confederazione Generale Italiana del Lavoro</t>
+          <t>Confederazione Generale dell'Industria Italiana</t>
         </is>
       </c>
       <c r="E600" s="3141" t="inlineStr">
         <is>
-          <t>Social Europe, consultation on fair minimum wage, European semester</t>
+          <t>Industry strategy, SME strategy, European Green Deal Investment Plan</t>
         </is>
       </c>
     </row>
     <row r="601">
       <c r="A601" s="3141" t="inlineStr">
         <is>
-          <t>Andrea Beltramello</t>
+          <t>Jérôme Deslandes, Michael Hager</t>
         </is>
       </c>
       <c r="B601" s="3138" t="inlineStr">
@@ -26210,17 +26210,17 @@
       </c>
       <c r="C601" s="3141" t="inlineStr">
         <is>
-          <t>Rome</t>
+          <t>Brussels</t>
         </is>
       </c>
       <c r="D601" s="3141" t="inlineStr">
         <is>
-          <t>Confederazione Generale dell'Industria Italiana</t>
+          <t>Banco Santander, S.A.</t>
         </is>
       </c>
       <c r="E601" s="3141" t="inlineStr">
         <is>
-          <t>Industry strategy, SME strategy, European Green Deal Investment Plan</t>
+          <t>-Discussion of Multiple Point of Entry Resolution strategy; Basel III’s approach to operational risk</t>
         </is>
       </c>
     </row>
@@ -26281,7 +26281,7 @@
     <row r="604">
       <c r="A604" s="3141" t="inlineStr">
         <is>
-          <t>Jérôme Deslandes</t>
+          <t>Andrea Beltramello, Vanessa Mock</t>
         </is>
       </c>
       <c r="B604" s="3138" t="inlineStr">
@@ -26296,19 +26296,19 @@
       </c>
       <c r="D604" s="3141" t="inlineStr">
         <is>
-          <t>Associazione Bancaria Italiana</t>
+          <t>Institut der Wirtschaftsprüfer in Deutschland e.V.</t>
         </is>
       </c>
       <c r="E604" s="3141" t="inlineStr">
         <is>
-          <t xml:space="preserve">Economic situation in Italy; Discussion on Basel III with a particular focus on SMEs and green investment </t>
+          <t>Audit</t>
         </is>
       </c>
     </row>
     <row r="605">
       <c r="A605" s="3141" t="inlineStr">
         <is>
-          <t>Vanessa Mock, Andrea Beltramello</t>
+          <t>Jérôme Deslandes</t>
         </is>
       </c>
       <c r="B605" s="3138" t="inlineStr">
@@ -26323,19 +26323,19 @@
       </c>
       <c r="D605" s="3141" t="inlineStr">
         <is>
-          <t>Institut der Wirtschaftsprüfer in Deutschland e.V.</t>
+          <t>The Alternative Investment Management Association Limited</t>
         </is>
       </c>
       <c r="E605" s="3141" t="inlineStr">
         <is>
-          <t>Audit</t>
+          <t>-	Presentation of the Alternative credit council report and discussion about the existing regulatory framework in the EU (national regimes and ELTIF); -	Discussion about economic situation, leveraged loans and macro-prudential policy</t>
         </is>
       </c>
     </row>
     <row r="606">
       <c r="A606" s="3141" t="inlineStr">
         <is>
-          <t>Jérôme Deslandes</t>
+          <t>Vanessa Mock</t>
         </is>
       </c>
       <c r="B606" s="3138" t="inlineStr">
@@ -26345,17 +26345,17 @@
       </c>
       <c r="C606" s="3141" t="inlineStr">
         <is>
-          <t>Brussels, Belgium</t>
+          <t>Brussels</t>
         </is>
       </c>
       <c r="D606" s="3141" t="inlineStr">
         <is>
-          <t>JPMorgan Chase &amp; Co.</t>
+          <t>Stichting European Climate Foundation</t>
         </is>
       </c>
       <c r="E606" s="3141" t="inlineStr">
         <is>
-          <t>Key priorities of JP Morgan with respect to a possible new EU AML supervisory architecture (directly applicable rules, single rule book and guidance, supervisory methodology and risk assessment); Discussion on public private partnership in the field of AML</t>
+          <t xml:space="preserve"> Green Deal</t>
         </is>
       </c>
     </row>
@@ -26377,19 +26377,19 @@
       </c>
       <c r="D607" s="3141" t="inlineStr">
         <is>
-          <t>The Alternative Investment Management Association Limited</t>
+          <t>Associazione Bancaria Italiana</t>
         </is>
       </c>
       <c r="E607" s="3141" t="inlineStr">
         <is>
-          <t>-	Presentation of the Alternative credit council report and discussion about the existing regulatory framework in the EU (national regimes and ELTIF); -	Discussion about economic situation, leveraged loans and macro-prudential policy</t>
+          <t xml:space="preserve">Economic situation in Italy; Discussion on Basel III with a particular focus on SMEs and green investment </t>
         </is>
       </c>
     </row>
     <row r="608">
       <c r="A608" s="3141" t="inlineStr">
         <is>
-          <t>Vanessa Mock</t>
+          <t>Jérôme Deslandes</t>
         </is>
       </c>
       <c r="B608" s="3138" t="inlineStr">
@@ -26399,17 +26399,17 @@
       </c>
       <c r="C608" s="3141" t="inlineStr">
         <is>
-          <t>Brussels</t>
+          <t>Brussels, Belgium</t>
         </is>
       </c>
       <c r="D608" s="3141" t="inlineStr">
         <is>
-          <t>Stichting European Climate Foundation</t>
+          <t>JPMorgan Chase &amp; Co.</t>
         </is>
       </c>
       <c r="E608" s="3141" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Green Deal</t>
+          <t>Key priorities of JP Morgan with respect to a possible new EU AML supervisory architecture (directly applicable rules, single rule book and guidance, supervisory methodology and risk assessment); Discussion on public private partnership in the field of AML</t>
         </is>
       </c>
     </row>
@@ -26443,7 +26443,7 @@
     <row r="610">
       <c r="A610" s="3141" t="inlineStr">
         <is>
-          <t>Andrea Beltramello</t>
+          <t>Elina Melngaile, Ruth Paserman</t>
         </is>
       </c>
       <c r="B610" s="3138" t="inlineStr">
@@ -26453,24 +26453,24 @@
       </c>
       <c r="C610" s="3141" t="inlineStr">
         <is>
-          <t>Brussels, Belgium</t>
+          <t>Brussels</t>
         </is>
       </c>
       <c r="D610" s="3141" t="inlineStr">
         <is>
-          <t>abrdn plc</t>
+          <t>BUSINESSEUROPE</t>
         </is>
       </c>
       <c r="E610" s="3141" t="inlineStr">
         <is>
-          <t>Brexit</t>
+          <t>EU - China Strategy, Development Cooperation</t>
         </is>
       </c>
     </row>
     <row r="611">
       <c r="A611" s="3141" t="inlineStr">
         <is>
-          <t>Elina Melngaile, Ruth Paserman</t>
+          <t>Ruth Paserman</t>
         </is>
       </c>
       <c r="B611" s="3138" t="inlineStr">
@@ -26485,12 +26485,12 @@
       </c>
       <c r="D611" s="3141" t="inlineStr">
         <is>
-          <t>BUSINESSEUROPE</t>
+          <t>European Federation of National Organisations working with the Homeless</t>
         </is>
       </c>
       <c r="E611" s="3141" t="inlineStr">
         <is>
-          <t>EU - China Strategy, Development Cooperation</t>
+          <t>Homelessness</t>
         </is>
       </c>
     </row>
@@ -26512,19 +26512,19 @@
       </c>
       <c r="D612" s="3141" t="inlineStr">
         <is>
-          <t>Industrie- und Handelskammer für München und Oberbayern</t>
+          <t>abrdn plc</t>
         </is>
       </c>
       <c r="E612" s="3141" t="inlineStr">
         <is>
-          <t>Sustainable finance</t>
+          <t>Brexit</t>
         </is>
       </c>
     </row>
     <row r="613">
       <c r="A613" s="3141" t="inlineStr">
         <is>
-          <t>Jérôme Deslandes, Michael Hager</t>
+          <t>Andrea Beltramello</t>
         </is>
       </c>
       <c r="B613" s="3138" t="inlineStr">
@@ -26539,19 +26539,19 @@
       </c>
       <c r="D613" s="3141" t="inlineStr">
         <is>
-          <t>Crédit Agricole S.A., BNP PARIBAS, LA POSTE, Fédération bancaire française, BPCE, Société Générale</t>
+          <t>Industrie- und Handelskammer für München und Oberbayern</t>
         </is>
       </c>
       <c r="E613" s="3141" t="inlineStr">
         <is>
-          <t>Implementation of Basel III; Banking Union; Deposit Guarantee Scheme</t>
+          <t>Sustainable finance</t>
         </is>
       </c>
     </row>
     <row r="614">
       <c r="A614" s="3141" t="inlineStr">
         <is>
-          <t>Ruth Paserman</t>
+          <t>Michael Hager, Jérôme Deslandes</t>
         </is>
       </c>
       <c r="B614" s="3138" t="inlineStr">
@@ -26561,17 +26561,17 @@
       </c>
       <c r="C614" s="3141" t="inlineStr">
         <is>
-          <t>Brussels</t>
+          <t>Brussels, Belgium</t>
         </is>
       </c>
       <c r="D614" s="3141" t="inlineStr">
         <is>
-          <t>European Federation of National Organisations working with the Homeless</t>
+          <t>Crédit Agricole S.A., BNP PARIBAS, LA POSTE, Fédération bancaire française, BPCE, Société Générale</t>
         </is>
       </c>
       <c r="E614" s="3141" t="inlineStr">
         <is>
-          <t>Homelessness</t>
+          <t>Implementation of Basel III; Banking Union; Deposit Guarantee Scheme</t>
         </is>
       </c>
     </row>
